--- a/Backend/kite/bin/main/static/article_data.xlsx
+++ b/Backend/kite/bin/main/static/article_data.xlsx
@@ -2157,9 +2157,411 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085444001.01.jpg" alt="CJ제일제당 ‘비비고’ 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/28/07100501.20200128103859001.01.jpg" alt="CJ제일제당 비비고 설 명절 맞아 뉴요커에 만두 빚기 전수" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/01/28/07100501.20200128103859001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg" alt="CJ제일제당 햇반 30억개 팔렸다...쌀 400만 가마니 분량" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203133012001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 '벽걸이 무풍·콘솔에어컨' 선보여" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203133012001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2020/02/03/02100701.20200203111020001.01.jpg" alt="삼성전자 2020 AHR 엑스포서 혁신 공조 솔루션 선봬" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100701/2020/02/03/02100701.20200203111020001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203103028001.01.jpg" alt="정칠희 삼성전자 고문 KAIST 총동문회장 선임" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203103028001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203101509001.01.jpg" alt="삼성전자 북미 최대 공조전시회 'AHR엑스포' 참가" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203101509001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203054123001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/01/31/01100611.20200131120335001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100851/2020/01/23/02100851.20200123082202001.01.jpg" alt="김기태 GS칼텍스 사장 &amp;quot;주유소 라이프 스타일의 플랫폼으로 성장 할 것&amp;quot;" class="img-responsive"&gt;
+          &lt;/div&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100851/2020/01/23/02100851.20200123082202001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg" alt="[클릭 e종목]“GS 올해 GS칼텍스 실적 호전될 것”" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg" alt="GS칼텍스 “여수시 충무동 벽화골목에 어린이 역사체험 타일벽화 설치”" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg" alt="CJ푸드빌 제일제면소 LG전자와 손잡고 '미래형 스마트 매장' 도입" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/02/07100501.20200202170318001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg" alt="'취임 8개월 동안 9차례'…사회공헌 적극적인 알 카타니 S-OIL 사장" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg" alt="S-OIL 설맞이 건강떡국 나눔행사 실시" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
           &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
+          &lt;/div&gt;
+        S-OIL(대표 후세인 알 카타니)이 울산·동대구 KTX역과 서울 코엑스에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt;&lt;br&gt;연말·연시를 맞아 유동인구가 많은 곳에 구도일패밀리 트리를 설치해 가족 단위 방문객들에게 특별한 볼거리와 새해 희망을 전한다. &lt;br&gt;&lt;br&gt;S-OIL은 코레일과 함께 새해 1월 10일까지 울산·동대구 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 특히 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증 이벤트'가 내년 1월 9일까지 진행된다. &lt;br&gt;&lt;br&gt;또 코엑스 윈터페스티벌(12.20~12.31)과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. &lt;br&gt;&lt;br&gt;코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소에는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 있어 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 '으라차차 댄스 이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt;&lt;br&gt;S-OIL 관계자는 "&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;"고 밝혔다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
+          &lt;/div&gt;
+        먼저 S-OIL은 코엑스윈 터페스티벌과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. 28일에는 '으라차차 댄스이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터상품 등을 제공한다. &lt;br&gt;&lt;br&gt;또 코레일과 함께 새해 1월10일까지 동대구와 울산KTX역에서 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증이벤트'가 내년 1월9일까지 진행된다. 이형중기자lhj@ksilbo.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
+          &lt;/div&gt;
+        [헤럴드경제(울산)=이경길 기자] S-OIL(대표 후세인 알 카타니)이 서울 코엑스와 동대구·울산 KTX역에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt; &lt;br&gt; S-OIL은 24일 코엑스 윈터페스티벌(12.20~12.31)과 연계해 ‘좋은 기름으로 으라차차’ S-OIL 희망충전소를 운영한다고 밝혔다. &lt;br&gt; &lt;br&gt; 코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. &lt;br&gt; &lt;br&gt; 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 ‘으라차차 댄스 이벤트’가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt; &lt;br&gt; 또한 코레일과 함께 새해 1월10일까지 동대구·울산 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 ‘구도일패밀리 트리 SNS 인증 이벤트’가 내년 1월 9일까지 진행된다. &lt;br&gt; &lt;br&gt; S-OIL 관계자는 “&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;”고 밝혔다. &lt;br&gt; &lt;br&gt; hmdlee@heraldcorp.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg</t>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg</t>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg" alt="S-OIL &amp;quot;코엑스·KTX역에서 희망을 `주유`하세요&amp;quot;" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg" alt="신종코로나 비상, 현대자동차 울산공장 이르면 4일부터 일부 휴업" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+            &lt;div class="news-detail__content"&gt;
+                지난달 현대자동차 국내외 판매가 전년대비 3.6% 줄었다. 설 연휴 영향으로 국내 판매가 감소한 영향이 컸다. &lt;br&gt;&lt;br&gt;현대차는 1월 국내 4만7591대, 해외에서 25만6485대 등 전 세계 시장에서 총 30만4076대를 판매, 작년 같은 달보다 3.6% 줄었다고 발표했다. 지난해 같은기간과 비교해 국내판매는 21.3% 감소했고, 해외 판매는 0.6% 증가한 수치다. &lt;br&gt;&lt;br&gt;국내에서 세단은 1만8691대, 레저용차량(RV)은 1만3769대 팔렸다. 세단 중에 그랜저(하이브리드 모델 2467대 포함)가 9350대 팔리며 국내 판매를 이끌었으며, 쏘나타(하이브리드 모델 1012대 포함) 6423대, 아반떼 2638대 등이다. &lt;br&gt;&lt;br&gt;스포츠유틸리티차(SUV)는 팰리세이드 5173대, 싼타페 3204대, 코나 1835대 순이다. &lt;br&gt;&lt;br&gt;하이브리드차 판매가 4069대로 작년 동월대비 43.5% 뛰었다. &lt;br&gt;&lt;br&gt;제네시스는 3000대 팔렸다. 지난달 15일 출시된 제네시스 첫 SUV 모델 GV80은 근무일 기준 10일 만에 누적 계약이 2만대에 육박했다. 올해 목표는 2만4000대다. &lt;br&gt;&lt;br&gt;상용차는 그랜드 스타렉스와 포터를 합한 소형 상용차가 1만128대, 중대형 버스와 트럭을 합한 대형상용차는 2003대 판매됐다. &lt;br&gt;&lt;br&gt;해외시장에선 북미와 중남미, 아시아·중동 시장 등에서 판매가 호조를 보였다. &lt;br&gt;&lt;br&gt;현대차는 "&lt;span class="quot0"&gt;GV80와 팰리세이드 판매에 전사적인 역량을 집중하겠다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;해외에선 권역별 책임 경영을 바탕으로 고객 지향적 의사결정을 내려서 실적을 회복할 계획&lt;/span&gt;"이라고 말했다. &lt;br&gt;&lt;br&gt;이형중기자 leehj@ksilbo.co.kr
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+            &lt;div class="news-detail__content"&gt;
+                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
+                    &lt;/div&gt;
+                [아시아경제 성기호 기자] 현대자동차가 중동 지역 최대 자동차 시장인 사우디아라비아에 신형 쏘나타(DN8)를 공항 택시로 공급한다. 이로써 현대차의 중동 시장내 입지가 한층 강화될 전망이다. &lt;br&gt; &lt;br&gt;현대차는 사우디아라비아 최대 운수기업 중 하나인 알 사프와사와 신형 쏘나타 1000대를 공항 택시로 공급하는 계약을 체결했다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;현대차는 지난달 22일 킹 칼리드 국제공항에서 사우디아라비아 교통부 장관인 살레 빈 나세르 알자세르 등이 참석한 가운데 신형 쏘나타 100대를 알 사프와사에 인도했으며 연내 나머지 900대를 공급할 예정이다. &lt;br&gt; &lt;br&gt;이번 수주는 사우디아라비아 운행 택시에 대한 신규 정책이 발표된 이후 현대차가 완성차 업체 최초로 변경된 규정에 부합하는 택시를 공급했다는 점에서 더욱 의미가 있다. &lt;br&gt; &lt;br&gt;현대차는 지난해 사우디아라비아에서 쏘나타, 코나, 싼타페 등 총 12만 5625대의 차량을 판매해 시장점유율 23.4%를 기록하며 시장 내 굳건한 입지를 확보했다. &lt;br&gt; &lt;br&gt;이번에 공항 택시로 공급되는 신형 쏘나타는 지난해 12월 10일(현지시각) 제다에 열린 ‘제41회 사우디 국제 모터쇼(SIMS)’에서 사우디아라비아 자동차 기자협회가 선정한 '2020 세단 부문 최고의 차'로 꼽히며 우수한 상품성과 디자인 경쟁력을 인정받았다. &lt;br&gt; &lt;br&gt;현대차는 이번 수주 계약을 기점으로 중동 지역에서 판매를 확대하고 브랜드 인지도 향상을 적극적으로 꾀한다는 방침이다. &lt;br&gt; &lt;br&gt;현대차 관계자는 “&lt;span class="quot0"&gt;사우디아라비아에 신형 쏘나타를 대량 수주함으로써 사우디아라비아를 찾는 글로벌 고객들을 공항에서부터 만나고 현대자동차의 뛰어난 상품성을 알릴 수 있게 돼 기쁘다&lt;/span&gt;”라며 “&lt;span class="quot0"&gt;향후에도 사우디아라비아 교통 정책 변화에 선제적으로 대응해 중동 시장에서 더욱 신뢰받는 기업으로 거듭나겠다&lt;/span&gt;”라고 밝혔다. &lt;br&gt; &lt;br&gt;성기호 기자 kihoyeyo@asiae.co.kr
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg" alt="삼성전자·현대자동차·아모레퍼시픽도 2~3년 뒤 ‘구글세’ 낸다" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg" alt="신재원 현대자동차 부사장 “기술혁신이 초래한 '파괴'… 언론도 마찬가지&amp;quot;" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg" alt="현대자동차, 선행 기술 테스트카 'RM19' 컨셉 업데이트" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;
           &lt;/div&gt;
         [디지털타임스 김민주 기자] CJ제일제당이 '비비고' 브랜드를 앞세워 미국 PGA투어에서 K푸드 맛과 가치를 적극 알렸다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;CJ제일제당은 현지시간으로 지난달 29일부터 이달 2일까지 닷새간 미국 애리조나주 피닉스에서 열린 WMPO(Waste Management Phoenix Open) PGA투어에 참여해 '비비고 부스'를 운영했다고 3일 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이번 '비비고 부스'에서는 미국에서 선풍적인 인기를 끌고 있는 비비고 미니완탕 왕교자 등 비비고 브랜드 대표 제품을 선보였다. 사전에 준비한 1만인분의 음식이 갤러리들의 큰 호평을 받으며 모두 소진됐다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;현장에서 비비고 만두를 맛 본 텍사스 출신의 사라 스펠츠(27)는 "&lt;span class="quot0"&gt;고기와 채소가 가득 들어있어 맛있으면서도 건강한 음식이라는 느낌을 받았다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;비비고 만두 덕분에 이번 PGA 투어 관람이 기억에 남을 것 같다&lt;/span&gt;"고 말했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;박은선 CJ제일제당 식품브랜드 마케팅 담당은 "&lt;span class="quot1"&gt;현지 갤러리들에게 한국 대표 음식인 만두를 제공하고 한식의 건강한 맛을 전할 수 있어 뿌듯했다&lt;/span&gt;"며 "&lt;span class="quot1"&gt;한식의 우수성과 비비고의 가치를 알리는 데 주력하겠다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;한편 CJ제일제당은 지난해 더CJ컵 제네시스 오픈 AT&amp;amp;T 바이런 넬슨 챔피언십 등 총 7개의 주요 PGA 투어에 참여하며 비비고를 알렸다. 올해에도 제네시스 인비테이셔널 TPC 등 대규모 PGA 투어에 적극 나서 비비고 위상 강화에 힘쓸 예정이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;김민주기자 stella2515@dt.co.kr
       &lt;/div&gt;
@@ -2167,15 +2569,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085444001.01.jpg" alt="CJ제일제당 ‘비비고’ 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;
+          &lt;/div&gt;
         [아시아경제 최신혜 기자] CJ제일제당이 지난해에 이어 올해도 ‘비비고’ 브랜드를 앞세워 PGA투어에서 K푸드의 맛과 가치를 적극 알렸다. &lt;br&gt; &lt;br&gt;CJ제일제당은 현지시간으로 지난달 29일부터 이달 2일까지 닷새간 미국 애리조나주 피닉스에서 열린 WMPO PGA투어에 참여해 ‘비비고 부스’를 운영했다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;이번 비비고 부스에서는 미국에서 선풍적인 인기를 끌고 있는 비비고 미니완탕 왕교자 등 비비고 브랜드 대표 제품을 선보였다. 사전에 준비한 1만인분의 음식이 갤러리들의 큰 호평을 받으며 모두 소진됐다. &lt;br&gt; &lt;br&gt;비비고 만두를 맛 본 갤러리 중 텍사스 출신의 사라 스펠츠(27)는 “&lt;span class="quot0"&gt;고기와 채소가 가득 들어있어 맛있으면서도 건강한 맛&lt;/span&gt;”이라며 “비비고 만두 덕분에 이번 PGA투어 관람이 오랫동안 기억에 남을 것 같다"고 말했다. 이어 비비고 관계자에게 “텍사스에 계시는 부모님께 추천해드리고 싶다”며 제품 종류 현지 구매처 레시피 등을 물었다. &lt;br&gt; &lt;br&gt;박은선 CJ제일제당 식품브랜드마케팅담당은 “현지 갤러리들에게 한국의 대표 음식인 만두를 제공하고 한식의 건강한 맛을 전할 수 있어 뿌듯하다”며 “앞으로도 한식의 우수성과 ‘비비고’의 가치를 알리는 데 주력할 예정”이라고 밝혔다. &lt;br&gt; &lt;br&gt;한편 CJ제일제당은 지난해에만 더CJ컵 제네시스 오픈 AT&amp;amp;T 바이런 넬슨 챔피언십 등 총 7개의 주요 PGA투어에 참여하며 비비고를 알렸다. 올해도 제네시스 인비테이셔널 TPC 등 대규모 PGA투어에 적극 나서 비비고 위상 강화에 힘쓸 예정이다. &lt;br&gt; &lt;br&gt;최신혜 기자 ssin@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2183,13 +2581,50 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085444001.01.jpg" alt="CJ제일제당 ‘비비고’ 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg" alt="[신상품·새인물] CJ제일제당 '비비고감자탕'" class="img-responsive"&gt;
           &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg" alt="[신상품·새인물] CJ제일제당 '비비고감자탕'" class="img-responsive"&gt;
+          &lt;/div&gt;
+        CJ제일제당이 뼈 없이 살코기만 담아 어린 자녀들과 안심하고 즐길 수 있는 '비비고 감자탕'을 내놨다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;'비비고 감자탕'은 전문점 수준의 감자탕을 집에서 간편하게 즐기도록 구현한 제품이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;조리편의성은 물론 뒤처리도 간편하도록 뼈 없이 부드러운 사태살을 담았다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;돼지뼈를 집적 우려낸 육수에 깻잎 들깨가루 등을 넣어 깊은 풍미를 살린 점도 특징이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;여기에 생강 등 천연 향신료를 활용해 고기 특유의 잡내와 누린내는 잡고 감칠맛은 살려 깊은 맛을 더했다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;CJ제일제당측은 "&lt;span class="quot0"&gt;간편하면서도 전문점 수준인 '비비고 감자탕'을 구현했다&lt;/span&gt;"고 설명했다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg" alt="CJ제일제당 '비비고 찬' 라인업 5종으로 확대" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg" alt="CJ제일제당 '비비고 찬' 라인업 5종으로 확대" class="img-responsive"&gt;
+          &lt;/div&gt;
+        CJ제일제당이 '비비고 찬(饌)' 라인업을 5종으로 늘리며 가정간편식(HMR) 반찬 시장 확대에 가속도를 낸다.&lt;br&gt;&lt;br&gt;CJ제일제당은 지난해 8월 출시한 비비고 찬 4종에 이어 신제품 '비비고 견과류 멸치볶음'을 출시했다고 30일 밝혔다. 비비고 견과류 멸치볶음(60g 3480원)은 국산 멸치와 호두 아몬드 등 다양한 통견과에 한식발효장과 백설 올리고당을 넣어 바삭하고 고소하게 볶아 낸 제품이다. 30~50대 주부들을 대상으로 진행 한 사전 소비자 테스트 결과 만점에 가까운 평가를 받아 소비자에게 큰 인기를 끌 것으로 기대된다.&lt;br&gt;&lt;br&gt;비비고 찬 제품은 집에서 만든 것처럼 맛있고 믿을 수 있는 반찬들을 3~4인 가족 한 끼에 딱 맞는 양으로 소포장한 '초간편 HMR 반찬' 메뉴다. 엄선한 원재료와 엄격한 제조과정으로 재료 위생에 대한 염려를 없앤 것은 물론 HMR 반찬 최초로 4무(無)첨가 제품으로 구현해 보다 안심하고 즐길 수 있도록 했다. 간장 소금 등으로 맛을 내는 일반적인 반찬과도 차별화되는데 두번 발효한 덧장액젓에 메주를 넣어 한번 더 발효시킨 특허 받은 '한식 발효장'을 사용해 깊고 깔끔한 감칠맛이 특징이다.&lt;br&gt;&lt;br&gt;실제 지난해부터 판매 중인 소고기 장조림 소고기 꽈리고추 장조림 무말랭이 무침 오징어채볶음 등 비비고 찬 4종은 유자녀 가구와 신혼부부 등으로부터 큰 호응을 얻고 있다. '집에서 만든 것처럼 깔끔하고 맛있다' '바쁜데 간편하게 먹을 수 있어 좋다' '딱 한끼 분량이라 남지 않아 경제적이다' '반찬 재료사서 만들어 먹는 것보다 비용 면에서 합리적이다' 등 맛 편의성 용량 가격 등에 대한 소비자 호평이 쏟아지고 있다.&lt;br&gt;&lt;br&gt;이에 따라 매출도 지속적인 상승 곡선을 그리고 있다. 비비고 찬 4종은 출시 후 현재(1월 27일 기준)까지 약 5개월간 누적 판매량 70만개를 기록하고 있으며 특히 올해 들어서는 4주간(1월 1일~1월 27일) 매출이 전월 동기 대비 50% 이상 오르며 성장세를 이어나가고 있다. 지난 해에는 비비고 찬이 일부 경로에서만 유통 판매되었다는 점을 감안하면 본격적으로 유통 채널 확장에 나서게 되는 올해는 매출이 더욱 확대될 전망이다.&lt;br&gt;&lt;br&gt;현재 한식 반찬 시장은 약 2조원대로 추산되며 HMR 트렌드 확대에 따라 HMR 반찬 시장 역시 지속적인 성장세가 예상된다.&lt;br&gt;&lt;br&gt;김지은 CJ제일제당 비비고 찬 마케팅 담당자는 “&lt;span class="quot0"&gt;비비고 찬은 차별화된 기술력을 기반으로 깐깐한 품질관리와 좋은 재료로 맛깔스럽게 만들어 안심하고 즐길 수 있다는 점에서 경쟁력 있는 제품&lt;/span&gt;”이라고 강조하고 “&lt;span class="quot0"&gt;비비고 찬 비비고 김치 비비고 생선구이 등 반찬 모음전을 비롯 다양한 온라인 오프라인 마케팅 활동을 통해 HMR 반찬 시장 성장을 주도하는 제품으로 키워나갈 것&lt;/span&gt;”이라고 말했다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg" alt="CJ제일제당 HMR 반찬 늘린다…‘비비고 찬’ 라인업 5종으로 확대" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg" alt="CJ제일제당 HMR 반찬 늘린다…‘비비고 찬’ 라인업 5종으로 확대" class="img-responsive"&gt;
+          &lt;/div&gt;
         [아시아경제 최신혜 기자] CJ제일제당이 ‘비비고 찬(饌)’ 라인업을 5종으로 늘리며 가정간편식(HMR) 반찬 시장 확대에 가속도를 낸다. &lt;br&gt; &lt;br&gt;CJ제일제당은 지난해 8월 출시한 비비고 찬 4종에 이어 신제품 ‘비비고 견과류 멸치볶음’을 출시했다고 30일 밝혔다. 비비고 견과류 멸치볶음(60gㆍ3480원)은 국산 멸치와 호두 아몬드 등 다양한 통견과에 한식발효장과 백설 올리고당을 넣어 바삭하고 고소하게 볶아 낸 제품이다. 30~50대 주부들을 대상으로 진행 한 사전 소비자 테스트 결과 만점에 가까운 평가를 받아 소비자에게 큰 인기를 끌 것으로 기대된다. &lt;br&gt; &lt;br&gt;비비고 찬 제품은 집에서 만든 것처럼 맛있고 믿을 수 있는 반찬들을 3~4인 가족 한 끼에 딱 맞는 양으로 소포장한 ‘초간편 HMR 반찬’ 메뉴다. 엄선한 원재료와 엄격한 제조과정으로 재료 위생에 대한 염려를 없앤 것은 물론 HMR 반찬 최초로 4 무(無)첨가 제품으로 구현해 보다 안심하고 즐길 수 있도록 했다. 간장 소금 등으로 맛을 내는 일반적인 반찬과도 차별화되는데 두 번 발효한 덧장액젓에 메주를 넣어 한번 더 발효시킨 특허 받은 ‘한식 발효장’을 사용해 깊고 깔끔한 감칠맛이 특징이다. &lt;br&gt; &lt;br&gt;실제로 지난해부터 판매 중인 소고기 장조림 소고기 꽈리고추 장조림 무말랭이 무침 오징어채볶음 등 비비고 찬 4종은 유자녀 가구와 신혼부부 등으로부터 큰 호응을 얻고 있다. ‘집에서 만든 것처럼 깔끔하고 맛있다’ ‘바쁜데 간편하게 먹을 수 있어 좋다’ ‘딱 한 끼 분량이라 남지 않아 경제적이다’ ‘반찬 재료 사서 만들어 먹는 것보다 비용 면에서 합리적이다’ 등 맛 편의성 용량 가격 등에 대한 소비자 호평이 쏟아지고 있다. &lt;br&gt; &lt;br&gt;이에 따라 매출도 지속적인 상승 곡선을 그리고 있다. 비비고 찬 4종은 출시 후 현재(1월 27일 기준)까지 약 5개월간 누적 판매량 70만개를 기록하고 있으며 특히 올해 들어서는 4주간(1월 1일~1월 27일) 매출이 전월 동기 대비 50% 이상 오르며 성장세를 이어나가고 있다. 지난해에는 비비고 찬이 일부 경로에서만 유통 판매되었다는 점을 감안하면 본격적으로 유통 채널 확장에 나서게 되는 올해는 매출이 더욱 확대될 전망이다. &lt;br&gt; &lt;br&gt;최신혜 기자 ssin@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2197,191 +2632,110 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg" alt="CJ제일제당 HMR 반찬 늘린다…‘비비고 찬’ 라인업 5종으로 확대" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg" alt="CJ제일제당 美 뉴욕에서 ‘비비고’와 한식 문화 알리기 나서" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-        CJ제일제당이 뼈 없이 살코기만 담아 어린 자녀들과 안심하고 즐길 수 있는 '비비고 감자탕'을 내놨다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;'비비고 감자탕'은 전문점 수준의 감자탕을 집에서 간편하게 즐기도록 구현한 제품이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;조리편의성은 물론 뒤처리도 간편하도록 뼈 없이 부드러운 사태살을 담았다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;돼지뼈를 집적 우려낸 육수에 깻잎 들깨가루 등을 넣어 깊은 풍미를 살린 점도 특징이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;여기에 생강 등 천연 향신료를 활용해 고기 특유의 잡내와 누린내는 잡고 감칠맛은 살려 깊은 맛을 더했다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;CJ제일제당측은 "&lt;span class="quot0"&gt;간편하면서도 전문점 수준인 '비비고 감자탕'을 구현했다&lt;/span&gt;"고 설명했다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg" alt="[신상품·새인물] CJ제일제당 '비비고감자탕'" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-        CJ제일제당이 '비비고 찬(饌)' 라인업을 5종으로 늘리며 가정간편식(HMR) 반찬 시장 확대에 가속도를 낸다.&lt;br&gt;&lt;br&gt;CJ제일제당은 지난해 8월 출시한 비비고 찬 4종에 이어 신제품 '비비고 견과류 멸치볶음'을 출시했다고 30일 밝혔다. 비비고 견과류 멸치볶음(60g 3480원)은 국산 멸치와 호두 아몬드 등 다양한 통견과에 한식발효장과 백설 올리고당을 넣어 바삭하고 고소하게 볶아 낸 제품이다. 30~50대 주부들을 대상으로 진행 한 사전 소비자 테스트 결과 만점에 가까운 평가를 받아 소비자에게 큰 인기를 끌 것으로 기대된다.&lt;br&gt;&lt;br&gt;비비고 찬 제품은 집에서 만든 것처럼 맛있고 믿을 수 있는 반찬들을 3~4인 가족 한 끼에 딱 맞는 양으로 소포장한 '초간편 HMR 반찬' 메뉴다. 엄선한 원재료와 엄격한 제조과정으로 재료 위생에 대한 염려를 없앤 것은 물론 HMR 반찬 최초로 4무(無)첨가 제품으로 구현해 보다 안심하고 즐길 수 있도록 했다. 간장 소금 등으로 맛을 내는 일반적인 반찬과도 차별화되는데 두번 발효한 덧장액젓에 메주를 넣어 한번 더 발효시킨 특허 받은 '한식 발효장'을 사용해 깊고 깔끔한 감칠맛이 특징이다.&lt;br&gt;&lt;br&gt;실제 지난해부터 판매 중인 소고기 장조림 소고기 꽈리고추 장조림 무말랭이 무침 오징어채볶음 등 비비고 찬 4종은 유자녀 가구와 신혼부부 등으로부터 큰 호응을 얻고 있다. '집에서 만든 것처럼 깔끔하고 맛있다' '바쁜데 간편하게 먹을 수 있어 좋다' '딱 한끼 분량이라 남지 않아 경제적이다' '반찬 재료사서 만들어 먹는 것보다 비용 면에서 합리적이다' 등 맛 편의성 용량 가격 등에 대한 소비자 호평이 쏟아지고 있다.&lt;br&gt;&lt;br&gt;이에 따라 매출도 지속적인 상승 곡선을 그리고 있다. 비비고 찬 4종은 출시 후 현재(1월 27일 기준)까지 약 5개월간 누적 판매량 70만개를 기록하고 있으며 특히 올해 들어서는 4주간(1월 1일~1월 27일) 매출이 전월 동기 대비 50% 이상 오르며 성장세를 이어나가고 있다. 지난 해에는 비비고 찬이 일부 경로에서만 유통 판매되었다는 점을 감안하면 본격적으로 유통 채널 확장에 나서게 되는 올해는 매출이 더욱 확대될 전망이다.&lt;br&gt;&lt;br&gt;현재 한식 반찬 시장은 약 2조원대로 추산되며 HMR 트렌드 확대에 따라 HMR 반찬 시장 역시 지속적인 성장세가 예상된다.&lt;br&gt;&lt;br&gt;김지은 CJ제일제당 비비고 찬 마케팅 담당자는 “&lt;span class="quot0"&gt;비비고 찬은 차별화된 기술력을 기반으로 깐깐한 품질관리와 좋은 재료로 맛깔스럽게 만들어 안심하고 즐길 수 있다는 점에서 경쟁력 있는 제품&lt;/span&gt;”이라고 강조하고 “&lt;span class="quot0"&gt;비비고 찬 비비고 김치 비비고 생선구이 등 반찬 모음전을 비롯 다양한 온라인 오프라인 마케팅 활동을 통해 HMR 반찬 시장 성장을 주도하는 제품으로 키워나갈 것&lt;/span&gt;”이라고 말했다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg" alt="CJ제일제당 '비비고 찬' 라인업 5종으로 확대" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg" alt="CJ제일제당 美 뉴욕에서 ‘비비고’와 한식 문화 알리기 나서" class="img-responsive"&gt;
+          &lt;/div&gt;
         CJ제일제당이 한식 브랜드 ‘비비고’와 한식 문화 알리기에 나섰다. &lt;br&gt; &lt;br&gt;CJ제일제당은 지난 22일(현지시간) 미국 뉴욕 비비고 임시 매장(팝업)에서 인플루언서(콘텐츠 창작자) 초청 요리 교실을 열었다고 28일 밝혔다. &lt;br&gt; &lt;br&gt;이번 행사는 설 명절을 맞아 기획된 것이다. 회사 측은 만두를 중심으로 한식 문화를 알리는 데 중점을 뒀다. &lt;br&gt; &lt;br&gt;이 자리에는 미 ABC방송과 소셜네트워크서비스(SNS) 인플루언서 등 23명이 참석했다. 이들은 만두 빚는 법을 배우고 닭강정 잡채 등과 시식하는 시간을 가졌다. &lt;br&gt; &lt;br&gt;안효진 CJ제일제당 비비고 글로벌 마케팅 담당자는 “&lt;span class="quot0"&gt;비비고 임시 매장이 미 뉴욕 현지에서 화제가 되고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;비비고가 자리잡을 수 있도록 활동을 이어갈 것&lt;/span&gt;”이라고 전했다. &lt;br&gt; &lt;br&gt;동아닷컴 박상재 기자 sangjae@donga.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg" alt="CJ제일제당 美 뉴욕에서 ‘비비고’와 한식 문화 알리기 나서" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/28/07100501.20200128103859001.01.jpg" alt="CJ제일제당 비비고 설 명절 맞아 뉴요커에 만두 빚기 전수" class="img-responsive"&gt;
+          &lt;/div&gt;
         CJ제일제당이 미국 뉴욕에 개점한 '비비고 팝업 레스토랑'의 흥행을 극대화하기 위해 현지 인플루언서들을 대상으로 '비비고' 브랜드와 한국 식문화를 알리는 데 적극 나섰다.&lt;br&gt;&lt;br&gt;CJ제일제당은 지난 22일(현지 시간) 미국 인플루언서들을 초청해 한식을 직접 체험하는 쿠킹클래스를 진행했다고 28일 밝혔다. 이번 행사는 구정을 맞아 기획된 '루나 뉴 이어' 이벤트로 한국의 전통 명절 음식인 만두를 중심으로 한국 식문화를 전파하는 데 중점을 뒀다.&lt;br&gt;&lt;br&gt;행사는 CJ제일제당이 지난달 미국 뉴욕 록펠러센터에 선보인 '비비고 팝업 레스토랑'에서 진행됐다. 미국의 ABC 방송과 뉴욕 지역의 푸드/라이프스타일 전문 채널 에디터와 팔로워 10만 이상의 SNS 인플루언서 등 총 23명이 참가했다.&lt;br&gt;&lt;br&gt;참가자들은 셰프의 시연을 따라 만두 빚는 법을 배웠다. 얇은 만두피에 야채가 풍부한 만두소를 넣고 물결 모양으로 주름을 잡으며 한국식 만두에 대한 이해도를 높였다. 직접 빚은 만두로 만든 만둣국과 '비비고 팝업 레스토랑'의 인기 메뉴인 닭강정 잡채 김스낵 등을 함께 시식하며 한식 한상차림을 즐기는 시간도 가졌다.&lt;br&gt;&lt;br&gt;미국 ABC 방송의 프로그램 '굿모닝 아메리카' 제작 PD는 “&lt;span class="quot0"&gt;코리아타운에서 바비큐를 즐기는 한국 식문화도 좋지만 일상에서 쉽게 즐길 수 있는 메뉴에 대해 알게 된 좋은 기회&lt;/span&gt;”라는 반응을 보였다. 특히 설 명절에 직접 만두를 빚어 가족과 나눠 먹는 한국 전통 문화를 체험한 것에 큰 흥미를 가졌다.&lt;br&gt;&lt;br&gt;안효진 CJ제일제당 비비고 글로벌 마케팅팀 담당자는 “&lt;span class="quot1"&gt;'비비고 팝업 레스토랑'이 뉴욕 현지에서 화제가 되어 오피니언 리더들을 대상으로 한식과 '비비고'를 알릴 수 있는 기회가 마련됐다&lt;/span&gt;”라며 “&lt;span class="quot1"&gt;현지 소비자가 팝업과 한식에 큰 관심을 보이고 있는 만큼 글로벌 한식 대표 브랜드로 '비비고'가 자리매김 할 수 있는 활동들을 지속할 것&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;&lt;br&gt;한편 '비비고 팝업 레스토랑'은 CJ제일제당이 뉴요커를 겨냥해 '비비고' 브랜드를 중심으로 한국 식문화를 알리고자 전략적으로 기획한 식문화 공간으로 뉴요커들에게 폭발적인 관심을 얻고 있다. CJ제일제당은 '비비고' 브랜드와 팝업 레스토랑의 인지도를 더욱 넓히기 위해 다음달에는 '비비고 푸드트럭'을 운영하며 뉴욕대 브로드웨이 등 맨해튼 중심가를 순회할 예정이다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/28/07100501.20200128103859001.01.jpg" alt="CJ제일제당 비비고 설 명절 맞아 뉴요커에 만두 빚기 전수" class="img-responsive"&gt;
+    <t xml:space="preserve"> &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg" alt="CJ제일제당 &amp;quot;작년 국민 1인당 9개씩 햇반 먹었다&amp;quot;" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/01/28/07100501.20200128103859001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg" alt="CJ제일제당 &amp;quot;작년 국민 1인당 9개씩 햇반 먹었다&amp;quot;" class="img-responsive"&gt;
+          &lt;/div&gt;
         국내 대표 즉석밥 CJ제일제당 '햇반'(사진)이 독보적 1위 지위를 확고히하며 성장세를 이어나가고 있다. &lt;br&gt; &lt;br&gt; CJ제일제당은 햇반이 지난해 말 기준으로 총 누적 매출 3조 원 누적 판매량 30억 개를 돌파했다고 27일 밝혔다. 23년간 판매된 햇반은 나란히 배열하면 둘레 4만 192km의 지구를 10바퀴 가량 돌릴 수 있는 수량으로 그간 사용한 쌀의 총량은 400만 가마니(쌀 한 가마니=햇반 755개)에 육박한다. &lt;br&gt; &lt;br&gt; 1996년 12월 출시된 햇반은 매해 두 자릿수 이상 성장률을 보이며 국내 즉석밥 시장 성장을 주도해왔다. 2019년 한 해만 보더라도 전년의 15% 성장한 4860억 원(소비자가 환산 기준) 매출을 기록하며 모두 4억 5500만 개가 팔렸다. 국민 1인 당 한 해에 햇반을 9개씩 먹은 셈이다. 지속적인 성장세를 감안하면 올해는 햇반의 5000억 원대 '초(超)메가' 브랜드 등극도 기대된다. &lt;br&gt; &lt;br&gt; 매출 성과에 힘입어 상온 즉석밥 시장에서도 부동의 1위로 시장 성장을 계속 이끌고 있다. 지난해 닐슨 코리아 기준 햇반 시장점유율은 71%를 기록했다. 지난해 즉석밥 시장 규모는 3920억 원으로 2018년 3656억 원이었던 것과 비교하면 7% 가량 성장했다. 햇반이 즉석밥 시장 전체 성장을 견인하고 있다고 할 수 있는 대목이다. &lt;br&gt; &lt;br&gt; 이 같은 성과는 햇반이 급할 때 찾던 '비상식'이 아니라 쌓아두고 언제든 간편하고 맛있게 즐길 수 있는 '일상식'으로 확실히 자리잡았기 때문으로 풀이된다. '밥을 사먹는다'는 개념조차 없었던 시절 핵가족과 맞벌이 가구 증가 전자레인지 보급률 증가에 따른 사회적 변화와 흐름을 재빠르게 읽고 선제적 기술 개발과 투자에 나선 결과이기도 하다. 이와 관련 독보적 연구개발(R＆D) 역량과 혁신기술은 국민 식생활 변화를 이끌어 내는 원동력이 됐다. &lt;br&gt; &lt;br&gt; 햇반의 대표적인 R＆D 혁신기술은 '무균화 포장밥 제조 기술' '최첨단 패키징 기술' '당일 자가도정 시스템'이다. 무균화 포장밥 제조기술은 반도체 공정 수준의 클린룸에서 살균한 포장재로 밥을 포장하는 기술이다. 쌀 표면 미생물을 고온고압 스팀으로 살균하고 미생물을 완벽하게 차단한 무균화 공정을 거쳐 밀봉 포장해 보존료 없이 9개월간 상온 보관이 가능하면서도 신선한 밥맛을 낼 수 있다. &lt;br&gt; &lt;br&gt; 최첨단 패키징 기술로도 햇반은 차별화된다. 같은 밥도 패키지에 따라 맛이 변하기 때문에 밥 담는 용기는 3중 재질로 리드필름(비닐 뚜껑)은 4중 특수 필름지를 사용했다. 산소와 미생물을 완벽히 차단하고 온도와 습도에 영향을 받지 않으면서 인체에 무해한 것이 핵심이다. 용기와 리드필름 재질은 세계적으로 안전성이 검증된 아기 젖병에도 사용되는 폴리프로필렌 소재라 조리 시 환경 호르몬 배출 걱정 없이 먹을 수 있다. &lt;br&gt; &lt;br&gt; 햇반만의 당일 자가도정 시스템은 '갓 지은 밥맛'을 구현하는 핵심 기술력 중 하나다. 쌀은 도정을 하는 순간부터 쌀 품질 열화가 시작돼 맛이 떨어지게 된다. 햇반은 국내에서 유일하게 밥 자체 도정설비를 도입해 당일 도정한 쌀로 밥을 짓고 있다. 자체 도정설비를 통해 맛 품질을 끌어올릴 뿐 아니라 쌀 종류와 특성에 맞게 맞춤 도정도 진행한다. 같은 쌀도 재배와 보관 조건에 따라 해마다 품질이 달라지기 때문이다. &lt;br&gt; &lt;br&gt; CJ제일제당은 올해 햇반 출시 24년째를 맞아 사각용기 24개들이 한정판 기획 제품 '네모햇반'을 홈플러스에서 선보인다. (소비자가 2만 3900원) 둥근 모양이 햇반 하면 떠오르는 시그니처 형태지만 최초 출시 당시에는 사각용기로 출발했던 것에 착안해 준비한 제품이다. 2001년 둥근 용기 햇반이 출시되면서 두 가지 형태를 병행해 생산해왔지만 둥근 햇반 수요가 워낙 커서 사각용기는 이번 한정판 제품을 마지막으로 생산을 중단한다. &lt;br&gt; &lt;br&gt; 신수진 CJ제일제당 햇반혁신팀 부장은 "&lt;span class="quot0"&gt;햇반은 안전성 편리성 갓 지은 밥맛 최고의 품질 등 식품과 관련된 연구개발 기술이 총집약돼 있는 상온 가정간편식(HMR) 대표 제품&lt;/span&gt;"이라면서 "&lt;span class="quot0"&gt;23년간 꾸준한 국민 라이프 스타일 트렌드에 변화를 일으키며 꾸준한 사랑을 받아 온 국민 대표 브랜드로 앞으로도 다양한 소비자 니즈를 충족시키는 새로운 제품들을 선보이고 지속적인 연구개발에 매진할 것&lt;/span&gt;"이라고 말했다. &lt;br&gt; &lt;br&gt; 황상욱 기자 eyes@busan.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg" alt="CJ제일제당 &amp;quot;작년 국민 1인당 9개씩 햇반 먹었다&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg" alt="CJ제일제당 햇반 30억개 팔렸다...쌀 400만 가마니 분량" class="img-responsive"&gt;
+          &lt;/div&gt;
         CJ제일제당의 즉석밥 '햇반'이 지난해 말 기준으로 누적 매출 3조원을 넘었다. 누적 판매량도 30억개를 돌파했다.&lt;br&gt;27일 CJ제일제당에 따르면 지난 1996년 출시 이후 작년까지 팔린 햇반을 나란히 놓으면 지구를 10바퀴 가량 돌릴 수 있는 길이가 나온다. 30억개를 만드는데 쓰인 쌀은 400만 가마니에 달한다.&lt;br&gt;올해로 탄생한지 24년째인 스테디셀러 햇반은 최근까지 매년 두 자릿수 이상 성장세를 이어왔다. 지난해에는 전년보다 15% 성장한 4860억원의 매출을 올리며 4억5500만개가 팔려나갔다. 우리나라 국민 1명당 1년에 햇반을 9개씩 먹은 셈이다.&lt;br&gt;CJ제일제당은 햇반이 올해 연 매출 5000억원대 브랜드로 성장할 것으로 보고 있다.&lt;br&gt;즉석밥 전체 시장에서 햇반이 차지하는 시장 점유율은 지난해 닐슨 코리아 기준 71%에 달했다. 햇반의 판매 호조에 힘입어 지난해 즉석밥 전체 시장 규모는 전년보다 7% 늘어난 3920억원을 기록했다.&lt;br&gt;CJ제일제당은 햇반 출시 24주년을 맞아 사각 용기 24개들이 한정판 기획 제품을 홈플러스에서 출시한다. 사각 용기 햇반은 이번 한정판을 마지막으로 생산을 중단한다.&lt;br&gt;CJ제일제당 관계자는 "&lt;span class="quot0"&gt;햇반은 급할 때 찾는 비상식이 아니라 언제든 간편하고 맛있게 즐길 수 있는 일상식으로 확실히 자리 잡았다&lt;/span&gt;"고 말했다. &lt;br&gt;[김태성 기자]
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg" alt="CJ제일제당 햇반 30억개 팔렸다...쌀 400만 가마니 분량" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg" alt="CJ제일제당 햇반 30억개 팔렸다...쌀 400만 가마니 분량" class="img-responsive"&gt;
+          &lt;/div&gt;
         CJ제일제당의 즉석밥 '햇반'이 지난해 말 기준으로 누적 매출 3조원을 넘었다. 누적 판매량도 30억개를 돌파했다.&lt;br&gt;27일 CJ제일제당에 따르면 지난 1996년 출시 이후 작년까지 팔린 햇반을 나란히 놓으면 지구를 10바퀴 가량 돌릴 수 있는 길이가 나온다. 30억개를 만드는데 쓰인 쌀은 400만 가마니에 달한다.&lt;br&gt;올해로 탄생한지 24년째인 스테디셀러 햇반은 최근까지 매년 두 자릿수 이상 성장세를 이어왔다. 지난해에는 전년보다 15% 성장한 4860억원의 매출을 올리며 4억5500만개가 팔려나갔다. 우리나라 국민 1명당 1년에 햇반을 9개씩 먹은 셈이다.&lt;br&gt;CJ제일제당은 햇반이 올해 연 매출 5000억원대 브랜드로 성장할 것으로 보고 있다.&lt;br&gt;즉석밥 전체 시장에서 햇반이 차지하는 시장 점유율은 지난해 닐슨 코리아 기준 71%에 달했다. 햇반의 판매 호조에 힘입어 지난해 즉석밥 전체 시장 규모는 전년보다 7% 늘어난 3920억원을 기록했다.&lt;br&gt;CJ제일제당은 햇반 출시 24주년을 맞아 사각 용기 24개들이 한정판 기획 제품을 홈플러스에서 출시한다. 사각 용기 햇반은 이번 한정판을 마지막으로 생산을 중단한다.&lt;br&gt;CJ제일제당 관계자는 "&lt;span class="quot0"&gt;햇반은 급할 때 찾는 비상식이 아니라 언제든 간편하고 맛있게 즐길 수 있는 일상식으로 확실히 자리 잡았다&lt;/span&gt;"고 말했다. &lt;br&gt;[김태성 기자]
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203133012001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 '벽걸이 무풍·콘솔에어컨' 선보여" class="img-responsive"&gt;
+          &lt;/div&gt;
         삼성전자가 3~5일(현지시간) 열리는 북미 최대 규모 공조 전시회 'AHR엑스포(The International Air-Conditioning Heating Refrigerating Exposition)'에 참가해 무풍 에어컨 콘솔형 에어컨 등을 전시한다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;AHR엑스포는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사로 삼성전자는 이번 전시회에 약 100평 규모 부스를 마련해 벽걸이형·카세트형 등 무풍 에어컨 전체 라인업과 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;새 벽걸이형 무풍 에어컨 콘솔형 에어컨 등 실내기 라인업 신제품도 새롭게 선보인다. &lt;br&gt; &lt;br&gt;벽걸이형 무풍 에어컨 신제품은 기존보다 팬 크기를 약 15%가 키워 냉방 성능이 한층 향상됐고 무풍 패널은 11% 넓어져 '와이드 무풍 냉방'으로 바람 없이도 시원해진다고 회사 측은 설명했다. 블레이드(바람 토출구 쪽 달린 날개) 역시 31% 넓어짐에 따라 최대 15m까지 바람을 보내줘 넓은 공간도 냉방이 가능하다. &lt;br&gt; &lt;br&gt;사용 패턴 실내외 온도 등 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환하는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다고 관계자는 덧붙였다. &lt;br&gt; &lt;br&gt;콘솔형 에어컨 신제품은 실내기 폭이 199mm로 슬림해 공간을 효율적으로 사용할 수 있고 바람을 상하단 2방향으로 내보내는 방식으로 냉난방 효과를 높였다. 따뜻한 바람은 하단으로 흘러나오게 해 바닥 부분까지 비교적 균일하게 난방할 수 있다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 "&lt;span class="quot0"&gt;삼성전자는 무풍 에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속적으로 선보여 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍 에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택폭을 넓혀 북미 공조 시장을 선도할 것&lt;/span&gt;"이라고 말했다. &lt;br&gt; &lt;br&gt;배성수 한경닷컴 기자 baebae@hankyung.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203133012001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 '벽걸이 무풍·콘솔에어컨' 선보여" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203133012001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2020/02/03/02100701.20200203111020001.01.jpg" alt="삼성전자 2020 AHR 엑스포서 혁신 공조 솔루션 선봬" class="img-responsive"&gt;
+          &lt;/div&gt;
         삼성전자가 북미 최대 규모 공조 전시회 AHR EXPO 2020에 참가해 벽걸이형 1way/4way 카세트형 등 무풍에어컨 풀 라인업을 중심으로 다양한 공조 솔루션을 선보였다. [삼성전자 제공] [헤럴드경제 천예선 기자] 삼성전자가 3일부터 5일(현지시간)까지 미국 플로리다주 올랜도에서 개최되는 ‘AHR엑스포’에 참가해 혁신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt; ‘AHR엑스포’는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사로 90년 전통의 북미 최대 규모 공조 전시회다. &lt;br&gt; &lt;br&gt; 삼성전자는 약 100평 규모의 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt; 무풍에어컨은 찬바람이 몸에 직접 닿는 것을 꺼리는 소비자들을 위해 직바람없이도 쾌적한 냉방을 즐길 수 있도록 만든 삼성전자의 주력 제품으로 2016년 세계 최초로 개발했다. &lt;br&gt; &lt;br&gt; 특히 삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. &lt;br&gt; &lt;br&gt; 삼성 벽걸이형 무풍에어컨은 기존 대비 팬의 크기가 약 15% 확대돼 냉방 성능이 한층 강력해졌고 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 경험할 수 있다. &lt;br&gt; &lt;br&gt; 이번 신제품에는 사용자의 사용 패턴이나 실내외 온도 등의 중요 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다. &lt;br&gt; &lt;br&gt; 또 삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨(FJM Free Joint Multi)으로서 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. &lt;br&gt; &lt;br&gt; 이기호 삼성전자 생활가전사업부 상무는 “&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택 폭을 넓히며 북미 공조 시장을 선도할 것&lt;/span&gt;”이라고 말했다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2020/02/03/02100701.20200203111020001.01.jpg" alt="삼성전자 2020 AHR 엑스포서 혁신 공조 솔루션 선봬" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100701/2020/02/03/02100701.20200203111020001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203103028001.01.jpg" alt="정칠희 삼성전자 고문 KAIST 총동문회장 선임" class="img-responsive"&gt;
+          &lt;/div&gt;
         정칠희(사진) 삼성전자 고문이 KAIST 제25대 총동문회장에 선임됐다. &lt;br&gt; &lt;br&gt;정 신임 총동문회장은 KAIST에서 물리학과(79학번) 석사학위와 미국 미시건주립대에서 물리학과 박사학위를 취득했다. &lt;br&gt; &lt;br&gt;1979년에 삼성전자에 입사해 40여 년 동안 줄곧 반도체 기술개발에 정진한 정칠희 회장은 재직 시 세계적 수준의 시스템 반도체 및 메모리 디바이스 기술개발을 담당했다. &lt;br&gt; &lt;br&gt;현재 그는 삼성전자 종합기술원 고문 나노융합산업연구조합 이사장 국가과학기술자문회의 위원 국가미래전략 2045 위원회 총괄위원장을 맡고 있다. &lt;br&gt; &lt;br&gt;정칠희 신임 회장은 "&lt;span class="quot0"&gt;총동문회도 모교의 위상에 걸맞은 조직이 될 수 있도록 동문의 참여와 화합을 이끌고 모교의 발전에 적극 기여하겠다&lt;/span&gt;"라고 밝혔다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203103028001.01.jpg" alt="정칠희 삼성전자 고문 KAIST 총동문회장 선임" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203103028001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203101509001.01.jpg" alt="삼성전자 북미 최대 공조전시회 'AHR엑스포' 참가" class="img-responsive"&gt;
+          &lt;/div&gt;
         삼성전자는 3~5일(현지 시각) 미국 플로리다주 올랜도에서 열리는 ‘AHR엑스포(The International Air-Conditioning Heating Refrigerating Exposition)'에 참가한다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;AHR엑스포는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사다. 90년 전통의 북미 최대 규모 공조 전시회다. 삼성전자는 올해 약 100평 규모 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. 벽걸이형 무풍에어컨은 기존보다 팬 크기가 약 15% 늘어 냉방 성능이 강력해졌다. 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 쾌적한 냉기를 경험할 수 있다. 또 31% 넓어진 블레이드가 최대 15m까지 바람을 보내준다. &lt;br&gt; &lt;br&gt;콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. 삼성 콘솔형 에어컨은 실내기 폭이 199mm로 얇아 공간을 효율적으로 사용할 수 있다. 바람을 상·하단 2방향으로 내보내 냉·난방 효과를 극대화했고 따뜻한 바람이 하단으로 흘러나오게 해 바닥까지 빠르게 난방할 수 있다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 "&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;이번 전시회에서 공개한 제품군을 바탕으로 소비자 선택 폭을 넓혀 북미 공조 시장을 선도하겠다&lt;/span&gt;"고 말했다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2389,17 +2743,16 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203101509001.01.jpg" alt="삼성전자 북미 최대 공조전시회 'AHR엑스포' 참가" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg" alt="삼성전자 노조 가입 독려 이메일 삭제 논란" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203101509001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg" alt="삼성전자 노조 가입 독려 이메일 삭제 논란" class="img-responsive"&gt;
+          &lt;/div&gt;
         삼성전자가 직원들이 받은 노동조합 가입 안내 이메일을 삭제해 논란이 뜨겁다. 업계에 따르면 한국노동조합총연맹 산하 전국삼성전자노동조합은 최근 직원들에게 노조 가입을 독려하는 내용의 이메일을 발송했다. 이 이메일에는 삼성전자와 경쟁사 복지 혜택을 비교한 표와 함께 ‘우리에게도 노조가 있습니다. 힘이 생기도록 가입해주세요’라는 문구가 담겼다. 하지만 이후 직원들의 사내 메일함에서 해당 이메일이 삭제됐다는 의혹이 불거졌다. 직장인 익명 커뮤니티 ‘블라인드’에는 ‘노조 메일 삭제’라는 제목의 게시물이 올라왔고 “지워졌다”는 내용의 댓글이 여러 건 달리기도 했다.&lt;br&gt;논란이 커지자 삼성전자는 “&lt;span class="quot0"&gt;사규에 ‘회사가 제공하는 정보통신망을 업무 외적인 용도로 사용해서는 안 된다’는 내용이 있어 조치를 취한 것&lt;/span&gt;”이라는 입장을 밝혔다. 회사 내부 전산망을 노조 활동에 이용하려면 단체협약 등을 통해 이용 권한을 확보하거나 회사 승인을 받아야 한다는 의미다. 노조 측에 따르면 삼성전자는 앞서 지난 1월 6일 노조가 발송한 가입 독려 이메일도 삭제한 것으로 알려졌다. &lt;br&gt;이번에 이메일을 보낸 제4노조는 삼성전자에서 처음 상급단체에 가입한 노조로 지난해 11월 공식 출범했다. 진윤석 삼성전자 노조위원장은 “회사는 업무 메일이 아니라는 이유를 들었지만 노조 관련 사안을 업무가 아니라고 생각하는 것이 문제다. 여러 수단을 통해 단호하게 대응할 예정”이라고 밝혔다. 당분간 삼성전자 노조와 사 측 갈등이 지속될 전망이다. &lt;br&gt; [김경민 기자]&lt;br&gt; [본 기사는 매경이코노미 제 2044호 (2020.2.5~2020.2.11일자) 기사입니다]
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2407,17 +2760,16 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg" alt="삼성전자 노조 가입 독려 이메일 삭제 논란" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 신형 무풍에어컨 전시" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 신형 무풍에어컨 전시" class="img-responsive"&gt;
+          &lt;/div&gt;
         [머니투데이 심재현 기자] [미국 에어컨 시장 공략 본격화]&lt;br&gt;&lt;br&gt; 삼성전자 모델이 3일 미국 올랜도에서 열리는 북미 최대 공조 전시회 'AHR엑스포'에서 벽걸이형과 1웨이·4웨이 카세트형 등 무풍에어컨 풀 라인업을 중심으로 다양한 공조 솔루션을 소개하고 있다. /사진제공=삼성전자삼성전자가 3~5일(현지시간) 미국 플로리다주 올랜도에서 열리는 북미 최대 공조 전시회 'AHR엑스포'에서 최신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt;삼성전자는 약 330㎡(100평) 규모의 전시장에 벽걸이형 1웨이·4웨이 카세트형(천장형 실내기) 등 무풍에어컨을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. 무풍에어컨은 찬바람이 몸에 직접 닿지 않고도 쾌적한 냉방을 즐길 수 있도록 만든 삼성전자의 주력 제품으로 2016년 세계 최초로 개발했다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 북미 에어컨 시장을 공략하기 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등을 새롭게 선보인다. &lt;br&gt; &lt;br&gt;벽걸이형 무풍에어컨은 기존 제품보다 팬의 크기가 약 15% 커져 냉방 성능이 한층 강력해졌다. 무풍 패널이 11% 넓어진 와이드 무풍 냉방 기능도 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 내뿜는다. 31% 넓어진 블레이드는 최대 15m까지 바람을 보낸다.&lt;br&gt; &lt;br&gt;신제품에는 사용 패턴이나 실내외 온도 등을 분석해 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용됐다.&lt;br&gt;&lt;br&gt;삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨으로 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치할 수 있는 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다.&lt;br&gt; &lt;br&gt;이 제품은 실내기 폭이199㎜로 얇아 공간을 효율적으로 사용할 수 있다. 또 바람을 상·하단 두 방향으로 내보내는 방식으로 냉·난방 효과를 극대화했다. 따뜻한 바람이 하단으로 흘러나오기 때문에 바닥 부분까지 빠르게 난방할 수 있다.&lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 패밀리허브 냉장고나 TV로 에어컨과 공기청정기를 제어할 수 있는 홈 IoT(사물인터넷) 기술을 경험할 수 있는 체험존도 운영한다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2425,17 +2777,16 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 신형 무풍에어컨 전시" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg" alt="삼성전자 북미 최대 공조박람회 AHR엑스포 2020 참가" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg" alt="삼성전자 북미 최대 공조박람회 AHR엑스포 2020 참가" class="img-responsive"&gt;
+          &lt;/div&gt;
         [아시아경제 이기민 기자]삼성전자가 북미 최대 규모의 공조 박람회인 ‘AHR 엑스포 2020’에 참가해 혁신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt;삼성전자는 이달 3~5일(현지시간) 미국 플로리다주 올랜도에서 열리는 공조 박람회에 참가한다고 3일 밝혔다. AHR엑스포는 미국 난방냉동공조학회가 90년 동안 주최한 공조 박람회다. &lt;br&gt; &lt;br&gt;삼성전자는 약 100평 규모의 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;삼성전자가 2016년 세계 최초로 개발한 무풍에어컨은 찬바람이 몸에 직접 닿는 것을 꺼리는 소비자들을 위해 직바람 없이도 냉방을 즐길 수 있다는 게 장점으로 꼽힌다. &lt;br&gt; &lt;br&gt;특히 삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. 삼성 벽걸이형 무풍에어컨은 기존 대비 팬의 크기가 약 15% 확대돼 냉방성능이 이전보다 강력해졌다. 또한 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 경험할 수 있다. 아울러 31% 넓어진 블레이드가 최대 15m까지 바람을 보내줘 넓은 공간도 빠르게 냉방할 수 있다. &lt;br&gt; &lt;br&gt;이번 신제품에는 사용자의 사용 패턴이나 실내외 온도 등의 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다고 삼성전자는 설명했다. &lt;br&gt; &lt;br&gt;삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨(FJM Free Joint Multi)으로서 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. 삼성 콘솔형 에어컨은 실내기 폭이199mm로 슬림해 공간을 효율적으로 사용할 수 있다. 이 제품은 바람을 상·하단 두 방향으로 내보내는 방식으로 냉·난방 효과를 극대화했고 따뜻한 바람이 하단으로 흘러나오게 해 바닥 부분까지 빠르고 균일하게 난방할 수 있다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 ▲자동 승강 기능을 적용한 4Way·360 천장형 실내기의 편리한 필터 관리 기술 ▲패밀리허브 냉장고나 TV를 통해 에어컨과 공기청정기를 편리하게 제어할 수 있는 홈 사물인터넷(IoT)기술을 직접 경험할 수 있는 체험존도 운영한다. &lt;br&gt; &lt;br&gt;이 외에도 ▲최대 5대의 실내기가 연결 가능한 다배관 형태의 14kW FJM 실외기 ▲영하 15℃의 극한에서도 난방 성능을 100% 구현하는 ‘맥스 히트’ 시리즈 ▲컴팩트한 사이즈로 설치 편의성을 높인 ‘DVM S Eco’ 실외기 시리즈 등 북미 시장에서 지속적으로 호평 받았던 혁신 공조 솔루션도 함께 전시한다는 계획이다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 “&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택 폭을 넓히며 북미 공조 시장을 선도할 것&lt;/span&gt;”이라고 말했다. &lt;br&gt; &lt;br&gt;이기민 기자 victor.lee@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2443,17 +2794,16 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg" alt="삼성전자 북미 최대 공조박람회 AHR엑스포 2020 참가" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg" alt="이건희 10년간 1조4000억 삼성전자 배당금…가장 많이 챙긴 곳은 따로" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg" alt="이건희 10년간 1조4000억 삼성전자 배당금…가장 많이 챙긴 곳은 따로" class="img-responsive"&gt;
+          &lt;/div&gt;
         국내 최고 주식부호인 이건희 삼성전자 회장(78)이 지난해 삼성전자 배당금만 3538억원 받게 된다. 이 회장이 지난 10년 간 삼성전자에서 받은 배당금은 1조4000억원을 넘는 것으로 조사됐다.&lt;br&gt;&lt;br&gt;3일 기업분석 전문 한국CXO연구소가 2010년부터 10년 간 총수 일가의 삼성전자 배당금을 분석한 결과 이 회장은 2019년분 배당금 3538억원을 받는 것으로 나타났다. 지난해 삼성전자 보통주 1주당 배당금은 1416원 우선주는 1주당 1417원으로 책정됐다.&lt;br&gt;&lt;br&gt;이 회장은 삼성전자 보통주 2억4927만3200주로 배당금 3529억원 우선주 61만9900주로 8억원을 더해 총 3538억원 규모를 받을 예정이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;또 이 회장은 삼성전자 배당금에 더해 삼성생명에서 1100억원 삼성물산에서 108억원을 받아 지난해 배당금을 총 4700억원 받는 것으로 조사됐다.&lt;br&gt;&lt;br&gt;부인인 홍라희 전 리움 관장(75)은 삼성전자 주식으로 지난해 766억원 아들인 이재용 부회장(52)은 595억원 정도의 배당금을 받는 것으로 파악했다고 CXO연구소는 밝혔다. 총수 일가가 삼성전자에서 받은 배당금 액수는 지난해 4900억원 규모로 2018년에도 같은 수준이었다.&lt;br&gt;&lt;br&gt;2010년부터 지난해까지 10년 간 이 회장은 삼성전자 주식으로 1조4563억원의 배당금을 받은 것으로 집계됐다. 연 평균 배당금 1456억원을 꼬박꼬박 받아온 셈이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;삼성전자 주가 변동에 따라 2010년에 배당금 499억원에서 2011년 274억원으로 떨어졌다가 이후에는 2013년 714억원 2015년 1049억원 2017년 2024억원 2018년 3538억원으로 해마다 증가했다.&lt;br&gt;&lt;br&gt;같은 10년 동안 홍 전 관장은 3156억원 이 부회장은 2448억원을 삼성전자 배당금으로 챙겼다. 총수 일가의 10년 간 삼성전자 배당금은 총 2조168억원 수준으로 집계됐다.&lt;br&gt;&lt;br&gt;다만 삼성전자에서 가장 많은 배당금을 챙긴 주주는 이 회장 일가가 아니라 국민연금이다. 국민연금은 2010년부터 삼성전자 지분을 5% 넘게 보유하고 있다.&lt;br&gt;&lt;br&gt;국민연금은 2018년 배당금 8455억원 지난해 8865억원으로 2년 연속 8000억원대를 받는다.&lt;br&gt;&lt;br&gt;국민연금이 2010년부터 10년 간 삼성전자로부터 받은 배당금은 3조5007억원으로 이 회장 일가보다 약 1조원 더 많다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;지난해 삼성전자의 배당금을 가장 많이 받는 외국인 주주는 미국에 근거지를 둔 블랙록 펀드 어드바이저스 투자법인이다. 이 투자자는 지난해 1월 말부터 삼성전자 지분을 5% 이상 보유 지난해 배당금이 4253억원 규모로 집계됐다.&lt;br&gt;&lt;br&gt;지난해 말 기준 삼성전자 지분 중 57%를 외국인 주주가 갖고 있다. 지난해 총 배당금 9조6192억원 중 5조4800억원 정도는 외국인 주주가 갖고 가는 것이다.&lt;br&gt;&lt;br&gt;삼성전자는 2018년 주식분할로 인해 2018년과 지난해 1주당 배당금을 1416원으로 책정했다. 분할 이전으로 환산하면 7만800원 수준이다. 2017년(4만2500원)과 비교하면 주주들에게 더 많은 배당금을 주는 주주친화 정책을 편 것으로 풀이된다.&lt;br&gt;&lt;br&gt;당기순이익 중 배당금을 얼마나 지급하는지를 나타내는 ‘배당성향’도 삼성전자는 2014년부터 10% 이상을 유지했다. 2018년엔 21.9% 지난해 44.2%까지 높아졌다. 지난해 순이익은 전년보다 절반 이상 줄었으나 배당금은 그대로 유지하면서 배당성향이 배 이상 증가한 것이다.&lt;br&gt;&lt;br&gt;오일선 CXO연구소장은 “&lt;span class="quot0"&gt;삼성전자 실적은 악화했으나 회사 주주들이 챙기는 배당은 두둑해졌다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;주가가 상승하고 있고 배당금도 올라 주주들로서는 반길 일&lt;/span&gt;”이라고 말했다.&lt;br&gt;&lt;br&gt;전병역 기자 junby@kyunghyang.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2461,36 +2811,17 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg" alt="이건희 10년간 1조4000억 삼성전자 배당금…가장 많이 챙긴 곳은 따로" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg" alt="'국내 주식부호 TOP' 이건희 삼성전자 회장…작년 배당금만 3538억원" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg" alt="'국내 주식부호 TOP' 이건희 삼성전자 회장…작년 배당금만 3538억원" class="img-responsive"&gt;
+          &lt;/div&gt;
         이건희 삼성전자 회장이 지난해 삼성전자에서 받는 배당금이 3500억원이 훌쩍 넘는 것으로 나타났다. 이 회장은 2010년부터 10년간 삼성전자에서 1조4000억원의 배당금을 수령했다. &lt;br&gt; &lt;br&gt;3일 기업분석 전문 한국CXO연구소가 2010년부터 10년 간 이건희 회장 일가의 삼성전자 배당금 현황 조사를 분석한 결과 이 회장은 보통주 2억4927만3200주 우선주 61만9900주를 보유해 총 2019년분 배당금 3538억원을 받는다. &lt;br&gt; &lt;br&gt;작년 삼성전자 보통주 1주당 배당금은 1416원 우선주는 1주당 1417원으로 책정됐다. &lt;br&gt; &lt;br&gt;부인 홍라희 전 리움 관장은 삼성전자 주식으로 작년 766억원 아들인 이재용 부회장은 595억원 가량의 배당금을 받는다. 총수 일가의 작년 삼성전자 배당금은 4900억원 규모다. &lt;br&gt; &lt;br&gt;2010년부터 작년까지 10년동안 이 회장이 삼성전자 주식으로 받은 배당금은 1조4563억원이다. 같은 10년동안 홍 전 과장은 3156억원 이 부회장은 2448억원을 받았다. &lt;br&gt; &lt;br&gt;총수 일가의 10년 간 삼성전자 배당금은 2조168억원 수준이다. &lt;br&gt; &lt;br&gt;다만 삼성전자에서 가장 많은 배당금을 챙긴 주주는 국민연금이었다. 국민연금은 2010년부터 삼성전자 지분을 5% 넘게 보유하고 있다. 국민연금은 2018년 배당금 8455억원 지난해 8865억원을 수령했다. &lt;br&gt; &lt;br&gt;국민연금이 2010년부터 10년 간 삼성전자 지분을 보유하며 벌어들인 배당금은 3조5007억원이다. &lt;br&gt; &lt;br&gt;삼성전자의 배당성향(당기순이익 가운데 배당금 지급 규모)은 2014년부터 10% 이상을 유지했고 2018년엔 21.9% 지난해 44.2%까지 높아졌다. &lt;br&gt; &lt;br&gt;이송렬 한경닷컴 기자 yisr0203@hankyung.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg" alt="'국내 주식부호 TOP' 이건희 삼성전자 회장…작년 배당금만 3538억원" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-        [머니투데이 유희석 기자] [편집자주] 매일같이 수조원의 자금이 오가는 증시는 정보의 바다이기도 합니다. 정확한 정보보다는 거품을 잡아 손실을 보는 경우가 많습니다. 머니투데이가 상장기업뿐 아니라 기업공개를 앞둔 기업들을 돋보기처럼 분석해 '착시투자'를 줄여보겠습니다.&lt;br&gt;&lt;br&gt;[[종목대해부①]첨단소재 기술력 아모그린텍…자성소재·나노멤브레인 테슬라·삼성 등에 납품]&lt;br&gt;&lt;br&gt; &lt;br&gt;최근 미국 자동차 시장에서 역사에 기록될 만한 사건이 벌어졌다. 2003년 설립된 전기차 업체 테슬라 시가총액이 제너럴모터스(GM)에 포드를 더한 것을 넘어섰다. 100년이 넘는 역사를 가진 '늙은' 회사 두 곳이 17살 '청년' 하나보다 못한 대접을 받은 것이다. &lt;br&gt;&lt;br&gt;테슬라 주가는 최근 6개월 180% 가까이 급등했는데 지난해 불거진 생산 차질 문제 해결과 중국 상하이공장 본격 가동 기대감이 주가에 그대로 반영됐다. 바로 이 테슬라를 주요 고객사로 둔 부품 업체가 있다. 2004년 신소재와 이를 응용한 제품 제조를 위해 설립된 아모그린텍이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;고효율 자성·나노 멤브레인 등 첨단소재 기업 &lt;br&gt;━ &lt;br&gt; 아모그린텍은 첨단소재를 개발하고 이를 제품화해 판매하는 기업이다. 전력변환장치나 정밀 계측 부품에 쓰이는 고효율 자성(磁性)소재 사람 머리카락 500분의 1 굵기인 100~200나노(nm) 크기 소재인 나노 멤브레인 유연한 재질로 웨어러블과 플렉시블 기기에 사용되는 FPCB(연성인쇄회로기판) 등이 아모그린텍의 주력 제품이다. &lt;br&gt;&lt;br&gt;이들 제품은 자동차와 스마트 기기 부품에 응용할 수 있다. 자동차 부품으로는 인덕터코어(급격한 전류 변화 억제 및 전력 효율 향상 부품) 공통모드초크(CMC·전기회로 노이즈 제거 부품)가 있다. 아모그린텍은 테슬라뿐만 아니라 중국 1위 전기차 업체 비야디(BYD) 미국 자동차 부품업체인 리어(LEAR) 현대차그룹 계열사 현대모비스 등에도 납품한다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;방수·방열 부품 수요도 증가 &lt;br&gt;━ &lt;br&gt; 아모그린텍의 나노 멤브레인 벤트(Vent) 제품은 물 입자보다 작은 구조로 물은 통과시키지 않고 공기와 소리만 전달한다. 이런 특성 때문에 방수가 필요한 스마트폰의 스피커나 마이크 수신기 등의 구멍을 막는 데 활용된다. 아모그린텍은 무선충전 안테나 모듈이나 NFC(근거리 무선통신) 장치에 쓰이는 FPCB 전자기기의 열 발생을 차단하는 HTF(하이브리드 열필름) 등도 상용화해 납품하고 있다. 세계적인 스마트폰 제조사 삼성전자나 중국 최대 휴대전화 제조사 화웨이 등이 아모그린텍의 주요 고객이다. &lt;br&gt;&lt;br&gt;IT(정보기술) 시장조사업체 등에 따르면 올해 1분기 출시를 앞둔 신형 스마트폰의 연간 예상 출하량은 약 3500만대 수준 이 가운데 적어도 1800만대에 아모그린텍 부품이 쓰일 것으로 예상된다. 이로 말미암은 매출은 130억원 이상이다. 올해 전체 신규 출시 모델로 범위를 넓히면 약 8000만대 250억원의 관련 매출이 전망된다. 지난해 아모그린텍 전체 매출의 25% 수준이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;흑자 전환 성공…작년 8월 이후 주가 ↑ &lt;br&gt;━ &lt;br&gt; 아모그린텍은 주력 제품 판매가 궤도에 오르면서 실적이 꾸준히 개선되고 있다. 김두현 하나금융투자 연구원은 아모그린텍이 2018년 순이익이 39억원 적자에서 지난해 21억원 흑자로 돌아섰을 것으로 추정했다. 올해 아모그린텍 매출은 1394억원으로 전망했다. 지난해보다 45% 늘어난 수치다. 예상 영업이익은 지난해보다 344% 급증한 142억원 예상 순이익은 9.4% 증가한 131억원으로 제시했다. &lt;br&gt;&lt;br&gt;아모그린텍 주가는 지난해 3월 9900원으로 출발했다. 미·중 무역전쟁이 한창이던 지난해 8월 주가가 공모가 밑으로 떨어지기도 했으나 이후 가파르게 상승했다. 지난달 9일에는 1만5400원으로 사상 최고가를 기록했다. '신종코로나'(우한폐렴) 사태로 다시 1만3000원대로 주저앉았으나 상승 가능성은 높게 평가된다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;목표주가 1만8500원…국민연금도 투자 &lt;br&gt;━ &lt;br&gt; 김 연구원은 "&lt;span class="quot0"&gt;스마트폰용 나노 멤브레인 제품과 방열소재가 아모그린텍 실적 개선을 이끌 것&lt;/span&gt;"이라며 "&lt;span class="quot0"&gt;모회사인 아모텍의 안테나 부품 매출 증가에 힘입어 FPCB 매출도 대폭 확대될 것으로 보인다&lt;/span&gt;"고 분석했다. 이어 "아모그린텍은 5G 통신과 전기차 산업 노출도가 높아 장기 성장성을 보유했다"며 "투자 매력도가 높다"고 했다.&lt;br&gt;&lt;br&gt;김 연구원은 아모그린텍에 대해 투자의견 '매수' 목표주가 1만8500원을 제시했다. 목표주가는 올해 예상 주당순이익(EPS) 795원에 업종 평균 주가순익비율(PER) 23.27배가 적용됐다. 아모그린텍 최대주주는 김병규 아모텍 회장이다. 지분 40.32%를 갖고 있다. 이어 아모텍이 17.58% 미래에셋자산운용이 8.02%를 각각 보유한다. 국민연금도 아모그린텍 주요 주주다. 국민연금은 지난해 8월 아모그린텍 지분 6.2%를 매수했다. 그러다 지난해 12월 0.1% 지분을 정리해 현재 지분율은 6.1%다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2503,14 +2834,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203054123001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-   &lt;h5 style="font-size: 16px !important;"&gt;아동들에게 마술공연 저녁식사로 특별한 시간 선물&lt;/h5&gt;       
-        GS칼텍스가 여수시 관내 농어촌 지역에 거주하는 아동들에게 특별한 시간을 선물한다.&lt;br&gt;GS칼텍스는 지난 30일 저녁 여수시 돌산읍 소재 돌산지역아동센터에서 ‘GS칼텍스 힐링데이(Healing Day)’ 프로그램의 첫 발을 뗐다. 이날 초청된 아동 50여명은 전문 마술사의 마술공연을 관람하고 중식 요리사가 현장에서 정성껏 조리한 자장면을 먹으며 즐거운 한때를 보냈다.&lt;br&gt;박성미 여수시의회 기획행정위원장 허정란 여수지역아동센터연합회장 GS칼텍스 자원봉사자들도 참석해 배식 봉사를 하며 행사의 의미를 더했다.&lt;br&gt;김형국 GS칼텍스 생산본부 사장은 “&lt;span class="quot0"&gt;문화와 외식 활동 기회가 적은 농어촌 지역 아동들에게 작지만 특별한 즐거움을 선사하기 위한 취지로 ‘GS칼텍스 힐링데이’를 기획했다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;지역과 함께 성장?발전하는 GS칼텍스의 나눔 에너지가 사회 곳곳에서 가치를 더할 수 있는 방법을 지속적으로 고민하고 실천하겠다&lt;/span&gt;”고 밝혔다.GS칼텍스는 ‘GS칼텍스 힐링데이’를 통해 우선 돌산읍 소라면 율촌면 화양면 등의 지역에 소재한 8개 지역아동센터 아동들을 대상으로 격주 1회 소규모 공연과 함께 저녁식사를 제공할 예정이다. 이후 여수시 전체 지역아동센터로의 확대도 검토할 계획이다.&lt;br&gt;GS칼텍스는 2010년부터 여수지역아동센터연합회와 함께 지역 아동들의 건전한 꿈과 비전 함양을 돕기 위해 다양한 체험학습 프로그램도 연중 펼치고 있다. 작년까지 참여한 아동은 총 4500여명에 달한다.&lt;br&gt;여수 최종필 기자 choijp@seoul.co.kr
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203054123001.01.jpg" alt="테슬라·삼성전자가 찾는다…첨단소재 기술력 세계가 고객사" class="img-responsive"&gt;
+          &lt;/div&gt;
+        [머니투데이 유희석 기자] [편집자주] 매일같이 수조원의 자금이 오가는 증시는 정보의 바다이기도 합니다. 정확한 정보보다는 거품을 잡아 손실을 보는 경우가 많습니다. 머니투데이가 상장기업뿐 아니라 기업공개를 앞둔 기업들을 돋보기처럼 분석해 '착시투자'를 줄여보겠습니다.&lt;br&gt;&lt;br&gt;[[종목대해부①]첨단소재 기술력 아모그린텍…자성소재·나노멤브레인 테슬라·삼성 등에 납품]&lt;br&gt;&lt;br&gt; &lt;br&gt;최근 미국 자동차 시장에서 역사에 기록될 만한 사건이 벌어졌다. 2003년 설립된 전기차 업체 테슬라 시가총액이 제너럴모터스(GM)에 포드를 더한 것을 넘어섰다. 100년이 넘는 역사를 가진 '늙은' 회사 두 곳이 17살 '청년' 하나보다 못한 대접을 받은 것이다. &lt;br&gt;&lt;br&gt;테슬라 주가는 최근 6개월 180% 가까이 급등했는데 지난해 불거진 생산 차질 문제 해결과 중국 상하이공장 본격 가동 기대감이 주가에 그대로 반영됐다. 바로 이 테슬라를 주요 고객사로 둔 부품 업체가 있다. 2004년 신소재와 이를 응용한 제품 제조를 위해 설립된 아모그린텍이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;고효율 자성·나노 멤브레인 등 첨단소재 기업 &lt;br&gt;━ &lt;br&gt; 아모그린텍은 첨단소재를 개발하고 이를 제품화해 판매하는 기업이다. 전력변환장치나 정밀 계측 부품에 쓰이는 고효율 자성(磁性)소재 사람 머리카락 500분의 1 굵기인 100~200나노(nm) 크기 소재인 나노 멤브레인 유연한 재질로 웨어러블과 플렉시블 기기에 사용되는 FPCB(연성인쇄회로기판) 등이 아모그린텍의 주력 제품이다. &lt;br&gt;&lt;br&gt;이들 제품은 자동차와 스마트 기기 부품에 응용할 수 있다. 자동차 부품으로는 인덕터코어(급격한 전류 변화 억제 및 전력 효율 향상 부품) 공통모드초크(CMC·전기회로 노이즈 제거 부품)가 있다. 아모그린텍은 테슬라뿐만 아니라 중국 1위 전기차 업체 비야디(BYD) 미국 자동차 부품업체인 리어(LEAR) 현대차그룹 계열사 현대모비스 등에도 납품한다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;방수·방열 부품 수요도 증가 &lt;br&gt;━ &lt;br&gt; 아모그린텍의 나노 멤브레인 벤트(Vent) 제품은 물 입자보다 작은 구조로 물은 통과시키지 않고 공기와 소리만 전달한다. 이런 특성 때문에 방수가 필요한 스마트폰의 스피커나 마이크 수신기 등의 구멍을 막는 데 활용된다. 아모그린텍은 무선충전 안테나 모듈이나 NFC(근거리 무선통신) 장치에 쓰이는 FPCB 전자기기의 열 발생을 차단하는 HTF(하이브리드 열필름) 등도 상용화해 납품하고 있다. 세계적인 스마트폰 제조사 삼성전자나 중국 최대 휴대전화 제조사 화웨이 등이 아모그린텍의 주요 고객이다. &lt;br&gt;&lt;br&gt;IT(정보기술) 시장조사업체 등에 따르면 올해 1분기 출시를 앞둔 신형 스마트폰의 연간 예상 출하량은 약 3500만대 수준 이 가운데 적어도 1800만대에 아모그린텍 부품이 쓰일 것으로 예상된다. 이로 말미암은 매출은 130억원 이상이다. 올해 전체 신규 출시 모델로 범위를 넓히면 약 8000만대 250억원의 관련 매출이 전망된다. 지난해 아모그린텍 전체 매출의 25% 수준이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;흑자 전환 성공…작년 8월 이후 주가 ↑ &lt;br&gt;━ &lt;br&gt; 아모그린텍은 주력 제품 판매가 궤도에 오르면서 실적이 꾸준히 개선되고 있다. 김두현 하나금융투자 연구원은 아모그린텍이 2018년 순이익이 39억원 적자에서 지난해 21억원 흑자로 돌아섰을 것으로 추정했다. 올해 아모그린텍 매출은 1394억원으로 전망했다. 지난해보다 45% 늘어난 수치다. 예상 영업이익은 지난해보다 344% 급증한 142억원 예상 순이익은 9.4% 증가한 131억원으로 제시했다. &lt;br&gt;&lt;br&gt;아모그린텍 주가는 지난해 3월 9900원으로 출발했다. 미·중 무역전쟁이 한창이던 지난해 8월 주가가 공모가 밑으로 떨어지기도 했으나 이후 가파르게 상승했다. 지난달 9일에는 1만5400원으로 사상 최고가를 기록했다. '신종코로나'(우한폐렴) 사태로 다시 1만3000원대로 주저앉았으나 상승 가능성은 높게 평가된다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;목표주가 1만8500원…국민연금도 투자 &lt;br&gt;━ &lt;br&gt; 김 연구원은 "&lt;span class="quot0"&gt;스마트폰용 나노 멤브레인 제품과 방열소재가 아모그린텍 실적 개선을 이끌 것&lt;/span&gt;"이라며 "&lt;span class="quot0"&gt;모회사인 아모텍의 안테나 부품 매출 증가에 힘입어 FPCB 매출도 대폭 확대될 것으로 보인다&lt;/span&gt;"고 분석했다. 이어 "아모그린텍은 5G 통신과 전기차 산업 노출도가 높아 장기 성장성을 보유했다"며 "투자 매력도가 높다"고 했다.&lt;br&gt;&lt;br&gt;김 연구원은 아모그린텍에 대해 투자의견 '매수' 목표주가 1만8500원을 제시했다. 목표주가는 올해 예상 주당순이익(EPS) 795원에 업종 평균 주가순익비율(PER) 23.27배가 적용됐다. 아모그린텍 최대주주는 김병규 아모텍 회장이다. 지분 40.32%를 갖고 있다. 이어 아모텍이 17.58% 미래에셋자산운용이 8.02%를 각각 보유한다. 국민연금도 아모그린텍 주요 주주다. 국민연금은 지난해 8월 아모그린텍 지분 6.2%를 매수했다. 그러다 지난해 12월 0.1% 지분을 정리해 현재 지분율은 6.1%다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2523,31 +2852,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/01/31/01100611.20200131120335001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+   &lt;h5 style="font-size: 16px !important;"&gt;아동들에게 마술공연 저녁식사로 특별한 시간 선물&lt;/h5&gt;       
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/31/01100611.20200131120335001.01.jpg" alt="GS칼텍스 여수지역 아동 위한 ‘힐링데이’ 운영" class="img-responsive"&gt;
+          &lt;/div&gt;
+        GS칼텍스가 여수시 관내 농어촌 지역에 거주하는 아동들에게 특별한 시간을 선물한다.&lt;br&gt;GS칼텍스는 지난 30일 저녁 여수시 돌산읍 소재 돌산지역아동센터에서 ‘GS칼텍스 힐링데이(Healing Day)’ 프로그램의 첫 발을 뗐다. 이날 초청된 아동 50여명은 전문 마술사의 마술공연을 관람하고 중식 요리사가 현장에서 정성껏 조리한 자장면을 먹으며 즐거운 한때를 보냈다.&lt;br&gt;박성미 여수시의회 기획행정위원장 허정란 여수지역아동센터연합회장 GS칼텍스 자원봉사자들도 참석해 배식 봉사를 하며 행사의 의미를 더했다.&lt;br&gt;김형국 GS칼텍스 생산본부 사장은 “&lt;span class="quot0"&gt;문화와 외식 활동 기회가 적은 농어촌 지역 아동들에게 작지만 특별한 즐거움을 선사하기 위한 취지로 ‘GS칼텍스 힐링데이’를 기획했다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;지역과 함께 성장?발전하는 GS칼텍스의 나눔 에너지가 사회 곳곳에서 가치를 더할 수 있는 방법을 지속적으로 고민하고 실천하겠다&lt;/span&gt;”고 밝혔다.GS칼텍스는 ‘GS칼텍스 힐링데이’를 통해 우선 돌산읍 소라면 율촌면 화양면 등의 지역에 소재한 8개 지역아동센터 아동들을 대상으로 격주 1회 소규모 공연과 함께 저녁식사를 제공할 예정이다. 이후 여수시 전체 지역아동센터로의 확대도 검토할 계획이다.&lt;br&gt;GS칼텍스는 2010년부터 여수지역아동센터연합회와 함께 지역 아동들의 건전한 꿈과 비전 함양을 돕기 위해 다양한 체험학습 프로그램도 연중 펼치고 있다. 작년까지 참여한 아동은 총 4500여명에 달한다.&lt;br&gt;여수 최종필 기자 choijp@seoul.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100851/2020/01/23/02100851.20200123082202001.01.jpg" alt="김기태 GS칼텍스 사장 &amp;quot;주유소 라이프 스타일의 플랫폼으로 성장 할 것&amp;quot;" class="img-responsive"&gt;
+          &lt;/div&gt;
         김기태 GS칼텍스 사장이 주유소의 변신을 예고했다. 혁신을 통해 ‘라이프 스타일 플랫폼’으로 바꾸겠다는 것이다. 이와함께 신사업 중 하나인 ‘모빌리티’ 관련 업체들에 대한 지분투자 확대도 전망된다. &lt;br&gt; &lt;br&gt;김기태 사장은 21일 기자와 만나 “&lt;span class="quot0"&gt;주유소가 종전과 같이 기름만 넣는 공간이 아니라 라이프 스타일 스테이션으로 갈 수 있는 부분에서 끊임없는 혁신을 모색하고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;기름 판매에만 머무르지 않는 네트워크로 변신하는 게 목표&lt;/span&gt;”라고 말했다. &lt;br&gt; &lt;br&gt;허세홍 GS칼텍스 대표와 함께 GS칼텍스를 이끌고 있는 그는 ‘변화’를 주도 중이다. GS칼텍스는 유가 등 외부 환경에 따른 변동성이 큰 기존사업을 보완하는 방향으로 새로운 미래사업을 확대함으로써 안정적인 수익구조 확보와 지속 가능한 성장 기반을 마련하고 있다. 더 이상 전통적인 정유 산업만으로는 성장 가능성이 제한적이라는 게 그들의 공통된 시각이다. &lt;br&gt; &lt;br&gt;허 대표 역시 신년사에서 “&lt;span class="quot1"&gt;미래 사업환경 변화에 대비한 선제적이고 유연한 대응이 필요하다&lt;/span&gt;”며 “&lt;span class="quot1"&gt;미래 모빌리티 환경 변화에 따른 새로운 사업 기회를 발굴하는 노력도 지속해 나가야 한다&lt;/span&gt;”라고 모빌리티 사업에 대한 확장 의지를 내비쳤다. &lt;br&gt; &lt;br&gt;이를 위해 GS칼텍스는 기존 사업 분야에서는 단순한 규모 확장보다는 효율성을 높이기 위한 투자를 우선적으로 진행하고 신사업은 높은 미래성장성‧낮은 손익변동성‧회사 보유 장점 활용 기능성을 기준으로 선정해 집중 육성 중이다. &lt;br&gt; &lt;br&gt;현재 GS칼텍스는 ‘휘발유‧경유’주유와 ‘액화석유가스(LPG)‧수소‧전기’ 충전이 모두 가능한 ‘토탈 에너지 스테이션’을 서울과 수도권에서 준비하고 있다. 성장성이 높은 전기차 시장의 하부 시장을 선점하려는 포석이다. &lt;br&gt; &lt;br&gt;이와 함께 GS칼텍스는 보유한 핵심 자산인 주유소를 모빌리티와 연관 짓고 있다. 현재 GS칼텍스는 전국에 약 2400개의 주유소를 보유하고 있다. &lt;br&gt; &lt;br&gt;현대오일뱅크가 SK네트웍스의 직영 주유소를 인수하기 전까지는 정유 4사(SK에너지·GS칼텍스·현대오일뱅크·에쓰오일) 중 주유소 개수 2위 자리를 지킬 예정이다. &lt;br&gt; &lt;br&gt;GS칼텍스는 2016년 말 국내 대표 자동차 O2O서비스 카닥 2017년 4월 커넥티드카 전문업체인 오윈 2017년 10월 빅데이터를 활용한 시각 솔루션 전문업체 N3N 등에 전략적 투자를 진행했다. &lt;br&gt; &lt;br&gt;2018년에는 SK에너지와 함께 주유소를 거점으로 한 C2C 택배 집하 서비스 ‘홈픽’도 론칭했다. 스마트 보관함 서비스 ‘큐부(QBoo)'도 양사가 함께 운영 중이다. 또 지난해 말에는 카셰어링 업체 그린카에 투자하는 등 미래 자율주행 시대 모빌리티 거점을 개발하기 위해 협업을 추진 중이다. 지난 1월에는 LG전자와 손잡고 ‘미래형 에너지-모빌리티 융복합 스테이션’ 조성 관련 업무협약을 체결했다. &lt;br&gt; &lt;br&gt;업계에선 GS칼텍스가 모빌리티 사업 확장에 속도를 낼 것으로 전망하고 있다. GS칼텍스 내부 사정에 정통한 한 관계자는 “&lt;span class="quot2"&gt;GS그룹은 국내 대기업집단들 중에서도 전국에 깔린 '오프라인 자산'이 풍부한 그룹&lt;/span&gt;”이라며 “&lt;span class="quot2"&gt;보유 자산에 스타트업 등을 통한 간접 투자로 모빌리티 사업을 확장시키고 있는 만큼 관련 업체들에 대한 투자도 늘어날 것으로 보인다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt;. [사진=GS칼텍스 제공] &lt;br&gt; &lt;br&gt; &lt;br&gt;신수정 기자 ssj@ajunews.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100851/2020/01/23/02100851.20200123082202001.01.jpg" alt="김기태 GS칼텍스 사장 &amp;quot;주유소 라이프 스타일의 플랫폼으로 성장 할 것&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100851/2020/01/23/02100851.20200123082202001.01.jpg</t>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg" alt="GS칼텍스 설맞이 사랑의 떡 나눔 ‘훈훈’" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg" alt="GS칼텍스 설맞이 사랑의 떡 나눔 ‘훈훈’" class="img-responsive"&gt;
+          &lt;/div&gt;
         지역 대표기업 GS칼텍스(대표 허세홍 사장)가 설을 맞아 여수지역 소외이웃과 온정 가득한 뜻깊은 시간을 나눴다.&lt;br&gt;GS칼텍스에 따르면 지난 17일 여수시 소재 GS칼텍스 사랑나눔터에서 ‘설맞이 사랑의 떡 나눔 행사’를 가졌다.&lt;br&gt;이날 행사에는 권오봉 여수시장과 신미경 여수시복지보장협의체 부위원장 GS칼텍스 김형국 사장 GS칼텍스 퇴직사우 봉사단 및 여수지역 봉사단 등 30여명이 봉사자로 참여해 사랑 나눔을 펼쳤다.&lt;br&gt;봉사자들은 이날 GS칼텍스가 10년 넘게 운영 중인 무료급식소 ‘사랑나눔터’를 방문한 여수지역 결식우려 어르신 등 소외이웃 400여명에게 맛있는 떡국(점심)을 대접했다. 식사 후에는 시루떡과 인절미 꿀떡이 담긴 떡 세트와 떡국용 떡을 선물해 훈훈한 설날 온정을 더했다.&lt;br&gt;이날 어르신들께 제공된 떡 세트는 사회적기업인 여수 시니어클럽에서 제공해 눈길을 끌었다.&lt;br&gt;GS칼텍스 관계자는 “&lt;span class="quot0"&gt;지역 대표기업으로서 사랑나눔터를 찾는 어르신들께 단순한 한끼 식사 제공이 아닌 지역사회의 따뜻한 정을 느끼는 사랑나눔터로 편안하게 이용하실 수 있도록 앞으로도 최선을 다할 것&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;한편 지난 2008년 5월 처음 문을 연 GS칼텍스 사랑나눔터는 매주 5일 동안(월~금)하루 350여명의 결식 우려 어르신들에게 무료 점심식사를 제공하며 지역사랑을 펼치고 있다. 개소 후 지난해 말까지 이곳을 이용한 지역 소외 이웃만 총 94만 6000여명에 달한다.&lt;br&gt; /여수=김창화 기자 chkim@kwangju.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2555,30 +2893,26 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg" alt="GS칼텍스 설맞이 사랑의 떡 나눔 ‘훈훈’" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg" alt="허세홍 GS칼텍스 사장의 '靑靑 리더십'" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg" alt="허세홍 GS칼텍스 사장의 '靑靑 리더십'" class="img-responsive"&gt;
+          &lt;/div&gt;
         [아시아경제 박소연 기자 황윤주 기자] 지난 10일 저녁 서울 강남구 역삼동 GS타워 인근 이탤리언 레스토랑. 청청 패션(데님 소재 옷차림)을 한 '훈남' 사장님과 직원 이십여 명이 왁자지껄한 분위기 속에서 와인잔을 기울이고 있었다. 인근 스타트업의 회식인가 싶었는데 몇 사람이 GS그룹 배지를 달고 있었다. 자세히 보니 청청 패션의 훈남 사장님은 허세홍 GS칼텍스 사장. 그는 이날의 호스트로 끝까지 분위기를 이끌면서 직원들과 격의 없이 대화를 나눴다. &lt;br&gt; &lt;br&gt;지난해 1월 취임한 허 사장이 GS칼텍스의 내부 문화를 유연하고 수평적으로 바꾸고 있다는 평가가 나온다. 취임 직후 대전기술연구소와 여수 공장 등 현장으로 달려가 직원들과 밥을 함께 먹으면서 이야기를 나누는 모습이 공개되기도 했다. &lt;br&gt; &lt;br&gt;일회성으로 끝날 것이라는 예상과 달리 허 사장은 식사 자리를 통해 직원들과 자주 스킨십을 하고 있다. GS타워 근처에 위치한 레스토랑은 허 사장과 직원들이 자주 찾는 장소로 유명하다. 함께 식사하면 마음을 쉽게 터놓을 수 있다는 그의 평소 지론을 실천하기 위함이다. &lt;br&gt; &lt;br&gt;올해 신년사에서도 허 사장이 조직을 다독이고 적극적으로 이끌어가려는 다짐을 엿볼 수 있다. 허 사장은 GS칼텍스의 핵심 과제와 미래 전략을 성공적으로 완수하기 위해 도전과 변화를 강조하며 이를 위해 임직원들이 적극적으로 소통할 것을 당부했다. &lt;br&gt; &lt;br&gt;GS그룹에 불리한 이슈가 발생했을 때 직접 소방수로도 나서고 있다. 지난해 10월 허 사장이 전남 여수 공장의 대기오염물질 배출 조작에 대해 공식 사과한 것이 대표적이다. 허 사장은 당시 권오봉 여수시장을 만나 "&lt;span class="quot0"&gt;30만 여수시민에게 머리 숙여 사과한다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;앞으로 철저한 재발 방지 대책을 마련하고 여수국가산단 제1 기업으로서 책임을 다하겠다&lt;/span&gt;"고 말했다. &lt;br&gt; &lt;br&gt;한편 허 사장은 올해 첫 해외 출장으로 오는 21일부터 24일까지 스위스 다보스에서 열리는 세계경제포럼(WEF)에 참석한다. 업계 관계자는 "&lt;span class="quot1"&gt;지난해에 이어 올해 두 번째로 다보스 포럼에 참석해 비즈니스 동향을 파악하고 그룹의 새로운 사업 기회를 구상할 것으로 보인다&lt;/span&gt;"고 말했다. &lt;br&gt; &lt;br&gt;박소연 기자 muse@asiae.co.kr &lt;br&gt; &lt;br&gt;황윤주 기자 hyj@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg" alt="허세홍 GS칼텍스 사장의 '靑靑 리더십'" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg</t>
+    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg" alt="GS칼텍스 부진에 속타는 GS家… 복잡해진 배당 셈법" class="img-responsive"&gt;
+          &lt;/div&gt;
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2586,43 +2920,31 @@
       &lt;div class="news-detail__content"&gt;
    &lt;h5 style="font-size: 16px !important;"&gt;GS칼텍스 고전에 배당 등 큰폭 줄듯
 (주)GS 오너일가 수입감소 불가피&lt;/h5&gt;       
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg" alt="GS칼텍스 부진에 속타는 GS家… 복잡해진 배당 셈법" class="img-responsive"&gt;
+          &lt;/div&gt;
         [디지털타임스 장우진 기자] GS칼텍스가 지난해 실적 부진으로 지주사인 (주)GS에 내는 상표권수수료와 배당금 규모가 쪼그라들 가능성이 높아졌다. 허창수 명예회장과 허태수 회장 등 오너일가가 지분 절반을 보유한 (주)GS는 4년째 배당을 확대해오고 있지만 GS칼텍스의 고전으로 올해는 배당전략 셈법이 복잡해졌다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;16일 관련업계에 따르면 GS칼텍스는 지난해 1~3분기 당기순이익 3412억원을 기록했다. 이는 전년 동기 대비 5111억원(60.0%) 급감한 수준이다. 이전까지는 당기순이익 규모가 계열사 중 1위를 차지했지만 지난해엔 GS건설(4475억원)에 밀렸다. 같은 기간 매출액은 24조5665억원을 기록해 2조908억원(7.8%) 줄었다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;(주)GS는 순수지주회사로 계열사로부터 받는 상표권수수료와 배당금수익이 주 수입원이다. GS는 작년 9월말 기준 허 명예회장(4.75%)과 허 회장(1.98%) 등 오너일가 및 특수관계자 지분율이 48%에 달하는데 상표권수수료와 배당금수익에 따라 오너일가에 돌아가는 배당금 액수가 달라질 수 있다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS는 2018년 사업연도에 대한 상표권수수료로 903억원을 받았다. 이 중 GS칼텍스는 364억원을 지급해 전체의 40%를 차지 계열사 중 기여도가 가장 높았다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;대부분 계열사들은 매출액에서 광고선전비를 뺀 금액의 0.2%를 곱해 상표권수수료를 산정한다. 다만 GS칼텍스는 지분 50%를 미국의 쉐브론이 갖고 있어 매출에서 광고선전비를 제외한 금액의 0.1%을 곱해 정해진다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 지난해 3분기까지 매출액이 2조원 넘게 줄어 4분기 반등이 없는 이상 상표권수수료 역시 감소할 가능성이 높다. 이 기간 광고선전비는 403억원에서 446억원으로 증가해 소폭이나마 부담이 더해졌다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;배당도 마찬가지다. (주)GS는 중간지주사인 GS에너지 지분 100%를 보유하고 있고 GS에너지의 GS칼텍스 지분율은 50%다. GS에너지는 GS칼텍스 외에 GS파워 인천종합에너지 등의 자회사를 보유하고 있으며 GS칼텍스의 의존도가 절대적이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 GS에너지에 배당을 단행하고 GS에너지는 이를 다시 지주사에 배당하는 형태인데 그룹에서 GS칼텍스가 차지하는 비중이 큰 만큼 배당에도 지대한 영향을 끼친다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 1조4000억원대의 당기순이익을 기록한 2016~2017년 보통주 1주당 2만2000~2만7000원대의 배당을 단행했지만 7000억원대로 쪼그라든 2018년엔 1주당 1만823원에 그쳤다. 자연스레 GS에너지 역시 2018년 1주당 5752원에서 지난해는 2814원으로 배당규모가 반토막났다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS는 2015년 1주당 1200원에서 지난해 1900원으로 4년 연속 배당을 확대해왔다. 최근 3년간 배당성향은 17~19%대를 유지하고 있지만 올해 배당은 지난해 실적 부진으로 인해 셈법이 복잡해질 수밖에 없다. GS의 지난해 3분기 당기순이익은 6506억원으로 전년 대비 23% 감소했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS건설의 경우 3분기 매출액이 전년보다 2조2882억원(23.1%) 줄어 상표권수수료 감소는 불가피할 전망이다. 다만 당기순이익은 437억원(8.9%) 주는 데 그쳤고 지분은 (주)GS가 아닌 오너일가가 25%를 보유했다는 점에서 배당압박은 덜한 편이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS에너지 관계자는 "&lt;span class="quot0"&gt;정유업황 부진으로 실적이 전반적으로 부진했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;4분기 실적이 아직 나오지 않은 만큼 배당전략은 아직 나오지 않은 상태&lt;/span&gt;"라고 전했다. GS 관계자는 "&lt;span class="quot1"&gt;배당의 경우 연간 실적발표가 나온 후 결정될 사안이어서 아직 정해진 내용은 없다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;장우진기자 jwj17@dt.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg" alt="GS칼텍스 부진에 속타는 GS家… 복잡해진 배당 셈법" class="img-responsive"&gt;
-          &lt;/div&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg" alt="[클릭 e종목]“GS 올해 GS칼텍스 실적 호전될 것”" class="img-responsive"&gt;
+          &lt;/div&gt;
         [아시아경제 구은모 기자] KB증권은 GS에 대해 증설 및 원가절감을 통한 민자발전 자회사의 이익성장이 예상되고 지속적인 배당확대를 통해 주주가치제고가 기대된다며 투자의견과 목표주가를 각각 ‘매수’와 6만5000원으로 유지했다. &lt;br&gt; &lt;br&gt;백영찬 KB증권 연구원은 3일 보고서에서 GS의 올해 매출액은 지난해보다 4.4% 증가한 18조7117억원 영업이익은 11.4% 늘어난 2조2466억원으로 추정했다. 백 연구원은 “&lt;span class="quot0"&gt;이익증가의 배경은 GS칼텍스 실적호전이 예상되기 때문&lt;/span&gt;”이라며 “&lt;span class="quot0"&gt;올해 GS칼텍스의 영업이익은 1조 2528억원으로 작년 대비 28.6% 증가할 것&lt;/span&gt;”으로 내다봤다. &lt;br&gt; &lt;br&gt;지난해 4분기 낮아진 정제마진은 올 상반기부터 다시 상승할 전망이다. 백 연구원은 “&lt;span class="quot0"&gt;정제마진 상승을 예상하는 이유는 IMO 2020 시행으로 인해 디젤 수요 증가가 예상되고 올해 정제설비 신증설은 89만B/D로 원유수요 증가보다 작을 것으로 추정되며 중국의 석유제품 품질강화 정책으로 노후화된 설비의 감소가 예상되기 때문&lt;/span&gt;”이라고 설명했다. &lt;br&gt; &lt;br&gt;지난해 4분기 매출액은 전년 동기 대비 14.9% 증가한 4조4786억원 영업이익은 17.8% 늘어난 4650억원을 기록해 영업이익 기준 시장예상치(5501억원)에 미치지 못할 전망이다. 4분기 GS칼텍스의 영업이익은 1894억원으로 전년 동기 대비 흑자 전환하지만 3분기 대비 41.2% 감소할 전망이다. &lt;br&gt; &lt;br&gt;구은모 기자 gooeunmo@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg" alt="[클릭 e종목]“GS 올해 GS칼텍스 실적 호전될 것”" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg" alt="GS칼텍스 “여수시 충무동 벽화골목에 어린이 역사체험 타일벽화 설치”" class="img-responsive"&gt;
+          &lt;/div&gt;
         GS칼텍스는 전남 여수시 충무동 벽화골목에 어린이들의 역사체험을 담아 만든 타일벽화를 설치했다고 30일 밝혔다(사진). 타일벽화는 ‘2019년 GS칼텍스 희망에너지교실 큰바위 얼굴 역사체험’ 프로그램에 참여한 여수 10개 지역아동센터 어린이들의 타일 200점으로 제작됐다. 타일벽화는 가로 6m 세로 3m 크기 작품이다. &lt;br&gt; &lt;br&gt; 2017년부터 이어온 GS칼텍스 큰바위 얼굴 역사체험 프로그램은 올해 200명의 여수 어린이를 대상으로 진행됐다. 3년째 역사 프로그램이 끝나면 타일벽화를 제작해 설치하고 있다. &lt;br&gt; &lt;br&gt; 올해는 역사교육 30차례 선사시대 유적지나 옛 성터는 물론 진남관과 흥국사 등 여수 대표 역사유적지 탐방을 12차례 전개했다. &lt;br&gt; &lt;br&gt; 허정란 여수지역아동센터연합회 회장은 “&lt;span class="quot0"&gt;옛 도심 거리를 지역 역사와 어린이들의 미래 지향적인 에너지가 함께 담긴 벽화로 채워나가고 있어 의미가 있다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt; GS칼텍스 희망에너지교실은 어린이들이 건전한 꿈과 비전을 키울 수 있도록 다양한 체험 교육을 제공하는 사회 공헌활동이다. GS칼텍스는 올 초 여수지역사회연구소와 함께 제작한 역사교육 책자와 태블릿PC(3200만 원 상당)를 지역아동센터에 후원했다. 허세홍 GS칼텍스 대표는 “&lt;span class="quot1"&gt;여수지역 어린이들이 바르게 성장할 수 있도록 양질의 프로그램을 지속적으로 발굴해 운영하겠다&lt;/span&gt;”고 했다. &lt;br&gt; &lt;br&gt;이형주 기자 peneye09@donga.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2630,36 +2952,28 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg" alt="GS칼텍스 “여수시 충무동 벽화골목에 어린이 역사체험 타일벽화 설치”" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg" alt="GS칼텍스 마음톡톡 뮤직 힐링 콘서트 개최" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
    &lt;h5 style="font-size: 16px !important;"&gt;GS칼텍스∙순천지청∙이화여대 위기청소년 심리∙정서 치유&lt;/h5&gt;       
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg" alt="GS칼텍스 마음톡톡 뮤직 힐링 콘서트 개최" class="img-responsive"&gt;
+          &lt;/div&gt;
         GS칼텍스(대표 허세홍 사장)와 광주지방검찰청 순천지청(김욱준 지청장)이 지난 14일 여수시 GS칼텍스 예울마루 소극장에서 '전남동부지역 위기청소년 마음톡톡 뮤직 힐링 콘서트'를 성황리에 개최했다.&lt;br&gt;18일 GS칼텍스에 따르면 '위기청소년 마음톡톡'은 순간의 잘못으로 인해 사법기관의 보호관찰 및 선도조건부 기소유예 처분을 받은 전남동부지역 청소년을 처벌하는 대신 예술치유 프로그램 이수를 통해 건강한 사회구성원으로 성장하도록 돕기 위해 기획됐다.&lt;br&gt;이날 열린 콘서트는 올 한해 마음톡톡 예술치유 프로그램에 참여한 청소년 50명이 5개의 팀을 구성해 준비하고 연습한 노래와 악기 연주 무대로 꾸며졌다. 15주 과정의 프로그램을 운영한 이화여대 대학원 음악치료학과는 참여 청소년들에게 작사·작곡 악기 연주 등을 가르치며 심리∙정서 치유와 내면의 성장을 도왔다.&lt;br&gt;법무부 법사랑위원 전남동부지역연합회 GS칼텍스 이화여대에서도 찬조 무대를 꾸몄다. 법무부 법사랑위원은 섹소폰 연주를 GS칼텍스 음악 동호회 킥스(Kixx)밴드와 이화여대는 청소년들과 호흡을 맞춰 합동 무대를 펼쳤다.&lt;br&gt;GS칼텍스는 마음톡톡 프로그램에 성실하게 참여한 청소년 5명을 선발해 장학금도 전달했다.&lt;br&gt;GS칼텍스는 지난 2016년 4월 순천지청 법무부 법사랑위원 전남동부지역연합회와 '마음톡톡 예술치유 지원 업무 협약'을 체결하고 전남동부지역 위기청소년들을 대상으로 하는 집단 음악치유 프로그램을 시작했다. 프로그램에 참여한 지역 청소년은 올해까지 총 364명에 달해 관∙산∙학 협력의 모범사례로 자리매김 하고 있다.&lt;br&gt;순천지청 관계자는 "&lt;span class="quot0"&gt;마음톡톡 예술 치유 프로그램이 지역 위기청소년들의 바른 성장을 돕는데 큰 역할을 하고 있다&lt;/span&gt;"고 평가했으며 GS칼텍스는 "&lt;span class="quot0"&gt;청소년들이 한 번의 잘못으로 주저앉지 않고 관∙산∙학의 도움을 통해 꿈과 비전을 함양해 갈 수 있도록 앞으로도 지원을 아끼지 않겠다&lt;/span&gt;"고 말했다.&lt;br&gt;한편 GS칼텍스가 2013년부터 펼쳐온 대표 사회공헌사업인 '마음톡톡'은 청소년기를 지나는 아이들의 건강한 또래관계와 학교생활을 위해 자아와 사회성을 증진시키는 집단예술치유 프로그램으로 올해까지 7년간 전국에서 총 1만 8350명의 아동∙청소년들의 마음 치유를 지원해 오고 있다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg" alt="GS칼텍스 마음톡톡 뮤직 힐링 콘서트 개최" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg" alt="CJ푸드빌 제일제면소 LG전자와 손잡고 '미래형 스마트 매장' 도입" class="img-responsive"&gt;
+          &lt;/div&gt;
         CJ푸드빌이 운영하는 별미국수 전문점 제일제면소 서울역사점에 서빙 로봇을 시범 도입한다고 3일 밝혔다.&lt;br&gt;&lt;br&gt;제일제면소는 LG전자가 개발한 'LG 클로이 서브봇'을 국내 최초로 현장에 도입했다. 클로이 서브봇은 지능형 자율주행 기능으로 최적의 동선을 파악해 주문한 테이블에 도착한다. 3D 카메라와 초음파 센서가 있어 이동 시 테이블 간 좁은 사이를 순조롭게 이동하며 장애물을 피하거나 멈춰 설 수 있다.&lt;br&gt;&lt;br&gt;제일제면소 서울역사점은 매장 입장부터 서빙까지 첨단기술을 적용한 매장으로 운영된다. 매장 대기 시 '스마트 웨이팅' 시스템으로 매장 앞 태블릿PC에 이름과 연락처를 남기면 입장 순서에 맞춰 카카오톡 메시지를 받는다. 매장에 입장하면 각 테이블에 있는 태블릿PC로 메뉴 주문 직원 호출 등을 할 수 있어 빠르고 편리하게 서비스 받을 수 있다.&lt;br&gt;&lt;br&gt;클로이 서브봇의 도입은 직원과 고객의 편의를 극대화 시켜주는 역할을 한다. 가장 큰 장점은 4인 메뉴를 한번에 옮길 수 있어 고객이 기다림 없이 음식을 받을 수 있다는 점이다. 기존에는 4인 주문 시 한 명의 직원이 여러 번에 거쳐 서빙을 해 모든 메뉴가 나오길 기다렸다. 하지만 이번 클로이 서브봇 도입으로 단 한 번에 서빙이 가능하다. 국물이 많은 면 요리도 안정적으로 옮기는 것이 특징이다. 테이블 정리도 한결 빠르고 수월해져 대기 고객이 빠르게 입장 할 수 있다. 식사 후 클로이 서브봇이 빈 그릇을 주방으로 옮겨줘 직원은 테이블 정리 등 마무리만 하면 된다.&lt;br&gt;&lt;br&gt;제일제면소 관계자는 “&lt;span class="quot0"&gt;서울역사점에 우선적으로 주문 및 서빙 등 혁신 기술을 도입해 고객에게 신선한 즐거움을 선사할 예정이다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;직원들이 고객 서비스에 더욱 집중해 특별하고 높은 서비스를 기대해주시길 바란다&lt;/span&gt;”고 말했다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2667,18 +2981,17 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg" alt="CJ푸드빌 제일제면소 LG전자와 손잡고 '미래형 스마트 매장' 도입" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg" alt="LG전자 클로이 서브봇 CJ 제일제면소에 첫 출근" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
    &lt;h5 style="font-size: 16px !important;"&gt;음식 나르고 빈그릇 운반&lt;/h5&gt;       
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg" alt="LG전자 클로이 서브봇 CJ 제일제면소에 첫 출근" class="img-responsive"&gt;
+          &lt;/div&gt;
         LG전자(066570)가 지난달 미국 라스베이거스에서 열린 CES 2020에서 처음 선보인 클로이 서브봇이 실제 매장에 도입된다. &lt;br&gt; &lt;br&gt;LG전자와 CJ푸드빌은 지난달 31일 서울 중구에 위치한 제일제면소 서울역사점에 LG 클로이 서브봇 1대를 도입하고 본격적인 운영을 시작했다고 3일 밝혔다. 클로이 서브봇은 실내 자율주행 및 장애물 회피 기술을 이용해 고객이 있는 테이블까지 음식을 가져다주고 고객이 식사를 마치면 고객이 있는 테이블로 되돌아가 빈 그릇을 운반한다. LG전자와 CJ푸드빌은 클로이 서브봇이 뜨겁거나 무거운 그릇에 담긴 요리를 옮기는 데 유용해 레스토랑 직원들이 보다 세심하게 고객을 응대하는 등 좀 더 가치 있는 일에 집중할 수 있을 것으로 기대하고 있다. &lt;br&gt; &lt;br&gt;아울러 클로이 서브봇의 화면은 다양한 얼굴 표정을 보여주며 고객에게 친근한 이미지를 준다. 장애물을 감지하면 “죄송합니다. 잠시만 지나가도 될까요?”라고 말하며 충돌을 피하며 이동 중에는 노래가 흘러나와 주변의 고객은 서브봇이 움직이고 있다는 것을 쉽게 알 수 있다. &lt;br&gt; &lt;br&gt;LG전자와 CJ푸드빌은 앞서 지난해 11월 빕스 등촌점에 클로이 셰프봇을 도입히기도 했다. 양사는 앞으로 고객에게 차별화된 경험을 제공함과 동시에 각종 로봇의 솔루션을 함께 개발해 새로운 고객 가치를 만들어 나갈 계획이다. &lt;br&gt; &lt;br&gt;노진서 LG전자 로봇사업센터장 전무는 “&lt;span class="quot0"&gt;올해 CES에서 선보인 셰프봇 서브봇 등 여러 로봇들이 점차 현실에 도입되고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;고객에게 새로운 가치를 제공할 수 있는 로봇을 지속적으로 선보이며 사람과 로봇이 협력하는 사회를 만드는 데 기여할 것&lt;/span&gt;”이라고 강조했다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2686,17 +2999,16 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg" alt="LG전자 클로이 서브봇 CJ 제일제면소에 첫 출근" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg" alt="LG전자 보급형 신제품 'LG Q51' 이달 중 출시" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg" alt="LG전자 보급형 신제품 'LG Q51' 이달 중 출시" class="img-responsive"&gt;
+          &lt;/div&gt;
         LG전자가 올해 첫 스마트폰으로 보급형 'LG Q51'을 출시한다. 예상 출고가 30만~40만원대 제품으로 가성비를 앞세워 롱텀에벌루션(LTE) 틈새 시장을 공략한다.&lt;br&gt;&lt;br&gt;LG Q51은 6.5인치 LCD 디스플레이에 V노치 형태로 1300만화소 전면 카메라를 탑재했다. 후면에는 1300만화소 메인 500만화소 초광각 200만화소 심도로 구성된 트리플 카메라를 적용했다.&lt;br&gt;&lt;br&gt;모바일 애플리케이션 프로세서는 대만 미디어텍 '헬리오P22'다. 지문인식과 LG페이를 지원하며 4000㎃h 대용량 배터리도 탑재했다. 램은 3GB 저장용량은 32GB다. 티탄과 화이트 두 가지 색상으로 출시한다.&lt;br&gt;&lt;br&gt;박정은기자 jepark@etnews.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2704,17 +3016,16 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg" alt="LG전자 보급형 신제품 'LG Q51' 이달 중 출시" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+          &lt;/div&gt;
         LG전자가 지난달 필리핀 마닐라 근처 탈(Taal) 화산 폭발로 피해를 입은 주민을 위해 봉사활동에 나섰다고 2일 밝혔다. &lt;br&gt; &lt;br&gt; LG전자 필리핀법인은 최근 탈 화산 인근 지역에 마련된 주요 대피소 세 곳을 방문해 무료세탁방을 운영하고 의료서비스를 제공했다(사진). LG전자는 피해를 입은 가전제품을 무상으로 수리해 주는 등 이재민을 위한 다양한 활동도 진행할 계획이다. &lt;br&gt; &lt;br&gt;김성훈 기자
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2722,18 +3033,17 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg" alt="LG전자 `생활가전 1위` 가속… 영업익 3년째 美월풀 넘었다" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
    &lt;h5 style="font-size: 16px !important;"&gt;매출에선 2조원차로 추격&lt;/h5&gt;       
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg" alt="LG전자 `생활가전 1위` 가속… 영업익 3년째 美월풀 넘었다" class="img-responsive"&gt;
+          &lt;/div&gt;
         [디지털타임스 박정일 기자] LG전자가 생활가전 사업에서 3년 연속으로 미국 월풀(Whirlpool)의 영업이익을 제쳤다. 매출 규모도 월풀을 바짝 뒤쫓으며 '글로벌 1위' 도약에 속도를 내고 있다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;2일 업계에 따르면 LG전자의 H&amp;amp;A(홈어플라이언스앤에어솔루션) 부문은 지난 2017년부터 작년까지 연간 영업이익에서 세계 1위 가전사인 미국 월풀을 앞섰다. LG전자 가전 부문 영업이익은 2019년 1조9962억원을 기록해 2년 전 1조4000억원 1년 전 1조5000억원에 이어 꾸준히 상승했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;같은 기간 월풀의 영업이익은 1조3000억원 3000억원 1조7000억원대를 기록해 3년 연속으로 LG전자를 밑돌았다. 이는 영업이익률이 상대적으로 높은 의류 관리기 등 이른바 '신가전'과 프리미엄 가전 시장에서 LG전자가 선두를 차지한 데 따른 것으로 해석된다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;LG전자와 월풀의 매출 격차도 지난 2016년과 비교해 큰 폭으로 줄었다. 2016년만 해도 LG전자는 17조원 월풀은 24조원으로 7조원에 가까운 차이를 보였다. 그러나 지난해 LG전자 매출은 처음 20조원을 돌파해 21조5000억원을 기록했고 월풀은 23조5000억원으로 격차는 2조원으로 줄어들었다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이는 미국 가전 업계 '대장' 격인 월풀이 수년째 23조∼24조원 수준의 매출 규모에 머무르며 정체되고 있기 때문이다. 반면 LG전자는 전 세계를 상대로 활발한 영업활동을 펼치며 작년 상반기에는 월풀 매출을 뛰어넘고 한때 '글로벌 1위 가전사'로 올라섰다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;다만 같은 해 하반기 실적을 보면 월풀이 약 12조1000억원의 매출을 올려 다시 LG전자(9조9000억원)에 앞섰다. 월풀이 '홈그라운드'인 미국에서 연말 블랙프라이데이 효과를 톡톡히 거두면서다. 국내 가전 업체가 블랙프라이데이에 월풀과 맞서려면 보다 강력한 프로모션이 필요해 영업이익률이 낮아지는 부담을 감수해야 한다. 업계 관계자는 "&lt;span class="quot0"&gt;'손해 보고 장사하지 않는다'는 LG전자 가전 전략에 따라 당분간은 상반기 LG전자 하반기 월풀이 선전하는 경쟁 구도가 이어질 것&lt;/span&gt;"이라고 전망했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;박정일기자 comja77@dt.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2741,12 +3051,8 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg" alt="LG전자 `생활가전 1위` 가속… 영업익 3년째 美월풀 넘었다" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg" alt="렌털계정수 200萬 넘은 LG전자 … &amp;quot;올해 270만 간다&amp;quot;" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2755,41 +3061,12 @@
    &lt;h5 style="font-size: 16px !important;"&gt;케어솔루션 서비스 차별화 주효
 1인가구·공유경제 기반 고성장
 업계 2위 경쟁 더 치열해질듯&lt;/h5&gt;       
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg" alt="렌털계정수 200萬 넘은 LG전자 … &amp;quot;올해 270만 간다&amp;quot;" class="img-responsive"&gt;
+          &lt;/div&gt;
         [디지털타임스 이미정 기자]LG전자가 지난해 렌털 계정수 200만 고지를 달성한 가운데 올해에도 렌털 사업이 고공행진을 이어갈 것이란 전망이 나온다. LG전자는 렌털 품목 확대와 케어솔루션 조직 강화 등으로 렌털 사업을 꾸준히 확대해 2위 지위를 공고히 한다는 계획이다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;2일 업계에 따르면 렌털 사업을 포함한 LG전자 홈어플라이언스&amp;amp;에어솔루션(H&amp;amp;A)의 올해 1분기 실적은 매출은 5조7000억원 영업이익 7000억원이 예상된다. 특히 올해 1분기 H&amp;amp;A의 영업이익률은 12~13%에 달할 것으로 전망했다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;LG전자 관계자는 최근 컨퍼런스콜에서 "&lt;span class="quot0"&gt;지난해 말 기준 200만개를 상회하는 수준으로 계정을 확보해 전년 대비 40%의 성장을 이뤘다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;올해도 30% 이상 고성장을 통해 270만개 이상 계정 확보를 목표하고 있다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;2009년 정수기를 시작으로 렌털 사업에 진출한 LG전자는 2018년 생활가전 제품의 사후관리 서비스를 제공하는 케어솔루션을 출시하며 렌털 사업을 생활가전 부문으로 확대했다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이에 따라 LG전자의 렌털 사업 매출은 2016년 1131억원에서 2017년 1605억원으로 늘었고 2018년에는 2924억원으로 80% 이상 급증했다. 지난해 3분기까지 누적 매출은 3154억원으로 집계되며 3분기 만에 전년 전체 매출을 넘어섰다. 지난해 H&amp;amp;A 부문 국내 매출에서 약 7%를 차지하고 있다. 올해에는 특히 처음으로 기업 간 거래(B2B) 대리점에 렌털 사업 판매 목표치를 제시하고 이를 인센티브와 연동하기로 하면서 기대감이 높아지고 있다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;LG전자 관계자는 "&lt;span class="quot0"&gt;자사의 렌털 사업은 기존 업체에서 운영하는 단순 제품 렌털이 아니라 케어솔루션이라는 차별화된 서비스인 유지 보수 서비스로 제공하고 있어 지속적으로 매출 비중 증가가 예상된다&lt;/span&gt;"고 설명했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;렌털 시장은 1인 가구 증가와 공유 경제 확산을 바탕으로 고성장세를 이어갈 것으로 예상되면서 업계 2위권 경쟁도 더욱 치열해질 것으로 전망된다. KT경영경제연구소에 따르면 생활가전 렌털 시장은 지난 2017년 7조6000억원 규모에서 올해 10조7000억원으로 성장할 것으로 전망된다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;현재 국내 렌털 시장은 600만 계정의 1위 웅진코웨이에 이어 LG전자 SK매직 쿠쿠 청호나이스 등 2위권 업체가 경쟁 구도를 형성하며 치열한 각축전을 벌이고 있다. 여기에 삼성전자도 조만간 렌털 시장에 도전장을 내밀 것이라는 전망이 나오는 상황이다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt; 이미정기자 lmj0919@dt.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg" alt="렌털계정수 200萬 넘은 LG전자 … &amp;quot;올해 270만 간다&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-        LG전자가 글로벌 가전 기업 중 3년 연속 영업이익과 영업이익률 1위를 달렸다. 프리미엄 가전과 신가전의 상승세 원가절감 노력 등이 어우러지며 독보적인 수익성을 재확인했다. 글로벌 가전 매출 1위 월풀과 격차도 줄고 있어 조만간 매출까지 1위에 오를 것으로 기대된다. &lt;br&gt; &lt;br&gt;2일 업계에 따르면 LG전자는 글로벌 가전 톱3로 꼽히는 월풀과 일렉트로룩스를 제치고 3년 연속 영업이익과 영업이익률 1위에 올랐다. &lt;br&gt; &lt;br&gt;지난해 LG전자 홈어플라이언스&amp;amp;에어솔루션(H&amp;amp;A) 사업본부는 매출 21조5155억원 영업이익 1조9962억원 영업이익률 9.3%를 각각 기록했다. 영업이익과 영업이익률은 역대 최고 기록이다. &lt;br&gt; &lt;br&gt;LG전자는 프리미엄 제품 비중을 높이면서 수익성 위주 성장 전략을 펴왔다. 그 결과 최근 수년간 매출과 영업이익이 계속 증가해왔다. 지난해 대비 매출 2조1547억원(6.7%) 영업이익 4512억원(29.2%)이 각각 증가했다. 영업이익률은 1.3%포인트(P) 높아졌다. &lt;br&gt; &lt;br&gt;LG전자는 글로벌 가전시장 경쟁 업체인 월풀 일렉트로룩스와 수익성에서는 확실한 차별화를 했다는 평가를 받는다. 글로벌 경쟁이 치열해 이익률을 높이기 어렵지만 프리미엄 제품으로 시장 입지와 브랜드 이미지를 확실히 구축했다. &lt;br&gt; &lt;br&gt;LG전자는 월풀과의 매출 격차도 2조원 수준으로 줄였다. 매출 격차가 계속 좁혀지고 있어 조만간 역전이 가능할 것으로 보인다. &lt;br&gt; &lt;br&gt;월풀은 지난해 매출 204억1900만달러(약 23조7881억원) 영업이익 15억7100만달러(1조8302억원)를 각각 기록했다. 전년보다 매출은 약 2.9% 줄었지만 영업이익은 463% 급증했다. 영업이익률은 2017년 5.3%에서 2018년 1.3%로 급락했고 지난해는 7.7%로 크게 올랐다. 2018년에는 1회성 비용으로 인해 수익성이 악화됐었다. &lt;br&gt; &lt;br&gt;월풀은 미국에서 LG전자와 삼성전자를 겨냥해 세탁기 세이프가드(긴급수입제한조치) 청원을 내는 등 자국 시장 방어에 집중하면서 북미 수익률이 향상됐다. 하지만 북미를 제외한 해외에서는 큰 성과를 내지 못하는 상황이다. 때문에 매출도 계속 줄고 있다. &lt;br&gt; &lt;br&gt;일렉트로룩스는 지난해 매출 1189억8100만크로네(약 14조6870억원)로 전년 대비 1.3% 감소했다. 영업이익도 31억8900만크로네(3937억원)로 약 24% 감소했다. 영업이익률은 2018년 3.6%에서 지난해 2.7%로 하락했다. &lt;br&gt; &lt;br&gt;글로벌 가전 시장은 신흥 시장 등 중저가 영역에서는 중국 업체 등이 가격 경쟁력을 내세우면서 경쟁이 격화됐다. 프리미엄 시장은 경쟁이 제한적이지만 기술 경쟁은 더욱 치열하다. &lt;br&gt; &lt;br&gt;LG전자는 꾸준히 제품 성능과 품질을 높여왔고 모듈화 등으로 원가 경쟁력 강화를 병행했다. 초프리미엄 가전인 'LG 시그니처'를 출시하며 브랜드 가치를 높였고 스타일러와 건조기 전기레인지 등 이른바 신가전에서 성과도 냈다. 여기에 가정용 피부관리기와 맥주제조기 등 신제품을 계속 선보이고 있으며 가정용 로봇 등 신사업도 펼칠 계획이다. LG전자는 앞으로도 프리미엄 가전 출시를 확대하며 수익성 기반 성장을 이어간다는 전략이다. &lt;br&gt; &lt;br&gt;가전업계 관계자는 “&lt;span class="quot0"&gt;LG전자가 가전 사업에서 영업이익률 9.3%로 두 자릿수에 육박하는 성과를 낸 것은 시장 경쟁을 감안할 때 놀라운 것&lt;/span&gt;”이라면서 “&lt;span class="quot0"&gt;프리미엄 가전 시장에서 입지가 탄탄해 매출과 이익 상승세가 이어질 것으로 예상된다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt;※ 글로벌 가전기업 영업이익 및 영업이이률 현황(단위:억원. 2019년 평균 달러 환율 적용) &lt;br&gt; &lt;br&gt;자료:각사 종합 &lt;br&gt; &lt;br&gt; &lt;br&gt;권건호기자 wingh1@etnews.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2823,12 +3100,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/02/07100501.20200202170318001.01.jpg</t>
+    <r>
+      <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/02/07100501.20200202170318001.01.jpg" alt="LG전자 '가전 수익성' 확실한 차별화...영업이익</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이익률 3년 연속 글로벌 1위" class="img-responsive"&gt;
+          &lt;/div&gt;
+        LG전자가 글로벌 가전 기업 중 3년 연속 영업이익과 영업이익률 1위를 달렸다. 프리미엄 가전과 신가전의 상승세 원가절감 노력 등이 어우러지며 독보적인 수익성을 재확인했다. 글로벌 가전 매출 1위 월풀과 격차도 줄고 있어 조만간 매출까지 1위에 오를 것으로 기대된다. &lt;br&gt; &lt;br&gt;2일 업계에 따르면 LG전자는 글로벌 가전 톱3로 꼽히는 월풀과 일렉트로룩스를 제치고 3년 연속 영업이익과 영업이익률 1위에 올랐다. &lt;br&gt; &lt;br&gt;지난해 LG전자 홈어플라이언스&amp;amp;에어솔루션(H&amp;amp;A) 사업본부는 매출 21조5155억원 영업이익 1조9962억원 영업이익률 9.3%를 각각 기록했다. 영업이익과 영업이익률은 역대 최고 기록이다. &lt;br&gt; &lt;br&gt;LG전자는 프리미엄 제품 비중을 높이면서 수익성 위주 성장 전략을 펴왔다. 그 결과 최근 수년간 매출과 영업이익이 계속 증가해왔다. 지난해 대비 매출 2조1547억원(6.7%) 영업이익 4512억원(29.2%)이 각각 증가했다. 영업이익률은 1.3%포인트(P) 높아졌다. &lt;br&gt; &lt;br&gt;LG전자는 글로벌 가전시장 경쟁 업체인 월풀 일렉트로룩스와 수익성에서는 확실한 차별화를 했다는 평가를 받는다. 글로벌 경쟁이 치열해 이익률을 높이기 어렵지만 프리미엄 제품으로 시장 입지와 브랜드 이미지를 확실히 구축했다. &lt;br&gt; &lt;br&gt;LG전자는 월풀과의 매출 격차도 2조원 수준으로 줄였다. 매출 격차가 계속 좁혀지고 있어 조만간 역전이 가능할 것으로 보인다. &lt;br&gt; &lt;br&gt;월풀은 지난해 매출 204억1900만달러(약 23조7881억원) 영업이익 15억7100만달러(1조8302억원)를 각각 기록했다. 전년보다 매출은 약 2.9% 줄었지만 영업이익은 463% 급증했다. 영업이익률은 2017년 5.3%에서 2018년 1.3%로 급락했고 지난해는 7.7%로 크게 올랐다. 2018년에는 1회성 비용으로 인해 수익성이 악화됐었다. &lt;br&gt; &lt;br&gt;월풀은 미국에서 LG전자와 삼성전자를 겨냥해 세탁기 세이프가드(긴급수입제한조치) 청원을 내는 등 자국 시장 방어에 집중하면서 북미 수익률이 향상됐다. 하지만 북미를 제외한 해외에서는 큰 성과를 내지 못하는 상황이다. 때문에 매출도 계속 줄고 있다. &lt;br&gt; &lt;br&gt;일렉트로룩스는 지난해 매출 1189억8100만크로네(약 14조6870억원)로 전년 대비 1.3% 감소했다. 영업이익도 31억8900만크로네(3937억원)로 약 24% 감소했다. 영업이익률은 2018년 3.6%에서 지난해 2.7%로 하락했다. &lt;br&gt; &lt;br&gt;글로벌 가전 시장은 신흥 시장 등 중저가 영역에서는 중국 업체 등이 가격 경쟁력을 내세우면서 경쟁이 격화됐다. 프리미엄 시장은 경쟁이 제한적이지만 기술 경쟁은 더욱 치열하다. &lt;br&gt; &lt;br&gt;LG전자는 꾸준히 제품 성능과 품질을 높여왔고 모듈화 등으로 원가 경쟁력 강화를 병행했다. 초프리미엄 가전인 'LG 시그니처'를 출시하며 브랜드 가치를 높였고 스타일러와 건조기 전기레인지 등 이른바 신가전에서 성과도 냈다. 여기에 가정용 피부관리기와 맥주제조기 등 신제품을 계속 선보이고 있으며 가정용 로봇 등 신사업도 펼칠 계획이다. LG전자는 앞으로도 프리미엄 가전 출시를 확대하며 수익성 기반 성장을 이어간다는 전략이다. &lt;br&gt; &lt;br&gt;가전업계 관계자는 “&lt;span class="quot0"&gt;LG전자가 가전 사업에서 영업이익률 9.3%로 두 자릿수에 육박하는 성과를 낸 것은 시장 경쟁을 감안할 때 놀라운 것&lt;/span&gt;”이라면서 “&lt;span class="quot0"&gt;프리미엄 가전 시장에서 입지가 탄탄해 매출과 이익 상승세가 이어질 것으로 예상된다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt;※ 글로벌 가전기업 영업이익 및 영업이이률 현황(단위:억원. 2019년 평균 달러 환율 적용) &lt;br&gt; &lt;br&gt;자료:각사 종합 &lt;br&gt; &lt;br&gt; &lt;br&gt;권건호기자 wingh1@etnews.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+          &lt;/div&gt;
         LG전자가 지난달 필리핀 마닐라 근처 탈(Taal) 화산 폭발로 피해를 입은 주민을 위해 봉사활동에 나섰다고 2일 밝혔다. &lt;br&gt; &lt;br&gt;LG전자 필리핀법인은 최근 탈 화산 인근 지역에 마련된 주요 대피소 세 곳을 방문해 무료세탁방을 운영하고 의료서비스를 제공했다. LG전자는 피해를 입은 가전제품을 무상으로 수리해 주는 등 이재민을 위한 다양한 활동도 진행할 계획이다. &lt;br&gt; &lt;br&gt;김성훈 기자 hunhun@kmib.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2836,49 +3147,38 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg" alt="S-OIL 지난해 영업이익 전년보다 30% 감소" class="img-responsive"&gt;
           &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg" alt="S-OIL 지난해 영업이익 전년보다 30% 감소" class="img-responsive"&gt;
+          &lt;/div&gt;
         에쓰오일(S-OIL)은 2019년 한해 영업이익을 4492억원 냈다고 31일 공시했다. 2018년 영업이익 6395억원보다 29.8% 줄었다. 매출은 지난해 25조4663억원보다 4.2% 감소한 24조3942억원이다. 전체 매출의 78.2%를 차지하는 정유사업의 침체가 전체 매출과 영업이익 감소에 영향을 미쳤다. 사업부문 별 영업이익은 석유화학 2550억원 윤활기유 2195억원이나 정유 부문에서 253억원의 영업적자가 났다. &lt;br&gt;&lt;br&gt;지난해 4분기 매출은 전분기보다 3.9% 늘어난 6조4762억원이다. 영업이익은 정제마진 하락으로 전분기보다 1921억원 감소한 386억원이었으나 유가 안정화 영향으로 3335억원 영업적자를 냈던 2018년 4분기에 견줘서는 흑자로 전환했다. &lt;br&gt;&lt;br&gt;에쓰오일 쪽은 “지난해 정유 부문에서 중국의 신규 정유설비 가동에 따른 공급 증가와 아이엠오(IMO)2020 시행에 앞서 고유황유(HSFO) 가격 급락으로 정제마진이 줄어 적자 전환됐다”며 “올해는 IMO2020 시행과 미-중 무역분쟁 완화에 힘입은 수요 증가로 영업이익이 개선될 것으로 전망한다”고 밝혔다. &lt;br&gt;&lt;br&gt;김은형 기자 dmsgud
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg" alt="S-OIL 지난해 영업이익 전년보다 30% 감소" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg" alt="'취임 8개월 동안 9차례'…사회공헌 적극적인 알 카타니 S-OIL 사장" class="img-responsive"&gt;
+          &lt;/div&gt;
         [아시아경제 황윤주 기자] 후세인 알 카타니 S-OIL(에쓰오일) 사장이 취임 후 사회공헌 활동에 직접 참여하는 사례가 많아 눈길을 끈다. 역대 에쓰오일 최고경영자(CEO) 가운데 가장 적극적으로 사회공헌에 나서고 있다는 평가가 나온다. &lt;br&gt; &lt;br&gt;26일 업계에 따르면 알 카타니 사장은 지난해 6월 취임 후 9번에 걸쳐 사회공헌 활동에 참여했다. 평균 한 달에 한 번 꼴이다. &lt;br&gt; &lt;br&gt;그가 지금까지 직접 참여한 사회공헌 활동은 ▲푸드트럭 ▲보육원 청소년 홀로서기 ▲순직소방관 자녀 장학금 전달 ▲추석맞이 사랑의 송편나눔 ▲사랑의 연탄나누기 ▲올해의 시민영웅시상 ▲영웅소방관 시상 ▲이웃돕기 성금 기부 ▲사랑의 떡국나눔 등이다. &lt;br&gt; &lt;br&gt;알 카타니 사장이 사회공헌 활동에 유독 적극적인 이유는 에쓰소일의 경영 철학과 결을 같이 한다. 에쓰오일은 가장 성공한 기업이 아닌 가장 존경받는 기업을 슬로건으로 삼고 있다. 알 카타니 사장도 평소 윤리경영과 사회적 책임을 다하는 '좋은 기업'이 될 것을 강조하는 것으로 유명하다. &lt;br&gt; &lt;br&gt;에쓰오일의 사회공헌 특징 중 하나는 지역사회 지원을 중요하게 생각한다는 점이다. 에쓰오일 사업장이 위치한 울산광역시와 사옥이 있는 서울 마포·마곡 등에서 문화예술과 나눔 캠페인을 펼치고 있다. 또 S-OIL울산복지재단 운영하는 등 다양한 지역사회 지원 활동도 추진 중이다. &lt;br&gt; &lt;br&gt;에쓰오일 관계자는 "&lt;span class="quot0"&gt;기업문화가 사회공헌을 중요하게 생각하기 때문에 모든 CEO들이 사회공헌을 중요하게 생각했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;내부 문화와 별도로 알 카타니 사장은 사회공헌 활동에 강한 의지를 갖고 있어 전임자보다 적극적으로 참여하고 있다&lt;/span&gt;"고 설명했다. &lt;br&gt; &lt;br&gt;황윤주 기자 hyj@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg" alt="'취임 8개월 동안 9차례'…사회공헌 적극적인 알 카타니 S-OIL 사장" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg" alt="S-OIL 설맞이 건강떡국 나눔행사 실시" class="img-responsive"&gt;
+          &lt;/div&gt;
         S-OIL 울산공장 임원들은 22일 울산시제2장애인체육관(관장 차현태)을 찾아 건강을 기원하고 따뜻한 정을 나누는 설맞이 떡국 나눔 봉사활동을 펼쳤다. &lt;br&gt;&lt;br&gt;이날 행사는 S-OIL 울산공장 임원들이 참석한 가운데 장애인 300여명에게 떡국을 나눠주고 생활용품 선물을 전달했다. 지난 2016년부터 꾸준히 이어져 온 S-OIL의 떡국 나눔 행사가 제2장애인체육관에서 설날이 되면 제일 기다리는 행사로 자리매김했다. &lt;br&gt;&lt;br&gt;S-OIL 이민호 부사장은 "&lt;span class="quot0"&gt;경자년 설날을 맞이해 재활을 위해 애쓰고 있는 분들에게 따뜻한 떡국 한 그릇을 대접할 수 있어 기쁜 마음으로 봉사활동에 참여했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;어르신들이 맛있게 드시는 모습을 보니 보람을 느끼며 앞으로도 지속적으로 사회공헌활동을 펼쳐 지역사회와 공존하고 함께 발전하는 S-OIL이 되겠다&lt;/span&gt;"고 밝혔다. &lt;br&gt;&lt;br&gt;한편 S-OIL은 지난 2007년 S-OIL 사회봉사단을 발족하여 울산지역 내 소외 받는 이웃들을 위해 백미 전달 김장나누기뿐만 아니라 사회복지시설과 일대일로 연계해 다양한 봉사 활동을 활발히 펼치고 있다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2886,17 +3186,16 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg" alt="S-OIL 설맞이 건강떡국 나눔행사 실시" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg" alt="S-OIL 청계산 신년산행 ‥알 카타니 &amp;quot;성공 DNA 원팀&amp;quot; 강조" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg" alt="S-OIL 청계산 신년산행 ‥알 카타니 &amp;quot;성공 DNA 원팀&amp;quot; 강조" class="img-responsive"&gt;
+          &lt;/div&gt;
         [아시아경제 박소연 기자] S-OIL은 11일 서울 청계산에서 임직원 신년산행 행사를 갖고 힘찬 새해 각오를 다졌다. &lt;br&gt; &lt;br&gt;후세인 알 카타니 S-OIL 최고경영자(CEO)는 임원과 부장급 이상 직원 올해 신입사원 등 200여 명과 함께 청계산 이수봉에 올라 새해 덕담을 나누고 경영목표 달성을 위한 결의를 다졌다. &lt;br&gt; &lt;br&gt;알 카타니 CEO는 "&lt;span class="quot0"&gt;우리가 맞닥뜨리고 있는 불확실성은 비전 2025를 달성하고 아시아·태평양 지역에서 가장 경쟁력 있고 존경받는 에너지 화학 기업이 되기 위해 새로운 ‘성공 DNA’를 요구하고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;원팀(one team)이 돼 창의적인 사고로 기회를 최대한 활용하고 틀을 깨는 사고와 행동 협력으로 업무에 임하여 내재된 역량을 최대한 끌어내고 최선의 결과를 만들어내자&lt;/span&gt;"고 당부했다. &lt;br&gt; &lt;br&gt;S-OIL은 올해 ▲ IMO(국제해사기구)의 황 함량 규제 강화에 대응하기 위한 탈황설비 증설 등 시장변화에 대응하고 더 높은 성과를 내기 위해 최적화 지속 ▲ 원팀(one team)이 되어 석유화학사업 확장 2단계 투자 프로젝트를 성공적으로 추진 ▲ 4차 산업혁명시대에 선도적으로 대응하기 위해 확실한 디지털 전환 계획을 수립하여 추진 등 주요 목표 달성을 위해 전사적 노력을 쏟을 방침이다. &lt;br&gt; &lt;br&gt;박소연 기자 muse@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2904,136 +3203,55 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg" alt="S-OIL 청계산 신년산행 ‥알 카타니 &amp;quot;성공 DNA 원팀&amp;quot; 강조" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg" alt="S-OIL 복지재단 울산보훈지청에 사랑의 쌀 전달" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg" alt="S-OIL 복지재단 울산보훈지청에 사랑의 쌀 전달" class="img-responsive"&gt;
+          &lt;/div&gt;
         S-OIL 복지재단은 9일 설을 앞두고 울산보훈지청에 20㎏ 쌀 150포를 전달했다. 울산보훈지청은 이날 지원받은 백미를 저소득 보훈가족 및 복권기금 후원 재가복지대상자에게 전달할 예정이다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg" alt="S-OIL 복지재단 울산보훈지청에 사랑의 쌀 전달" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
           &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg" alt="S-OIL &amp;quot;코엑스·KTX역에서 희망을 `주유`하세요&amp;quot;" class="img-responsive"&gt;
           &lt;/div&gt;
-        S-OIL(대표 후세인 알 카타니)이 울산·동대구 KTX역과 서울 코엑스에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt;&lt;br&gt;연말·연시를 맞아 유동인구가 많은 곳에 구도일패밀리 트리를 설치해 가족 단위 방문객들에게 특별한 볼거리와 새해 희망을 전한다. &lt;br&gt;&lt;br&gt;S-OIL은 코레일과 함께 새해 1월 10일까지 울산·동대구 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 특히 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증 이벤트'가 내년 1월 9일까지 진행된다. &lt;br&gt;&lt;br&gt;또 코엑스 윈터페스티벌(12.20~12.31)과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. &lt;br&gt;&lt;br&gt;코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소에는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 있어 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 '으라차차 댄스 이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt;&lt;br&gt;S-OIL 관계자는 "&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;"고 밝혔다.
+        서울 코엑스와 동대구·울산 KTX역에 연말연시를 맞아 희망 메시지를 전달하는 '희망 충전소'가 들어선다.&lt;br&gt;S-OIL(대표 후세인 알 카타니)은 연말연시 유동인구가 많은 곳에서 구도일 캐릭터를 활용해 희망 메시지를 전달하는 이벤트를 진행한다고 24일 밝혔다.&lt;br&gt;S-OIL은 코엑스 윈터페스티벌과 연계해 이달 말까지 '좋은 기름으로 으라차차' 희망충전소를 운영한다. &lt;br&gt;코엑스 동문 로비에 80평 규모로 꾸며진 희망충전소에는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 들어섰다.&lt;br&gt;뉴트로 콘셉트로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 공연이 펼쳐진다. 오는 28일에는 '으라차차 댄스 이벤트'가 열린다. 경품은 사이판 왕복항공권 주유상품권 캐릭터 상품 등이다.&lt;br&gt;S-OIL은 코레일과 함께 내년 1월10일까지 동대구·울산 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치한다. 동대구역에서는 내년 1월9일까지 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증 이벤트'를 진행한다.&lt;br&gt;[디지털뉴스국 최기성 기자]
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg" alt="S-OIL 해양경찰 영웅 시상식 개최" class="img-responsive"&gt;
           &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
           &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg" alt="S-OIL 해양경찰 영웅 시상식 개최" class="img-responsive"&gt;
           &lt;/div&gt;
-        먼저 S-OIL은 코엑스윈 터페스티벌과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. 28일에는 '으라차차 댄스이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터상품 등을 제공한다. &lt;br&gt;&lt;br&gt;또 코레일과 함께 새해 1월10일까지 동대구와 울산KTX역에서 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증이벤트'가 내년 1월9일까지 진행된다. 이형중기자lhj@ksilbo.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [헤럴드경제(울산)=이경길 기자] S-OIL(대표 후세인 알 카타니)이 서울 코엑스와 동대구·울산 KTX역에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt; &lt;br&gt; S-OIL은 24일 코엑스 윈터페스티벌(12.20~12.31)과 연계해 ‘좋은 기름으로 으라차차’ S-OIL 희망충전소를 운영한다고 밝혔다. &lt;br&gt; &lt;br&gt; 코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. &lt;br&gt; &lt;br&gt; 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 ‘으라차차 댄스 이벤트’가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt; &lt;br&gt; 또한 코레일과 함께 새해 1월10일까지 동대구·울산 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 ‘구도일패밀리 트리 SNS 인증 이벤트’가 내년 1월 9일까지 진행된다. &lt;br&gt; &lt;br&gt; S-OIL 관계자는 “&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;”고 밝혔다. &lt;br&gt; &lt;br&gt; hmdlee@heraldcorp.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg</t>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg</t>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-        서울 코엑스와 동대구·울산 KTX역에 연말연시를 맞아 희망 메시지를 전달하는 '희망 충전소'가 들어선다.&lt;br&gt;S-OIL(대표 후세인 알 카타니)은 연말연시 유동인구가 많은 곳에서 구도일 캐릭터를 활용해 희망 메시지를 전달하는 이벤트를 진행한다고 24일 밝혔다.&lt;br&gt;S-OIL은 코엑스 윈터페스티벌과 연계해 이달 말까지 '좋은 기름으로 으라차차' 희망충전소를 운영한다. &lt;br&gt;코엑스 동문 로비에 80평 규모로 꾸며진 희망충전소에는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 들어섰다.&lt;br&gt;뉴트로 콘셉트로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 공연이 펼쳐진다. 오는 28일에는 '으라차차 댄스 이벤트'가 열린다. 경품은 사이판 왕복항공권 주유상품권 캐릭터 상품 등이다.&lt;br&gt;S-OIL은 코레일과 함께 내년 1월10일까지 동대구·울산 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치한다. 동대구역에서는 내년 1월9일까지 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증 이벤트'를 진행한다.&lt;br&gt;[디지털뉴스국 최기성 기자]
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg" alt="S-OIL &amp;quot;코엑스·KTX역에서 희망을 `주유`하세요&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
         23일 진행된 시상식에서 S-OIL 류열 사장(왼쪽 첫번째)과 조현배 해양경찰청장(왼쪽 두번째) 서상목 한국사회복지협의회장(오른쪽 첫번째) 등이 기념촬영을 하고 있다. S-OIL 제공 &lt;br&gt; &lt;br&gt; &lt;br&gt; S-OIL은 한국사회복지협의회와 함께 인천 송도 해양경찰청 대강당에서 '2019년 해양경찰 영웅 시상식'을 개최했다고 23일 밝혔다.&lt;br&gt; &lt;br&gt;&lt;br&gt; &lt;br&gt;이날 시상식에서는 우수 해양경찰관 6명이 상패와 상금 7000만원을 수여했다. 포항해양경찰서 이성희 경위(46)에게 상패와 상금 2000만원 부산해양경찰서 천상용 경위(46) 등 영웅 해양경찰 5명에게 상패와 상금 1000만원이 주어졌다.&lt;br&gt; &lt;br&gt;&lt;br&gt; &lt;br&gt;최고영웅 해양경찰으로 선정된 이 경위는 지난 4월 포항 신항방파제 인근 해상에서 표류 중인 레저보트 승선원 2명을 구조했다. 7월에는 영일대해수욕장 전망대 앞 해상에 항해 중이던 모터보트가 침수되는 상황에서 승선원 9명의 목숨을 구했다.&lt;br&gt; &lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;happyny777@fnnews.com 김은진 기자
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg" alt="S-OIL 해양경찰 영웅 시상식 개최" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
+                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg" alt="신종코로나 비상, 현대자동차 울산공장 이르면 4일부터 일부 휴업" class="img-responsive"&gt;
+                    &lt;/div&gt;
                 현대자동차에 와이어링(전선 제품) 부품을 공급하는 유라코프레이션 중국 공장이 '신종 코로나바이러스 감염증'(신종코로나) 사망자 발생으로 가동이 중단되면서 이르면 4일 오후부터 현대차 울산공장 일부가 가동 중단에 들어갈 것으로 전망된다. &lt;br&gt;&lt;br&gt;현대차 노사는 3일 오후 울산공장 회의실에서 신종코로나 사태와 관련 2차 실무협의를 갖고 부품 공급 중단에 따른 휴업 여부에 대해 논의를 했으나 일부 제반사항에 대해 노사간 이견을 보이면서 결론을 내리는데 실패했다. &lt;br&gt;&lt;br&gt;노조 관계자는 "&lt;span class="quot0"&gt;노사가 휴업을 한다는 것에 대해서는 큰 틀에서 동의를 했다&lt;/span&gt;"면서 "&lt;span class="quot0"&gt;다만 휴업 일정, 기간, 사업부별 조건 등 세부적인 사항에 대해 이견이 있어 4일 오전 10시 운영위원회 간담회를 열어 최종 결정할 방침이다&lt;/span&gt;"고 밝혔다. &lt;br&gt;&lt;br&gt;현대차는 이미 기존 재고가 모두 소진되고 있는데다 해당 부품을 생산할 수 있는 다른 공급처 확보까지 늦어져 생산라인을 중단할 수밖에 없는 상황으로 전해졌다. 이르면 4일 오후 출근조(오후 3시30분)부터 부품 부족 상황을 맞은 일부 공장이 휴업할 가능성도 있다. 팰리세이드, 제네시스, 그랜저 등 인기 차종 생산공장이 우선 휴업할 가능성이 크다. &lt;br&gt;&lt;br&gt;현대차 노조는 앞서 이날 성명서를 내고 "와이어링을 생산하는 중국공장에서 사망자가 발생해 생산이 중단되면서 국내공장 생산까지 멈춰야 하는 초유의 사태가 발생했다"며 "사태 해결과 생산성 확보를 위해 적극 협조하겠다"고 밝혔다. &lt;br&gt;&lt;br&gt;이어 "이번 생산 타격은 완성차뿐만 아니라 부품 협력사를 포함한 모든 사업장에 적용돼 우리나라 경제에 악영향으로 작용할 것"이라며 "회사는 생산 재가동을 위한 장기적인 계획을 시급히 강구해야 한다"고 강조했다. &lt;br&gt;&lt;br&gt;노조는 그러면서 "이번 사태는 회사의 해외공장 확대와 해외생산 제일주의가 빚은 참극"이라며 "핵심부품 내부조달과 해외공장 유턴 전략을 통해 상시 위기 대응망을 구축해야 한다"고 주문했다. &lt;br&gt;&lt;br&gt;하언태 현대차 사장도 이날 담화문을 내고 "&lt;span class="quot1"&gt;중국산 부품 공급 차질로 인한 전사적 위기의식을 바탕으로 현 사태를 함께 이겨나가자&lt;/span&gt;"고 독려했다. 하 사장은 "&lt;span class="quot1"&gt;재고 수량에 차이가 있어 휴업 시기와 방식은 공장ㆍ라인별로 차이가 있을 수 있다&lt;/span&gt;"며 "&lt;span class="quot1"&gt;비상사태와 불확실성이 이어지면서 생산 운영계획을 당장 명확하게 밝히지 못하는 부분을 양해해 달라&lt;/span&gt;"고 밝혔다. 차형석기자 stevecha@ksilbo.co.kr
             &lt;/div&gt;
         &lt;/div&gt;</t>
@@ -3041,65 +3259,28 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg" alt="신종코로나 비상, 현대자동차 울산공장 이르면 4일부터 일부 휴업" class="img-responsive"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg" alt="신형 쏘나타, 사우디 공항 누빈다....현대자동차, 공항택시 1000대 공급 계약" class="img-responsive"&gt;
                     &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
+                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg" alt="신형 쏘나타, 사우디 공항 누빈다....현대자동차, 공항택시 1000대 공급 계약" class="img-responsive"&gt;
+                    &lt;/div&gt;
                 현대차는 지난달 22일 사우디아라비아 킹 칼리드 국제공항에서 현지 최대 운수기업 중 하나인 '알 사프와'에 신형 쏘나타 1000대를 공항택시로 공급하는 계약을 체결했다고 3일 밝혔다. 현대차는 계약 당일 100대를 알 사프와에 인도했으며 나머지 900대는 연내 공급할 계획이다. &lt;br&gt;&lt;br&gt;사우디아라비아 정부는 교통 체계를 개편하면서 택시의 경우 총 운행기간 5년 이내 차량만 사용하도록 제한하고 최첨단 결제·통역·스크린 장착 의무화, 외장 색상 초록색 통일 등 조치를 했다. 현대차는 이번 계약이 사우디아라비아의 신규 택시 정책 발표 이후 완성차 업체로서는 처음 변경된 규정에 맞는 택시를 공급했다는 점에서 의미가 있다고 평가했다. &lt;br&gt;&lt;br&gt;현대차는 지난해 사우디아라비아에서 쏘나타, 코나, 싼타페 등 총 12만5625대의 차량을 판매해 시장점유율 23.4%로 탄탄한 입지를 다지고 있다. 특히 쏘나타는 지난해 현지 중형 세단 차급에서 시장점유율 25%를 차지했다. 이형중기자
             &lt;/div&gt;
         &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg" alt="신형 쏘나타, 사우디 공항 누빈다....현대자동차, 공항택시 1000대 공급 계약" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-            &lt;div class="news-detail__content"&gt;
-                지난달 현대자동차 국내외 판매가 전년대비 3.6% 줄었다. 설 연휴 영향으로 국내 판매가 감소한 영향이 컸다. &lt;br&gt;&lt;br&gt;현대차는 1월 국내 4만7591대, 해외에서 25만6485대 등 전 세계 시장에서 총 30만4076대를 판매, 작년 같은 달보다 3.6% 줄었다고 발표했다. 지난해 같은기간과 비교해 국내판매는 21.3% 감소했고, 해외 판매는 0.6% 증가한 수치다. &lt;br&gt;&lt;br&gt;국내에서 세단은 1만8691대, 레저용차량(RV)은 1만3769대 팔렸다. 세단 중에 그랜저(하이브리드 모델 2467대 포함)가 9350대 팔리며 국내 판매를 이끌었으며, 쏘나타(하이브리드 모델 1012대 포함) 6423대, 아반떼 2638대 등이다. &lt;br&gt;&lt;br&gt;스포츠유틸리티차(SUV)는 팰리세이드 5173대, 싼타페 3204대, 코나 1835대 순이다. &lt;br&gt;&lt;br&gt;하이브리드차 판매가 4069대로 작년 동월대비 43.5% 뛰었다. &lt;br&gt;&lt;br&gt;제네시스는 3000대 팔렸다. 지난달 15일 출시된 제네시스 첫 SUV 모델 GV80은 근무일 기준 10일 만에 누적 계약이 2만대에 육박했다. 올해 목표는 2만4000대다. &lt;br&gt;&lt;br&gt;상용차는 그랜드 스타렉스와 포터를 합한 소형 상용차가 1만128대, 중대형 버스와 트럭을 합한 대형상용차는 2003대 판매됐다. &lt;br&gt;&lt;br&gt;해외시장에선 북미와 중남미, 아시아·중동 시장 등에서 판매가 호조를 보였다. &lt;br&gt;&lt;br&gt;현대차는 "&lt;span class="quot0"&gt;GV80와 팰리세이드 판매에 전사적인 역량을 집중하겠다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;해외에선 권역별 책임 경영을 바탕으로 고객 지향적 의사결정을 내려서 실적을 회복할 계획&lt;/span&gt;"이라고 말했다. &lt;br&gt;&lt;br&gt;이형중기자 leehj@ksilbo.co.kr
-            &lt;/div&gt;
-        &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-            &lt;div class="news-detail__content"&gt;
-                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
-                    &lt;/div&gt;
-                [아시아경제 성기호 기자] 현대자동차가 중동 지역 최대 자동차 시장인 사우디아라비아에 신형 쏘나타(DN8)를 공항 택시로 공급한다. 이로써 현대차의 중동 시장내 입지가 한층 강화될 전망이다. &lt;br&gt; &lt;br&gt;현대차는 사우디아라비아 최대 운수기업 중 하나인 알 사프와사와 신형 쏘나타 1000대를 공항 택시로 공급하는 계약을 체결했다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;현대차는 지난달 22일 킹 칼리드 국제공항에서 사우디아라비아 교통부 장관인 살레 빈 나세르 알자세르 등이 참석한 가운데 신형 쏘나타 100대를 알 사프와사에 인도했으며 연내 나머지 900대를 공급할 예정이다. &lt;br&gt; &lt;br&gt;이번 수주는 사우디아라비아 운행 택시에 대한 신규 정책이 발표된 이후 현대차가 완성차 업체 최초로 변경된 규정에 부합하는 택시를 공급했다는 점에서 더욱 의미가 있다. &lt;br&gt; &lt;br&gt;현대차는 지난해 사우디아라비아에서 쏘나타, 코나, 싼타페 등 총 12만 5625대의 차량을 판매해 시장점유율 23.4%를 기록하며 시장 내 굳건한 입지를 확보했다. &lt;br&gt; &lt;br&gt;이번에 공항 택시로 공급되는 신형 쏘나타는 지난해 12월 10일(현지시각) 제다에 열린 ‘제41회 사우디 국제 모터쇼(SIMS)’에서 사우디아라비아 자동차 기자협회가 선정한 '2020 세단 부문 최고의 차'로 꼽히며 우수한 상품성과 디자인 경쟁력을 인정받았다. &lt;br&gt; &lt;br&gt;현대차는 이번 수주 계약을 기점으로 중동 지역에서 판매를 확대하고 브랜드 인지도 향상을 적극적으로 꾀한다는 방침이다. &lt;br&gt; &lt;br&gt;현대차 관계자는 “&lt;span class="quot0"&gt;사우디아라비아에 신형 쏘나타를 대량 수주함으로써 사우디아라비아를 찾는 글로벌 고객들을 공항에서부터 만나고 현대자동차의 뛰어난 상품성을 알릴 수 있게 돼 기쁘다&lt;/span&gt;”라며 “&lt;span class="quot0"&gt;향후에도 사우디아라비아 교통 정책 변화에 선제적으로 대응해 중동 시장에서 더욱 신뢰받는 기업으로 거듭나겠다&lt;/span&gt;”라고 밝혔다. &lt;br&gt; &lt;br&gt;성기호 기자 kihoyeyo@asiae.co.kr
-            &lt;/div&gt;
-        &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
      &lt;h5 style="font-size: 16px !important;"&gt;IF, 소비자 대상 사업도 과세 기본틀 합의&lt;/h5&gt;             
+                &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg" alt="삼성전자·현대자동차·아모레퍼시픽도 2~3년 뒤 ‘구글세’ 낸다" class="img-responsive"&gt;
+                    &lt;/div&gt;    
                 올 7월 적용 기준 발표… 연내 최종 확정 &lt;br&gt;반도체·원재료 판매·금융·운송업은 제외 &lt;br&gt;“국내 기업 세금 총량 자체는 늘지 않아도 &lt;br&gt;정부서 걷을 세금 줄어들 가능성 커져”구글을 비롯한 글로벌 인터넷 기업들을 겨냥한 ‘디지털세’(일명 구글세)의 적용 범위가 결국 가전·자동차·화장품과 같은 소비자 대상 사업으로 확대된다. 2~3년 뒤 시행되면 반도체 부문을 제외한 삼성전자와 현대자동차, 아모레퍼시픽 같은 대기업들은 국내뿐 아니라 디지털 마케팅 등을 하는 해당 국가에도 세금을 내야 한다. 지금은 고정 사업장들만 법인세를 내고 있다. 우리 정부 세수가 줄어들 가능성이 커졌다.&lt;br&gt;2일 기획재정부에 따르면 경제협력개발기구(OECD)가 주도하는 ‘다국적기업 조세 회피 방지를 위한 137개국 간 다자간협의체’(IF)는 지난달 30일(현지시간) 프랑스에서 디지털세 적용 대상에 소비자 대상 사업을 포함하는 기본 원칙에 합의했다. OECD는 오는 7월 적용 기준과 과세 방법에 대한 윤곽을 밝히고 연말까지 최종 방안을 마련할 계획이다. 정부는 규범화 작업을 고려하면 실제 부과까지 2~3년이 걸릴 것으로 예상했다.&lt;br&gt;현재 법인세는 기업의 고정 사업장이 있는 국가에서만 부과할 수 있다. 이에 따라 구글과 같은 디지털 기업의 경우 국내에서 애플리케이션 판매 수수료를 챙기더라도 세금 한 푼 내지 않았다. 이에 IF는 시장 소재국에 마케팅을 통해 매출을 올리는 글로벌 기업들을 대상으로 과세권을 주는 데 합의했다. 온라인 플랫폼(구글, 페이스북, 아마존 등), 콘텐츠 스트리밍(넷플릭스, 유튜브) 등 디지털서비스사업이 우선 적용 대상이다. 디지털세 부과 대상은 글로벌 총매출액 등을 토대로 확정되는 만큼 해외 매출이 크지 않은 국내 포털사업자(네이버, 카카오)의 경우 포함되지 않는다.&lt;br&gt;하지만 미국의 입김으로 가전과 자동차, 휴대전화, 컴퓨터, 옷, 화장품 등 소비자 대상 사업이 들어가면서 글로벌 매출 비중이 높은 삼성전자와 LG전자의 가전·모바일 부문, 현대자동차, 아모레퍼시픽 등은 포함된다. 다만 중간재·부품 판매업, 금융업 등은 예외로 둬 삼성전자 영업이익의 절반을 떠받치는 반도체 부문은 빠졌다.&lt;br&gt;정부는 국내 기업들이 디지털세 부과 대상에 포함돼도 세금 총량 자체가 늘어나지는 않을 것으로 보고 있다. 기재부 관계자는 “&lt;span class="quot0"&gt;우리나라에 낼 세금의 일부를 다른 나라에 내는 것이어서 기업들의 세 부담이 늘어날 가능성은 적다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;소비자 대상 기업은 디지털서비스 기업보다 차등화된 기준이 적용되도록 해 영향을 최소화하도록 하겠다&lt;/span&gt;”고 말했다. 이어 “국내 대기업의 세수 유출뿐 아니라 외국 기업을 통한 국내 세수도 유입된다”고 덧붙였다.&lt;br&gt;하지만 지난해 OECD 공청회에 참석했던 한성수 변호사는 “&lt;span class="quot1"&gt;자국만 손해 볼 수 없다는 미국 주장이 관철돼 미국과 유럽이 소비자 대상 기업에 대한 디지털세 부과를 합의한 상황에서 우리 정부가 힘의 논리를 극복하고 차등화된 기준을 어느 정도로 관철할 수 있을지는 의문&lt;/span&gt;”이라고 지적했다. 홍기용 인천대 경영학과 교수는 “&lt;span class="quot2"&gt;수출 의존도가 높은 한국은 해외 디지털 기업으로부터 받을 세수보다 국내 대기업이 해당 국가에 내야 할 세금이 더 많아 결국 세수가 줄어들 가능성이 크다&lt;/span&gt;”고 밝혔다.&lt;br&gt;세종 하종훈 기자 artg@seoul.co.kr
             &lt;/div&gt;
         &lt;/div&gt;</t>
@@ -3107,59 +3288,31 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg" alt="삼성전자·현대자동차·아모레퍼시픽도 2~3년 뒤 ‘구글세’ 낸다" class="img-responsive"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg" alt="현대자동차, 상상이 현실로… 2025년까지 44종 전동화 차량 운영" class="img-responsive"&gt;
                     &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg" alt="신재원 현대자동차 부사장 “기술혁신이 초래한 '파괴'… 언론도 마찬가지&amp;quot;" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
      &lt;h5 style="font-size: 16px !important;"&gt;수소차·연료전지시스템 판매도 본격화…운전자 개입 없는 수준 자율차 기술 선도&lt;/h5&gt;             
+                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg" alt="현대자동차, 상상이 현실로… 2025년까지 44종 전동화 차량 운영" class="img-responsive"&gt;
+                    &lt;/div&gt;
                 현대자동차그룹이 미래차 시장을 향한 희망을 쏘아 올렸다. 전기차 모델 확대, 수소산업 생태계 확장, 자율주행차 상용화, 모빌리티 사업 확대 등이 핵심이다.&lt;br&gt;정의선 현대차그룹 수석부회장은 “&lt;span class="quot0"&gt;기술과 네트워크의 발달로 상상 속 미래가 현실이 되고 있고, 자동차 산업에서도 변화가 가속화되고 있다&lt;/span&gt;”면서 “&lt;span class="quot0"&gt;2025년까지 11개의 전기차 전용 모델을 포함해 총 44개의 전동화 차량을 운영할 계획&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;구체적으로는 하이브리드 13종, 플러그인 하이브리드 6종, 전기차 23종, 수소전기차 2종 등이다. 특히 내년에는 전기차 전용 모델을 출시한다. 이어 새로운 전기차 골격 개발체계를 도입해 2024년에 출시하는 차종부터 적용해 나갈 계획이다. 올해에는 기아차 쏘렌토, 현대차 투싼과 싼타페 등 주력 스포츠유틸리티차(SUV) 라인업에서 하이브리드와 플러그인 하이브리드 모델을 새롭게 선보인다.&lt;br&gt;현대차그룹은 전기차뿐만 아니라 수소차 개발에도 박차를 가한다. 정 수석부회장은 “&lt;span class="quot1"&gt;올해부터 수소 차량(넥쏘)뿐만 아니라 연료전지시스템 판매를 본격화하고, 관련 인프라 구축 사업 협력을 통해 수소 산업 생태계 확장을 주도해 나가겠다&lt;/span&gt;”고 밝혔다. 현대차그룹은 지난해 미국 커민스와 수소연료전지시스템 공급 협약을 체결했다. 앞으로는 자동차·선박·철도·지게차 등 운송분야와 전력 생산·저장 등 발전 분야에 수소연료전지 시스템을 직접 판매할 계획이다. 이와 동시에 국내에 연 50만대 규모의 수소전기차 생산체제를 구축한다는 목표도 세웠다.&lt;br&gt;자율주행 분야에서는 운전자의 개입 없이 운행할 수 있는 레벨 4·5 수준의 기술을 선도해 나갈 방침이다. 2022년까지 자율주행 플랫폼을 개발하고, 2023년 시범 운행을 거쳐 2024년 하반기에 본격 양산을 추진한다는 세부적인 계획도 마련했다. 아울러 현대차는 새해 초 미국에서 열린 ‘국제전자제품박람회(CES) 2020’에서 하늘을 나는 차량을 전시하며 미래 모빌리티 사업의 비전을 제시했다.&lt;br&gt;이영준 기자 the@seoul.co.kr
             &lt;/div&gt;
         &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg" alt="현대자동차, 상상이 현실로… 2025년까지 44종 전동화 차량 운영" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
+                 &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg" alt="현대자동차, 선행 기술 테스트카 'RM19' 컨셉 업데이트" class="img-responsive"&gt;
+                    &lt;/div&gt;   
                 현대자동차의 2019년 모터스포츠 활동은 성공적이었다.&lt;br&gt;&lt;br&gt;먼저 최근 몇 년 동안 우승의 코 앞에서 무너졌던 WRC에서는 호화스러운 드라이버 라인업을 바탕으로 2019 WRC의 제조사 부분의 우승을 차지했다.&lt;br&gt;&lt;br&gt;여기에 세계 최고의 투어링 카 레이스 대회인 'WTCR'에서도 정상급 드라이버들을 앞세워 좋은 활약을 펼치며 드라이버 포인트 부분의 우승을 가시권에 두고 있다.&lt;br&gt;&lt;br&gt;이런 상황에서 현대자동차가 모터스포츠 및 자동차 주행 관련 기술을 선행 테스트 배드로 사용하는 '선행 기술 테스트카' RM(Racing Midship) 컨셉을 최신 사양으로 업데이트했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이번에 공개된 현대 RM19 컨셉은 미국 LA에서 열린 2019 LA 오토쇼에서 공개되었으며 전통적인 레이싱 타입의 미드십 차량을 추구하는 RM 컨셉의 트렌드에 맞춰 개발됐다.&lt;br&gt;&lt;br&gt;외형적인 부분에서는 올 시즌 처음 공개되어 북미 모터스포츠 무대 등에 선보였던 '현대 벨로스터 N TCR 레이스카'와의 유사성을 갖고 있다. 차체의 실루엣 및 바디킷, 그리고 데칼 등에서 이러한 모습을 살펴볼 수 있다.&lt;br&gt;&lt;br&gt;물론 현대 RM19 컨셉은 벨로스터 N TCR 레이스카처럼 WTCR의 대회 기술 규정에 제한되지 않는 차량인 만큼 거대한 리어 디퓨저가 장착되어 있으며 미드십 엔진 구조로 인해 쿼터 글라스에 추가적인 에어 인테이크가 장착되어 있는 걸 확인할 수 있다.&lt;br&gt;&lt;br&gt;테스트카로 제작된 만큼 RM 19 컨셉의 실내 공간은 간결한 모습이다.&lt;br&gt;&lt;br&gt;벨로스터 고유의 인테리어 구성에 레이스 타입의 스티어링 휠과 이를 위한 컨트롤 패널 등이 더해진 것을 볼 수 있다. 이외에도 레이스 사양의 버킷 시트가 장착되어 있다.&lt;br&gt;&lt;br&gt;현대 RM19 컨셉의 보닛 아래에는 현대의 TCR 레이스카들과 같은 2.0L 터보 GDI 엔진을 탑재하고 추가적인 튜닝을 통해 최고 390마력의 성능을 연출한다. 이를 통해 정지 상태에서 단 4초 내에 시속 96km(60Mph)까지 가속할 수 있다.&lt;br&gt;&lt;br&gt;강력한 성능과 함께 뉘르부르크링 노르트슐라이페의 주행을 통해 다듬어진 레이스 사양의 서스펜션 및 브레이크 시스템을 갖춰 더욱 빼어난 주행 성능을 자랑한다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;알버트 비어만(Albert Biermann) 현대자동차 연구개발본부장은 RM 19 컨셉에 대해 "&lt;span class="quot0"&gt;RM 플랫폼은 다양한 기술 개발을 위한 테스트배드로 이번의 RM 19 컨셉은 향후 데뷔할 새로운 N 모델들을 위한 '노하우 축적'의 역할을 이행한다&lt;/span&gt;"라고 설명했다.&lt;br&gt;&lt;br&gt;한국일보 모클팀 - 김학수 기자
             &lt;/div&gt;
         &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg" alt="현대자동차, 선행 기술 테스트카 'RM19' 컨셉 업데이트" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3566,8 +3719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60"/>
+    <sheetView tabSelected="1" topLeftCell="R61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3580,6 +3733,7 @@
     <col min="6" max="6" width="72.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="255.69921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="84.59765625" customWidth="1"/>
     <col min="21" max="21" width="101.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3697,16 +3851,16 @@
         <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="U2" t="s">
         <v>666</v>
       </c>
       <c r="V2" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="AF2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -3758,13 +3912,13 @@
         <v>19</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>671</v>
+        <v>750</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>667</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -3820,13 +3974,13 @@
         <v>29</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>676</v>
+        <v>752</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>677</v>
+        <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -3882,13 +4036,13 @@
         <v>35</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>679</v>
+        <v>754</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>680</v>
+        <v>753</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -3944,13 +4098,13 @@
         <v>38</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4002,13 +4156,13 @@
         <v>45</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>682</v>
+        <v>758</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4060,13 +4214,13 @@
         <v>63</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4122,13 +4276,13 @@
         <v>70</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>688</v>
+        <v>761</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>689</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4184,13 +4338,13 @@
         <v>76</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>691</v>
+        <v>762</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4246,13 +4400,13 @@
         <v>84</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>694</v>
+        <v>763</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4304,13 +4458,13 @@
         <v>94</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>696</v>
+        <v>764</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4362,13 +4516,13 @@
         <v>97</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>699</v>
+        <v>765</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4424,13 +4578,13 @@
         <v>106</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>702</v>
+        <v>766</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>703</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4482,13 +4636,13 @@
         <v>109</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>705</v>
+        <v>767</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4544,13 +4698,13 @@
         <v>117</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>708</v>
+        <v>769</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>709</v>
+        <v>768</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4604,13 +4758,13 @@
         <v>122</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>711</v>
+        <v>771</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>712</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4664,13 +4818,13 @@
         <v>127</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>714</v>
+        <v>773</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>715</v>
+        <v>772</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4724,13 +4878,13 @@
         <v>135</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>718</v>
+        <v>774</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4784,13 +4938,13 @@
         <v>141</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>720</v>
+        <v>777</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>722</v>
+        <v>692</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4846,13 +5000,13 @@
         <v>147</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>723</v>
+        <v>779</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4904,13 +5058,13 @@
         <v>153</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>727</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5022,13 +5176,13 @@
         <v>163</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>729</v>
+        <v>782</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>731</v>
+        <v>696</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>730</v>
+        <v>695</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5080,13 +5234,13 @@
         <v>168</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>732</v>
+        <v>784</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>733</v>
+        <v>783</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5138,13 +5292,13 @@
         <v>177</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>735</v>
+        <v>786</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>737</v>
+        <v>698</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>736</v>
+        <v>785</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5200,13 +5354,13 @@
         <v>186</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>738</v>
+        <v>788</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>739</v>
+        <v>787</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5318,13 +5472,13 @@
         <v>195</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>741</v>
+        <v>789</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>743</v>
+        <v>701</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>742</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5378,13 +5532,13 @@
         <v>202</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>744</v>
+        <v>790</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>746</v>
+        <v>703</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>745</v>
+        <v>702</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5440,13 +5594,13 @@
         <v>209</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>747</v>
+        <v>792</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5549,13 +5703,13 @@
         <v>220</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>752</v>
+        <v>706</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>751</v>
+        <v>705</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5608,13 +5762,13 @@
         <v>225</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>755</v>
+        <v>707</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5667,13 +5821,13 @@
         <v>228</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>756</v>
+        <v>797</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>758</v>
+        <v>708</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>757</v>
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5723,13 +5877,13 @@
         <v>235</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>759</v>
+        <v>799</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>761</v>
+        <v>709</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>760</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5832,13 +5986,13 @@
         <v>244</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>762</v>
+        <v>801</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>764</v>
+        <v>710</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>763</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5888,13 +6042,13 @@
         <v>249</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>767</v>
+        <v>711</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>766</v>
+        <v>802</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5947,13 +6101,13 @@
         <v>254</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>768</v>
+        <v>805</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>770</v>
+        <v>712</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>769</v>
+        <v>804</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6003,13 +6157,13 @@
         <v>257</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>771</v>
+        <v>806</v>
       </c>
       <c r="U41" t="s">
-        <v>797</v>
+        <v>730</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>772</v>
+        <v>713</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6065,13 +6219,13 @@
         <v>264</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>773</v>
+        <v>808</v>
       </c>
       <c r="U42" s="14" t="s">
-        <v>775</v>
+        <v>714</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>774</v>
+        <v>807</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6123,13 +6277,13 @@
         <v>270</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>778</v>
+        <v>716</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>777</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6185,13 +6339,13 @@
         <v>278</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>781</v>
+        <v>718</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>780</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6243,13 +6397,13 @@
         <v>285</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>784</v>
+        <v>719</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6301,13 +6455,13 @@
         <v>290</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>785</v>
+        <v>814</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>787</v>
+        <v>720</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6363,13 +6517,13 @@
         <v>294</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>788</v>
+        <v>721</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>790</v>
+        <v>723</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>789</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6425,13 +6579,13 @@
         <v>298</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>791</v>
+        <v>724</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>796</v>
+        <v>729</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>792</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6487,13 +6641,13 @@
         <v>301</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>793</v>
+        <v>726</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>795</v>
+        <v>728</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>794</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6549,13 +6703,13 @@
         <v>307</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="U50" s="14" t="s">
-        <v>800</v>
+        <v>732</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>799</v>
+        <v>731</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6607,13 +6761,13 @@
         <v>311</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="U51" s="14" t="s">
-        <v>803</v>
+        <v>733</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6666,13 +6820,13 @@
         <v>654</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>806</v>
+        <v>735</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>805</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6725,13 +6879,13 @@
         <v>579</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>809</v>
+        <v>736</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6784,7 +6938,7 @@
         <v>655</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>810</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6834,13 +6988,13 @@
         <v>656</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>811</v>
+        <v>738</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>813</v>
+        <v>740</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>812</v>
+        <v>739</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6893,13 +7047,13 @@
         <v>657</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>816</v>
+        <v>742</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>815</v>
+        <v>741</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6949,10 +7103,10 @@
         <v>662</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>818</v>
+        <v>744</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>817</v>
+        <v>743</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -7005,13 +7159,13 @@
         <v>587</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>821</v>
+        <v>745</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -7058,13 +7212,13 @@
         <v>659</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>824</v>
+        <v>747</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>823</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">

--- a/Backend/kite/bin/main/static/article_data.xlsx
+++ b/Backend/kite/bin/main/static/article_data.xlsx
@@ -2157,7 +2157,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+          &lt;/div&gt;
+        [디지털타임스 김민주 기자] CJ제일제당이 '비비고' 브랜드를 앞세워 미국 PGA투어에서 K푸드 맛과 가치를 적극 알렸다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;CJ제일제당은 현지시간으로 지난달 29일부터 이달 2일까지 닷새간 미국 애리조나주 피닉스에서 열린 WMPO(Waste Management Phoenix Open) PGA투어에 참여해 '비비고 부스'를 운영했다고 3일 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이번 '비비고 부스'에서는 미국에서 선풍적인 인기를 끌고 있는 비비고 미니완탕 왕교자 등 비비고 브랜드 대표 제품을 선보였다. 사전에 준비한 1만인분의 음식이 갤러리들의 큰 호평을 받으며 모두 소진됐다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;현장에서 비비고 만두를 맛 본 텍사스 출신의 사라 스펠츠(27)는 "&lt;span class="quot0"&gt;고기와 채소가 가득 들어있어 맛있으면서도 건강한 음식이라는 느낌을 받았다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;비비고 만두 덕분에 이번 PGA 투어 관람이 기억에 남을 것 같다&lt;/span&gt;"고 말했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;박은선 CJ제일제당 식품브랜드 마케팅 담당은 "&lt;span class="quot1"&gt;현지 갤러리들에게 한국 대표 음식인 만두를 제공하고 한식의 건강한 맛을 전할 수 있어 뿌듯했다&lt;/span&gt;"며 "&lt;span class="quot1"&gt;한식의 우수성과 비비고의 가치를 알리는 데 주력하겠다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;한편 CJ제일제당은 지난해 더CJ컵 제네시스 오픈 AT&amp;amp;T 바이런 넬슨 챔피언십 등 총 7개의 주요 PGA 투어에 참여하며 비비고를 알렸다. 올해에도 제네시스 인비테이셔널 TPC 등 대규모 PGA 투어에 적극 나서 비비고 위상 강화에 힘쓸 예정이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;김민주기자 stella2515@dt.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        [아시아경제 최신혜 기자] CJ제일제당이 지난해에 이어 올해도 ‘비비고’ 브랜드를 앞세워 PGA투어에서 K푸드의 맛과 가치를 적극 알렸다. &lt;br&gt; &lt;br&gt;CJ제일제당은 현지시간으로 지난달 29일부터 이달 2일까지 닷새간 미국 애리조나주 피닉스에서 열린 WMPO PGA투어에 참여해 ‘비비고 부스’를 운영했다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;이번 비비고 부스에서는 미국에서 선풍적인 인기를 끌고 있는 비비고 미니완탕 왕교자 등 비비고 브랜드 대표 제품을 선보였다. 사전에 준비한 1만인분의 음식이 갤러리들의 큰 호평을 받으며 모두 소진됐다. &lt;br&gt; &lt;br&gt;비비고 만두를 맛 본 갤러리 중 텍사스 출신의 사라 스펠츠(27)는 “&lt;span class="quot0"&gt;고기와 채소가 가득 들어있어 맛있으면서도 건강한 맛&lt;/span&gt;”이라며 “비비고 만두 덕분에 이번 PGA투어 관람이 오랫동안 기억에 남을 것 같다"고 말했다. 이어 비비고 관계자에게 “텍사스에 계시는 부모님께 추천해드리고 싶다”며 제품 종류 현지 구매처 레시피 등을 물었다. &lt;br&gt; &lt;br&gt;박은선 CJ제일제당 식품브랜드마케팅담당은 “현지 갤러리들에게 한국의 대표 음식인 만두를 제공하고 한식의 건강한 맛을 전할 수 있어 뿌듯하다”며 “앞으로도 한식의 우수성과 ‘비비고’의 가치를 알리는 데 주력할 예정”이라고 밝혔다. &lt;br&gt; &lt;br&gt;한편 CJ제일제당은 지난해에만 더CJ컵 제네시스 오픈 AT&amp;amp;T 바이런 넬슨 챔피언십 등 총 7개의 주요 PGA투어에 참여하며 비비고를 알렸다. 올해도 제네시스 인비테이셔널 TPC 등 대규모 PGA투어에 적극 나서 비비고 위상 강화에 힘쓸 예정이다. &lt;br&gt; &lt;br&gt;최신혜 기자 ssin@asiae.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2167,19 +2188,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        [아시아경제 최신혜 기자] CJ제일제당이 ‘비비고 찬(饌)’ 라인업을 5종으로 늘리며 가정간편식(HMR) 반찬 시장 확대에 가속도를 낸다. &lt;br&gt; &lt;br&gt;CJ제일제당은 지난해 8월 출시한 비비고 찬 4종에 이어 신제품 ‘비비고 견과류 멸치볶음’을 출시했다고 30일 밝혔다. 비비고 견과류 멸치볶음(60gㆍ3480원)은 국산 멸치와 호두 아몬드 등 다양한 통견과에 한식발효장과 백설 올리고당을 넣어 바삭하고 고소하게 볶아 낸 제품이다. 30~50대 주부들을 대상으로 진행 한 사전 소비자 테스트 결과 만점에 가까운 평가를 받아 소비자에게 큰 인기를 끌 것으로 기대된다. &lt;br&gt; &lt;br&gt;비비고 찬 제품은 집에서 만든 것처럼 맛있고 믿을 수 있는 반찬들을 3~4인 가족 한 끼에 딱 맞는 양으로 소포장한 ‘초간편 HMR 반찬’ 메뉴다. 엄선한 원재료와 엄격한 제조과정으로 재료 위생에 대한 염려를 없앤 것은 물론 HMR 반찬 최초로 4 무(無)첨가 제품으로 구현해 보다 안심하고 즐길 수 있도록 했다. 간장 소금 등으로 맛을 내는 일반적인 반찬과도 차별화되는데 두 번 발효한 덧장액젓에 메주를 넣어 한번 더 발효시킨 특허 받은 ‘한식 발효장’을 사용해 깊고 깔끔한 감칠맛이 특징이다. &lt;br&gt; &lt;br&gt;실제로 지난해부터 판매 중인 소고기 장조림 소고기 꽈리고추 장조림 무말랭이 무침 오징어채볶음 등 비비고 찬 4종은 유자녀 가구와 신혼부부 등으로부터 큰 호응을 얻고 있다. ‘집에서 만든 것처럼 깔끔하고 맛있다’ ‘바쁜데 간편하게 먹을 수 있어 좋다’ ‘딱 한 끼 분량이라 남지 않아 경제적이다’ ‘반찬 재료 사서 만들어 먹는 것보다 비용 면에서 합리적이다’ 등 맛 편의성 용량 가격 등에 대한 소비자 호평이 쏟아지고 있다. &lt;br&gt; &lt;br&gt;이에 따라 매출도 지속적인 상승 곡선을 그리고 있다. 비비고 찬 4종은 출시 후 현재(1월 27일 기준)까지 약 5개월간 누적 판매량 70만개를 기록하고 있으며 특히 올해 들어서는 4주간(1월 1일~1월 27일) 매출이 전월 동기 대비 50% 이상 오르며 성장세를 이어나가고 있다. 지난해에는 비비고 찬이 일부 경로에서만 유통 판매되었다는 점을 감안하면 본격적으로 유통 채널 확장에 나서게 되는 올해는 매출이 더욱 확대될 전망이다. &lt;br&gt; &lt;br&gt;최신혜 기자 ssin@asiae.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg" alt="CJ제일제당 HMR 반찬 늘린다…‘비비고 찬’ 라인업 5종으로 확대" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        CJ제일제당이 뼈 없이 살코기만 담아 어린 자녀들과 안심하고 즐길 수 있는 '비비고 감자탕'을 내놨다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;'비비고 감자탕'은 전문점 수준의 감자탕을 집에서 간편하게 즐기도록 구현한 제품이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;조리편의성은 물론 뒤처리도 간편하도록 뼈 없이 부드러운 사태살을 담았다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;돼지뼈를 집적 우려낸 육수에 깻잎 들깨가루 등을 넣어 깊은 풍미를 살린 점도 특징이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;여기에 생강 등 천연 향신료를 활용해 고기 특유의 잡내와 누린내는 잡고 감칠맛은 살려 깊은 맛을 더했다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;CJ제일제당측은 "&lt;span class="quot0"&gt;간편하면서도 전문점 수준인 '비비고 감자탕'을 구현했다&lt;/span&gt;"고 설명했다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg" alt="[신상품·새인물] CJ제일제당 '비비고감자탕'" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        CJ제일제당이 '비비고 찬(饌)' 라인업을 5종으로 늘리며 가정간편식(HMR) 반찬 시장 확대에 가속도를 낸다.&lt;br&gt;&lt;br&gt;CJ제일제당은 지난해 8월 출시한 비비고 찬 4종에 이어 신제품 '비비고 견과류 멸치볶음'을 출시했다고 30일 밝혔다. 비비고 견과류 멸치볶음(60g 3480원)은 국산 멸치와 호두 아몬드 등 다양한 통견과에 한식발효장과 백설 올리고당을 넣어 바삭하고 고소하게 볶아 낸 제품이다. 30~50대 주부들을 대상으로 진행 한 사전 소비자 테스트 결과 만점에 가까운 평가를 받아 소비자에게 큰 인기를 끌 것으로 기대된다.&lt;br&gt;&lt;br&gt;비비고 찬 제품은 집에서 만든 것처럼 맛있고 믿을 수 있는 반찬들을 3~4인 가족 한 끼에 딱 맞는 양으로 소포장한 '초간편 HMR 반찬' 메뉴다. 엄선한 원재료와 엄격한 제조과정으로 재료 위생에 대한 염려를 없앤 것은 물론 HMR 반찬 최초로 4무(無)첨가 제품으로 구현해 보다 안심하고 즐길 수 있도록 했다. 간장 소금 등으로 맛을 내는 일반적인 반찬과도 차별화되는데 두번 발효한 덧장액젓에 메주를 넣어 한번 더 발효시킨 특허 받은 '한식 발효장'을 사용해 깊고 깔끔한 감칠맛이 특징이다.&lt;br&gt;&lt;br&gt;실제 지난해부터 판매 중인 소고기 장조림 소고기 꽈리고추 장조림 무말랭이 무침 오징어채볶음 등 비비고 찬 4종은 유자녀 가구와 신혼부부 등으로부터 큰 호응을 얻고 있다. '집에서 만든 것처럼 깔끔하고 맛있다' '바쁜데 간편하게 먹을 수 있어 좋다' '딱 한끼 분량이라 남지 않아 경제적이다' '반찬 재료사서 만들어 먹는 것보다 비용 면에서 합리적이다' 등 맛 편의성 용량 가격 등에 대한 소비자 호평이 쏟아지고 있다.&lt;br&gt;&lt;br&gt;이에 따라 매출도 지속적인 상승 곡선을 그리고 있다. 비비고 찬 4종은 출시 후 현재(1월 27일 기준)까지 약 5개월간 누적 판매량 70만개를 기록하고 있으며 특히 올해 들어서는 4주간(1월 1일~1월 27일) 매출이 전월 동기 대비 50% 이상 오르며 성장세를 이어나가고 있다. 지난 해에는 비비고 찬이 일부 경로에서만 유통 판매되었다는 점을 감안하면 본격적으로 유통 채널 확장에 나서게 되는 올해는 매출이 더욱 확대될 전망이다.&lt;br&gt;&lt;br&gt;현재 한식 반찬 시장은 약 2조원대로 추산되며 HMR 트렌드 확대에 따라 HMR 반찬 시장 역시 지속적인 성장세가 예상된다.&lt;br&gt;&lt;br&gt;김지은 CJ제일제당 비비고 찬 마케팅 담당자는 “&lt;span class="quot0"&gt;비비고 찬은 차별화된 기술력을 기반으로 깐깐한 품질관리와 좋은 재료로 맛깔스럽게 만들어 안심하고 즐길 수 있다는 점에서 경쟁력 있는 제품&lt;/span&gt;”이라고 강조하고 “&lt;span class="quot0"&gt;비비고 찬 비비고 김치 비비고 생선구이 등 반찬 모음전을 비롯 다양한 온라인 오프라인 마케팅 활동을 통해 HMR 반찬 시장 성장을 주도하는 제품으로 키워나갈 것&lt;/span&gt;”이라고 말했다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg" alt="CJ제일제당 '비비고 찬' 라인업 5종으로 확대" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        CJ제일제당이 한식 브랜드 ‘비비고’와 한식 문화 알리기에 나섰다. &lt;br&gt; &lt;br&gt;CJ제일제당은 지난 22일(현지시간) 미국 뉴욕 비비고 임시 매장(팝업)에서 인플루언서(콘텐츠 창작자) 초청 요리 교실을 열었다고 28일 밝혔다. &lt;br&gt; &lt;br&gt;이번 행사는 설 명절을 맞아 기획된 것이다. 회사 측은 만두를 중심으로 한식 문화를 알리는 데 중점을 뒀다. &lt;br&gt; &lt;br&gt;이 자리에는 미 ABC방송과 소셜네트워크서비스(SNS) 인플루언서 등 23명이 참석했다. 이들은 만두 빚는 법을 배우고 닭강정 잡채 등과 시식하는 시간을 가졌다. &lt;br&gt; &lt;br&gt;안효진 CJ제일제당 비비고 글로벌 마케팅 담당자는 “&lt;span class="quot0"&gt;비비고 임시 매장이 미 뉴욕 현지에서 화제가 되고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;비비고가 자리잡을 수 있도록 활동을 이어갈 것&lt;/span&gt;”이라고 전했다. &lt;br&gt; &lt;br&gt;동아닷컴 박상재 기자 sangjae@donga.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg" alt="CJ제일제당 美 뉴욕에서 ‘비비고’와 한식 문화 알리기 나서" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        CJ제일제당이 미국 뉴욕에 개점한 '비비고 팝업 레스토랑'의 흥행을 극대화하기 위해 현지 인플루언서들을 대상으로 '비비고' 브랜드와 한국 식문화를 알리는 데 적극 나섰다.&lt;br&gt;&lt;br&gt;CJ제일제당은 지난 22일(현지 시간) 미국 인플루언서들을 초청해 한식을 직접 체험하는 쿠킹클래스를 진행했다고 28일 밝혔다. 이번 행사는 구정을 맞아 기획된 '루나 뉴 이어' 이벤트로 한국의 전통 명절 음식인 만두를 중심으로 한국 식문화를 전파하는 데 중점을 뒀다.&lt;br&gt;&lt;br&gt;행사는 CJ제일제당이 지난달 미국 뉴욕 록펠러센터에 선보인 '비비고 팝업 레스토랑'에서 진행됐다. 미국의 ABC 방송과 뉴욕 지역의 푸드/라이프스타일 전문 채널 에디터와 팔로워 10만 이상의 SNS 인플루언서 등 총 23명이 참가했다.&lt;br&gt;&lt;br&gt;참가자들은 셰프의 시연을 따라 만두 빚는 법을 배웠다. 얇은 만두피에 야채가 풍부한 만두소를 넣고 물결 모양으로 주름을 잡으며 한국식 만두에 대한 이해도를 높였다. 직접 빚은 만두로 만든 만둣국과 '비비고 팝업 레스토랑'의 인기 메뉴인 닭강정 잡채 김스낵 등을 함께 시식하며 한식 한상차림을 즐기는 시간도 가졌다.&lt;br&gt;&lt;br&gt;미국 ABC 방송의 프로그램 '굿모닝 아메리카' 제작 PD는 “&lt;span class="quot0"&gt;코리아타운에서 바비큐를 즐기는 한국 식문화도 좋지만 일상에서 쉽게 즐길 수 있는 메뉴에 대해 알게 된 좋은 기회&lt;/span&gt;”라는 반응을 보였다. 특히 설 명절에 직접 만두를 빚어 가족과 나눠 먹는 한국 전통 문화를 체험한 것에 큰 흥미를 가졌다.&lt;br&gt;&lt;br&gt;안효진 CJ제일제당 비비고 글로벌 마케팅팀 담당자는 “&lt;span class="quot1"&gt;'비비고 팝업 레스토랑'이 뉴욕 현지에서 화제가 되어 오피니언 리더들을 대상으로 한식과 '비비고'를 알릴 수 있는 기회가 마련됐다&lt;/span&gt;”라며 “&lt;span class="quot1"&gt;현지 소비자가 팝업과 한식에 큰 관심을 보이고 있는 만큼 글로벌 한식 대표 브랜드로 '비비고'가 자리매김 할 수 있는 활동들을 지속할 것&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;&lt;br&gt;한편 '비비고 팝업 레스토랑'은 CJ제일제당이 뉴요커를 겨냥해 '비비고' 브랜드를 중심으로 한국 식문화를 알리고자 전략적으로 기획한 식문화 공간으로 뉴요커들에게 폭발적인 관심을 얻고 있다. CJ제일제당은 '비비고' 브랜드와 팝업 레스토랑의 인지도를 더욱 넓히기 위해 다음달에는 '비비고 푸드트럭'을 운영하며 뉴욕대 브로드웨이 등 맨해튼 중심가를 순회할 예정이다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2193,7 +2278,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        국내 대표 즉석밥 CJ제일제당 '햇반'(사진)이 독보적 1위 지위를 확고히하며 성장세를 이어나가고 있다. &lt;br&gt; &lt;br&gt; CJ제일제당은 햇반이 지난해 말 기준으로 총 누적 매출 3조 원 누적 판매량 30억 개를 돌파했다고 27일 밝혔다. 23년간 판매된 햇반은 나란히 배열하면 둘레 4만 192km의 지구를 10바퀴 가량 돌릴 수 있는 수량으로 그간 사용한 쌀의 총량은 400만 가마니(쌀 한 가마니=햇반 755개)에 육박한다. &lt;br&gt; &lt;br&gt; 1996년 12월 출시된 햇반은 매해 두 자릿수 이상 성장률을 보이며 국내 즉석밥 시장 성장을 주도해왔다. 2019년 한 해만 보더라도 전년의 15% 성장한 4860억 원(소비자가 환산 기준) 매출을 기록하며 모두 4억 5500만 개가 팔렸다. 국민 1인 당 한 해에 햇반을 9개씩 먹은 셈이다. 지속적인 성장세를 감안하면 올해는 햇반의 5000억 원대 '초(超)메가' 브랜드 등극도 기대된다. &lt;br&gt; &lt;br&gt; 매출 성과에 힘입어 상온 즉석밥 시장에서도 부동의 1위로 시장 성장을 계속 이끌고 있다. 지난해 닐슨 코리아 기준 햇반 시장점유율은 71%를 기록했다. 지난해 즉석밥 시장 규모는 3920억 원으로 2018년 3656억 원이었던 것과 비교하면 7% 가량 성장했다. 햇반이 즉석밥 시장 전체 성장을 견인하고 있다고 할 수 있는 대목이다. &lt;br&gt; &lt;br&gt; 이 같은 성과는 햇반이 급할 때 찾던 '비상식'이 아니라 쌓아두고 언제든 간편하고 맛있게 즐길 수 있는 '일상식'으로 확실히 자리잡았기 때문으로 풀이된다. '밥을 사먹는다'는 개념조차 없었던 시절 핵가족과 맞벌이 가구 증가 전자레인지 보급률 증가에 따른 사회적 변화와 흐름을 재빠르게 읽고 선제적 기술 개발과 투자에 나선 결과이기도 하다. 이와 관련 독보적 연구개발(R＆D) 역량과 혁신기술은 국민 식생활 변화를 이끌어 내는 원동력이 됐다. &lt;br&gt; &lt;br&gt; 햇반의 대표적인 R＆D 혁신기술은 '무균화 포장밥 제조 기술' '최첨단 패키징 기술' '당일 자가도정 시스템'이다. 무균화 포장밥 제조기술은 반도체 공정 수준의 클린룸에서 살균한 포장재로 밥을 포장하는 기술이다. 쌀 표면 미생물을 고온고압 스팀으로 살균하고 미생물을 완벽하게 차단한 무균화 공정을 거쳐 밀봉 포장해 보존료 없이 9개월간 상온 보관이 가능하면서도 신선한 밥맛을 낼 수 있다. &lt;br&gt; &lt;br&gt; 최첨단 패키징 기술로도 햇반은 차별화된다. 같은 밥도 패키지에 따라 맛이 변하기 때문에 밥 담는 용기는 3중 재질로 리드필름(비닐 뚜껑)은 4중 특수 필름지를 사용했다. 산소와 미생물을 완벽히 차단하고 온도와 습도에 영향을 받지 않으면서 인체에 무해한 것이 핵심이다. 용기와 리드필름 재질은 세계적으로 안전성이 검증된 아기 젖병에도 사용되는 폴리프로필렌 소재라 조리 시 환경 호르몬 배출 걱정 없이 먹을 수 있다. &lt;br&gt; &lt;br&gt; 햇반만의 당일 자가도정 시스템은 '갓 지은 밥맛'을 구현하는 핵심 기술력 중 하나다. 쌀은 도정을 하는 순간부터 쌀 품질 열화가 시작돼 맛이 떨어지게 된다. 햇반은 국내에서 유일하게 밥 자체 도정설비를 도입해 당일 도정한 쌀로 밥을 짓고 있다. 자체 도정설비를 통해 맛 품질을 끌어올릴 뿐 아니라 쌀 종류와 특성에 맞게 맞춤 도정도 진행한다. 같은 쌀도 재배와 보관 조건에 따라 해마다 품질이 달라지기 때문이다. &lt;br&gt; &lt;br&gt; CJ제일제당은 올해 햇반 출시 24년째를 맞아 사각용기 24개들이 한정판 기획 제품 '네모햇반'을 홈플러스에서 선보인다. (소비자가 2만 3900원) 둥근 모양이 햇반 하면 떠오르는 시그니처 형태지만 최초 출시 당시에는 사각용기로 출발했던 것에 착안해 준비한 제품이다. 2001년 둥근 용기 햇반이 출시되면서 두 가지 형태를 병행해 생산해왔지만 둥근 햇반 수요가 워낙 커서 사각용기는 이번 한정판 제품을 마지막으로 생산을 중단한다. &lt;br&gt; &lt;br&gt; 신수진 CJ제일제당 햇반혁신팀 부장은 "&lt;span class="quot0"&gt;햇반은 안전성 편리성 갓 지은 밥맛 최고의 품질 등 식품과 관련된 연구개발 기술이 총집약돼 있는 상온 가정간편식(HMR) 대표 제품&lt;/span&gt;"이라면서 "&lt;span class="quot0"&gt;23년간 꾸준한 국민 라이프 스타일 트렌드에 변화를 일으키며 꾸준한 사랑을 받아 온 국민 대표 브랜드로 앞으로도 다양한 소비자 니즈를 충족시키는 새로운 제품들을 선보이고 지속적인 연구개발에 매진할 것&lt;/span&gt;"이라고 말했다. &lt;br&gt; &lt;br&gt; 황상욱 기자 eyes@busan.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg" alt="CJ제일제당 &amp;quot;작년 국민 1인당 9개씩 햇반 먹었다&amp;quot;" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        CJ제일제당의 즉석밥 '햇반'이 지난해 말 기준으로 누적 매출 3조원을 넘었다. 누적 판매량도 30억개를 돌파했다.&lt;br&gt;27일 CJ제일제당에 따르면 지난 1996년 출시 이후 작년까지 팔린 햇반을 나란히 놓으면 지구를 10바퀴 가량 돌릴 수 있는 길이가 나온다. 30억개를 만드는데 쓰인 쌀은 400만 가마니에 달한다.&lt;br&gt;올해로 탄생한지 24년째인 스테디셀러 햇반은 최근까지 매년 두 자릿수 이상 성장세를 이어왔다. 지난해에는 전년보다 15% 성장한 4860억원의 매출을 올리며 4억5500만개가 팔려나갔다. 우리나라 국민 1명당 1년에 햇반을 9개씩 먹은 셈이다.&lt;br&gt;CJ제일제당은 햇반이 올해 연 매출 5000억원대 브랜드로 성장할 것으로 보고 있다.&lt;br&gt;즉석밥 전체 시장에서 햇반이 차지하는 시장 점유율은 지난해 닐슨 코리아 기준 71%에 달했다. 햇반의 판매 호조에 힘입어 지난해 즉석밥 전체 시장 규모는 전년보다 7% 늘어난 3920억원을 기록했다.&lt;br&gt;CJ제일제당은 햇반 출시 24주년을 맞아 사각 용기 24개들이 한정판 기획 제품을 홈플러스에서 출시한다. 사각 용기 햇반은 이번 한정판을 마지막으로 생산을 중단한다.&lt;br&gt;CJ제일제당 관계자는 "&lt;span class="quot0"&gt;햇반은 급할 때 찾는 비상식이 아니라 언제든 간편하고 맛있게 즐길 수 있는 일상식으로 확실히 자리 잡았다&lt;/span&gt;"고 말했다. &lt;br&gt;[김태성 기자]
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2207,7 +2314,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        CJ제일제당의 즉석밥 '햇반'이 지난해 말 기준으로 누적 매출 3조원을 넘었다. 누적 판매량도 30억개를 돌파했다.&lt;br&gt;27일 CJ제일제당에 따르면 지난 1996년 출시 이후 작년까지 팔린 햇반을 나란히 놓으면 지구를 10바퀴 가량 돌릴 수 있는 길이가 나온다. 30억개를 만드는데 쓰인 쌀은 400만 가마니에 달한다.&lt;br&gt;올해로 탄생한지 24년째인 스테디셀러 햇반은 최근까지 매년 두 자릿수 이상 성장세를 이어왔다. 지난해에는 전년보다 15% 성장한 4860억원의 매출을 올리며 4억5500만개가 팔려나갔다. 우리나라 국민 1명당 1년에 햇반을 9개씩 먹은 셈이다.&lt;br&gt;CJ제일제당은 햇반이 올해 연 매출 5000억원대 브랜드로 성장할 것으로 보고 있다.&lt;br&gt;즉석밥 전체 시장에서 햇반이 차지하는 시장 점유율은 지난해 닐슨 코리아 기준 71%에 달했다. 햇반의 판매 호조에 힘입어 지난해 즉석밥 전체 시장 규모는 전년보다 7% 늘어난 3920억원을 기록했다.&lt;br&gt;CJ제일제당은 햇반 출시 24주년을 맞아 사각 용기 24개들이 한정판 기획 제품을 홈플러스에서 출시한다. 사각 용기 햇반은 이번 한정판을 마지막으로 생산을 중단한다.&lt;br&gt;CJ제일제당 관계자는 "&lt;span class="quot0"&gt;햇반은 급할 때 찾는 비상식이 아니라 언제든 간편하고 맛있게 즐길 수 있는 일상식으로 확실히 자리 잡았다&lt;/span&gt;"고 말했다. &lt;br&gt;[김태성 기자]
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        삼성전자가 3~5일(현지시간) 열리는 북미 최대 규모 공조 전시회 'AHR엑스포(The International Air-Conditioning Heating Refrigerating Exposition)'에 참가해 무풍 에어컨 콘솔형 에어컨 등을 전시한다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;AHR엑스포는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사로 삼성전자는 이번 전시회에 약 100평 규모 부스를 마련해 벽걸이형·카세트형 등 무풍 에어컨 전체 라인업과 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;새 벽걸이형 무풍 에어컨 콘솔형 에어컨 등 실내기 라인업 신제품도 새롭게 선보인다. &lt;br&gt; &lt;br&gt;벽걸이형 무풍 에어컨 신제품은 기존보다 팬 크기를 약 15%가 키워 냉방 성능이 한층 향상됐고 무풍 패널은 11% 넓어져 '와이드 무풍 냉방'으로 바람 없이도 시원해진다고 회사 측은 설명했다. 블레이드(바람 토출구 쪽 달린 날개) 역시 31% 넓어짐에 따라 최대 15m까지 바람을 보내줘 넓은 공간도 냉방이 가능하다. &lt;br&gt; &lt;br&gt;사용 패턴 실내외 온도 등 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환하는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다고 관계자는 덧붙였다. &lt;br&gt; &lt;br&gt;콘솔형 에어컨 신제품은 실내기 폭이 199mm로 슬림해 공간을 효율적으로 사용할 수 있고 바람을 상하단 2방향으로 내보내는 방식으로 냉난방 효과를 높였다. 따뜻한 바람은 하단으로 흘러나오게 해 바닥 부분까지 비교적 균일하게 난방할 수 있다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 "&lt;span class="quot0"&gt;삼성전자는 무풍 에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속적으로 선보여 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍 에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택폭을 넓혀 북미 공조 시장을 선도할 것&lt;/span&gt;"이라고 말했다. &lt;br&gt; &lt;br&gt;배성수 한경닷컴 기자 baebae@hankyung.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2221,6 +2344,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        삼성전자가 북미 최대 규모 공조 전시회 AHR EXPO 2020에 참가해 벽걸이형 1way/4way 카세트형 등 무풍에어컨 풀 라인업을 중심으로 다양한 공조 솔루션을 선보였다. [삼성전자 제공] [헤럴드경제 천예선 기자] 삼성전자가 3일부터 5일(현지시간)까지 미국 플로리다주 올랜도에서 개최되는 ‘AHR엑스포’에 참가해 혁신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt; ‘AHR엑스포’는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사로 90년 전통의 북미 최대 규모 공조 전시회다. &lt;br&gt; &lt;br&gt; 삼성전자는 약 100평 규모의 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt; 무풍에어컨은 찬바람이 몸에 직접 닿는 것을 꺼리는 소비자들을 위해 직바람없이도 쾌적한 냉방을 즐길 수 있도록 만든 삼성전자의 주력 제품으로 2016년 세계 최초로 개발했다. &lt;br&gt; &lt;br&gt; 특히 삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. &lt;br&gt; &lt;br&gt; 삼성 벽걸이형 무풍에어컨은 기존 대비 팬의 크기가 약 15% 확대돼 냉방 성능이 한층 강력해졌고 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 경험할 수 있다. &lt;br&gt; &lt;br&gt; 이번 신제품에는 사용자의 사용 패턴이나 실내외 온도 등의 중요 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다. &lt;br&gt; &lt;br&gt; 또 삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨(FJM Free Joint Multi)으로서 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. &lt;br&gt; &lt;br&gt; 이기호 삼성전자 생활가전사업부 상무는 “&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택 폭을 넓히며 북미 공조 시장을 선도할 것&lt;/span&gt;”이라고 말했다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
             &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2020/02/03/02100701.20200203111020001.01.jpg" alt="삼성전자 2020 AHR 엑스포서 혁신 공조 솔루션 선봬" class="img-responsive"&gt;
           &lt;/div&gt;</t>
@@ -2231,6 +2362,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        정칠희(사진) 삼성전자 고문이 KAIST 제25대 총동문회장에 선임됐다. &lt;br&gt; &lt;br&gt;정 신임 총동문회장은 KAIST에서 물리학과(79학번) 석사학위와 미국 미시건주립대에서 물리학과 박사학위를 취득했다. &lt;br&gt; &lt;br&gt;1979년에 삼성전자에 입사해 40여 년 동안 줄곧 반도체 기술개발에 정진한 정칠희 회장은 재직 시 세계적 수준의 시스템 반도체 및 메모리 디바이스 기술개발을 담당했다. &lt;br&gt; &lt;br&gt;현재 그는 삼성전자 종합기술원 고문 나노융합산업연구조합 이사장 국가과학기술자문회의 위원 국가미래전략 2045 위원회 총괄위원장을 맡고 있다. &lt;br&gt; &lt;br&gt;정칠희 신임 회장은 "&lt;span class="quot0"&gt;총동문회도 모교의 위상에 걸맞은 조직이 될 수 있도록 동문의 참여와 화합을 이끌고 모교의 발전에 적극 기여하겠다&lt;/span&gt;"라고 밝혔다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
             &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203103028001.01.jpg" alt="정칠희 삼성전자 고문 KAIST 총동문회장 선임" class="img-responsive"&gt;
           &lt;/div&gt;</t>
@@ -2241,6 +2380,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        삼성전자는 3~5일(현지 시각) 미국 플로리다주 올랜도에서 열리는 ‘AHR엑스포(The International Air-Conditioning Heating Refrigerating Exposition)'에 참가한다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;AHR엑스포는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사다. 90년 전통의 북미 최대 규모 공조 전시회다. 삼성전자는 올해 약 100평 규모 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. 벽걸이형 무풍에어컨은 기존보다 팬 크기가 약 15% 늘어 냉방 성능이 강력해졌다. 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 쾌적한 냉기를 경험할 수 있다. 또 31% 넓어진 블레이드가 최대 15m까지 바람을 보내준다. &lt;br&gt; &lt;br&gt;콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. 삼성 콘솔형 에어컨은 실내기 폭이 199mm로 얇아 공간을 효율적으로 사용할 수 있다. 바람을 상·하단 2방향으로 내보내 냉·난방 효과를 극대화했고 따뜻한 바람이 하단으로 흘러나오게 해 바닥까지 빠르게 난방할 수 있다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 "&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;이번 전시회에서 공개한 제품군을 바탕으로 소비자 선택 폭을 넓혀 북미 공조 시장을 선도하겠다&lt;/span&gt;"고 말했다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
             &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203101509001.01.jpg" alt="삼성전자 북미 최대 공조전시회 'AHR엑스포' 참가" class="img-responsive"&gt;
           &lt;/div&gt;</t>
@@ -2251,31 +2398,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        삼성전자가 직원들이 받은 노동조합 가입 안내 이메일을 삭제해 논란이 뜨겁다. 업계에 따르면 한국노동조합총연맹 산하 전국삼성전자노동조합은 최근 직원들에게 노조 가입을 독려하는 내용의 이메일을 발송했다. 이 이메일에는 삼성전자와 경쟁사 복지 혜택을 비교한 표와 함께 ‘우리에게도 노조가 있습니다. 힘이 생기도록 가입해주세요’라는 문구가 담겼다. 하지만 이후 직원들의 사내 메일함에서 해당 이메일이 삭제됐다는 의혹이 불거졌다. 직장인 익명 커뮤니티 ‘블라인드’에는 ‘노조 메일 삭제’라는 제목의 게시물이 올라왔고 “지워졌다”는 내용의 댓글이 여러 건 달리기도 했다.&lt;br&gt;논란이 커지자 삼성전자는 “&lt;span class="quot0"&gt;사규에 ‘회사가 제공하는 정보통신망을 업무 외적인 용도로 사용해서는 안 된다’는 내용이 있어 조치를 취한 것&lt;/span&gt;”이라는 입장을 밝혔다. 회사 내부 전산망을 노조 활동에 이용하려면 단체협약 등을 통해 이용 권한을 확보하거나 회사 승인을 받아야 한다는 의미다. 노조 측에 따르면 삼성전자는 앞서 지난 1월 6일 노조가 발송한 가입 독려 이메일도 삭제한 것으로 알려졌다. &lt;br&gt;이번에 이메일을 보낸 제4노조는 삼성전자에서 처음 상급단체에 가입한 노조로 지난해 11월 공식 출범했다. 진윤석 삼성전자 노조위원장은 “회사는 업무 메일이 아니라는 이유를 들었지만 노조 관련 사안을 업무가 아니라고 생각하는 것이 문제다. 여러 수단을 통해 단호하게 대응할 예정”이라고 밝혔다. 당분간 삼성전자 노조와 사 측 갈등이 지속될 전망이다. &lt;br&gt; [김경민 기자]&lt;br&gt; [본 기사는 매경이코노미 제 2044호 (2020.2.5~2020.2.11일자) 기사입니다]
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg" alt="삼성전자 노조 가입 독려 이메일 삭제 논란" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        [머니투데이 심재현 기자] [미국 에어컨 시장 공략 본격화]&lt;br&gt;&lt;br&gt; 삼성전자 모델이 3일 미국 올랜도에서 열리는 북미 최대 공조 전시회 'AHR엑스포'에서 벽걸이형과 1웨이·4웨이 카세트형 등 무풍에어컨 풀 라인업을 중심으로 다양한 공조 솔루션을 소개하고 있다. /사진제공=삼성전자삼성전자가 3~5일(현지시간) 미국 플로리다주 올랜도에서 열리는 북미 최대 공조 전시회 'AHR엑스포'에서 최신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt;삼성전자는 약 330㎡(100평) 규모의 전시장에 벽걸이형 1웨이·4웨이 카세트형(천장형 실내기) 등 무풍에어컨을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. 무풍에어컨은 찬바람이 몸에 직접 닿지 않고도 쾌적한 냉방을 즐길 수 있도록 만든 삼성전자의 주력 제품으로 2016년 세계 최초로 개발했다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 북미 에어컨 시장을 공략하기 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등을 새롭게 선보인다. &lt;br&gt; &lt;br&gt;벽걸이형 무풍에어컨은 기존 제품보다 팬의 크기가 약 15% 커져 냉방 성능이 한층 강력해졌다. 무풍 패널이 11% 넓어진 와이드 무풍 냉방 기능도 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 내뿜는다. 31% 넓어진 블레이드는 최대 15m까지 바람을 보낸다.&lt;br&gt; &lt;br&gt;신제품에는 사용 패턴이나 실내외 온도 등을 분석해 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용됐다.&lt;br&gt;&lt;br&gt;삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨으로 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치할 수 있는 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다.&lt;br&gt; &lt;br&gt;이 제품은 실내기 폭이199㎜로 얇아 공간을 효율적으로 사용할 수 있다. 또 바람을 상·하단 두 방향으로 내보내는 방식으로 냉·난방 효과를 극대화했다. 따뜻한 바람이 하단으로 흘러나오기 때문에 바닥 부분까지 빠르게 난방할 수 있다.&lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 패밀리허브 냉장고나 TV로 에어컨과 공기청정기를 제어할 수 있는 홈 IoT(사물인터넷) 기술을 경험할 수 있는 체험존도 운영한다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 신형 무풍에어컨 전시" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        [아시아경제 이기민 기자]삼성전자가 북미 최대 규모의 공조 박람회인 ‘AHR 엑스포 2020’에 참가해 혁신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt;삼성전자는 이달 3~5일(현지시간) 미국 플로리다주 올랜도에서 열리는 공조 박람회에 참가한다고 3일 밝혔다. AHR엑스포는 미국 난방냉동공조학회가 90년 동안 주최한 공조 박람회다. &lt;br&gt; &lt;br&gt;삼성전자는 약 100평 규모의 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;삼성전자가 2016년 세계 최초로 개발한 무풍에어컨은 찬바람이 몸에 직접 닿는 것을 꺼리는 소비자들을 위해 직바람 없이도 냉방을 즐길 수 있다는 게 장점으로 꼽힌다. &lt;br&gt; &lt;br&gt;특히 삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. 삼성 벽걸이형 무풍에어컨은 기존 대비 팬의 크기가 약 15% 확대돼 냉방성능이 이전보다 강력해졌다. 또한 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 경험할 수 있다. 아울러 31% 넓어진 블레이드가 최대 15m까지 바람을 보내줘 넓은 공간도 빠르게 냉방할 수 있다. &lt;br&gt; &lt;br&gt;이번 신제품에는 사용자의 사용 패턴이나 실내외 온도 등의 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다고 삼성전자는 설명했다. &lt;br&gt; &lt;br&gt;삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨(FJM Free Joint Multi)으로서 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. 삼성 콘솔형 에어컨은 실내기 폭이199mm로 슬림해 공간을 효율적으로 사용할 수 있다. 이 제품은 바람을 상·하단 두 방향으로 내보내는 방식으로 냉·난방 효과를 극대화했고 따뜻한 바람이 하단으로 흘러나오게 해 바닥 부분까지 빠르고 균일하게 난방할 수 있다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 ▲자동 승강 기능을 적용한 4Way·360 천장형 실내기의 편리한 필터 관리 기술 ▲패밀리허브 냉장고나 TV를 통해 에어컨과 공기청정기를 편리하게 제어할 수 있는 홈 사물인터넷(IoT)기술을 직접 경험할 수 있는 체험존도 운영한다. &lt;br&gt; &lt;br&gt;이 외에도 ▲최대 5대의 실내기가 연결 가능한 다배관 형태의 14kW FJM 실외기 ▲영하 15℃의 극한에서도 난방 성능을 100% 구현하는 ‘맥스 히트’ 시리즈 ▲컴팩트한 사이즈로 설치 편의성을 높인 ‘DVM S Eco’ 실외기 시리즈 등 북미 시장에서 지속적으로 호평 받았던 혁신 공조 솔루션도 함께 전시한다는 계획이다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 “&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택 폭을 넓히며 북미 공조 시장을 선도할 것&lt;/span&gt;”이라고 말했다. &lt;br&gt; &lt;br&gt;이기민 기자 victor.lee@asiae.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg" alt="삼성전자 북미 최대 공조박람회 AHR엑스포 2020 참가" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        국내 최고 주식부호인 이건희 삼성전자 회장(78)이 지난해 삼성전자 배당금만 3538억원 받게 된다. 이 회장이 지난 10년 간 삼성전자에서 받은 배당금은 1조4000억원을 넘는 것으로 조사됐다.&lt;br&gt;&lt;br&gt;3일 기업분석 전문 한국CXO연구소가 2010년부터 10년 간 총수 일가의 삼성전자 배당금을 분석한 결과 이 회장은 2019년분 배당금 3538억원을 받는 것으로 나타났다. 지난해 삼성전자 보통주 1주당 배당금은 1416원 우선주는 1주당 1417원으로 책정됐다.&lt;br&gt;&lt;br&gt;이 회장은 삼성전자 보통주 2억4927만3200주로 배당금 3529억원 우선주 61만9900주로 8억원을 더해 총 3538억원 규모를 받을 예정이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;또 이 회장은 삼성전자 배당금에 더해 삼성생명에서 1100억원 삼성물산에서 108억원을 받아 지난해 배당금을 총 4700억원 받는 것으로 조사됐다.&lt;br&gt;&lt;br&gt;부인인 홍라희 전 리움 관장(75)은 삼성전자 주식으로 지난해 766억원 아들인 이재용 부회장(52)은 595억원 정도의 배당금을 받는 것으로 파악했다고 CXO연구소는 밝혔다. 총수 일가가 삼성전자에서 받은 배당금 액수는 지난해 4900억원 규모로 2018년에도 같은 수준이었다.&lt;br&gt;&lt;br&gt;2010년부터 지난해까지 10년 간 이 회장은 삼성전자 주식으로 1조4563억원의 배당금을 받은 것으로 집계됐다. 연 평균 배당금 1456억원을 꼬박꼬박 받아온 셈이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;삼성전자 주가 변동에 따라 2010년에 배당금 499억원에서 2011년 274억원으로 떨어졌다가 이후에는 2013년 714억원 2015년 1049억원 2017년 2024억원 2018년 3538억원으로 해마다 증가했다.&lt;br&gt;&lt;br&gt;같은 10년 동안 홍 전 관장은 3156억원 이 부회장은 2448억원을 삼성전자 배당금으로 챙겼다. 총수 일가의 10년 간 삼성전자 배당금은 총 2조168억원 수준으로 집계됐다.&lt;br&gt;&lt;br&gt;다만 삼성전자에서 가장 많은 배당금을 챙긴 주주는 이 회장 일가가 아니라 국민연금이다. 국민연금은 2010년부터 삼성전자 지분을 5% 넘게 보유하고 있다.&lt;br&gt;&lt;br&gt;국민연금은 2018년 배당금 8455억원 지난해 8865억원으로 2년 연속 8000억원대를 받는다.&lt;br&gt;&lt;br&gt;국민연금이 2010년부터 10년 간 삼성전자로부터 받은 배당금은 3조5007억원으로 이 회장 일가보다 약 1조원 더 많다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;지난해 삼성전자의 배당금을 가장 많이 받는 외국인 주주는 미국에 근거지를 둔 블랙록 펀드 어드바이저스 투자법인이다. 이 투자자는 지난해 1월 말부터 삼성전자 지분을 5% 이상 보유 지난해 배당금이 4253억원 규모로 집계됐다.&lt;br&gt;&lt;br&gt;지난해 말 기준 삼성전자 지분 중 57%를 외국인 주주가 갖고 있다. 지난해 총 배당금 9조6192억원 중 5조4800억원 정도는 외국인 주주가 갖고 가는 것이다.&lt;br&gt;&lt;br&gt;삼성전자는 2018년 주식분할로 인해 2018년과 지난해 1주당 배당금을 1416원으로 책정했다. 분할 이전으로 환산하면 7만800원 수준이다. 2017년(4만2500원)과 비교하면 주주들에게 더 많은 배당금을 주는 주주친화 정책을 편 것으로 풀이된다.&lt;br&gt;&lt;br&gt;당기순이익 중 배당금을 얼마나 지급하는지를 나타내는 ‘배당성향’도 삼성전자는 2014년부터 10% 이상을 유지했다. 2018년엔 21.9% 지난해 44.2%까지 높아졌다. 지난해 순이익은 전년보다 절반 이상 줄었으나 배당금은 그대로 유지하면서 배당성향이 배 이상 증가한 것이다.&lt;br&gt;&lt;br&gt;오일선 CXO연구소장은 “&lt;span class="quot0"&gt;삼성전자 실적은 악화했으나 회사 주주들이 챙기는 배당은 두둑해졌다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;주가가 상승하고 있고 배당금도 올라 주주들로서는 반길 일&lt;/span&gt;”이라고 말했다.&lt;br&gt;&lt;br&gt;전병역 기자 junby@kyunghyang.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg" alt="이건희 10년간 1조4000억 삼성전자 배당금…가장 많이 챙긴 곳은 따로" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        이건희 삼성전자 회장이 지난해 삼성전자에서 받는 배당금이 3500억원이 훌쩍 넘는 것으로 나타났다. 이 회장은 2010년부터 10년간 삼성전자에서 1조4000억원의 배당금을 수령했다. &lt;br&gt; &lt;br&gt;3일 기업분석 전문 한국CXO연구소가 2010년부터 10년 간 이건희 회장 일가의 삼성전자 배당금 현황 조사를 분석한 결과 이 회장은 보통주 2억4927만3200주 우선주 61만9900주를 보유해 총 2019년분 배당금 3538억원을 받는다. &lt;br&gt; &lt;br&gt;작년 삼성전자 보통주 1주당 배당금은 1416원 우선주는 1주당 1417원으로 책정됐다. &lt;br&gt; &lt;br&gt;부인 홍라희 전 리움 관장은 삼성전자 주식으로 작년 766억원 아들인 이재용 부회장은 595억원 가량의 배당금을 받는다. 총수 일가의 작년 삼성전자 배당금은 4900억원 규모다. &lt;br&gt; &lt;br&gt;2010년부터 작년까지 10년동안 이 회장이 삼성전자 주식으로 받은 배당금은 1조4563억원이다. 같은 10년동안 홍 전 과장은 3156억원 이 부회장은 2448억원을 받았다. &lt;br&gt; &lt;br&gt;총수 일가의 10년 간 삼성전자 배당금은 2조168억원 수준이다. &lt;br&gt; &lt;br&gt;다만 삼성전자에서 가장 많은 배당금을 챙긴 주주는 국민연금이었다. 국민연금은 2010년부터 삼성전자 지분을 5% 넘게 보유하고 있다. 국민연금은 2018년 배당금 8455억원 지난해 8865억원을 수령했다. &lt;br&gt; &lt;br&gt;국민연금이 2010년부터 10년 간 삼성전자 지분을 보유하며 벌어들인 배당금은 3조5007억원이다. &lt;br&gt; &lt;br&gt;삼성전자의 배당성향(당기순이익 가운데 배당금 지급 규모)은 2014년부터 10% 이상을 유지했고 2018년엔 21.9% 지난해 44.2%까지 높아졌다. &lt;br&gt; &lt;br&gt;이송렬 한경닷컴 기자 yisr0203@hankyung.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg" alt="'국내 주식부호 TOP' 이건희 삼성전자 회장…작년 배당금만 3538억원" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        [머니투데이 유희석 기자] [편집자주] 매일같이 수조원의 자금이 오가는 증시는 정보의 바다이기도 합니다. 정확한 정보보다는 거품을 잡아 손실을 보는 경우가 많습니다. 머니투데이가 상장기업뿐 아니라 기업공개를 앞둔 기업들을 돋보기처럼 분석해 '착시투자'를 줄여보겠습니다.&lt;br&gt;&lt;br&gt;[[종목대해부①]첨단소재 기술력 아모그린텍…자성소재·나노멤브레인 테슬라·삼성 등에 납품]&lt;br&gt;&lt;br&gt; &lt;br&gt;최근 미국 자동차 시장에서 역사에 기록될 만한 사건이 벌어졌다. 2003년 설립된 전기차 업체 테슬라 시가총액이 제너럴모터스(GM)에 포드를 더한 것을 넘어섰다. 100년이 넘는 역사를 가진 '늙은' 회사 두 곳이 17살 '청년' 하나보다 못한 대접을 받은 것이다. &lt;br&gt;&lt;br&gt;테슬라 주가는 최근 6개월 180% 가까이 급등했는데 지난해 불거진 생산 차질 문제 해결과 중국 상하이공장 본격 가동 기대감이 주가에 그대로 반영됐다. 바로 이 테슬라를 주요 고객사로 둔 부품 업체가 있다. 2004년 신소재와 이를 응용한 제품 제조를 위해 설립된 아모그린텍이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;고효율 자성·나노 멤브레인 등 첨단소재 기업 &lt;br&gt;━ &lt;br&gt; 아모그린텍은 첨단소재를 개발하고 이를 제품화해 판매하는 기업이다. 전력변환장치나 정밀 계측 부품에 쓰이는 고효율 자성(磁性)소재 사람 머리카락 500분의 1 굵기인 100~200나노(nm) 크기 소재인 나노 멤브레인 유연한 재질로 웨어러블과 플렉시블 기기에 사용되는 FPCB(연성인쇄회로기판) 등이 아모그린텍의 주력 제품이다. &lt;br&gt;&lt;br&gt;이들 제품은 자동차와 스마트 기기 부품에 응용할 수 있다. 자동차 부품으로는 인덕터코어(급격한 전류 변화 억제 및 전력 효율 향상 부품) 공통모드초크(CMC·전기회로 노이즈 제거 부품)가 있다. 아모그린텍은 테슬라뿐만 아니라 중국 1위 전기차 업체 비야디(BYD) 미국 자동차 부품업체인 리어(LEAR) 현대차그룹 계열사 현대모비스 등에도 납품한다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;방수·방열 부품 수요도 증가 &lt;br&gt;━ &lt;br&gt; 아모그린텍의 나노 멤브레인 벤트(Vent) 제품은 물 입자보다 작은 구조로 물은 통과시키지 않고 공기와 소리만 전달한다. 이런 특성 때문에 방수가 필요한 스마트폰의 스피커나 마이크 수신기 등의 구멍을 막는 데 활용된다. 아모그린텍은 무선충전 안테나 모듈이나 NFC(근거리 무선통신) 장치에 쓰이는 FPCB 전자기기의 열 발생을 차단하는 HTF(하이브리드 열필름) 등도 상용화해 납품하고 있다. 세계적인 스마트폰 제조사 삼성전자나 중국 최대 휴대전화 제조사 화웨이 등이 아모그린텍의 주요 고객이다. &lt;br&gt;&lt;br&gt;IT(정보기술) 시장조사업체 등에 따르면 올해 1분기 출시를 앞둔 신형 스마트폰의 연간 예상 출하량은 약 3500만대 수준 이 가운데 적어도 1800만대에 아모그린텍 부품이 쓰일 것으로 예상된다. 이로 말미암은 매출은 130억원 이상이다. 올해 전체 신규 출시 모델로 범위를 넓히면 약 8000만대 250억원의 관련 매출이 전망된다. 지난해 아모그린텍 전체 매출의 25% 수준이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;흑자 전환 성공…작년 8월 이후 주가 ↑ &lt;br&gt;━ &lt;br&gt; 아모그린텍은 주력 제품 판매가 궤도에 오르면서 실적이 꾸준히 개선되고 있다. 김두현 하나금융투자 연구원은 아모그린텍이 2018년 순이익이 39억원 적자에서 지난해 21억원 흑자로 돌아섰을 것으로 추정했다. 올해 아모그린텍 매출은 1394억원으로 전망했다. 지난해보다 45% 늘어난 수치다. 예상 영업이익은 지난해보다 344% 급증한 142억원 예상 순이익은 9.4% 증가한 131억원으로 제시했다. &lt;br&gt;&lt;br&gt;아모그린텍 주가는 지난해 3월 9900원으로 출발했다. 미·중 무역전쟁이 한창이던 지난해 8월 주가가 공모가 밑으로 떨어지기도 했으나 이후 가파르게 상승했다. 지난달 9일에는 1만5400원으로 사상 최고가를 기록했다. '신종코로나'(우한폐렴) 사태로 다시 1만3000원대로 주저앉았으나 상승 가능성은 높게 평가된다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;목표주가 1만8500원…국민연금도 투자 &lt;br&gt;━ &lt;br&gt; 김 연구원은 "&lt;span class="quot0"&gt;스마트폰용 나노 멤브레인 제품과 방열소재가 아모그린텍 실적 개선을 이끌 것&lt;/span&gt;"이라며 "&lt;span class="quot0"&gt;모회사인 아모텍의 안테나 부품 매출 증가에 힘입어 FPCB 매출도 대폭 확대될 것으로 보인다&lt;/span&gt;"고 분석했다. 이어 "아모그린텍은 5G 통신과 전기차 산업 노출도가 높아 장기 성장성을 보유했다"며 "투자 매력도가 높다"고 했다.&lt;br&gt;&lt;br&gt;김 연구원은 아모그린텍에 대해 투자의견 '매수' 목표주가 1만8500원을 제시했다. 목표주가는 올해 예상 주당순이익(EPS) 795원에 업종 평균 주가순익비율(PER) 23.27배가 적용됐다. 아모그린텍 최대주주는 김병규 아모텍 회장이다. 지분 40.32%를 갖고 있다. 이어 아모텍이 17.58% 미래에셋자산운용이 8.02%를 각각 보유한다. 국민연금도 아모그린텍 주요 주주다. 국민연금은 지난해 8월 아모그린텍 지분 6.2%를 매수했다. 그러다 지난해 12월 0.1% 지분을 정리해 현재 지분율은 6.1%다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203054123001.01.jpg" alt="테슬라·삼성전자가 찾는다…첨단소재 기술력 세계가 고객사" class="img-responsive"&gt;
+          &lt;/div&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203054123001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+   &lt;h5 style="font-size: 16px !important;"&gt;아동들에게 마술공연 저녁식사로 특별한 시간 선물&lt;/h5&gt;       
+        GS칼텍스가 여수시 관내 농어촌 지역에 거주하는 아동들에게 특별한 시간을 선물한다.&lt;br&gt;GS칼텍스는 지난 30일 저녁 여수시 돌산읍 소재 돌산지역아동센터에서 ‘GS칼텍스 힐링데이(Healing Day)’ 프로그램의 첫 발을 뗐다. 이날 초청된 아동 50여명은 전문 마술사의 마술공연을 관람하고 중식 요리사가 현장에서 정성껏 조리한 자장면을 먹으며 즐거운 한때를 보냈다.&lt;br&gt;박성미 여수시의회 기획행정위원장 허정란 여수지역아동센터연합회장 GS칼텍스 자원봉사자들도 참석해 배식 봉사를 하며 행사의 의미를 더했다.&lt;br&gt;김형국 GS칼텍스 생산본부 사장은 “&lt;span class="quot0"&gt;문화와 외식 활동 기회가 적은 농어촌 지역 아동들에게 작지만 특별한 즐거움을 선사하기 위한 취지로 ‘GS칼텍스 힐링데이’를 기획했다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;지역과 함께 성장?발전하는 GS칼텍스의 나눔 에너지가 사회 곳곳에서 가치를 더할 수 있는 방법을 지속적으로 고민하고 실천하겠다&lt;/span&gt;”고 밝혔다.GS칼텍스는 ‘GS칼텍스 힐링데이’를 통해 우선 돌산읍 소라면 율촌면 화양면 등의 지역에 소재한 8개 지역아동센터 아동들을 대상으로 격주 1회 소규모 공연과 함께 저녁식사를 제공할 예정이다. 이후 여수시 전체 지역아동센터로의 확대도 검토할 계획이다.&lt;br&gt;GS칼텍스는 2010년부터 여수지역아동센터연합회와 함께 지역 아동들의 건전한 꿈과 비전 함양을 돕기 위해 다양한 체험학습 프로그램도 연중 펼치고 있다. 작년까지 참여한 아동은 총 4500여명에 달한다.&lt;br&gt;여수 최종필 기자 choijp@seoul.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/31/01100611.20200131120335001.01.jpg" alt="GS칼텍스 여수지역 아동 위한 ‘힐링데이’ 운영" class="img-responsive"&gt;
+          &lt;/div&gt;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/01/31/01100611.20200131120335001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        김기태 GS칼텍스 사장이 주유소의 변신을 예고했다. 혁신을 통해 ‘라이프 스타일 플랫폼’으로 바꾸겠다는 것이다. 이와함께 신사업 중 하나인 ‘모빌리티’ 관련 업체들에 대한 지분투자 확대도 전망된다. &lt;br&gt; &lt;br&gt;김기태 사장은 21일 기자와 만나 “&lt;span class="quot0"&gt;주유소가 종전과 같이 기름만 넣는 공간이 아니라 라이프 스타일 스테이션으로 갈 수 있는 부분에서 끊임없는 혁신을 모색하고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;기름 판매에만 머무르지 않는 네트워크로 변신하는 게 목표&lt;/span&gt;”라고 말했다. &lt;br&gt; &lt;br&gt;허세홍 GS칼텍스 대표와 함께 GS칼텍스를 이끌고 있는 그는 ‘변화’를 주도 중이다. GS칼텍스는 유가 등 외부 환경에 따른 변동성이 큰 기존사업을 보완하는 방향으로 새로운 미래사업을 확대함으로써 안정적인 수익구조 확보와 지속 가능한 성장 기반을 마련하고 있다. 더 이상 전통적인 정유 산업만으로는 성장 가능성이 제한적이라는 게 그들의 공통된 시각이다. &lt;br&gt; &lt;br&gt;허 대표 역시 신년사에서 “&lt;span class="quot1"&gt;미래 사업환경 변화에 대비한 선제적이고 유연한 대응이 필요하다&lt;/span&gt;”며 “&lt;span class="quot1"&gt;미래 모빌리티 환경 변화에 따른 새로운 사업 기회를 발굴하는 노력도 지속해 나가야 한다&lt;/span&gt;”라고 모빌리티 사업에 대한 확장 의지를 내비쳤다. &lt;br&gt; &lt;br&gt;이를 위해 GS칼텍스는 기존 사업 분야에서는 단순한 규모 확장보다는 효율성을 높이기 위한 투자를 우선적으로 진행하고 신사업은 높은 미래성장성‧낮은 손익변동성‧회사 보유 장점 활용 기능성을 기준으로 선정해 집중 육성 중이다. &lt;br&gt; &lt;br&gt;현재 GS칼텍스는 ‘휘발유‧경유’주유와 ‘액화석유가스(LPG)‧수소‧전기’ 충전이 모두 가능한 ‘토탈 에너지 스테이션’을 서울과 수도권에서 준비하고 있다. 성장성이 높은 전기차 시장의 하부 시장을 선점하려는 포석이다. &lt;br&gt; &lt;br&gt;이와 함께 GS칼텍스는 보유한 핵심 자산인 주유소를 모빌리티와 연관 짓고 있다. 현재 GS칼텍스는 전국에 약 2400개의 주유소를 보유하고 있다. &lt;br&gt; &lt;br&gt;현대오일뱅크가 SK네트웍스의 직영 주유소를 인수하기 전까지는 정유 4사(SK에너지·GS칼텍스·현대오일뱅크·에쓰오일) 중 주유소 개수 2위 자리를 지킬 예정이다. &lt;br&gt; &lt;br&gt;GS칼텍스는 2016년 말 국내 대표 자동차 O2O서비스 카닥 2017년 4월 커넥티드카 전문업체인 오윈 2017년 10월 빅데이터를 활용한 시각 솔루션 전문업체 N3N 등에 전략적 투자를 진행했다. &lt;br&gt; &lt;br&gt;2018년에는 SK에너지와 함께 주유소를 거점으로 한 C2C 택배 집하 서비스 ‘홈픽’도 론칭했다. 스마트 보관함 서비스 ‘큐부(QBoo)'도 양사가 함께 운영 중이다. 또 지난해 말에는 카셰어링 업체 그린카에 투자하는 등 미래 자율주행 시대 모빌리티 거점을 개발하기 위해 협업을 추진 중이다. 지난 1월에는 LG전자와 손잡고 ‘미래형 에너지-모빌리티 융복합 스테이션’ 조성 관련 업무협약을 체결했다. &lt;br&gt; &lt;br&gt;업계에선 GS칼텍스가 모빌리티 사업 확장에 속도를 낼 것으로 전망하고 있다. GS칼텍스 내부 사정에 정통한 한 관계자는 “&lt;span class="quot2"&gt;GS그룹은 국내 대기업집단들 중에서도 전국에 깔린 '오프라인 자산'이 풍부한 그룹&lt;/span&gt;”이라며 “&lt;span class="quot2"&gt;보유 자산에 스타트업 등을 통한 간접 투자로 모빌리티 사업을 확장시키고 있는 만큼 관련 업체들에 대한 투자도 늘어날 것으로 보인다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt;. [사진=GS칼텍스 제공] &lt;br&gt; &lt;br&gt; &lt;br&gt;신수정 기자 ssj@ajunews.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2290,586 +2546,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg" alt="[클릭 e종목]“GS 올해 GS칼텍스 실적 호전될 것”" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg" alt="GS칼텍스 “여수시 충무동 벽화골목에 어린이 역사체험 타일벽화 설치”" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg" alt="CJ푸드빌 제일제면소 LG전자와 손잡고 '미래형 스마트 매장' 도입" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/02/07100501.20200202170318001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg" alt="'취임 8개월 동안 9차례'…사회공헌 적극적인 알 카타니 S-OIL 사장" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg" alt="S-OIL 설맞이 건강떡국 나눔행사 실시" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
-          &lt;/div&gt;
-        S-OIL(대표 후세인 알 카타니)이 울산·동대구 KTX역과 서울 코엑스에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt;&lt;br&gt;연말·연시를 맞아 유동인구가 많은 곳에 구도일패밀리 트리를 설치해 가족 단위 방문객들에게 특별한 볼거리와 새해 희망을 전한다. &lt;br&gt;&lt;br&gt;S-OIL은 코레일과 함께 새해 1월 10일까지 울산·동대구 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 특히 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증 이벤트'가 내년 1월 9일까지 진행된다. &lt;br&gt;&lt;br&gt;또 코엑스 윈터페스티벌(12.20~12.31)과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. &lt;br&gt;&lt;br&gt;코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소에는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 있어 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 '으라차차 댄스 이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt;&lt;br&gt;S-OIL 관계자는 "&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;"고 밝혔다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
-          &lt;/div&gt;
-        먼저 S-OIL은 코엑스윈 터페스티벌과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. 28일에는 '으라차차 댄스이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터상품 등을 제공한다. &lt;br&gt;&lt;br&gt;또 코레일과 함께 새해 1월10일까지 동대구와 울산KTX역에서 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증이벤트'가 내년 1월9일까지 진행된다. 이형중기자lhj@ksilbo.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [헤럴드경제(울산)=이경길 기자] S-OIL(대표 후세인 알 카타니)이 서울 코엑스와 동대구·울산 KTX역에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt; &lt;br&gt; S-OIL은 24일 코엑스 윈터페스티벌(12.20~12.31)과 연계해 ‘좋은 기름으로 으라차차’ S-OIL 희망충전소를 운영한다고 밝혔다. &lt;br&gt; &lt;br&gt; 코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. &lt;br&gt; &lt;br&gt; 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 ‘으라차차 댄스 이벤트’가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt; &lt;br&gt; 또한 코레일과 함께 새해 1월10일까지 동대구·울산 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 ‘구도일패밀리 트리 SNS 인증 이벤트’가 내년 1월 9일까지 진행된다. &lt;br&gt; &lt;br&gt; S-OIL 관계자는 “&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;”고 밝혔다. &lt;br&gt; &lt;br&gt; hmdlee@heraldcorp.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg</t>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg</t>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg" alt="S-OIL &amp;quot;코엑스·KTX역에서 희망을 `주유`하세요&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg" alt="신종코로나 비상, 현대자동차 울산공장 이르면 4일부터 일부 휴업" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-            &lt;div class="news-detail__content"&gt;
-                지난달 현대자동차 국내외 판매가 전년대비 3.6% 줄었다. 설 연휴 영향으로 국내 판매가 감소한 영향이 컸다. &lt;br&gt;&lt;br&gt;현대차는 1월 국내 4만7591대, 해외에서 25만6485대 등 전 세계 시장에서 총 30만4076대를 판매, 작년 같은 달보다 3.6% 줄었다고 발표했다. 지난해 같은기간과 비교해 국내판매는 21.3% 감소했고, 해외 판매는 0.6% 증가한 수치다. &lt;br&gt;&lt;br&gt;국내에서 세단은 1만8691대, 레저용차량(RV)은 1만3769대 팔렸다. 세단 중에 그랜저(하이브리드 모델 2467대 포함)가 9350대 팔리며 국내 판매를 이끌었으며, 쏘나타(하이브리드 모델 1012대 포함) 6423대, 아반떼 2638대 등이다. &lt;br&gt;&lt;br&gt;스포츠유틸리티차(SUV)는 팰리세이드 5173대, 싼타페 3204대, 코나 1835대 순이다. &lt;br&gt;&lt;br&gt;하이브리드차 판매가 4069대로 작년 동월대비 43.5% 뛰었다. &lt;br&gt;&lt;br&gt;제네시스는 3000대 팔렸다. 지난달 15일 출시된 제네시스 첫 SUV 모델 GV80은 근무일 기준 10일 만에 누적 계약이 2만대에 육박했다. 올해 목표는 2만4000대다. &lt;br&gt;&lt;br&gt;상용차는 그랜드 스타렉스와 포터를 합한 소형 상용차가 1만128대, 중대형 버스와 트럭을 합한 대형상용차는 2003대 판매됐다. &lt;br&gt;&lt;br&gt;해외시장에선 북미와 중남미, 아시아·중동 시장 등에서 판매가 호조를 보였다. &lt;br&gt;&lt;br&gt;현대차는 "&lt;span class="quot0"&gt;GV80와 팰리세이드 판매에 전사적인 역량을 집중하겠다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;해외에선 권역별 책임 경영을 바탕으로 고객 지향적 의사결정을 내려서 실적을 회복할 계획&lt;/span&gt;"이라고 말했다. &lt;br&gt;&lt;br&gt;이형중기자 leehj@ksilbo.co.kr
-            &lt;/div&gt;
-        &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-            &lt;div class="news-detail__content"&gt;
-                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
-                    &lt;/div&gt;
-                [아시아경제 성기호 기자] 현대자동차가 중동 지역 최대 자동차 시장인 사우디아라비아에 신형 쏘나타(DN8)를 공항 택시로 공급한다. 이로써 현대차의 중동 시장내 입지가 한층 강화될 전망이다. &lt;br&gt; &lt;br&gt;현대차는 사우디아라비아 최대 운수기업 중 하나인 알 사프와사와 신형 쏘나타 1000대를 공항 택시로 공급하는 계약을 체결했다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;현대차는 지난달 22일 킹 칼리드 국제공항에서 사우디아라비아 교통부 장관인 살레 빈 나세르 알자세르 등이 참석한 가운데 신형 쏘나타 100대를 알 사프와사에 인도했으며 연내 나머지 900대를 공급할 예정이다. &lt;br&gt; &lt;br&gt;이번 수주는 사우디아라비아 운행 택시에 대한 신규 정책이 발표된 이후 현대차가 완성차 업체 최초로 변경된 규정에 부합하는 택시를 공급했다는 점에서 더욱 의미가 있다. &lt;br&gt; &lt;br&gt;현대차는 지난해 사우디아라비아에서 쏘나타, 코나, 싼타페 등 총 12만 5625대의 차량을 판매해 시장점유율 23.4%를 기록하며 시장 내 굳건한 입지를 확보했다. &lt;br&gt; &lt;br&gt;이번에 공항 택시로 공급되는 신형 쏘나타는 지난해 12월 10일(현지시각) 제다에 열린 ‘제41회 사우디 국제 모터쇼(SIMS)’에서 사우디아라비아 자동차 기자협회가 선정한 '2020 세단 부문 최고의 차'로 꼽히며 우수한 상품성과 디자인 경쟁력을 인정받았다. &lt;br&gt; &lt;br&gt;현대차는 이번 수주 계약을 기점으로 중동 지역에서 판매를 확대하고 브랜드 인지도 향상을 적극적으로 꾀한다는 방침이다. &lt;br&gt; &lt;br&gt;현대차 관계자는 “&lt;span class="quot0"&gt;사우디아라비아에 신형 쏘나타를 대량 수주함으로써 사우디아라비아를 찾는 글로벌 고객들을 공항에서부터 만나고 현대자동차의 뛰어난 상품성을 알릴 수 있게 돼 기쁘다&lt;/span&gt;”라며 “&lt;span class="quot0"&gt;향후에도 사우디아라비아 교통 정책 변화에 선제적으로 대응해 중동 시장에서 더욱 신뢰받는 기업으로 거듭나겠다&lt;/span&gt;”라고 밝혔다. &lt;br&gt; &lt;br&gt;성기호 기자 kihoyeyo@asiae.co.kr
-            &lt;/div&gt;
-        &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg" alt="삼성전자·현대자동차·아모레퍼시픽도 2~3년 뒤 ‘구글세’ 낸다" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg" alt="신재원 현대자동차 부사장 “기술혁신이 초래한 '파괴'… 언론도 마찬가지&amp;quot;" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg" alt="현대자동차, 선행 기술 테스트카 'RM19' 컨셉 업데이트" class="img-responsive"&gt;
-                    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203131031001.01.jpg" alt="CJ제일제당 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [디지털타임스 김민주 기자] CJ제일제당이 '비비고' 브랜드를 앞세워 미국 PGA투어에서 K푸드 맛과 가치를 적극 알렸다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;CJ제일제당은 현지시간으로 지난달 29일부터 이달 2일까지 닷새간 미국 애리조나주 피닉스에서 열린 WMPO(Waste Management Phoenix Open) PGA투어에 참여해 '비비고 부스'를 운영했다고 3일 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이번 '비비고 부스'에서는 미국에서 선풍적인 인기를 끌고 있는 비비고 미니완탕 왕교자 등 비비고 브랜드 대표 제품을 선보였다. 사전에 준비한 1만인분의 음식이 갤러리들의 큰 호평을 받으며 모두 소진됐다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;현장에서 비비고 만두를 맛 본 텍사스 출신의 사라 스펠츠(27)는 "&lt;span class="quot0"&gt;고기와 채소가 가득 들어있어 맛있으면서도 건강한 음식이라는 느낌을 받았다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;비비고 만두 덕분에 이번 PGA 투어 관람이 기억에 남을 것 같다&lt;/span&gt;"고 말했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;박은선 CJ제일제당 식품브랜드 마케팅 담당은 "&lt;span class="quot1"&gt;현지 갤러리들에게 한국 대표 음식인 만두를 제공하고 한식의 건강한 맛을 전할 수 있어 뿌듯했다&lt;/span&gt;"며 "&lt;span class="quot1"&gt;한식의 우수성과 비비고의 가치를 알리는 데 주력하겠다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;한편 CJ제일제당은 지난해 더CJ컵 제네시스 오픈 AT&amp;amp;T 바이런 넬슨 챔피언십 등 총 7개의 주요 PGA 투어에 참여하며 비비고를 알렸다. 올해에도 제네시스 인비테이셔널 TPC 등 대규모 PGA 투어에 적극 나서 비비고 위상 강화에 힘쓸 예정이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;김민주기자 stella2515@dt.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085444001.01.jpg" alt="CJ제일제당 ‘비비고’ 美 PGA투어에서 K푸드 알렸다" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [아시아경제 최신혜 기자] CJ제일제당이 지난해에 이어 올해도 ‘비비고’ 브랜드를 앞세워 PGA투어에서 K푸드의 맛과 가치를 적극 알렸다. &lt;br&gt; &lt;br&gt;CJ제일제당은 현지시간으로 지난달 29일부터 이달 2일까지 닷새간 미국 애리조나주 피닉스에서 열린 WMPO PGA투어에 참여해 ‘비비고 부스’를 운영했다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;이번 비비고 부스에서는 미국에서 선풍적인 인기를 끌고 있는 비비고 미니완탕 왕교자 등 비비고 브랜드 대표 제품을 선보였다. 사전에 준비한 1만인분의 음식이 갤러리들의 큰 호평을 받으며 모두 소진됐다. &lt;br&gt; &lt;br&gt;비비고 만두를 맛 본 갤러리 중 텍사스 출신의 사라 스펠츠(27)는 “&lt;span class="quot0"&gt;고기와 채소가 가득 들어있어 맛있으면서도 건강한 맛&lt;/span&gt;”이라며 “비비고 만두 덕분에 이번 PGA투어 관람이 오랫동안 기억에 남을 것 같다"고 말했다. 이어 비비고 관계자에게 “텍사스에 계시는 부모님께 추천해드리고 싶다”며 제품 종류 현지 구매처 레시피 등을 물었다. &lt;br&gt; &lt;br&gt;박은선 CJ제일제당 식품브랜드마케팅담당은 “현지 갤러리들에게 한국의 대표 음식인 만두를 제공하고 한식의 건강한 맛을 전할 수 있어 뿌듯하다”며 “앞으로도 한식의 우수성과 ‘비비고’의 가치를 알리는 데 주력할 예정”이라고 밝혔다. &lt;br&gt; &lt;br&gt;한편 CJ제일제당은 지난해에만 더CJ컵 제네시스 오픈 AT&amp;amp;T 바이런 넬슨 챔피언십 등 총 7개의 주요 PGA투어에 참여하며 비비고를 알렸다. 올해도 제네시스 인비테이셔널 TPC 등 대규모 PGA투어에 적극 나서 비비고 위상 강화에 힘쓸 예정이다. &lt;br&gt; &lt;br&gt;최신혜 기자 ssin@asiae.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg" alt="[신상품·새인물] CJ제일제당 '비비고감자탕'" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100301/2020/01/31/01100301.20200131124212003.01.jpg" alt="[신상품·새인물] CJ제일제당 '비비고감자탕'" class="img-responsive"&gt;
-          &lt;/div&gt;
-        CJ제일제당이 뼈 없이 살코기만 담아 어린 자녀들과 안심하고 즐길 수 있는 '비비고 감자탕'을 내놨다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;'비비고 감자탕'은 전문점 수준의 감자탕을 집에서 간편하게 즐기도록 구현한 제품이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;조리편의성은 물론 뒤처리도 간편하도록 뼈 없이 부드러운 사태살을 담았다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;돼지뼈를 집적 우려낸 육수에 깻잎 들깨가루 등을 넣어 깊은 풍미를 살린 점도 특징이다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;여기에 생강 등 천연 향신료를 활용해 고기 특유의 잡내와 누린내는 잡고 감칠맛은 살려 깊은 맛을 더했다. &lt;br&gt;&lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;&lt;br&gt;CJ제일제당측은 "&lt;span class="quot0"&gt;간편하면서도 전문점 수준인 '비비고 감자탕'을 구현했다&lt;/span&gt;"고 설명했다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg" alt="CJ제일제당 '비비고 찬' 라인업 5종으로 확대" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/30/07100501.20200130111214002.01.jpg" alt="CJ제일제당 '비비고 찬' 라인업 5종으로 확대" class="img-responsive"&gt;
-          &lt;/div&gt;
-        CJ제일제당이 '비비고 찬(饌)' 라인업을 5종으로 늘리며 가정간편식(HMR) 반찬 시장 확대에 가속도를 낸다.&lt;br&gt;&lt;br&gt;CJ제일제당은 지난해 8월 출시한 비비고 찬 4종에 이어 신제품 '비비고 견과류 멸치볶음'을 출시했다고 30일 밝혔다. 비비고 견과류 멸치볶음(60g 3480원)은 국산 멸치와 호두 아몬드 등 다양한 통견과에 한식발효장과 백설 올리고당을 넣어 바삭하고 고소하게 볶아 낸 제품이다. 30~50대 주부들을 대상으로 진행 한 사전 소비자 테스트 결과 만점에 가까운 평가를 받아 소비자에게 큰 인기를 끌 것으로 기대된다.&lt;br&gt;&lt;br&gt;비비고 찬 제품은 집에서 만든 것처럼 맛있고 믿을 수 있는 반찬들을 3~4인 가족 한 끼에 딱 맞는 양으로 소포장한 '초간편 HMR 반찬' 메뉴다. 엄선한 원재료와 엄격한 제조과정으로 재료 위생에 대한 염려를 없앤 것은 물론 HMR 반찬 최초로 4무(無)첨가 제품으로 구현해 보다 안심하고 즐길 수 있도록 했다. 간장 소금 등으로 맛을 내는 일반적인 반찬과도 차별화되는데 두번 발효한 덧장액젓에 메주를 넣어 한번 더 발효시킨 특허 받은 '한식 발효장'을 사용해 깊고 깔끔한 감칠맛이 특징이다.&lt;br&gt;&lt;br&gt;실제 지난해부터 판매 중인 소고기 장조림 소고기 꽈리고추 장조림 무말랭이 무침 오징어채볶음 등 비비고 찬 4종은 유자녀 가구와 신혼부부 등으로부터 큰 호응을 얻고 있다. '집에서 만든 것처럼 깔끔하고 맛있다' '바쁜데 간편하게 먹을 수 있어 좋다' '딱 한끼 분량이라 남지 않아 경제적이다' '반찬 재료사서 만들어 먹는 것보다 비용 면에서 합리적이다' 등 맛 편의성 용량 가격 등에 대한 소비자 호평이 쏟아지고 있다.&lt;br&gt;&lt;br&gt;이에 따라 매출도 지속적인 상승 곡선을 그리고 있다. 비비고 찬 4종은 출시 후 현재(1월 27일 기준)까지 약 5개월간 누적 판매량 70만개를 기록하고 있으며 특히 올해 들어서는 4주간(1월 1일~1월 27일) 매출이 전월 동기 대비 50% 이상 오르며 성장세를 이어나가고 있다. 지난 해에는 비비고 찬이 일부 경로에서만 유통 판매되었다는 점을 감안하면 본격적으로 유통 채널 확장에 나서게 되는 올해는 매출이 더욱 확대될 전망이다.&lt;br&gt;&lt;br&gt;현재 한식 반찬 시장은 약 2조원대로 추산되며 HMR 트렌드 확대에 따라 HMR 반찬 시장 역시 지속적인 성장세가 예상된다.&lt;br&gt;&lt;br&gt;김지은 CJ제일제당 비비고 찬 마케팅 담당자는 “&lt;span class="quot0"&gt;비비고 찬은 차별화된 기술력을 기반으로 깐깐한 품질관리와 좋은 재료로 맛깔스럽게 만들어 안심하고 즐길 수 있다는 점에서 경쟁력 있는 제품&lt;/span&gt;”이라고 강조하고 “&lt;span class="quot0"&gt;비비고 찬 비비고 김치 비비고 생선구이 등 반찬 모음전을 비롯 다양한 온라인 오프라인 마케팅 활동을 통해 HMR 반찬 시장 성장을 주도하는 제품으로 키워나갈 것&lt;/span&gt;”이라고 말했다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg" alt="CJ제일제당 HMR 반찬 늘린다…‘비비고 찬’ 라인업 5종으로 확대" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/30/02100801.20200130082247001.01.jpg" alt="CJ제일제당 HMR 반찬 늘린다…‘비비고 찬’ 라인업 5종으로 확대" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [아시아경제 최신혜 기자] CJ제일제당이 ‘비비고 찬(饌)’ 라인업을 5종으로 늘리며 가정간편식(HMR) 반찬 시장 확대에 가속도를 낸다. &lt;br&gt; &lt;br&gt;CJ제일제당은 지난해 8월 출시한 비비고 찬 4종에 이어 신제품 ‘비비고 견과류 멸치볶음’을 출시했다고 30일 밝혔다. 비비고 견과류 멸치볶음(60gㆍ3480원)은 국산 멸치와 호두 아몬드 등 다양한 통견과에 한식발효장과 백설 올리고당을 넣어 바삭하고 고소하게 볶아 낸 제품이다. 30~50대 주부들을 대상으로 진행 한 사전 소비자 테스트 결과 만점에 가까운 평가를 받아 소비자에게 큰 인기를 끌 것으로 기대된다. &lt;br&gt; &lt;br&gt;비비고 찬 제품은 집에서 만든 것처럼 맛있고 믿을 수 있는 반찬들을 3~4인 가족 한 끼에 딱 맞는 양으로 소포장한 ‘초간편 HMR 반찬’ 메뉴다. 엄선한 원재료와 엄격한 제조과정으로 재료 위생에 대한 염려를 없앤 것은 물론 HMR 반찬 최초로 4 무(無)첨가 제품으로 구현해 보다 안심하고 즐길 수 있도록 했다. 간장 소금 등으로 맛을 내는 일반적인 반찬과도 차별화되는데 두 번 발효한 덧장액젓에 메주를 넣어 한번 더 발효시킨 특허 받은 ‘한식 발효장’을 사용해 깊고 깔끔한 감칠맛이 특징이다. &lt;br&gt; &lt;br&gt;실제로 지난해부터 판매 중인 소고기 장조림 소고기 꽈리고추 장조림 무말랭이 무침 오징어채볶음 등 비비고 찬 4종은 유자녀 가구와 신혼부부 등으로부터 큰 호응을 얻고 있다. ‘집에서 만든 것처럼 깔끔하고 맛있다’ ‘바쁜데 간편하게 먹을 수 있어 좋다’ ‘딱 한 끼 분량이라 남지 않아 경제적이다’ ‘반찬 재료 사서 만들어 먹는 것보다 비용 면에서 합리적이다’ 등 맛 편의성 용량 가격 등에 대한 소비자 호평이 쏟아지고 있다. &lt;br&gt; &lt;br&gt;이에 따라 매출도 지속적인 상승 곡선을 그리고 있다. 비비고 찬 4종은 출시 후 현재(1월 27일 기준)까지 약 5개월간 누적 판매량 70만개를 기록하고 있으며 특히 올해 들어서는 4주간(1월 1일~1월 27일) 매출이 전월 동기 대비 50% 이상 오르며 성장세를 이어나가고 있다. 지난해에는 비비고 찬이 일부 경로에서만 유통 판매되었다는 점을 감안하면 본격적으로 유통 채널 확장에 나서게 되는 올해는 매출이 더욱 확대될 전망이다. &lt;br&gt; &lt;br&gt;최신혜 기자 ssin@asiae.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg" alt="CJ제일제당 美 뉴욕에서 ‘비비고’와 한식 문화 알리기 나서" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2020/01/28/01100401.20200128150411001.01.jpg" alt="CJ제일제당 美 뉴욕에서 ‘비비고’와 한식 문화 알리기 나서" class="img-responsive"&gt;
-          &lt;/div&gt;
-        CJ제일제당이 한식 브랜드 ‘비비고’와 한식 문화 알리기에 나섰다. &lt;br&gt; &lt;br&gt;CJ제일제당은 지난 22일(현지시간) 미국 뉴욕 비비고 임시 매장(팝업)에서 인플루언서(콘텐츠 창작자) 초청 요리 교실을 열었다고 28일 밝혔다. &lt;br&gt; &lt;br&gt;이번 행사는 설 명절을 맞아 기획된 것이다. 회사 측은 만두를 중심으로 한식 문화를 알리는 데 중점을 뒀다. &lt;br&gt; &lt;br&gt;이 자리에는 미 ABC방송과 소셜네트워크서비스(SNS) 인플루언서 등 23명이 참석했다. 이들은 만두 빚는 법을 배우고 닭강정 잡채 등과 시식하는 시간을 가졌다. &lt;br&gt; &lt;br&gt;안효진 CJ제일제당 비비고 글로벌 마케팅 담당자는 “&lt;span class="quot0"&gt;비비고 임시 매장이 미 뉴욕 현지에서 화제가 되고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;비비고가 자리잡을 수 있도록 활동을 이어갈 것&lt;/span&gt;”이라고 전했다. &lt;br&gt; &lt;br&gt;동아닷컴 박상재 기자 sangjae@donga.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/01/28/07100501.20200128103859001.01.jpg" alt="CJ제일제당 비비고 설 명절 맞아 뉴요커에 만두 빚기 전수" class="img-responsive"&gt;
-          &lt;/div&gt;
-        CJ제일제당이 미국 뉴욕에 개점한 '비비고 팝업 레스토랑'의 흥행을 극대화하기 위해 현지 인플루언서들을 대상으로 '비비고' 브랜드와 한국 식문화를 알리는 데 적극 나섰다.&lt;br&gt;&lt;br&gt;CJ제일제당은 지난 22일(현지 시간) 미국 인플루언서들을 초청해 한식을 직접 체험하는 쿠킹클래스를 진행했다고 28일 밝혔다. 이번 행사는 구정을 맞아 기획된 '루나 뉴 이어' 이벤트로 한국의 전통 명절 음식인 만두를 중심으로 한국 식문화를 전파하는 데 중점을 뒀다.&lt;br&gt;&lt;br&gt;행사는 CJ제일제당이 지난달 미국 뉴욕 록펠러센터에 선보인 '비비고 팝업 레스토랑'에서 진행됐다. 미국의 ABC 방송과 뉴욕 지역의 푸드/라이프스타일 전문 채널 에디터와 팔로워 10만 이상의 SNS 인플루언서 등 총 23명이 참가했다.&lt;br&gt;&lt;br&gt;참가자들은 셰프의 시연을 따라 만두 빚는 법을 배웠다. 얇은 만두피에 야채가 풍부한 만두소를 넣고 물결 모양으로 주름을 잡으며 한국식 만두에 대한 이해도를 높였다. 직접 빚은 만두로 만든 만둣국과 '비비고 팝업 레스토랑'의 인기 메뉴인 닭강정 잡채 김스낵 등을 함께 시식하며 한식 한상차림을 즐기는 시간도 가졌다.&lt;br&gt;&lt;br&gt;미국 ABC 방송의 프로그램 '굿모닝 아메리카' 제작 PD는 “&lt;span class="quot0"&gt;코리아타운에서 바비큐를 즐기는 한국 식문화도 좋지만 일상에서 쉽게 즐길 수 있는 메뉴에 대해 알게 된 좋은 기회&lt;/span&gt;”라는 반응을 보였다. 특히 설 명절에 직접 만두를 빚어 가족과 나눠 먹는 한국 전통 문화를 체험한 것에 큰 흥미를 가졌다.&lt;br&gt;&lt;br&gt;안효진 CJ제일제당 비비고 글로벌 마케팅팀 담당자는 “&lt;span class="quot1"&gt;'비비고 팝업 레스토랑'이 뉴욕 현지에서 화제가 되어 오피니언 리더들을 대상으로 한식과 '비비고'를 알릴 수 있는 기회가 마련됐다&lt;/span&gt;”라며 “&lt;span class="quot1"&gt;현지 소비자가 팝업과 한식에 큰 관심을 보이고 있는 만큼 글로벌 한식 대표 브랜드로 '비비고'가 자리매김 할 수 있는 활동들을 지속할 것&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;&lt;br&gt;한편 '비비고 팝업 레스토랑'은 CJ제일제당이 뉴요커를 겨냥해 '비비고' 브랜드를 중심으로 한국 식문화를 알리고자 전략적으로 기획한 식문화 공간으로 뉴요커들에게 폭발적인 관심을 얻고 있다. CJ제일제당은 '비비고' 브랜드와 팝업 레스토랑의 인지도를 더욱 넓히기 위해 다음달에는 '비비고 푸드트럭'을 운영하며 뉴욕대 브로드웨이 등 맨해튼 중심가를 순회할 예정이다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg" alt="CJ제일제당 &amp;quot;작년 국민 1인당 9개씩 햇반 먹었다&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500701/2020/01/27/01500701.20200127174016001.01.jpg" alt="CJ제일제당 &amp;quot;작년 국민 1인당 9개씩 햇반 먹었다&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;
-        국내 대표 즉석밥 CJ제일제당 '햇반'(사진)이 독보적 1위 지위를 확고히하며 성장세를 이어나가고 있다. &lt;br&gt; &lt;br&gt; CJ제일제당은 햇반이 지난해 말 기준으로 총 누적 매출 3조 원 누적 판매량 30억 개를 돌파했다고 27일 밝혔다. 23년간 판매된 햇반은 나란히 배열하면 둘레 4만 192km의 지구를 10바퀴 가량 돌릴 수 있는 수량으로 그간 사용한 쌀의 총량은 400만 가마니(쌀 한 가마니=햇반 755개)에 육박한다. &lt;br&gt; &lt;br&gt; 1996년 12월 출시된 햇반은 매해 두 자릿수 이상 성장률을 보이며 국내 즉석밥 시장 성장을 주도해왔다. 2019년 한 해만 보더라도 전년의 15% 성장한 4860억 원(소비자가 환산 기준) 매출을 기록하며 모두 4억 5500만 개가 팔렸다. 국민 1인 당 한 해에 햇반을 9개씩 먹은 셈이다. 지속적인 성장세를 감안하면 올해는 햇반의 5000억 원대 '초(超)메가' 브랜드 등극도 기대된다. &lt;br&gt; &lt;br&gt; 매출 성과에 힘입어 상온 즉석밥 시장에서도 부동의 1위로 시장 성장을 계속 이끌고 있다. 지난해 닐슨 코리아 기준 햇반 시장점유율은 71%를 기록했다. 지난해 즉석밥 시장 규모는 3920억 원으로 2018년 3656억 원이었던 것과 비교하면 7% 가량 성장했다. 햇반이 즉석밥 시장 전체 성장을 견인하고 있다고 할 수 있는 대목이다. &lt;br&gt; &lt;br&gt; 이 같은 성과는 햇반이 급할 때 찾던 '비상식'이 아니라 쌓아두고 언제든 간편하고 맛있게 즐길 수 있는 '일상식'으로 확실히 자리잡았기 때문으로 풀이된다. '밥을 사먹는다'는 개념조차 없었던 시절 핵가족과 맞벌이 가구 증가 전자레인지 보급률 증가에 따른 사회적 변화와 흐름을 재빠르게 읽고 선제적 기술 개발과 투자에 나선 결과이기도 하다. 이와 관련 독보적 연구개발(R＆D) 역량과 혁신기술은 국민 식생활 변화를 이끌어 내는 원동력이 됐다. &lt;br&gt; &lt;br&gt; 햇반의 대표적인 R＆D 혁신기술은 '무균화 포장밥 제조 기술' '최첨단 패키징 기술' '당일 자가도정 시스템'이다. 무균화 포장밥 제조기술은 반도체 공정 수준의 클린룸에서 살균한 포장재로 밥을 포장하는 기술이다. 쌀 표면 미생물을 고온고압 스팀으로 살균하고 미생물을 완벽하게 차단한 무균화 공정을 거쳐 밀봉 포장해 보존료 없이 9개월간 상온 보관이 가능하면서도 신선한 밥맛을 낼 수 있다. &lt;br&gt; &lt;br&gt; 최첨단 패키징 기술로도 햇반은 차별화된다. 같은 밥도 패키지에 따라 맛이 변하기 때문에 밥 담는 용기는 3중 재질로 리드필름(비닐 뚜껑)은 4중 특수 필름지를 사용했다. 산소와 미생물을 완벽히 차단하고 온도와 습도에 영향을 받지 않으면서 인체에 무해한 것이 핵심이다. 용기와 리드필름 재질은 세계적으로 안전성이 검증된 아기 젖병에도 사용되는 폴리프로필렌 소재라 조리 시 환경 호르몬 배출 걱정 없이 먹을 수 있다. &lt;br&gt; &lt;br&gt; 햇반만의 당일 자가도정 시스템은 '갓 지은 밥맛'을 구현하는 핵심 기술력 중 하나다. 쌀은 도정을 하는 순간부터 쌀 품질 열화가 시작돼 맛이 떨어지게 된다. 햇반은 국내에서 유일하게 밥 자체 도정설비를 도입해 당일 도정한 쌀로 밥을 짓고 있다. 자체 도정설비를 통해 맛 품질을 끌어올릴 뿐 아니라 쌀 종류와 특성에 맞게 맞춤 도정도 진행한다. 같은 쌀도 재배와 보관 조건에 따라 해마다 품질이 달라지기 때문이다. &lt;br&gt; &lt;br&gt; CJ제일제당은 올해 햇반 출시 24년째를 맞아 사각용기 24개들이 한정판 기획 제품 '네모햇반'을 홈플러스에서 선보인다. (소비자가 2만 3900원) 둥근 모양이 햇반 하면 떠오르는 시그니처 형태지만 최초 출시 당시에는 사각용기로 출발했던 것에 착안해 준비한 제품이다. 2001년 둥근 용기 햇반이 출시되면서 두 가지 형태를 병행해 생산해왔지만 둥근 햇반 수요가 워낙 커서 사각용기는 이번 한정판 제품을 마지막으로 생산을 중단한다. &lt;br&gt; &lt;br&gt; 신수진 CJ제일제당 햇반혁신팀 부장은 "&lt;span class="quot0"&gt;햇반은 안전성 편리성 갓 지은 밥맛 최고의 품질 등 식품과 관련된 연구개발 기술이 총집약돼 있는 상온 가정간편식(HMR) 대표 제품&lt;/span&gt;"이라면서 "&lt;span class="quot0"&gt;23년간 꾸준한 국민 라이프 스타일 트렌드에 변화를 일으키며 꾸준한 사랑을 받아 온 국민 대표 브랜드로 앞으로도 다양한 소비자 니즈를 충족시키는 새로운 제품들을 선보이고 지속적인 연구개발에 매진할 것&lt;/span&gt;"이라고 말했다. &lt;br&gt; &lt;br&gt; 황상욱 기자 eyes@busan.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg" alt="CJ제일제당 햇반 30억개 팔렸다...쌀 400만 가마니 분량" class="img-responsive"&gt;
-          &lt;/div&gt;
-        CJ제일제당의 즉석밥 '햇반'이 지난해 말 기준으로 누적 매출 3조원을 넘었다. 누적 판매량도 30억개를 돌파했다.&lt;br&gt;27일 CJ제일제당에 따르면 지난 1996년 출시 이후 작년까지 팔린 햇반을 나란히 놓으면 지구를 10바퀴 가량 돌릴 수 있는 길이가 나온다. 30억개를 만드는데 쓰인 쌀은 400만 가마니에 달한다.&lt;br&gt;올해로 탄생한지 24년째인 스테디셀러 햇반은 최근까지 매년 두 자릿수 이상 성장세를 이어왔다. 지난해에는 전년보다 15% 성장한 4860억원의 매출을 올리며 4억5500만개가 팔려나갔다. 우리나라 국민 1명당 1년에 햇반을 9개씩 먹은 셈이다.&lt;br&gt;CJ제일제당은 햇반이 올해 연 매출 5000억원대 브랜드로 성장할 것으로 보고 있다.&lt;br&gt;즉석밥 전체 시장에서 햇반이 차지하는 시장 점유율은 지난해 닐슨 코리아 기준 71%에 달했다. 햇반의 판매 호조에 힘입어 지난해 즉석밥 전체 시장 규모는 전년보다 7% 늘어난 3920억원을 기록했다.&lt;br&gt;CJ제일제당은 햇반 출시 24주년을 맞아 사각 용기 24개들이 한정판 기획 제품을 홈플러스에서 출시한다. 사각 용기 햇반은 이번 한정판을 마지막으로 생산을 중단한다.&lt;br&gt;CJ제일제당 관계자는 "&lt;span class="quot0"&gt;햇반은 급할 때 찾는 비상식이 아니라 언제든 간편하고 맛있게 즐길 수 있는 일상식으로 확실히 자리 잡았다&lt;/span&gt;"고 말했다. &lt;br&gt;[김태성 기자]
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/01/27/02100101.20200127115143001.01.jpg" alt="CJ제일제당 햇반 30억개 팔렸다...쌀 400만 가마니 분량" class="img-responsive"&gt;
-          &lt;/div&gt;
-        CJ제일제당의 즉석밥 '햇반'이 지난해 말 기준으로 누적 매출 3조원을 넘었다. 누적 판매량도 30억개를 돌파했다.&lt;br&gt;27일 CJ제일제당에 따르면 지난 1996년 출시 이후 작년까지 팔린 햇반을 나란히 놓으면 지구를 10바퀴 가량 돌릴 수 있는 길이가 나온다. 30억개를 만드는데 쓰인 쌀은 400만 가마니에 달한다.&lt;br&gt;올해로 탄생한지 24년째인 스테디셀러 햇반은 최근까지 매년 두 자릿수 이상 성장세를 이어왔다. 지난해에는 전년보다 15% 성장한 4860억원의 매출을 올리며 4억5500만개가 팔려나갔다. 우리나라 국민 1명당 1년에 햇반을 9개씩 먹은 셈이다.&lt;br&gt;CJ제일제당은 햇반이 올해 연 매출 5000억원대 브랜드로 성장할 것으로 보고 있다.&lt;br&gt;즉석밥 전체 시장에서 햇반이 차지하는 시장 점유율은 지난해 닐슨 코리아 기준 71%에 달했다. 햇반의 판매 호조에 힘입어 지난해 즉석밥 전체 시장 규모는 전년보다 7% 늘어난 3920억원을 기록했다.&lt;br&gt;CJ제일제당은 햇반 출시 24주년을 맞아 사각 용기 24개들이 한정판 기획 제품을 홈플러스에서 출시한다. 사각 용기 햇반은 이번 한정판을 마지막으로 생산을 중단한다.&lt;br&gt;CJ제일제당 관계자는 "&lt;span class="quot0"&gt;햇반은 급할 때 찾는 비상식이 아니라 언제든 간편하고 맛있게 즐길 수 있는 일상식으로 확실히 자리 잡았다&lt;/span&gt;"고 말했다. &lt;br&gt;[김태성 기자]
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203133012001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 '벽걸이 무풍·콘솔에어컨' 선보여" class="img-responsive"&gt;
-          &lt;/div&gt;
-        삼성전자가 3~5일(현지시간) 열리는 북미 최대 규모 공조 전시회 'AHR엑스포(The International Air-Conditioning Heating Refrigerating Exposition)'에 참가해 무풍 에어컨 콘솔형 에어컨 등을 전시한다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;AHR엑스포는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사로 삼성전자는 이번 전시회에 약 100평 규모 부스를 마련해 벽걸이형·카세트형 등 무풍 에어컨 전체 라인업과 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;새 벽걸이형 무풍 에어컨 콘솔형 에어컨 등 실내기 라인업 신제품도 새롭게 선보인다. &lt;br&gt; &lt;br&gt;벽걸이형 무풍 에어컨 신제품은 기존보다 팬 크기를 약 15%가 키워 냉방 성능이 한층 향상됐고 무풍 패널은 11% 넓어져 '와이드 무풍 냉방'으로 바람 없이도 시원해진다고 회사 측은 설명했다. 블레이드(바람 토출구 쪽 달린 날개) 역시 31% 넓어짐에 따라 최대 15m까지 바람을 보내줘 넓은 공간도 냉방이 가능하다. &lt;br&gt; &lt;br&gt;사용 패턴 실내외 온도 등 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환하는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다고 관계자는 덧붙였다. &lt;br&gt; &lt;br&gt;콘솔형 에어컨 신제품은 실내기 폭이 199mm로 슬림해 공간을 효율적으로 사용할 수 있고 바람을 상하단 2방향으로 내보내는 방식으로 냉난방 효과를 높였다. 따뜻한 바람은 하단으로 흘러나오게 해 바닥 부분까지 비교적 균일하게 난방할 수 있다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 "&lt;span class="quot0"&gt;삼성전자는 무풍 에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속적으로 선보여 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍 에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택폭을 넓혀 북미 공조 시장을 선도할 것&lt;/span&gt;"이라고 말했다. &lt;br&gt; &lt;br&gt;배성수 한경닷컴 기자 baebae@hankyung.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2020/02/03/02100701.20200203111020001.01.jpg" alt="삼성전자 2020 AHR 엑스포서 혁신 공조 솔루션 선봬" class="img-responsive"&gt;
-          &lt;/div&gt;
-        삼성전자가 북미 최대 규모 공조 전시회 AHR EXPO 2020에 참가해 벽걸이형 1way/4way 카세트형 등 무풍에어컨 풀 라인업을 중심으로 다양한 공조 솔루션을 선보였다. [삼성전자 제공] [헤럴드경제 천예선 기자] 삼성전자가 3일부터 5일(현지시간)까지 미국 플로리다주 올랜도에서 개최되는 ‘AHR엑스포’에 참가해 혁신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt; ‘AHR엑스포’는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사로 90년 전통의 북미 최대 규모 공조 전시회다. &lt;br&gt; &lt;br&gt; 삼성전자는 약 100평 규모의 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt; 무풍에어컨은 찬바람이 몸에 직접 닿는 것을 꺼리는 소비자들을 위해 직바람없이도 쾌적한 냉방을 즐길 수 있도록 만든 삼성전자의 주력 제품으로 2016년 세계 최초로 개발했다. &lt;br&gt; &lt;br&gt; 특히 삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. &lt;br&gt; &lt;br&gt; 삼성 벽걸이형 무풍에어컨은 기존 대비 팬의 크기가 약 15% 확대돼 냉방 성능이 한층 강력해졌고 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 경험할 수 있다. &lt;br&gt; &lt;br&gt; 이번 신제품에는 사용자의 사용 패턴이나 실내외 온도 등의 중요 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다. &lt;br&gt; &lt;br&gt; 또 삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨(FJM Free Joint Multi)으로서 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. &lt;br&gt; &lt;br&gt; 이기호 삼성전자 생활가전사업부 상무는 “&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택 폭을 넓히며 북미 공조 시장을 선도할 것&lt;/span&gt;”이라고 말했다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203103028001.01.jpg" alt="정칠희 삼성전자 고문 KAIST 총동문회장 선임" class="img-responsive"&gt;
-          &lt;/div&gt;
-        정칠희(사진) 삼성전자 고문이 KAIST 제25대 총동문회장에 선임됐다. &lt;br&gt; &lt;br&gt;정 신임 총동문회장은 KAIST에서 물리학과(79학번) 석사학위와 미국 미시건주립대에서 물리학과 박사학위를 취득했다. &lt;br&gt; &lt;br&gt;1979년에 삼성전자에 입사해 40여 년 동안 줄곧 반도체 기술개발에 정진한 정칠희 회장은 재직 시 세계적 수준의 시스템 반도체 및 메모리 디바이스 기술개발을 담당했다. &lt;br&gt; &lt;br&gt;현재 그는 삼성전자 종합기술원 고문 나노융합산업연구조합 이사장 국가과학기술자문회의 위원 국가미래전략 2045 위원회 총괄위원장을 맡고 있다. &lt;br&gt; &lt;br&gt;정칠희 신임 회장은 "&lt;span class="quot0"&gt;총동문회도 모교의 위상에 걸맞은 조직이 될 수 있도록 동문의 참여와 화합을 이끌고 모교의 발전에 적극 기여하겠다&lt;/span&gt;"라고 밝혔다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100801/2020/02/03/01100801.20200203101509001.01.jpg" alt="삼성전자 북미 최대 공조전시회 'AHR엑스포' 참가" class="img-responsive"&gt;
-          &lt;/div&gt;
-        삼성전자는 3~5일(현지 시각) 미국 플로리다주 올랜도에서 열리는 ‘AHR엑스포(The International Air-Conditioning Heating Refrigerating Exposition)'에 참가한다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;AHR엑스포는 미국 난방냉동공조학회(ASHRAE)가 주최하는 행사다. 90년 전통의 북미 최대 규모 공조 전시회다. 삼성전자는 올해 약 100평 규모 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. 벽걸이형 무풍에어컨은 기존보다 팬 크기가 약 15% 늘어 냉방 성능이 강력해졌다. 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 쾌적한 냉기를 경험할 수 있다. 또 31% 넓어진 블레이드가 최대 15m까지 바람을 보내준다. &lt;br&gt; &lt;br&gt;콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. 삼성 콘솔형 에어컨은 실내기 폭이 199mm로 얇아 공간을 효율적으로 사용할 수 있다. 바람을 상·하단 2방향으로 내보내 냉·난방 효과를 극대화했고 따뜻한 바람이 하단으로 흘러나오게 해 바닥까지 빠르게 난방할 수 있다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 "&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;이번 전시회에서 공개한 제품군을 바탕으로 소비자 선택 폭을 넓혀 북미 공조 시장을 선도하겠다&lt;/span&gt;"고 말했다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg" alt="삼성전자 노조 가입 독려 이메일 삭제 논란" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2020/02/03/02100101.20200203100758003.01.jpg" alt="삼성전자 노조 가입 독려 이메일 삭제 논란" class="img-responsive"&gt;
-          &lt;/div&gt;
-        삼성전자가 직원들이 받은 노동조합 가입 안내 이메일을 삭제해 논란이 뜨겁다. 업계에 따르면 한국노동조합총연맹 산하 전국삼성전자노동조합은 최근 직원들에게 노조 가입을 독려하는 내용의 이메일을 발송했다. 이 이메일에는 삼성전자와 경쟁사 복지 혜택을 비교한 표와 함께 ‘우리에게도 노조가 있습니다. 힘이 생기도록 가입해주세요’라는 문구가 담겼다. 하지만 이후 직원들의 사내 메일함에서 해당 이메일이 삭제됐다는 의혹이 불거졌다. 직장인 익명 커뮤니티 ‘블라인드’에는 ‘노조 메일 삭제’라는 제목의 게시물이 올라왔고 “지워졌다”는 내용의 댓글이 여러 건 달리기도 했다.&lt;br&gt;논란이 커지자 삼성전자는 “&lt;span class="quot0"&gt;사규에 ‘회사가 제공하는 정보통신망을 업무 외적인 용도로 사용해서는 안 된다’는 내용이 있어 조치를 취한 것&lt;/span&gt;”이라는 입장을 밝혔다. 회사 내부 전산망을 노조 활동에 이용하려면 단체협약 등을 통해 이용 권한을 확보하거나 회사 승인을 받아야 한다는 의미다. 노조 측에 따르면 삼성전자는 앞서 지난 1월 6일 노조가 발송한 가입 독려 이메일도 삭제한 것으로 알려졌다. &lt;br&gt;이번에 이메일을 보낸 제4노조는 삼성전자에서 처음 상급단체에 가입한 노조로 지난해 11월 공식 출범했다. 진윤석 삼성전자 노조위원장은 “회사는 업무 메일이 아니라는 이유를 들었지만 노조 관련 사안을 업무가 아니라고 생각하는 것이 문제다. 여러 수단을 통해 단호하게 대응할 예정”이라고 밝혔다. 당분간 삼성전자 노조와 사 측 갈등이 지속될 전망이다. &lt;br&gt; [김경민 기자]&lt;br&gt; [본 기사는 매경이코노미 제 2044호 (2020.2.5~2020.2.11일자) 기사입니다]
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 신형 무풍에어컨 전시" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203100538001.01.jpg" alt="삼성전자 북미 최대 공조전시회서 신형 무풍에어컨 전시" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [머니투데이 심재현 기자] [미국 에어컨 시장 공략 본격화]&lt;br&gt;&lt;br&gt; 삼성전자 모델이 3일 미국 올랜도에서 열리는 북미 최대 공조 전시회 'AHR엑스포'에서 벽걸이형과 1웨이·4웨이 카세트형 등 무풍에어컨 풀 라인업을 중심으로 다양한 공조 솔루션을 소개하고 있다. /사진제공=삼성전자삼성전자가 3~5일(현지시간) 미국 플로리다주 올랜도에서 열리는 북미 최대 공조 전시회 'AHR엑스포'에서 최신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt;삼성전자는 약 330㎡(100평) 규모의 전시장에 벽걸이형 1웨이·4웨이 카세트형(천장형 실내기) 등 무풍에어컨을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. 무풍에어컨은 찬바람이 몸에 직접 닿지 않고도 쾌적한 냉방을 즐길 수 있도록 만든 삼성전자의 주력 제품으로 2016년 세계 최초로 개발했다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 북미 에어컨 시장을 공략하기 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등을 새롭게 선보인다. &lt;br&gt; &lt;br&gt;벽걸이형 무풍에어컨은 기존 제품보다 팬의 크기가 약 15% 커져 냉방 성능이 한층 강력해졌다. 무풍 패널이 11% 넓어진 와이드 무풍 냉방 기능도 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 내뿜는다. 31% 넓어진 블레이드는 최대 15m까지 바람을 보낸다.&lt;br&gt; &lt;br&gt;신제품에는 사용 패턴이나 실내외 온도 등을 분석해 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용됐다.&lt;br&gt;&lt;br&gt;삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨으로 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치할 수 있는 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다.&lt;br&gt; &lt;br&gt;이 제품은 실내기 폭이199㎜로 얇아 공간을 효율적으로 사용할 수 있다. 또 바람을 상·하단 두 방향으로 내보내는 방식으로 냉·난방 효과를 극대화했다. 따뜻한 바람이 하단으로 흘러나오기 때문에 바닥 부분까지 빠르게 난방할 수 있다.&lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 패밀리허브 냉장고나 TV로 에어컨과 공기청정기를 제어할 수 있는 홈 IoT(사물인터넷) 기술을 경험할 수 있는 체험존도 운영한다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg" alt="삼성전자 북미 최대 공조박람회 AHR엑스포 2020 참가" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203100025002.01.jpg" alt="삼성전자 북미 최대 공조박람회 AHR엑스포 2020 참가" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [아시아경제 이기민 기자]삼성전자가 북미 최대 규모의 공조 박람회인 ‘AHR 엑스포 2020’에 참가해 혁신 공조 솔루션을 선보인다. &lt;br&gt; &lt;br&gt;삼성전자는 이달 3~5일(현지시간) 미국 플로리다주 올랜도에서 열리는 공조 박람회에 참가한다고 3일 밝혔다. AHR엑스포는 미국 난방냉동공조학회가 90년 동안 주최한 공조 박람회다. &lt;br&gt; &lt;br&gt;삼성전자는 약 100평 규모의 부스를 마련해 벽걸이형 1Way·4Way 카세트형(천장형 실내기) 등 무풍에어컨 풀 라인업을 비롯한 다양한 가정용·상업용 공조 솔루션을 전시한다. &lt;br&gt; &lt;br&gt;삼성전자가 2016년 세계 최초로 개발한 무풍에어컨은 찬바람이 몸에 직접 닿는 것을 꺼리는 소비자들을 위해 직바람 없이도 냉방을 즐길 수 있다는 게 장점으로 꼽힌다. &lt;br&gt; &lt;br&gt;특히 삼성전자는 이번 전시회에서 북미 에어컨 시장 공략을 위해 신규 벽걸이형 무풍에어컨과 콘솔형 에어컨 등 실내기 라인업을 새롭게 선보인다. 삼성 벽걸이형 무풍에어컨은 기존 대비 팬의 크기가 약 15% 확대돼 냉방성능이 이전보다 강력해졌다. 또한 무풍 패널이 11% 넓어진 ‘와이드 무풍 냉방’이 적용돼 직바람 없이도 더욱 균일하고 쾌적한 냉기를 경험할 수 있다. 아울러 31% 넓어진 블레이드가 최대 15m까지 바람을 보내줘 넓은 공간도 빠르게 냉방할 수 있다. &lt;br&gt; &lt;br&gt;이번 신제품에는 사용자의 사용 패턴이나 실내외 온도 등의 정보를 분석해 사용자가 선호하는 운전 모드로 자동 전환해주는 인공지능(AI) 냉방 기능도 적용해 에너지 효율성을 높였다고 삼성전자는 설명했다. &lt;br&gt; &lt;br&gt;삼성전자가 이번 전시회에서 북미시장을 겨냥한 가정용 에어컨(FJM Free Joint Multi)으로서 첫 선을 보이는 콘솔형 에어컨은 벽면에 설치가 가능한 실내기로 북미 시장에 특화된 냉·난방 겸용 제품이다. 삼성 콘솔형 에어컨은 실내기 폭이199mm로 슬림해 공간을 효율적으로 사용할 수 있다. 이 제품은 바람을 상·하단 두 방향으로 내보내는 방식으로 냉·난방 효과를 극대화했고 따뜻한 바람이 하단으로 흘러나오게 해 바닥 부분까지 빠르고 균일하게 난방할 수 있다. &lt;br&gt; &lt;br&gt;삼성전자는 이번 전시회에서 ▲자동 승강 기능을 적용한 4Way·360 천장형 실내기의 편리한 필터 관리 기술 ▲패밀리허브 냉장고나 TV를 통해 에어컨과 공기청정기를 편리하게 제어할 수 있는 홈 사물인터넷(IoT)기술을 직접 경험할 수 있는 체험존도 운영한다. &lt;br&gt; &lt;br&gt;이 외에도 ▲최대 5대의 실내기가 연결 가능한 다배관 형태의 14kW FJM 실외기 ▲영하 15℃의 극한에서도 난방 성능을 100% 구현하는 ‘맥스 히트’ 시리즈 ▲컴팩트한 사이즈로 설치 편의성을 높인 ‘DVM S Eco’ 실외기 시리즈 등 북미 시장에서 지속적으로 호평 받았던 혁신 공조 솔루션도 함께 전시한다는 계획이다. &lt;br&gt; &lt;br&gt;이기호 삼성전자 생활가전사업부 상무는 “&lt;span class="quot0"&gt;삼성전자는 무풍에어컨 풀 라인업을 비롯해 삼성만의 차별화된 공조 솔루션을 지속 선보이며 글로벌 시장에서 좋은 반응을 얻고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;이번 전시회에서 공개한 벽걸이형 무풍에어컨 신제품 콘솔형 에어컨 등 확대된 라인업을 바탕으로 소비자 선택 폭을 넓히며 북미 공조 시장을 선도할 것&lt;/span&gt;”이라고 말했다. &lt;br&gt; &lt;br&gt;이기민 기자 victor.lee@asiae.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg" alt="이건희 10년간 1조4000억 삼성전자 배당금…가장 많이 챙긴 곳은 따로" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100101/2020/02/03/01100101.20200203095414001.01.jpg" alt="이건희 10년간 1조4000억 삼성전자 배당금…가장 많이 챙긴 곳은 따로" class="img-responsive"&gt;
-          &lt;/div&gt;
-        국내 최고 주식부호인 이건희 삼성전자 회장(78)이 지난해 삼성전자 배당금만 3538억원 받게 된다. 이 회장이 지난 10년 간 삼성전자에서 받은 배당금은 1조4000억원을 넘는 것으로 조사됐다.&lt;br&gt;&lt;br&gt;3일 기업분석 전문 한국CXO연구소가 2010년부터 10년 간 총수 일가의 삼성전자 배당금을 분석한 결과 이 회장은 2019년분 배당금 3538억원을 받는 것으로 나타났다. 지난해 삼성전자 보통주 1주당 배당금은 1416원 우선주는 1주당 1417원으로 책정됐다.&lt;br&gt;&lt;br&gt;이 회장은 삼성전자 보통주 2억4927만3200주로 배당금 3529억원 우선주 61만9900주로 8억원을 더해 총 3538억원 규모를 받을 예정이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;또 이 회장은 삼성전자 배당금에 더해 삼성생명에서 1100억원 삼성물산에서 108억원을 받아 지난해 배당금을 총 4700억원 받는 것으로 조사됐다.&lt;br&gt;&lt;br&gt;부인인 홍라희 전 리움 관장(75)은 삼성전자 주식으로 지난해 766억원 아들인 이재용 부회장(52)은 595억원 정도의 배당금을 받는 것으로 파악했다고 CXO연구소는 밝혔다. 총수 일가가 삼성전자에서 받은 배당금 액수는 지난해 4900억원 규모로 2018년에도 같은 수준이었다.&lt;br&gt;&lt;br&gt;2010년부터 지난해까지 10년 간 이 회장은 삼성전자 주식으로 1조4563억원의 배당금을 받은 것으로 집계됐다. 연 평균 배당금 1456억원을 꼬박꼬박 받아온 셈이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;삼성전자 주가 변동에 따라 2010년에 배당금 499억원에서 2011년 274억원으로 떨어졌다가 이후에는 2013년 714억원 2015년 1049억원 2017년 2024억원 2018년 3538억원으로 해마다 증가했다.&lt;br&gt;&lt;br&gt;같은 10년 동안 홍 전 관장은 3156억원 이 부회장은 2448억원을 삼성전자 배당금으로 챙겼다. 총수 일가의 10년 간 삼성전자 배당금은 총 2조168억원 수준으로 집계됐다.&lt;br&gt;&lt;br&gt;다만 삼성전자에서 가장 많은 배당금을 챙긴 주주는 이 회장 일가가 아니라 국민연금이다. 국민연금은 2010년부터 삼성전자 지분을 5% 넘게 보유하고 있다.&lt;br&gt;&lt;br&gt;국민연금은 2018년 배당금 8455억원 지난해 8865억원으로 2년 연속 8000억원대를 받는다.&lt;br&gt;&lt;br&gt;국민연금이 2010년부터 10년 간 삼성전자로부터 받은 배당금은 3조5007억원으로 이 회장 일가보다 약 1조원 더 많다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;지난해 삼성전자의 배당금을 가장 많이 받는 외국인 주주는 미국에 근거지를 둔 블랙록 펀드 어드바이저스 투자법인이다. 이 투자자는 지난해 1월 말부터 삼성전자 지분을 5% 이상 보유 지난해 배당금이 4253억원 규모로 집계됐다.&lt;br&gt;&lt;br&gt;지난해 말 기준 삼성전자 지분 중 57%를 외국인 주주가 갖고 있다. 지난해 총 배당금 9조6192억원 중 5조4800억원 정도는 외국인 주주가 갖고 가는 것이다.&lt;br&gt;&lt;br&gt;삼성전자는 2018년 주식분할로 인해 2018년과 지난해 1주당 배당금을 1416원으로 책정했다. 분할 이전으로 환산하면 7만800원 수준이다. 2017년(4만2500원)과 비교하면 주주들에게 더 많은 배당금을 주는 주주친화 정책을 편 것으로 풀이된다.&lt;br&gt;&lt;br&gt;당기순이익 중 배당금을 얼마나 지급하는지를 나타내는 ‘배당성향’도 삼성전자는 2014년부터 10% 이상을 유지했다. 2018년엔 21.9% 지난해 44.2%까지 높아졌다. 지난해 순이익은 전년보다 절반 이상 줄었으나 배당금은 그대로 유지하면서 배당성향이 배 이상 증가한 것이다.&lt;br&gt;&lt;br&gt;오일선 CXO연구소장은 “&lt;span class="quot0"&gt;삼성전자 실적은 악화했으나 회사 주주들이 챙기는 배당은 두둑해졌다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;주가가 상승하고 있고 배당금도 올라 주주들로서는 반길 일&lt;/span&gt;”이라고 말했다.&lt;br&gt;&lt;br&gt;전병역 기자 junby@kyunghyang.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg" alt="'국내 주식부호 TOP' 이건희 삼성전자 회장…작년 배당금만 3538억원" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100601/2020/02/03/02100601.20200203073005001.01.jpg" alt="'국내 주식부호 TOP' 이건희 삼성전자 회장…작년 배당금만 3538억원" class="img-responsive"&gt;
-          &lt;/div&gt;
-        이건희 삼성전자 회장이 지난해 삼성전자에서 받는 배당금이 3500억원이 훌쩍 넘는 것으로 나타났다. 이 회장은 2010년부터 10년간 삼성전자에서 1조4000억원의 배당금을 수령했다. &lt;br&gt; &lt;br&gt;3일 기업분석 전문 한국CXO연구소가 2010년부터 10년 간 이건희 회장 일가의 삼성전자 배당금 현황 조사를 분석한 결과 이 회장은 보통주 2억4927만3200주 우선주 61만9900주를 보유해 총 2019년분 배당금 3538억원을 받는다. &lt;br&gt; &lt;br&gt;작년 삼성전자 보통주 1주당 배당금은 1416원 우선주는 1주당 1417원으로 책정됐다. &lt;br&gt; &lt;br&gt;부인 홍라희 전 리움 관장은 삼성전자 주식으로 작년 766억원 아들인 이재용 부회장은 595억원 가량의 배당금을 받는다. 총수 일가의 작년 삼성전자 배당금은 4900억원 규모다. &lt;br&gt; &lt;br&gt;2010년부터 작년까지 10년동안 이 회장이 삼성전자 주식으로 받은 배당금은 1조4563억원이다. 같은 10년동안 홍 전 과장은 3156억원 이 부회장은 2448억원을 받았다. &lt;br&gt; &lt;br&gt;총수 일가의 10년 간 삼성전자 배당금은 2조168억원 수준이다. &lt;br&gt; &lt;br&gt;다만 삼성전자에서 가장 많은 배당금을 챙긴 주주는 국민연금이었다. 국민연금은 2010년부터 삼성전자 지분을 5% 넘게 보유하고 있다. 국민연금은 2018년 배당금 8455억원 지난해 8865억원을 수령했다. &lt;br&gt; &lt;br&gt;국민연금이 2010년부터 10년 간 삼성전자 지분을 보유하며 벌어들인 배당금은 3조5007억원이다. &lt;br&gt; &lt;br&gt;삼성전자의 배당성향(당기순이익 가운데 배당금 지급 규모)은 2014년부터 10% 이상을 유지했고 2018년엔 21.9% 지난해 44.2%까지 높아졌다. &lt;br&gt; &lt;br&gt;이송렬 한경닷컴 기자 yisr0203@hankyung.com
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203054123001.01.jpg" alt="테슬라·삼성전자가 찾는다…첨단소재 기술력 세계가 고객사" class="img-responsive"&gt;
-          &lt;/div&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100201/2020/02/03/02100201.20200203054123001.01.jpg" alt="테슬라·삼성전자가 찾는다…첨단소재 기술력 세계가 고객사" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [머니투데이 유희석 기자] [편집자주] 매일같이 수조원의 자금이 오가는 증시는 정보의 바다이기도 합니다. 정확한 정보보다는 거품을 잡아 손실을 보는 경우가 많습니다. 머니투데이가 상장기업뿐 아니라 기업공개를 앞둔 기업들을 돋보기처럼 분석해 '착시투자'를 줄여보겠습니다.&lt;br&gt;&lt;br&gt;[[종목대해부①]첨단소재 기술력 아모그린텍…자성소재·나노멤브레인 테슬라·삼성 등에 납품]&lt;br&gt;&lt;br&gt; &lt;br&gt;최근 미국 자동차 시장에서 역사에 기록될 만한 사건이 벌어졌다. 2003년 설립된 전기차 업체 테슬라 시가총액이 제너럴모터스(GM)에 포드를 더한 것을 넘어섰다. 100년이 넘는 역사를 가진 '늙은' 회사 두 곳이 17살 '청년' 하나보다 못한 대접을 받은 것이다. &lt;br&gt;&lt;br&gt;테슬라 주가는 최근 6개월 180% 가까이 급등했는데 지난해 불거진 생산 차질 문제 해결과 중국 상하이공장 본격 가동 기대감이 주가에 그대로 반영됐다. 바로 이 테슬라를 주요 고객사로 둔 부품 업체가 있다. 2004년 신소재와 이를 응용한 제품 제조를 위해 설립된 아모그린텍이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;고효율 자성·나노 멤브레인 등 첨단소재 기업 &lt;br&gt;━ &lt;br&gt; 아모그린텍은 첨단소재를 개발하고 이를 제품화해 판매하는 기업이다. 전력변환장치나 정밀 계측 부품에 쓰이는 고효율 자성(磁性)소재 사람 머리카락 500분의 1 굵기인 100~200나노(nm) 크기 소재인 나노 멤브레인 유연한 재질로 웨어러블과 플렉시블 기기에 사용되는 FPCB(연성인쇄회로기판) 등이 아모그린텍의 주력 제품이다. &lt;br&gt;&lt;br&gt;이들 제품은 자동차와 스마트 기기 부품에 응용할 수 있다. 자동차 부품으로는 인덕터코어(급격한 전류 변화 억제 및 전력 효율 향상 부품) 공통모드초크(CMC·전기회로 노이즈 제거 부품)가 있다. 아모그린텍은 테슬라뿐만 아니라 중국 1위 전기차 업체 비야디(BYD) 미국 자동차 부품업체인 리어(LEAR) 현대차그룹 계열사 현대모비스 등에도 납품한다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;방수·방열 부품 수요도 증가 &lt;br&gt;━ &lt;br&gt; 아모그린텍의 나노 멤브레인 벤트(Vent) 제품은 물 입자보다 작은 구조로 물은 통과시키지 않고 공기와 소리만 전달한다. 이런 특성 때문에 방수가 필요한 스마트폰의 스피커나 마이크 수신기 등의 구멍을 막는 데 활용된다. 아모그린텍은 무선충전 안테나 모듈이나 NFC(근거리 무선통신) 장치에 쓰이는 FPCB 전자기기의 열 발생을 차단하는 HTF(하이브리드 열필름) 등도 상용화해 납품하고 있다. 세계적인 스마트폰 제조사 삼성전자나 중국 최대 휴대전화 제조사 화웨이 등이 아모그린텍의 주요 고객이다. &lt;br&gt;&lt;br&gt;IT(정보기술) 시장조사업체 등에 따르면 올해 1분기 출시를 앞둔 신형 스마트폰의 연간 예상 출하량은 약 3500만대 수준 이 가운데 적어도 1800만대에 아모그린텍 부품이 쓰일 것으로 예상된다. 이로 말미암은 매출은 130억원 이상이다. 올해 전체 신규 출시 모델로 범위를 넓히면 약 8000만대 250억원의 관련 매출이 전망된다. 지난해 아모그린텍 전체 매출의 25% 수준이다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;흑자 전환 성공…작년 8월 이후 주가 ↑ &lt;br&gt;━ &lt;br&gt; 아모그린텍은 주력 제품 판매가 궤도에 오르면서 실적이 꾸준히 개선되고 있다. 김두현 하나금융투자 연구원은 아모그린텍이 2018년 순이익이 39억원 적자에서 지난해 21억원 흑자로 돌아섰을 것으로 추정했다. 올해 아모그린텍 매출은 1394억원으로 전망했다. 지난해보다 45% 늘어난 수치다. 예상 영업이익은 지난해보다 344% 급증한 142억원 예상 순이익은 9.4% 증가한 131억원으로 제시했다. &lt;br&gt;&lt;br&gt;아모그린텍 주가는 지난해 3월 9900원으로 출발했다. 미·중 무역전쟁이 한창이던 지난해 8월 주가가 공모가 밑으로 떨어지기도 했으나 이후 가파르게 상승했다. 지난달 9일에는 1만5400원으로 사상 최고가를 기록했다. '신종코로나'(우한폐렴) 사태로 다시 1만3000원대로 주저앉았으나 상승 가능성은 높게 평가된다. &lt;br&gt;&lt;br&gt; &lt;br&gt; ━ &lt;br&gt;목표주가 1만8500원…국민연금도 투자 &lt;br&gt;━ &lt;br&gt; 김 연구원은 "&lt;span class="quot0"&gt;스마트폰용 나노 멤브레인 제품과 방열소재가 아모그린텍 실적 개선을 이끌 것&lt;/span&gt;"이라며 "&lt;span class="quot0"&gt;모회사인 아모텍의 안테나 부품 매출 증가에 힘입어 FPCB 매출도 대폭 확대될 것으로 보인다&lt;/span&gt;"고 분석했다. 이어 "아모그린텍은 5G 통신과 전기차 산업 노출도가 높아 장기 성장성을 보유했다"며 "투자 매력도가 높다"고 했다.&lt;br&gt;&lt;br&gt;김 연구원은 아모그린텍에 대해 투자의견 '매수' 목표주가 1만8500원을 제시했다. 목표주가는 올해 예상 주당순이익(EPS) 795원에 업종 평균 주가순익비율(PER) 23.27배가 적용됐다. 아모그린텍 최대주주는 김병규 아모텍 회장이다. 지분 40.32%를 갖고 있다. 이어 아모텍이 17.58% 미래에셋자산운용이 8.02%를 각각 보유한다. 국민연금도 아모그린텍 주요 주주다. 국민연금은 지난해 8월 아모그린텍 지분 6.2%를 매수했다. 그러다 지난해 12월 0.1% 지분을 정리해 현재 지분율은 6.1%다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/31/01100611.20200131120335001.01.jpg" alt="GS칼텍스 여수지역 아동 위한 ‘힐링데이’ 운영" class="img-responsive"&gt;
-          &lt;/div&gt;
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-   &lt;h5 style="font-size: 16px !important;"&gt;아동들에게 마술공연 저녁식사로 특별한 시간 선물&lt;/h5&gt;       
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/31/01100611.20200131120335001.01.jpg" alt="GS칼텍스 여수지역 아동 위한 ‘힐링데이’ 운영" class="img-responsive"&gt;
-          &lt;/div&gt;
-        GS칼텍스가 여수시 관내 농어촌 지역에 거주하는 아동들에게 특별한 시간을 선물한다.&lt;br&gt;GS칼텍스는 지난 30일 저녁 여수시 돌산읍 소재 돌산지역아동센터에서 ‘GS칼텍스 힐링데이(Healing Day)’ 프로그램의 첫 발을 뗐다. 이날 초청된 아동 50여명은 전문 마술사의 마술공연을 관람하고 중식 요리사가 현장에서 정성껏 조리한 자장면을 먹으며 즐거운 한때를 보냈다.&lt;br&gt;박성미 여수시의회 기획행정위원장 허정란 여수지역아동센터연합회장 GS칼텍스 자원봉사자들도 참석해 배식 봉사를 하며 행사의 의미를 더했다.&lt;br&gt;김형국 GS칼텍스 생산본부 사장은 “&lt;span class="quot0"&gt;문화와 외식 활동 기회가 적은 농어촌 지역 아동들에게 작지만 특별한 즐거움을 선사하기 위한 취지로 ‘GS칼텍스 힐링데이’를 기획했다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;지역과 함께 성장?발전하는 GS칼텍스의 나눔 에너지가 사회 곳곳에서 가치를 더할 수 있는 방법을 지속적으로 고민하고 실천하겠다&lt;/span&gt;”고 밝혔다.GS칼텍스는 ‘GS칼텍스 힐링데이’를 통해 우선 돌산읍 소라면 율촌면 화양면 등의 지역에 소재한 8개 지역아동센터 아동들을 대상으로 격주 1회 소규모 공연과 함께 저녁식사를 제공할 예정이다. 이후 여수시 전체 지역아동센터로의 확대도 검토할 계획이다.&lt;br&gt;GS칼텍스는 2010년부터 여수지역아동센터연합회와 함께 지역 아동들의 건전한 꿈과 비전 함양을 돕기 위해 다양한 체험학습 프로그램도 연중 펼치고 있다. 작년까지 참여한 아동은 총 4500여명에 달한다.&lt;br&gt;여수 최종필 기자 choijp@seoul.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100851/2020/01/23/02100851.20200123082202001.01.jpg" alt="김기태 GS칼텍스 사장 &amp;quot;주유소 라이프 스타일의 플랫폼으로 성장 할 것&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;
-        김기태 GS칼텍스 사장이 주유소의 변신을 예고했다. 혁신을 통해 ‘라이프 스타일 플랫폼’으로 바꾸겠다는 것이다. 이와함께 신사업 중 하나인 ‘모빌리티’ 관련 업체들에 대한 지분투자 확대도 전망된다. &lt;br&gt; &lt;br&gt;김기태 사장은 21일 기자와 만나 “&lt;span class="quot0"&gt;주유소가 종전과 같이 기름만 넣는 공간이 아니라 라이프 스타일 스테이션으로 갈 수 있는 부분에서 끊임없는 혁신을 모색하고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;기름 판매에만 머무르지 않는 네트워크로 변신하는 게 목표&lt;/span&gt;”라고 말했다. &lt;br&gt; &lt;br&gt;허세홍 GS칼텍스 대표와 함께 GS칼텍스를 이끌고 있는 그는 ‘변화’를 주도 중이다. GS칼텍스는 유가 등 외부 환경에 따른 변동성이 큰 기존사업을 보완하는 방향으로 새로운 미래사업을 확대함으로써 안정적인 수익구조 확보와 지속 가능한 성장 기반을 마련하고 있다. 더 이상 전통적인 정유 산업만으로는 성장 가능성이 제한적이라는 게 그들의 공통된 시각이다. &lt;br&gt; &lt;br&gt;허 대표 역시 신년사에서 “&lt;span class="quot1"&gt;미래 사업환경 변화에 대비한 선제적이고 유연한 대응이 필요하다&lt;/span&gt;”며 “&lt;span class="quot1"&gt;미래 모빌리티 환경 변화에 따른 새로운 사업 기회를 발굴하는 노력도 지속해 나가야 한다&lt;/span&gt;”라고 모빌리티 사업에 대한 확장 의지를 내비쳤다. &lt;br&gt; &lt;br&gt;이를 위해 GS칼텍스는 기존 사업 분야에서는 단순한 규모 확장보다는 효율성을 높이기 위한 투자를 우선적으로 진행하고 신사업은 높은 미래성장성‧낮은 손익변동성‧회사 보유 장점 활용 기능성을 기준으로 선정해 집중 육성 중이다. &lt;br&gt; &lt;br&gt;현재 GS칼텍스는 ‘휘발유‧경유’주유와 ‘액화석유가스(LPG)‧수소‧전기’ 충전이 모두 가능한 ‘토탈 에너지 스테이션’을 서울과 수도권에서 준비하고 있다. 성장성이 높은 전기차 시장의 하부 시장을 선점하려는 포석이다. &lt;br&gt; &lt;br&gt;이와 함께 GS칼텍스는 보유한 핵심 자산인 주유소를 모빌리티와 연관 짓고 있다. 현재 GS칼텍스는 전국에 약 2400개의 주유소를 보유하고 있다. &lt;br&gt; &lt;br&gt;현대오일뱅크가 SK네트웍스의 직영 주유소를 인수하기 전까지는 정유 4사(SK에너지·GS칼텍스·현대오일뱅크·에쓰오일) 중 주유소 개수 2위 자리를 지킬 예정이다. &lt;br&gt; &lt;br&gt;GS칼텍스는 2016년 말 국내 대표 자동차 O2O서비스 카닥 2017년 4월 커넥티드카 전문업체인 오윈 2017년 10월 빅데이터를 활용한 시각 솔루션 전문업체 N3N 등에 전략적 투자를 진행했다. &lt;br&gt; &lt;br&gt;2018년에는 SK에너지와 함께 주유소를 거점으로 한 C2C 택배 집하 서비스 ‘홈픽’도 론칭했다. 스마트 보관함 서비스 ‘큐부(QBoo)'도 양사가 함께 운영 중이다. 또 지난해 말에는 카셰어링 업체 그린카에 투자하는 등 미래 자율주행 시대 모빌리티 거점을 개발하기 위해 협업을 추진 중이다. 지난 1월에는 LG전자와 손잡고 ‘미래형 에너지-모빌리티 융복합 스테이션’ 조성 관련 업무협약을 체결했다. &lt;br&gt; &lt;br&gt;업계에선 GS칼텍스가 모빌리티 사업 확장에 속도를 낼 것으로 전망하고 있다. GS칼텍스 내부 사정에 정통한 한 관계자는 “&lt;span class="quot2"&gt;GS그룹은 국내 대기업집단들 중에서도 전국에 깔린 '오프라인 자산'이 풍부한 그룹&lt;/span&gt;”이라며 “&lt;span class="quot2"&gt;보유 자산에 스타트업 등을 통한 간접 투자로 모빌리티 사업을 확장시키고 있는 만큼 관련 업체들에 대한 투자도 늘어날 것으로 보인다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt;. [사진=GS칼텍스 제공] &lt;br&gt; &lt;br&gt; &lt;br&gt;신수정 기자 ssj@ajunews.com
+        지역 대표기업 GS칼텍스(대표 허세홍 사장)가 설을 맞아 여수지역 소외이웃과 온정 가득한 뜻깊은 시간을 나눴다.&lt;br&gt;GS칼텍스에 따르면 지난 17일 여수시 소재 GS칼텍스 사랑나눔터에서 ‘설맞이 사랑의 떡 나눔 행사’를 가졌다.&lt;br&gt;이날 행사에는 권오봉 여수시장과 신미경 여수시복지보장협의체 부위원장 GS칼텍스 김형국 사장 GS칼텍스 퇴직사우 봉사단 및 여수지역 봉사단 등 30여명이 봉사자로 참여해 사랑 나눔을 펼쳤다.&lt;br&gt;봉사자들은 이날 GS칼텍스가 10년 넘게 운영 중인 무료급식소 ‘사랑나눔터’를 방문한 여수지역 결식우려 어르신 등 소외이웃 400여명에게 맛있는 떡국(점심)을 대접했다. 식사 후에는 시루떡과 인절미 꿀떡이 담긴 떡 세트와 떡국용 떡을 선물해 훈훈한 설날 온정을 더했다.&lt;br&gt;이날 어르신들께 제공된 떡 세트는 사회적기업인 여수 시니어클럽에서 제공해 눈길을 끌었다.&lt;br&gt;GS칼텍스 관계자는 “&lt;span class="quot0"&gt;지역 대표기업으로서 사랑나눔터를 찾는 어르신들께 단순한 한끼 식사 제공이 아닌 지역사회의 따뜻한 정을 느끼는 사랑나눔터로 편안하게 이용하실 수 있도록 앞으로도 최선을 다할 것&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;한편 지난 2008년 5월 처음 문을 연 GS칼텍스 사랑나눔터는 매주 5일 동안(월~금)하루 350여명의 결식 우려 어르신들에게 무료 점심식사를 제공하며 지역사랑을 펼치고 있다. 개소 후 지난해 말까지 이곳을 이용한 지역 소외 이웃만 총 94만 6000여명에 달한다.&lt;br&gt; /여수=김창화 기자 chkim@kwangju.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2881,12 +2560,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600301/2020/01/22/01600301.20200122020008001.01.jpg" alt="GS칼텍스 설맞이 사랑의 떡 나눔 ‘훈훈’" class="img-responsive"&gt;
-          &lt;/div&gt;
-        지역 대표기업 GS칼텍스(대표 허세홍 사장)가 설을 맞아 여수지역 소외이웃과 온정 가득한 뜻깊은 시간을 나눴다.&lt;br&gt;GS칼텍스에 따르면 지난 17일 여수시 소재 GS칼텍스 사랑나눔터에서 ‘설맞이 사랑의 떡 나눔 행사’를 가졌다.&lt;br&gt;이날 행사에는 권오봉 여수시장과 신미경 여수시복지보장협의체 부위원장 GS칼텍스 김형국 사장 GS칼텍스 퇴직사우 봉사단 및 여수지역 봉사단 등 30여명이 봉사자로 참여해 사랑 나눔을 펼쳤다.&lt;br&gt;봉사자들은 이날 GS칼텍스가 10년 넘게 운영 중인 무료급식소 ‘사랑나눔터’를 방문한 여수지역 결식우려 어르신 등 소외이웃 400여명에게 맛있는 떡국(점심)을 대접했다. 식사 후에는 시루떡과 인절미 꿀떡이 담긴 떡 세트와 떡국용 떡을 선물해 훈훈한 설날 온정을 더했다.&lt;br&gt;이날 어르신들께 제공된 떡 세트는 사회적기업인 여수 시니어클럽에서 제공해 눈길을 끌었다.&lt;br&gt;GS칼텍스 관계자는 “&lt;span class="quot0"&gt;지역 대표기업으로서 사랑나눔터를 찾는 어르신들께 단순한 한끼 식사 제공이 아닌 지역사회의 따뜻한 정을 느끼는 사랑나눔터로 편안하게 이용하실 수 있도록 앞으로도 최선을 다할 것&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;한편 지난 2008년 5월 처음 문을 연 GS칼텍스 사랑나눔터는 매주 5일 동안(월~금)하루 350여명의 결식 우려 어르신들에게 무료 점심식사를 제공하며 지역사랑을 펼치고 있다. 개소 후 지난해 말까지 이곳을 이용한 지역 소외 이웃만 총 94만 6000여명에 달한다.&lt;br&gt; /여수=김창화 기자 chkim@kwangju.co.kr
+        [아시아경제 박소연 기자 황윤주 기자] 지난 10일 저녁 서울 강남구 역삼동 GS타워 인근 이탤리언 레스토랑. 청청 패션(데님 소재 옷차림)을 한 '훈남' 사장님과 직원 이십여 명이 왁자지껄한 분위기 속에서 와인잔을 기울이고 있었다. 인근 스타트업의 회식인가 싶었는데 몇 사람이 GS그룹 배지를 달고 있었다. 자세히 보니 청청 패션의 훈남 사장님은 허세홍 GS칼텍스 사장. 그는 이날의 호스트로 끝까지 분위기를 이끌면서 직원들과 격의 없이 대화를 나눴다. &lt;br&gt; &lt;br&gt;지난해 1월 취임한 허 사장이 GS칼텍스의 내부 문화를 유연하고 수평적으로 바꾸고 있다는 평가가 나온다. 취임 직후 대전기술연구소와 여수 공장 등 현장으로 달려가 직원들과 밥을 함께 먹으면서 이야기를 나누는 모습이 공개되기도 했다. &lt;br&gt; &lt;br&gt;일회성으로 끝날 것이라는 예상과 달리 허 사장은 식사 자리를 통해 직원들과 자주 스킨십을 하고 있다. GS타워 근처에 위치한 레스토랑은 허 사장과 직원들이 자주 찾는 장소로 유명하다. 함께 식사하면 마음을 쉽게 터놓을 수 있다는 그의 평소 지론을 실천하기 위함이다. &lt;br&gt; &lt;br&gt;올해 신년사에서도 허 사장이 조직을 다독이고 적극적으로 이끌어가려는 다짐을 엿볼 수 있다. 허 사장은 GS칼텍스의 핵심 과제와 미래 전략을 성공적으로 완수하기 위해 도전과 변화를 강조하며 이를 위해 임직원들이 적극적으로 소통할 것을 당부했다. &lt;br&gt; &lt;br&gt;GS그룹에 불리한 이슈가 발생했을 때 직접 소방수로도 나서고 있다. 지난해 10월 허 사장이 전남 여수 공장의 대기오염물질 배출 조작에 대해 공식 사과한 것이 대표적이다. 허 사장은 당시 권오봉 여수시장을 만나 "&lt;span class="quot0"&gt;30만 여수시민에게 머리 숙여 사과한다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;앞으로 철저한 재발 방지 대책을 마련하고 여수국가산단 제1 기업으로서 책임을 다하겠다&lt;/span&gt;"고 말했다. &lt;br&gt; &lt;br&gt;한편 허 사장은 올해 첫 해외 출장으로 오는 21일부터 24일까지 스위스 다보스에서 열리는 세계경제포럼(WEF)에 참석한다. 업계 관계자는 "&lt;span class="quot1"&gt;지난해에 이어 올해 두 번째로 다보스 포럼에 참석해 비즈니스 동향을 파악하고 그룹의 새로운 사업 기회를 구상할 것으로 보인다&lt;/span&gt;"고 말했다. &lt;br&gt; &lt;br&gt;박소연 기자 muse@asiae.co.kr &lt;br&gt; &lt;br&gt;황윤주 기자 hyj@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2898,12 +2578,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/20/02100801.20200120112215001.01.jpg" alt="허세홍 GS칼텍스 사장의 '靑靑 리더십'" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [아시아경제 박소연 기자 황윤주 기자] 지난 10일 저녁 서울 강남구 역삼동 GS타워 인근 이탤리언 레스토랑. 청청 패션(데님 소재 옷차림)을 한 '훈남' 사장님과 직원 이십여 명이 왁자지껄한 분위기 속에서 와인잔을 기울이고 있었다. 인근 스타트업의 회식인가 싶었는데 몇 사람이 GS그룹 배지를 달고 있었다. 자세히 보니 청청 패션의 훈남 사장님은 허세홍 GS칼텍스 사장. 그는 이날의 호스트로 끝까지 분위기를 이끌면서 직원들과 격의 없이 대화를 나눴다. &lt;br&gt; &lt;br&gt;지난해 1월 취임한 허 사장이 GS칼텍스의 내부 문화를 유연하고 수평적으로 바꾸고 있다는 평가가 나온다. 취임 직후 대전기술연구소와 여수 공장 등 현장으로 달려가 직원들과 밥을 함께 먹으면서 이야기를 나누는 모습이 공개되기도 했다. &lt;br&gt; &lt;br&gt;일회성으로 끝날 것이라는 예상과 달리 허 사장은 식사 자리를 통해 직원들과 자주 스킨십을 하고 있다. GS타워 근처에 위치한 레스토랑은 허 사장과 직원들이 자주 찾는 장소로 유명하다. 함께 식사하면 마음을 쉽게 터놓을 수 있다는 그의 평소 지론을 실천하기 위함이다. &lt;br&gt; &lt;br&gt;올해 신년사에서도 허 사장이 조직을 다독이고 적극적으로 이끌어가려는 다짐을 엿볼 수 있다. 허 사장은 GS칼텍스의 핵심 과제와 미래 전략을 성공적으로 완수하기 위해 도전과 변화를 강조하며 이를 위해 임직원들이 적극적으로 소통할 것을 당부했다. &lt;br&gt; &lt;br&gt;GS그룹에 불리한 이슈가 발생했을 때 직접 소방수로도 나서고 있다. 지난해 10월 허 사장이 전남 여수 공장의 대기오염물질 배출 조작에 대해 공식 사과한 것이 대표적이다. 허 사장은 당시 권오봉 여수시장을 만나 "&lt;span class="quot0"&gt;30만 여수시민에게 머리 숙여 사과한다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;앞으로 철저한 재발 방지 대책을 마련하고 여수국가산단 제1 기업으로서 책임을 다하겠다&lt;/span&gt;"고 말했다. &lt;br&gt; &lt;br&gt;한편 허 사장은 올해 첫 해외 출장으로 오는 21일부터 24일까지 스위스 다보스에서 열리는 세계경제포럼(WEF)에 참석한다. 업계 관계자는 "&lt;span class="quot1"&gt;지난해에 이어 올해 두 번째로 다보스 포럼에 참석해 비즈니스 동향을 파악하고 그룹의 새로운 사업 기회를 구상할 것으로 보인다&lt;/span&gt;"고 말했다. &lt;br&gt; &lt;br&gt;박소연 기자 muse@asiae.co.kr &lt;br&gt; &lt;br&gt;황윤주 기자 hyj@asiae.co.kr
+   &lt;h5 style="font-size: 16px !important;"&gt;GS칼텍스 고전에 배당 등 큰폭 줄듯
+(주)GS 오너일가 수입감소 불가피&lt;/h5&gt;       
+        [디지털타임스 장우진 기자] GS칼텍스가 지난해 실적 부진으로 지주사인 (주)GS에 내는 상표권수수료와 배당금 규모가 쪼그라들 가능성이 높아졌다. 허창수 명예회장과 허태수 회장 등 오너일가가 지분 절반을 보유한 (주)GS는 4년째 배당을 확대해오고 있지만 GS칼텍스의 고전으로 올해는 배당전략 셈법이 복잡해졌다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;16일 관련업계에 따르면 GS칼텍스는 지난해 1~3분기 당기순이익 3412억원을 기록했다. 이는 전년 동기 대비 5111억원(60.0%) 급감한 수준이다. 이전까지는 당기순이익 규모가 계열사 중 1위를 차지했지만 지난해엔 GS건설(4475억원)에 밀렸다. 같은 기간 매출액은 24조5665억원을 기록해 2조908억원(7.8%) 줄었다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;(주)GS는 순수지주회사로 계열사로부터 받는 상표권수수료와 배당금수익이 주 수입원이다. GS는 작년 9월말 기준 허 명예회장(4.75%)과 허 회장(1.98%) 등 오너일가 및 특수관계자 지분율이 48%에 달하는데 상표권수수료와 배당금수익에 따라 오너일가에 돌아가는 배당금 액수가 달라질 수 있다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS는 2018년 사업연도에 대한 상표권수수료로 903억원을 받았다. 이 중 GS칼텍스는 364억원을 지급해 전체의 40%를 차지 계열사 중 기여도가 가장 높았다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;대부분 계열사들은 매출액에서 광고선전비를 뺀 금액의 0.2%를 곱해 상표권수수료를 산정한다. 다만 GS칼텍스는 지분 50%를 미국의 쉐브론이 갖고 있어 매출에서 광고선전비를 제외한 금액의 0.1%을 곱해 정해진다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 지난해 3분기까지 매출액이 2조원 넘게 줄어 4분기 반등이 없는 이상 상표권수수료 역시 감소할 가능성이 높다. 이 기간 광고선전비는 403억원에서 446억원으로 증가해 소폭이나마 부담이 더해졌다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;배당도 마찬가지다. (주)GS는 중간지주사인 GS에너지 지분 100%를 보유하고 있고 GS에너지의 GS칼텍스 지분율은 50%다. GS에너지는 GS칼텍스 외에 GS파워 인천종합에너지 등의 자회사를 보유하고 있으며 GS칼텍스의 의존도가 절대적이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 GS에너지에 배당을 단행하고 GS에너지는 이를 다시 지주사에 배당하는 형태인데 그룹에서 GS칼텍스가 차지하는 비중이 큰 만큼 배당에도 지대한 영향을 끼친다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 1조4000억원대의 당기순이익을 기록한 2016~2017년 보통주 1주당 2만2000~2만7000원대의 배당을 단행했지만 7000억원대로 쪼그라든 2018년엔 1주당 1만823원에 그쳤다. 자연스레 GS에너지 역시 2018년 1주당 5752원에서 지난해는 2814원으로 배당규모가 반토막났다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS는 2015년 1주당 1200원에서 지난해 1900원으로 4년 연속 배당을 확대해왔다. 최근 3년간 배당성향은 17~19%대를 유지하고 있지만 올해 배당은 지난해 실적 부진으로 인해 셈법이 복잡해질 수밖에 없다. GS의 지난해 3분기 당기순이익은 6506억원으로 전년 대비 23% 감소했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS건설의 경우 3분기 매출액이 전년보다 2조2882억원(23.1%) 줄어 상표권수수료 감소는 불가피할 전망이다. 다만 당기순이익은 437억원(8.9%) 주는 데 그쳤고 지분은 (주)GS가 아닌 오너일가가 25%를 보유했다는 점에서 배당압박은 덜한 편이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS에너지 관계자는 "&lt;span class="quot0"&gt;정유업황 부진으로 실적이 전반적으로 부진했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;4분기 실적이 아직 나오지 않은 만큼 배당전략은 아직 나오지 않은 상태&lt;/span&gt;"라고 전했다. GS 관계자는 "&lt;span class="quot1"&gt;배당의 경우 연간 실적발표가 나온 후 결정될 사안이어서 아직 정해진 내용은 없다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;장우진기자 jwj17@dt.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2916,35 +2599,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-   &lt;h5 style="font-size: 16px !important;"&gt;GS칼텍스 고전에 배당 등 큰폭 줄듯
-(주)GS 오너일가 수입감소 불가피&lt;/h5&gt;       
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/01/17/07101201.20200117205149001.01.jpg" alt="GS칼텍스 부진에 속타는 GS家… 복잡해진 배당 셈법" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [디지털타임스 장우진 기자] GS칼텍스가 지난해 실적 부진으로 지주사인 (주)GS에 내는 상표권수수료와 배당금 규모가 쪼그라들 가능성이 높아졌다. 허창수 명예회장과 허태수 회장 등 오너일가가 지분 절반을 보유한 (주)GS는 4년째 배당을 확대해오고 있지만 GS칼텍스의 고전으로 올해는 배당전략 셈법이 복잡해졌다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;16일 관련업계에 따르면 GS칼텍스는 지난해 1~3분기 당기순이익 3412억원을 기록했다. 이는 전년 동기 대비 5111억원(60.0%) 급감한 수준이다. 이전까지는 당기순이익 규모가 계열사 중 1위를 차지했지만 지난해엔 GS건설(4475억원)에 밀렸다. 같은 기간 매출액은 24조5665억원을 기록해 2조908억원(7.8%) 줄었다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;(주)GS는 순수지주회사로 계열사로부터 받는 상표권수수료와 배당금수익이 주 수입원이다. GS는 작년 9월말 기준 허 명예회장(4.75%)과 허 회장(1.98%) 등 오너일가 및 특수관계자 지분율이 48%에 달하는데 상표권수수료와 배당금수익에 따라 오너일가에 돌아가는 배당금 액수가 달라질 수 있다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS는 2018년 사업연도에 대한 상표권수수료로 903억원을 받았다. 이 중 GS칼텍스는 364억원을 지급해 전체의 40%를 차지 계열사 중 기여도가 가장 높았다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;대부분 계열사들은 매출액에서 광고선전비를 뺀 금액의 0.2%를 곱해 상표권수수료를 산정한다. 다만 GS칼텍스는 지분 50%를 미국의 쉐브론이 갖고 있어 매출에서 광고선전비를 제외한 금액의 0.1%을 곱해 정해진다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 지난해 3분기까지 매출액이 2조원 넘게 줄어 4분기 반등이 없는 이상 상표권수수료 역시 감소할 가능성이 높다. 이 기간 광고선전비는 403억원에서 446억원으로 증가해 소폭이나마 부담이 더해졌다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;배당도 마찬가지다. (주)GS는 중간지주사인 GS에너지 지분 100%를 보유하고 있고 GS에너지의 GS칼텍스 지분율은 50%다. GS에너지는 GS칼텍스 외에 GS파워 인천종합에너지 등의 자회사를 보유하고 있으며 GS칼텍스의 의존도가 절대적이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 GS에너지에 배당을 단행하고 GS에너지는 이를 다시 지주사에 배당하는 형태인데 그룹에서 GS칼텍스가 차지하는 비중이 큰 만큼 배당에도 지대한 영향을 끼친다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS칼텍스는 1조4000억원대의 당기순이익을 기록한 2016~2017년 보통주 1주당 2만2000~2만7000원대의 배당을 단행했지만 7000억원대로 쪼그라든 2018년엔 1주당 1만823원에 그쳤다. 자연스레 GS에너지 역시 2018년 1주당 5752원에서 지난해는 2814원으로 배당규모가 반토막났다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS는 2015년 1주당 1200원에서 지난해 1900원으로 4년 연속 배당을 확대해왔다. 최근 3년간 배당성향은 17~19%대를 유지하고 있지만 올해 배당은 지난해 실적 부진으로 인해 셈법이 복잡해질 수밖에 없다. GS의 지난해 3분기 당기순이익은 6506억원으로 전년 대비 23% 감소했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS건설의 경우 3분기 매출액이 전년보다 2조2882억원(23.1%) 줄어 상표권수수료 감소는 불가피할 전망이다. 다만 당기순이익은 437억원(8.9%) 주는 데 그쳤고 지분은 (주)GS가 아닌 오너일가가 25%를 보유했다는 점에서 배당압박은 덜한 편이다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;GS에너지 관계자는 "&lt;span class="quot0"&gt;정유업황 부진으로 실적이 전반적으로 부진했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;4분기 실적이 아직 나오지 않은 만큼 배당전략은 아직 나오지 않은 상태&lt;/span&gt;"라고 전했다. GS 관계자는 "&lt;span class="quot1"&gt;배당의 경우 연간 실적발표가 나온 후 결정될 사안이어서 아직 정해진 내용은 없다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;장우진기자 jwj17@dt.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg" alt="[클릭 e종목]“GS 올해 GS칼텍스 실적 호전될 것”" class="img-responsive"&gt;
-          &lt;/div&gt;
         [아시아경제 구은모 기자] KB증권은 GS에 대해 증설 및 원가절감을 통한 민자발전 자회사의 이익성장이 예상되고 지속적인 배당확대를 통해 주주가치제고가 기대된다며 투자의견과 목표주가를 각각 ‘매수’와 6만5000원으로 유지했다. &lt;br&gt; &lt;br&gt;백영찬 KB증권 연구원은 3일 보고서에서 GS의 올해 매출액은 지난해보다 4.4% 증가한 18조7117억원 영업이익은 11.4% 늘어난 2조2466억원으로 추정했다. 백 연구원은 “&lt;span class="quot0"&gt;이익증가의 배경은 GS칼텍스 실적호전이 예상되기 때문&lt;/span&gt;”이라며 “&lt;span class="quot0"&gt;올해 GS칼텍스의 영업이익은 1조 2528억원으로 작년 대비 28.6% 증가할 것&lt;/span&gt;”으로 내다봤다. &lt;br&gt; &lt;br&gt;지난해 4분기 낮아진 정제마진은 올 상반기부터 다시 상승할 전망이다. 백 연구원은 “&lt;span class="quot0"&gt;정제마진 상승을 예상하는 이유는 IMO 2020 시행으로 인해 디젤 수요 증가가 예상되고 올해 정제설비 신증설은 89만B/D로 원유수요 증가보다 작을 것으로 추정되며 중국의 석유제품 품질강화 정책으로 노후화된 설비의 감소가 예상되기 때문&lt;/span&gt;”이라고 설명했다. &lt;br&gt; &lt;br&gt;지난해 4분기 매출액은 전년 동기 대비 14.9% 증가한 4조4786억원 영업이익은 17.8% 늘어난 4650억원을 기록해 영업이익 기준 시장예상치(5501억원)에 미치지 못할 전망이다. 4분기 GS칼텍스의 영업이익은 1894억원으로 전년 동기 대비 흑자 전환하지만 3분기 대비 41.2% 감소할 전망이다. &lt;br&gt; &lt;br&gt;구은모 기자 gooeunmo@asiae.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg" alt="[클릭 e종목]“GS 올해 GS칼텍스 실적 호전될 것”" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/03/02100801.20200103075247001.01.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg" alt="GS칼텍스 “여수시 충무동 벽화골목에 어린이 역사체험 타일벽화 설치”" class="img-responsive"&gt;
-          &lt;/div&gt;
         GS칼텍스는 전남 여수시 충무동 벽화골목에 어린이들의 역사체험을 담아 만든 타일벽화를 설치했다고 30일 밝혔다(사진). 타일벽화는 ‘2019년 GS칼텍스 희망에너지교실 큰바위 얼굴 역사체험’ 프로그램에 참여한 여수 10개 지역아동센터 어린이들의 타일 200점으로 제작됐다. 타일벽화는 가로 6m 세로 3m 크기 작품이다. &lt;br&gt; &lt;br&gt; 2017년부터 이어온 GS칼텍스 큰바위 얼굴 역사체험 프로그램은 올해 200명의 여수 어린이를 대상으로 진행됐다. 3년째 역사 프로그램이 끝나면 타일벽화를 제작해 설치하고 있다. &lt;br&gt; &lt;br&gt; 올해는 역사교육 30차례 선사시대 유적지나 옛 성터는 물론 진남관과 흥국사 등 여수 대표 역사유적지 탐방을 12차례 전개했다. &lt;br&gt; &lt;br&gt; 허정란 여수지역아동센터연합회 회장은 “&lt;span class="quot0"&gt;옛 도심 거리를 지역 역사와 어린이들의 미래 지향적인 에너지가 함께 담긴 벽화로 채워나가고 있어 의미가 있다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt; GS칼텍스 희망에너지교실은 어린이들이 건전한 꿈과 비전을 키울 수 있도록 다양한 체험 교육을 제공하는 사회 공헌활동이다. GS칼텍스는 올 초 여수지역사회연구소와 함께 제작한 역사교육 책자와 태블릿PC(3200만 원 상당)를 지역아동센터에 후원했다. 허세홍 GS칼텍스 대표는 “&lt;span class="quot1"&gt;여수지역 어린이들이 바르게 성장할 수 있도록 양질의 프로그램을 지속적으로 발굴해 운영하겠다&lt;/span&gt;”고 했다. &lt;br&gt; &lt;br&gt;이형주 기자 peneye09@donga.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2952,28 +2630,36 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg" alt="GS칼텍스 마음톡톡 뮤직 힐링 콘서트 개최" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg" alt="GS칼텍스 “여수시 충무동 벽화골목에 어린이 역사체험 타일벽화 설치”" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100401/2019/12/31/01100401.20191231030308002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
    &lt;h5 style="font-size: 16px !important;"&gt;GS칼텍스∙순천지청∙이화여대 위기청소년 심리∙정서 치유&lt;/h5&gt;       
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg" alt="GS칼텍스 마음톡톡 뮤직 힐링 콘서트 개최" class="img-responsive"&gt;
-          &lt;/div&gt;
         GS칼텍스(대표 허세홍 사장)와 광주지방검찰청 순천지청(김욱준 지청장)이 지난 14일 여수시 GS칼텍스 예울마루 소극장에서 '전남동부지역 위기청소년 마음톡톡 뮤직 힐링 콘서트'를 성황리에 개최했다.&lt;br&gt;18일 GS칼텍스에 따르면 '위기청소년 마음톡톡'은 순간의 잘못으로 인해 사법기관의 보호관찰 및 선도조건부 기소유예 처분을 받은 전남동부지역 청소년을 처벌하는 대신 예술치유 프로그램 이수를 통해 건강한 사회구성원으로 성장하도록 돕기 위해 기획됐다.&lt;br&gt;이날 열린 콘서트는 올 한해 마음톡톡 예술치유 프로그램에 참여한 청소년 50명이 5개의 팀을 구성해 준비하고 연습한 노래와 악기 연주 무대로 꾸며졌다. 15주 과정의 프로그램을 운영한 이화여대 대학원 음악치료학과는 참여 청소년들에게 작사·작곡 악기 연주 등을 가르치며 심리∙정서 치유와 내면의 성장을 도왔다.&lt;br&gt;법무부 법사랑위원 전남동부지역연합회 GS칼텍스 이화여대에서도 찬조 무대를 꾸몄다. 법무부 법사랑위원은 섹소폰 연주를 GS칼텍스 음악 동호회 킥스(Kixx)밴드와 이화여대는 청소년들과 호흡을 맞춰 합동 무대를 펼쳤다.&lt;br&gt;GS칼텍스는 마음톡톡 프로그램에 성실하게 참여한 청소년 5명을 선발해 장학금도 전달했다.&lt;br&gt;GS칼텍스는 지난 2016년 4월 순천지청 법무부 법사랑위원 전남동부지역연합회와 '마음톡톡 예술치유 지원 업무 협약'을 체결하고 전남동부지역 위기청소년들을 대상으로 하는 집단 음악치유 프로그램을 시작했다. 프로그램에 참여한 지역 청소년은 올해까지 총 364명에 달해 관∙산∙학 협력의 모범사례로 자리매김 하고 있다.&lt;br&gt;순천지청 관계자는 "&lt;span class="quot0"&gt;마음톡톡 예술 치유 프로그램이 지역 위기청소년들의 바른 성장을 돕는데 큰 역할을 하고 있다&lt;/span&gt;"고 평가했으며 GS칼텍스는 "&lt;span class="quot0"&gt;청소년들이 한 번의 잘못으로 주저앉지 않고 관∙산∙학의 도움을 통해 꿈과 비전을 함양해 갈 수 있도록 앞으로도 지원을 아끼지 않겠다&lt;/span&gt;"고 말했다.&lt;br&gt;한편 GS칼텍스가 2013년부터 펼쳐온 대표 사회공헌사업인 '마음톡톡'은 청소년기를 지나는 아이들의 건강한 또래관계와 학교생활을 위해 자아와 사회성을 증진시키는 집단예술치유 프로그램으로 올해까지 7년간 전국에서 총 1만 8350명의 아동∙청소년들의 마음 치유를 지원해 오고 있다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg" alt="GS칼텍스 마음톡톡 뮤직 힐링 콘서트 개최" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01600801/2019/12/18/01600801.20191218160847001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg" alt="CJ푸드빌 제일제면소 LG전자와 손잡고 '미래형 스마트 매장' 도입" class="img-responsive"&gt;
-          &lt;/div&gt;
         CJ푸드빌이 운영하는 별미국수 전문점 제일제면소 서울역사점에 서빙 로봇을 시범 도입한다고 3일 밝혔다.&lt;br&gt;&lt;br&gt;제일제면소는 LG전자가 개발한 'LG 클로이 서브봇'을 국내 최초로 현장에 도입했다. 클로이 서브봇은 지능형 자율주행 기능으로 최적의 동선을 파악해 주문한 테이블에 도착한다. 3D 카메라와 초음파 센서가 있어 이동 시 테이블 간 좁은 사이를 순조롭게 이동하며 장애물을 피하거나 멈춰 설 수 있다.&lt;br&gt;&lt;br&gt;제일제면소 서울역사점은 매장 입장부터 서빙까지 첨단기술을 적용한 매장으로 운영된다. 매장 대기 시 '스마트 웨이팅' 시스템으로 매장 앞 태블릿PC에 이름과 연락처를 남기면 입장 순서에 맞춰 카카오톡 메시지를 받는다. 매장에 입장하면 각 테이블에 있는 태블릿PC로 메뉴 주문 직원 호출 등을 할 수 있어 빠르고 편리하게 서비스 받을 수 있다.&lt;br&gt;&lt;br&gt;클로이 서브봇의 도입은 직원과 고객의 편의를 극대화 시켜주는 역할을 한다. 가장 큰 장점은 4인 메뉴를 한번에 옮길 수 있어 고객이 기다림 없이 음식을 받을 수 있다는 점이다. 기존에는 4인 주문 시 한 명의 직원이 여러 번에 거쳐 서빙을 해 모든 메뉴가 나오길 기다렸다. 하지만 이번 클로이 서브봇 도입으로 단 한 번에 서빙이 가능하다. 국물이 많은 면 요리도 안정적으로 옮기는 것이 특징이다. 테이블 정리도 한결 빠르고 수월해져 대기 고객이 빠르게 입장 할 수 있다. 식사 후 클로이 서브봇이 빈 그릇을 주방으로 옮겨줘 직원은 테이블 정리 등 마무리만 하면 된다.&lt;br&gt;&lt;br&gt;제일제면소 관계자는 “&lt;span class="quot0"&gt;서울역사점에 우선적으로 주문 및 서빙 등 혁신 기술을 도입해 고객에게 신선한 즐거움을 선사할 예정이다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;직원들이 고객 서비스에 더욱 집중해 특별하고 높은 서비스를 기대해주시길 바란다&lt;/span&gt;”고 말했다.&lt;br&gt;&lt;br&gt;이주현기자 jhjh13@etnews.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2981,17 +2667,18 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg" alt="LG전자 클로이 서브봇 CJ 제일제면소에 첫 출근" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg" alt="CJ푸드빌 제일제면소 LG전자와 손잡고 '미래형 스마트 매장' 도입" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203112641001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
    &lt;h5 style="font-size: 16px !important;"&gt;음식 나르고 빈그릇 운반&lt;/h5&gt;       
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg" alt="LG전자 클로이 서브봇 CJ 제일제면소에 첫 출근" class="img-responsive"&gt;
-          &lt;/div&gt;
         LG전자(066570)가 지난달 미국 라스베이거스에서 열린 CES 2020에서 처음 선보인 클로이 서브봇이 실제 매장에 도입된다. &lt;br&gt; &lt;br&gt;LG전자와 CJ푸드빌은 지난달 31일 서울 중구에 위치한 제일제면소 서울역사점에 LG 클로이 서브봇 1대를 도입하고 본격적인 운영을 시작했다고 3일 밝혔다. 클로이 서브봇은 실내 자율주행 및 장애물 회피 기술을 이용해 고객이 있는 테이블까지 음식을 가져다주고 고객이 식사를 마치면 고객이 있는 테이블로 되돌아가 빈 그릇을 운반한다. LG전자와 CJ푸드빌은 클로이 서브봇이 뜨겁거나 무거운 그릇에 담긴 요리를 옮기는 데 유용해 레스토랑 직원들이 보다 세심하게 고객을 응대하는 등 좀 더 가치 있는 일에 집중할 수 있을 것으로 기대하고 있다. &lt;br&gt; &lt;br&gt;아울러 클로이 서브봇의 화면은 다양한 얼굴 표정을 보여주며 고객에게 친근한 이미지를 준다. 장애물을 감지하면 “죄송합니다. 잠시만 지나가도 될까요?”라고 말하며 충돌을 피하며 이동 중에는 노래가 흘러나와 주변의 고객은 서브봇이 움직이고 있다는 것을 쉽게 알 수 있다. &lt;br&gt; &lt;br&gt;LG전자와 CJ푸드빌은 앞서 지난해 11월 빕스 등촌점에 클로이 셰프봇을 도입히기도 했다. 양사는 앞으로 고객에게 차별화된 경험을 제공함과 동시에 각종 로봇의 솔루션을 함께 개발해 새로운 고객 가치를 만들어 나갈 계획이다. &lt;br&gt; &lt;br&gt;노진서 LG전자 로봇사업센터장 전무는 “&lt;span class="quot0"&gt;올해 CES에서 선보인 셰프봇 서브봇 등 여러 로봇들이 점차 현실에 도입되고 있다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;고객에게 새로운 가치를 제공할 수 있는 로봇을 지속적으로 선보이며 사람과 로봇이 협력하는 사회를 만드는 데 기여할 것&lt;/span&gt;”이라고 강조했다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -2999,16 +2686,17 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg" alt="LG전자 보급형 신제품 'LG Q51' 이달 중 출시" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg" alt="LG전자 클로이 서브봇 CJ 제일제면소에 첫 출근" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100311/2020/02/03/02100311.20200203112522001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg" alt="LG전자 보급형 신제품 'LG Q51' 이달 중 출시" class="img-responsive"&gt;
-          &lt;/div&gt;
         LG전자가 올해 첫 스마트폰으로 보급형 'LG Q51'을 출시한다. 예상 출고가 30만~40만원대 제품으로 가성비를 앞세워 롱텀에벌루션(LTE) 틈새 시장을 공략한다.&lt;br&gt;&lt;br&gt;LG Q51은 6.5인치 LCD 디스플레이에 V노치 형태로 1300만화소 전면 카메라를 탑재했다. 후면에는 1300만화소 메인 500만화소 초광각 200만화소 심도로 구성된 트리플 카메라를 적용했다.&lt;br&gt;&lt;br&gt;모바일 애플리케이션 프로세서는 대만 미디어텍 '헬리오P22'다. 지문인식과 LG페이를 지원하며 4000㎃h 대용량 배터리도 탑재했다. 램은 3GB 저장용량은 32GB다. 티탄과 화이트 두 가지 색상으로 출시한다.&lt;br&gt;&lt;br&gt;박정은기자 jepark@etnews.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -3016,16 +2704,17 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg" alt="LG전자 보급형 신제품 'LG Q51' 이달 중 출시" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/03/07100501.20200203104859001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
-          &lt;/div&gt;
         LG전자가 지난달 필리핀 마닐라 근처 탈(Taal) 화산 폭발로 피해를 입은 주민을 위해 봉사활동에 나섰다고 2일 밝혔다. &lt;br&gt; &lt;br&gt; LG전자 필리핀법인은 최근 탈 화산 인근 지역에 마련된 주요 대피소 세 곳을 방문해 무료세탁방을 운영하고 의료서비스를 제공했다(사진). LG전자는 피해를 입은 가전제품을 무상으로 수리해 주는 등 이재민을 위한 다양한 활동도 진행할 계획이다. &lt;br&gt; &lt;br&gt;김성훈 기자
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -3033,17 +2722,18 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg" alt="LG전자 `생활가전 1위` 가속… 영업익 3년째 美월풀 넘었다" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/03/01100201.20200203040805001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
    &lt;h5 style="font-size: 16px !important;"&gt;매출에선 2조원차로 추격&lt;/h5&gt;       
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg" alt="LG전자 `생활가전 1위` 가속… 영업익 3년째 美월풀 넘었다" class="img-responsive"&gt;
-          &lt;/div&gt;
         [디지털타임스 박정일 기자] LG전자가 생활가전 사업에서 3년 연속으로 미국 월풀(Whirlpool)의 영업이익을 제쳤다. 매출 규모도 월풀을 바짝 뒤쫓으며 '글로벌 1위' 도약에 속도를 내고 있다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;2일 업계에 따르면 LG전자의 H&amp;amp;A(홈어플라이언스앤에어솔루션) 부문은 지난 2017년부터 작년까지 연간 영업이익에서 세계 1위 가전사인 미국 월풀을 앞섰다. LG전자 가전 부문 영업이익은 2019년 1조9962억원을 기록해 2년 전 1조4000억원 1년 전 1조5000억원에 이어 꾸준히 상승했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;같은 기간 월풀의 영업이익은 1조3000억원 3000억원 1조7000억원대를 기록해 3년 연속으로 LG전자를 밑돌았다. 이는 영업이익률이 상대적으로 높은 의류 관리기 등 이른바 '신가전'과 프리미엄 가전 시장에서 LG전자가 선두를 차지한 데 따른 것으로 해석된다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;LG전자와 월풀의 매출 격차도 지난 2016년과 비교해 큰 폭으로 줄었다. 2016년만 해도 LG전자는 17조원 월풀은 24조원으로 7조원에 가까운 차이를 보였다. 그러나 지난해 LG전자 매출은 처음 20조원을 돌파해 21조5000억원을 기록했고 월풀은 23조5000억원으로 격차는 2조원으로 줄어들었다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이는 미국 가전 업계 '대장' 격인 월풀이 수년째 23조∼24조원 수준의 매출 규모에 머무르며 정체되고 있기 때문이다. 반면 LG전자는 전 세계를 상대로 활발한 영업활동을 펼치며 작년 상반기에는 월풀 매출을 뛰어넘고 한때 '글로벌 1위 가전사'로 올라섰다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;다만 같은 해 하반기 실적을 보면 월풀이 약 12조1000억원의 매출을 올려 다시 LG전자(9조9000억원)에 앞섰다. 월풀이 '홈그라운드'인 미국에서 연말 블랙프라이데이 효과를 톡톡히 거두면서다. 국내 가전 업체가 블랙프라이데이에 월풀과 맞서려면 보다 강력한 프로모션이 필요해 영업이익률이 낮아지는 부담을 감수해야 한다. 업계 관계자는 "&lt;span class="quot0"&gt;'손해 보고 장사하지 않는다'는 LG전자 가전 전략에 따라 당분간은 상반기 LG전자 하반기 월풀이 선전하는 경쟁 구도가 이어질 것&lt;/span&gt;"이라고 전망했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;박정일기자 comja77@dt.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -3051,8 +2741,12 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg" alt="렌털계정수 200萬 넘은 LG전자 … &amp;quot;올해 270만 간다&amp;quot;" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg" alt="LG전자 `생활가전 1위` 가속… 영업익 3년째 美월풀 넘었다" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203203156001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3061,12 +2755,41 @@
    &lt;h5 style="font-size: 16px !important;"&gt;케어솔루션 서비스 차별화 주효
 1인가구·공유경제 기반 고성장
 업계 2위 경쟁 더 치열해질듯&lt;/h5&gt;       
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg" alt="렌털계정수 200萬 넘은 LG전자 … &amp;quot;올해 270만 간다&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;
         [디지털타임스 이미정 기자]LG전자가 지난해 렌털 계정수 200만 고지를 달성한 가운데 올해에도 렌털 사업이 고공행진을 이어갈 것이란 전망이 나온다. LG전자는 렌털 품목 확대와 케어솔루션 조직 강화 등으로 렌털 사업을 꾸준히 확대해 2위 지위를 공고히 한다는 계획이다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;2일 업계에 따르면 렌털 사업을 포함한 LG전자 홈어플라이언스&amp;amp;에어솔루션(H&amp;amp;A)의 올해 1분기 실적은 매출은 5조7000억원 영업이익 7000억원이 예상된다. 특히 올해 1분기 H&amp;amp;A의 영업이익률은 12~13%에 달할 것으로 전망했다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;LG전자 관계자는 최근 컨퍼런스콜에서 "&lt;span class="quot0"&gt;지난해 말 기준 200만개를 상회하는 수준으로 계정을 확보해 전년 대비 40%의 성장을 이뤘다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;올해도 30% 이상 고성장을 통해 270만개 이상 계정 확보를 목표하고 있다&lt;/span&gt;"고 밝혔다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;2009년 정수기를 시작으로 렌털 사업에 진출한 LG전자는 2018년 생활가전 제품의 사후관리 서비스를 제공하는 케어솔루션을 출시하며 렌털 사업을 생활가전 부문으로 확대했다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이에 따라 LG전자의 렌털 사업 매출은 2016년 1131억원에서 2017년 1605억원으로 늘었고 2018년에는 2924억원으로 80% 이상 급증했다. 지난해 3분기까지 누적 매출은 3154억원으로 집계되며 3분기 만에 전년 전체 매출을 넘어섰다. 지난해 H&amp;amp;A 부문 국내 매출에서 약 7%를 차지하고 있다. 올해에는 특히 처음으로 기업 간 거래(B2B) 대리점에 렌털 사업 판매 목표치를 제시하고 이를 인센티브와 연동하기로 하면서 기대감이 높아지고 있다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;LG전자 관계자는 "&lt;span class="quot0"&gt;자사의 렌털 사업은 기존 업체에서 운영하는 단순 제품 렌털이 아니라 케어솔루션이라는 차별화된 서비스인 유지 보수 서비스로 제공하고 있어 지속적으로 매출 비중 증가가 예상된다&lt;/span&gt;"고 설명했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;렌털 시장은 1인 가구 증가와 공유 경제 확산을 바탕으로 고성장세를 이어갈 것으로 예상되면서 업계 2위권 경쟁도 더욱 치열해질 것으로 전망된다. KT경영경제연구소에 따르면 생활가전 렌털 시장은 지난 2017년 7조6000억원 규모에서 올해 10조7000억원으로 성장할 것으로 전망된다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;현재 국내 렌털 시장은 600만 계정의 1위 웅진코웨이에 이어 LG전자 SK매직 쿠쿠 청호나이스 등 2위권 업체가 경쟁 구도를 형성하며 치열한 각축전을 벌이고 있다. 여기에 삼성전자도 조만간 렌털 시장에 도전장을 내밀 것이라는 전망이 나오는 상황이다. &lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt; 이미정기자 lmj0919@dt.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg" alt="렌털계정수 200萬 넘은 LG전자 … &amp;quot;올해 270만 간다&amp;quot;" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/07101201/2020/02/03/07101201.20200203202230001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        LG전자가 글로벌 가전 기업 중 3년 연속 영업이익과 영업이익률 1위를 달렸다. 프리미엄 가전과 신가전의 상승세 원가절감 노력 등이 어우러지며 독보적인 수익성을 재확인했다. 글로벌 가전 매출 1위 월풀과 격차도 줄고 있어 조만간 매출까지 1위에 오를 것으로 기대된다. &lt;br&gt; &lt;br&gt;2일 업계에 따르면 LG전자는 글로벌 가전 톱3로 꼽히는 월풀과 일렉트로룩스를 제치고 3년 연속 영업이익과 영업이익률 1위에 올랐다. &lt;br&gt; &lt;br&gt;지난해 LG전자 홈어플라이언스&amp;amp;에어솔루션(H&amp;amp;A) 사업본부는 매출 21조5155억원 영업이익 1조9962억원 영업이익률 9.3%를 각각 기록했다. 영업이익과 영업이익률은 역대 최고 기록이다. &lt;br&gt; &lt;br&gt;LG전자는 프리미엄 제품 비중을 높이면서 수익성 위주 성장 전략을 펴왔다. 그 결과 최근 수년간 매출과 영업이익이 계속 증가해왔다. 지난해 대비 매출 2조1547억원(6.7%) 영업이익 4512억원(29.2%)이 각각 증가했다. 영업이익률은 1.3%포인트(P) 높아졌다. &lt;br&gt; &lt;br&gt;LG전자는 글로벌 가전시장 경쟁 업체인 월풀 일렉트로룩스와 수익성에서는 확실한 차별화를 했다는 평가를 받는다. 글로벌 경쟁이 치열해 이익률을 높이기 어렵지만 프리미엄 제품으로 시장 입지와 브랜드 이미지를 확실히 구축했다. &lt;br&gt; &lt;br&gt;LG전자는 월풀과의 매출 격차도 2조원 수준으로 줄였다. 매출 격차가 계속 좁혀지고 있어 조만간 역전이 가능할 것으로 보인다. &lt;br&gt; &lt;br&gt;월풀은 지난해 매출 204억1900만달러(약 23조7881억원) 영업이익 15억7100만달러(1조8302억원)를 각각 기록했다. 전년보다 매출은 약 2.9% 줄었지만 영업이익은 463% 급증했다. 영업이익률은 2017년 5.3%에서 2018년 1.3%로 급락했고 지난해는 7.7%로 크게 올랐다. 2018년에는 1회성 비용으로 인해 수익성이 악화됐었다. &lt;br&gt; &lt;br&gt;월풀은 미국에서 LG전자와 삼성전자를 겨냥해 세탁기 세이프가드(긴급수입제한조치) 청원을 내는 등 자국 시장 방어에 집중하면서 북미 수익률이 향상됐다. 하지만 북미를 제외한 해외에서는 큰 성과를 내지 못하는 상황이다. 때문에 매출도 계속 줄고 있다. &lt;br&gt; &lt;br&gt;일렉트로룩스는 지난해 매출 1189억8100만크로네(약 14조6870억원)로 전년 대비 1.3% 감소했다. 영업이익도 31억8900만크로네(3937억원)로 약 24% 감소했다. 영업이익률은 2018년 3.6%에서 지난해 2.7%로 하락했다. &lt;br&gt; &lt;br&gt;글로벌 가전 시장은 신흥 시장 등 중저가 영역에서는 중국 업체 등이 가격 경쟁력을 내세우면서 경쟁이 격화됐다. 프리미엄 시장은 경쟁이 제한적이지만 기술 경쟁은 더욱 치열하다. &lt;br&gt; &lt;br&gt;LG전자는 꾸준히 제품 성능과 품질을 높여왔고 모듈화 등으로 원가 경쟁력 강화를 병행했다. 초프리미엄 가전인 'LG 시그니처'를 출시하며 브랜드 가치를 높였고 스타일러와 건조기 전기레인지 등 이른바 신가전에서 성과도 냈다. 여기에 가정용 피부관리기와 맥주제조기 등 신제품을 계속 선보이고 있으며 가정용 로봇 등 신사업도 펼칠 계획이다. LG전자는 앞으로도 프리미엄 가전 출시를 확대하며 수익성 기반 성장을 이어간다는 전략이다. &lt;br&gt; &lt;br&gt;가전업계 관계자는 “&lt;span class="quot0"&gt;LG전자가 가전 사업에서 영업이익률 9.3%로 두 자릿수에 육박하는 성과를 낸 것은 시장 경쟁을 감안할 때 놀라운 것&lt;/span&gt;”이라면서 “&lt;span class="quot0"&gt;프리미엄 가전 시장에서 입지가 탄탄해 매출과 이익 상승세가 이어질 것으로 예상된다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt;※ 글로벌 가전기업 영업이익 및 영업이이률 현황(단위:억원. 2019년 평균 달러 환율 적용) &lt;br&gt; &lt;br&gt;자료:각사 종합 &lt;br&gt; &lt;br&gt; &lt;br&gt;권건호기자 wingh1@etnews.com
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3100,130 +2823,181 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;div class="modal-body"&gt;
+    <t>https://www.bigkinds.or.kr/resources/images/07100501/2020/02/02/07100501.20200202170318001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/07100501/2020/02/02/07100501.20200202170318001.01.jpg" alt="LG전자 '가전 수익성' 확실한 차별화...영업이익</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이익률 3년 연속 글로벌 1위" class="img-responsive"&gt;
-          &lt;/div&gt;
-        LG전자가 글로벌 가전 기업 중 3년 연속 영업이익과 영업이익률 1위를 달렸다. 프리미엄 가전과 신가전의 상승세 원가절감 노력 등이 어우러지며 독보적인 수익성을 재확인했다. 글로벌 가전 매출 1위 월풀과 격차도 줄고 있어 조만간 매출까지 1위에 오를 것으로 기대된다. &lt;br&gt; &lt;br&gt;2일 업계에 따르면 LG전자는 글로벌 가전 톱3로 꼽히는 월풀과 일렉트로룩스를 제치고 3년 연속 영업이익과 영업이익률 1위에 올랐다. &lt;br&gt; &lt;br&gt;지난해 LG전자 홈어플라이언스&amp;amp;에어솔루션(H&amp;amp;A) 사업본부는 매출 21조5155억원 영업이익 1조9962억원 영업이익률 9.3%를 각각 기록했다. 영업이익과 영업이익률은 역대 최고 기록이다. &lt;br&gt; &lt;br&gt;LG전자는 프리미엄 제품 비중을 높이면서 수익성 위주 성장 전략을 펴왔다. 그 결과 최근 수년간 매출과 영업이익이 계속 증가해왔다. 지난해 대비 매출 2조1547억원(6.7%) 영업이익 4512억원(29.2%)이 각각 증가했다. 영업이익률은 1.3%포인트(P) 높아졌다. &lt;br&gt; &lt;br&gt;LG전자는 글로벌 가전시장 경쟁 업체인 월풀 일렉트로룩스와 수익성에서는 확실한 차별화를 했다는 평가를 받는다. 글로벌 경쟁이 치열해 이익률을 높이기 어렵지만 프리미엄 제품으로 시장 입지와 브랜드 이미지를 확실히 구축했다. &lt;br&gt; &lt;br&gt;LG전자는 월풀과의 매출 격차도 2조원 수준으로 줄였다. 매출 격차가 계속 좁혀지고 있어 조만간 역전이 가능할 것으로 보인다. &lt;br&gt; &lt;br&gt;월풀은 지난해 매출 204억1900만달러(약 23조7881억원) 영업이익 15억7100만달러(1조8302억원)를 각각 기록했다. 전년보다 매출은 약 2.9% 줄었지만 영업이익은 463% 급증했다. 영업이익률은 2017년 5.3%에서 2018년 1.3%로 급락했고 지난해는 7.7%로 크게 올랐다. 2018년에는 1회성 비용으로 인해 수익성이 악화됐었다. &lt;br&gt; &lt;br&gt;월풀은 미국에서 LG전자와 삼성전자를 겨냥해 세탁기 세이프가드(긴급수입제한조치) 청원을 내는 등 자국 시장 방어에 집중하면서 북미 수익률이 향상됐다. 하지만 북미를 제외한 해외에서는 큰 성과를 내지 못하는 상황이다. 때문에 매출도 계속 줄고 있다. &lt;br&gt; &lt;br&gt;일렉트로룩스는 지난해 매출 1189억8100만크로네(약 14조6870억원)로 전년 대비 1.3% 감소했다. 영업이익도 31억8900만크로네(3937억원)로 약 24% 감소했다. 영업이익률은 2018년 3.6%에서 지난해 2.7%로 하락했다. &lt;br&gt; &lt;br&gt;글로벌 가전 시장은 신흥 시장 등 중저가 영역에서는 중국 업체 등이 가격 경쟁력을 내세우면서 경쟁이 격화됐다. 프리미엄 시장은 경쟁이 제한적이지만 기술 경쟁은 더욱 치열하다. &lt;br&gt; &lt;br&gt;LG전자는 꾸준히 제품 성능과 품질을 높여왔고 모듈화 등으로 원가 경쟁력 강화를 병행했다. 초프리미엄 가전인 'LG 시그니처'를 출시하며 브랜드 가치를 높였고 스타일러와 건조기 전기레인지 등 이른바 신가전에서 성과도 냈다. 여기에 가정용 피부관리기와 맥주제조기 등 신제품을 계속 선보이고 있으며 가정용 로봇 등 신사업도 펼칠 계획이다. LG전자는 앞으로도 프리미엄 가전 출시를 확대하며 수익성 기반 성장을 이어간다는 전략이다. &lt;br&gt; &lt;br&gt;가전업계 관계자는 “&lt;span class="quot0"&gt;LG전자가 가전 사업에서 영업이익률 9.3%로 두 자릿수에 육박하는 성과를 낸 것은 시장 경쟁을 감안할 때 놀라운 것&lt;/span&gt;”이라면서 “&lt;span class="quot0"&gt;프리미엄 가전 시장에서 입지가 탄탄해 매출과 이익 상승세가 이어질 것으로 예상된다&lt;/span&gt;”고 말했다. &lt;br&gt; &lt;br&gt;※ 글로벌 가전기업 영업이익 및 영업이이률 현황(단위:억원. 2019년 평균 달러 환율 적용) &lt;br&gt; &lt;br&gt;자료:각사 종합 &lt;br&gt; &lt;br&gt; &lt;br&gt;권건호기자 wingh1@etnews.com
+        LG전자가 지난달 필리핀 마닐라 근처 탈(Taal) 화산 폭발로 피해를 입은 주민을 위해 봉사활동에 나섰다고 2일 밝혔다. &lt;br&gt; &lt;br&gt;LG전자 필리핀법인은 최근 탈 화산 인근 지역에 마련된 주요 대피소 세 곳을 방문해 무료세탁방을 운영하고 의료서비스를 제공했다. LG전자는 피해를 입은 가전제품을 무상으로 수리해 주는 등 이재민을 위한 다양한 활동도 진행할 계획이다. &lt;br&gt; &lt;br&gt;김성훈 기자 hunhun@kmib.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        에쓰오일(S-OIL)은 2019년 한해 영업이익을 4492억원 냈다고 31일 공시했다. 2018년 영업이익 6395억원보다 29.8% 줄었다. 매출은 지난해 25조4663억원보다 4.2% 감소한 24조3942억원이다. 전체 매출의 78.2%를 차지하는 정유사업의 침체가 전체 매출과 영업이익 감소에 영향을 미쳤다. 사업부문 별 영업이익은 석유화학 2550억원 윤활기유 2195억원이나 정유 부문에서 253억원의 영업적자가 났다. &lt;br&gt;&lt;br&gt;지난해 4분기 매출은 전분기보다 3.9% 늘어난 6조4762억원이다. 영업이익은 정제마진 하락으로 전분기보다 1921억원 감소한 386억원이었으나 유가 안정화 영향으로 3335억원 영업적자를 냈던 2018년 4분기에 견줘서는 흑자로 전환했다. &lt;br&gt;&lt;br&gt;에쓰오일 쪽은 “지난해 정유 부문에서 중국의 신규 정유설비 가동에 따른 공급 증가와 아이엠오(IMO)2020 시행에 앞서 고유황유(HSFO) 가격 급락으로 정제마진이 줄어 적자 전환됐다”며 “올해는 IMO2020 시행과 미-중 무역분쟁 완화에 힘입은 수요 증가로 영업이익이 개선될 것으로 전망한다”고 밝혔다. &lt;br&gt;&lt;br&gt;김은형 기자 dmsgud
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg" alt="S-OIL 지난해 영업이익 전년보다 30% 감소" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        [아시아경제 황윤주 기자] 후세인 알 카타니 S-OIL(에쓰오일) 사장이 취임 후 사회공헌 활동에 직접 참여하는 사례가 많아 눈길을 끈다. 역대 에쓰오일 최고경영자(CEO) 가운데 가장 적극적으로 사회공헌에 나서고 있다는 평가가 나온다. &lt;br&gt; &lt;br&gt;26일 업계에 따르면 알 카타니 사장은 지난해 6월 취임 후 9번에 걸쳐 사회공헌 활동에 참여했다. 평균 한 달에 한 번 꼴이다. &lt;br&gt; &lt;br&gt;그가 지금까지 직접 참여한 사회공헌 활동은 ▲푸드트럭 ▲보육원 청소년 홀로서기 ▲순직소방관 자녀 장학금 전달 ▲추석맞이 사랑의 송편나눔 ▲사랑의 연탄나누기 ▲올해의 시민영웅시상 ▲영웅소방관 시상 ▲이웃돕기 성금 기부 ▲사랑의 떡국나눔 등이다. &lt;br&gt; &lt;br&gt;알 카타니 사장이 사회공헌 활동에 유독 적극적인 이유는 에쓰소일의 경영 철학과 결을 같이 한다. 에쓰오일은 가장 성공한 기업이 아닌 가장 존경받는 기업을 슬로건으로 삼고 있다. 알 카타니 사장도 평소 윤리경영과 사회적 책임을 다하는 '좋은 기업'이 될 것을 강조하는 것으로 유명하다. &lt;br&gt; &lt;br&gt;에쓰오일의 사회공헌 특징 중 하나는 지역사회 지원을 중요하게 생각한다는 점이다. 에쓰오일 사업장이 위치한 울산광역시와 사옥이 있는 서울 마포·마곡 등에서 문화예술과 나눔 캠페인을 펼치고 있다. 또 S-OIL울산복지재단 운영하는 등 다양한 지역사회 지원 활동도 추진 중이다. &lt;br&gt; &lt;br&gt;에쓰오일 관계자는 "&lt;span class="quot0"&gt;기업문화가 사회공헌을 중요하게 생각하기 때문에 모든 CEO들이 사회공헌을 중요하게 생각했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;내부 문화와 별도로 알 카타니 사장은 사회공헌 활동에 강한 의지를 갖고 있어 전임자보다 적극적으로 참여하고 있다&lt;/span&gt;"고 설명했다. &lt;br&gt; &lt;br&gt;황윤주 기자 hyj@asiae.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg" alt="'취임 8개월 동안 9차례'…사회공헌 적극적인 알 카타니 S-OIL 사장" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        S-OIL 울산공장 임원들은 22일 울산시제2장애인체육관(관장 차현태)을 찾아 건강을 기원하고 따뜻한 정을 나누는 설맞이 떡국 나눔 봉사활동을 펼쳤다. &lt;br&gt;&lt;br&gt;이날 행사는 S-OIL 울산공장 임원들이 참석한 가운데 장애인 300여명에게 떡국을 나눠주고 생활용품 선물을 전달했다. 지난 2016년부터 꾸준히 이어져 온 S-OIL의 떡국 나눔 행사가 제2장애인체육관에서 설날이 되면 제일 기다리는 행사로 자리매김했다. &lt;br&gt;&lt;br&gt;S-OIL 이민호 부사장은 "&lt;span class="quot0"&gt;경자년 설날을 맞이해 재활을 위해 애쓰고 있는 분들에게 따뜻한 떡국 한 그릇을 대접할 수 있어 기쁜 마음으로 봉사활동에 참여했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;어르신들이 맛있게 드시는 모습을 보니 보람을 느끼며 앞으로도 지속적으로 사회공헌활동을 펼쳐 지역사회와 공존하고 함께 발전하는 S-OIL이 되겠다&lt;/span&gt;"고 밝혔다. &lt;br&gt;&lt;br&gt;한편 S-OIL은 지난 2007년 S-OIL 사회봉사단을 발족하여 울산지역 내 소외 받는 이웃들을 위해 백미 전달 김장나누기뿐만 아니라 사회복지시설과 일대일로 연계해 다양한 봉사 활동을 활발히 펼치고 있다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg" alt="S-OIL 설맞이 건강떡국 나눔행사 실시" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        [아시아경제 박소연 기자] S-OIL은 11일 서울 청계산에서 임직원 신년산행 행사를 갖고 힘찬 새해 각오를 다졌다. &lt;br&gt; &lt;br&gt;후세인 알 카타니 S-OIL 최고경영자(CEO)는 임원과 부장급 이상 직원 올해 신입사원 등 200여 명과 함께 청계산 이수봉에 올라 새해 덕담을 나누고 경영목표 달성을 위한 결의를 다졌다. &lt;br&gt; &lt;br&gt;알 카타니 CEO는 "&lt;span class="quot0"&gt;우리가 맞닥뜨리고 있는 불확실성은 비전 2025를 달성하고 아시아·태평양 지역에서 가장 경쟁력 있고 존경받는 에너지 화학 기업이 되기 위해 새로운 ‘성공 DNA’를 요구하고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;원팀(one team)이 돼 창의적인 사고로 기회를 최대한 활용하고 틀을 깨는 사고와 행동 협력으로 업무에 임하여 내재된 역량을 최대한 끌어내고 최선의 결과를 만들어내자&lt;/span&gt;"고 당부했다. &lt;br&gt; &lt;br&gt;S-OIL은 올해 ▲ IMO(국제해사기구)의 황 함량 규제 강화에 대응하기 위한 탈황설비 증설 등 시장변화에 대응하고 더 높은 성과를 내기 위해 최적화 지속 ▲ 원팀(one team)이 되어 석유화학사업 확장 2단계 투자 프로젝트를 성공적으로 추진 ▲ 4차 산업혁명시대에 선도적으로 대응하기 위해 확실한 디지털 전환 계획을 수립하여 추진 등 주요 목표 달성을 위해 전사적 노력을 쏟을 방침이다. &lt;br&gt; &lt;br&gt;박소연 기자 muse@asiae.co.kr
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg" alt="S-OIL 청계산 신년산행 ‥알 카타니 &amp;quot;성공 DNA 원팀&amp;quot; 강조" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+      &lt;div class="news-detail__content"&gt;
+        S-OIL 복지재단은 9일 설을 앞두고 울산보훈지청에 20㎏ 쌀 150포를 전달했다. 울산보훈지청은 이날 지원받은 백미를 저소득 보훈가족 및 복권기금 후원 재가복지대상자에게 전달할 예정이다.
+      &lt;/div&gt;
+    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg" alt="S-OIL 복지재단 울산보훈지청에 사랑의 쌀 전달" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
           &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg" alt="LG전자 필리핀 화산 피해 주민 위한 ‘무료세탁방’ 운영" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
           &lt;/div&gt;
-        LG전자가 지난달 필리핀 마닐라 근처 탈(Taal) 화산 폭발로 피해를 입은 주민을 위해 봉사활동에 나섰다고 2일 밝혔다. &lt;br&gt; &lt;br&gt;LG전자 필리핀법인은 최근 탈 화산 인근 지역에 마련된 주요 대피소 세 곳을 방문해 무료세탁방을 운영하고 의료서비스를 제공했다. LG전자는 피해를 입은 가전제품을 무상으로 수리해 주는 등 이재민을 위한 다양한 활동도 진행할 계획이다. &lt;br&gt; &lt;br&gt;김성훈 기자 hunhun@kmib.co.kr
+        S-OIL(대표 후세인 알 카타니)이 울산·동대구 KTX역과 서울 코엑스에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt;&lt;br&gt;연말·연시를 맞아 유동인구가 많은 곳에 구도일패밀리 트리를 설치해 가족 단위 방문객들에게 특별한 볼거리와 새해 희망을 전한다. &lt;br&gt;&lt;br&gt;S-OIL은 코레일과 함께 새해 1월 10일까지 울산·동대구 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 특히 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증 이벤트'가 내년 1월 9일까지 진행된다. &lt;br&gt;&lt;br&gt;또 코엑스 윈터페스티벌(12.20~12.31)과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. &lt;br&gt;&lt;br&gt;코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소에는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 있어 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 '으라차차 댄스 이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt;&lt;br&gt;S-OIL 관계자는 "&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;"고 밝혔다.
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg" alt="S-OIL 지난해 영업이익 전년보다 30% 감소" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg" alt="S-OIL 희망충전소·구도일 트리로 새해 희망 전달" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500901/2019/12/25/01500901.20191225224151002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
           &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01101001/2020/01/31/01101001.20200131140852001.01.jpg" alt="S-OIL 지난해 영업이익 전년보다 30% 감소" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
           &lt;/div&gt;
-        에쓰오일(S-OIL)은 2019년 한해 영업이익을 4492억원 냈다고 31일 공시했다. 2018년 영업이익 6395억원보다 29.8% 줄었다. 매출은 지난해 25조4663억원보다 4.2% 감소한 24조3942억원이다. 전체 매출의 78.2%를 차지하는 정유사업의 침체가 전체 매출과 영업이익 감소에 영향을 미쳤다. 사업부문 별 영업이익은 석유화학 2550억원 윤활기유 2195억원이나 정유 부문에서 253억원의 영업적자가 났다. &lt;br&gt;&lt;br&gt;지난해 4분기 매출은 전분기보다 3.9% 늘어난 6조4762억원이다. 영업이익은 정제마진 하락으로 전분기보다 1921억원 감소한 386억원이었으나 유가 안정화 영향으로 3335억원 영업적자를 냈던 2018년 4분기에 견줘서는 흑자로 전환했다. &lt;br&gt;&lt;br&gt;에쓰오일 쪽은 “지난해 정유 부문에서 중국의 신규 정유설비 가동에 따른 공급 증가와 아이엠오(IMO)2020 시행에 앞서 고유황유(HSFO) 가격 급락으로 정제마진이 줄어 적자 전환됐다”며 “올해는 IMO2020 시행과 미-중 무역분쟁 완화에 힘입은 수요 증가로 영업이익이 개선될 것으로 전망한다”고 밝혔다. &lt;br&gt;&lt;br&gt;김은형 기자 dmsgud
+        먼저 S-OIL은 코엑스윈 터페스티벌과 연계해 '좋은 기름으로 으라차차' S-OIL 희망충전소를 운영한다. 28일에는 '으라차차 댄스이벤트'가 열려 사이판 왕복항공권 주유상품권 캐릭터상품 등을 제공한다. &lt;br&gt;&lt;br&gt;또 코레일과 함께 새해 1월10일까지 동대구와 울산KTX역에서 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증이벤트'가 내년 1월9일까지 진행된다. 이형중기자lhj@ksilbo.co.kr
       &lt;/div&gt;
     &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg" alt="구도일 캐릭터 활용해 S-OIL 연말연시 이벤트" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
           &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/26/02100801.20200126110051001.01.jpg" alt="'취임 8개월 동안 9차례'…사회공헌 적극적인 알 카타니 S-OIL 사장" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
           &lt;/div&gt;
-        [아시아경제 황윤주 기자] 후세인 알 카타니 S-OIL(에쓰오일) 사장이 취임 후 사회공헌 활동에 직접 참여하는 사례가 많아 눈길을 끈다. 역대 에쓰오일 최고경영자(CEO) 가운데 가장 적극적으로 사회공헌에 나서고 있다는 평가가 나온다. &lt;br&gt; &lt;br&gt;26일 업계에 따르면 알 카타니 사장은 지난해 6월 취임 후 9번에 걸쳐 사회공헌 활동에 참여했다. 평균 한 달에 한 번 꼴이다. &lt;br&gt; &lt;br&gt;그가 지금까지 직접 참여한 사회공헌 활동은 ▲푸드트럭 ▲보육원 청소년 홀로서기 ▲순직소방관 자녀 장학금 전달 ▲추석맞이 사랑의 송편나눔 ▲사랑의 연탄나누기 ▲올해의 시민영웅시상 ▲영웅소방관 시상 ▲이웃돕기 성금 기부 ▲사랑의 떡국나눔 등이다. &lt;br&gt; &lt;br&gt;알 카타니 사장이 사회공헌 활동에 유독 적극적인 이유는 에쓰소일의 경영 철학과 결을 같이 한다. 에쓰오일은 가장 성공한 기업이 아닌 가장 존경받는 기업을 슬로건으로 삼고 있다. 알 카타니 사장도 평소 윤리경영과 사회적 책임을 다하는 '좋은 기업'이 될 것을 강조하는 것으로 유명하다. &lt;br&gt; &lt;br&gt;에쓰오일의 사회공헌 특징 중 하나는 지역사회 지원을 중요하게 생각한다는 점이다. 에쓰오일 사업장이 위치한 울산광역시와 사옥이 있는 서울 마포·마곡 등에서 문화예술과 나눔 캠페인을 펼치고 있다. 또 S-OIL울산복지재단 운영하는 등 다양한 지역사회 지원 활동도 추진 중이다. &lt;br&gt; &lt;br&gt;에쓰오일 관계자는 "&lt;span class="quot0"&gt;기업문화가 사회공헌을 중요하게 생각하기 때문에 모든 CEO들이 사회공헌을 중요하게 생각했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;내부 문화와 별도로 알 카타니 사장은 사회공헌 활동에 강한 의지를 갖고 있어 전임자보다 적극적으로 참여하고 있다&lt;/span&gt;"고 설명했다. &lt;br&gt; &lt;br&gt;황윤주 기자 hyj@asiae.co.kr
+        [헤럴드경제(울산)=이경길 기자] S-OIL(대표 후세인 알 카타니)이 서울 코엑스와 동대구·울산 KTX역에서 구도일 캐릭터를 활용한 이색 콘텐츠를 공개하고 다양한 체험 이벤트를 진행한다. &lt;br&gt; &lt;br&gt; S-OIL은 24일 코엑스 윈터페스티벌(12.20~12.31)과 연계해 ‘좋은 기름으로 으라차차’ S-OIL 희망충전소를 운영한다고 밝혔다. &lt;br&gt; &lt;br&gt; 코엑스 동문 로비에 80평 규모로 꾸며진 S-OIL 희망충전소는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 설치돼 마치 구도일패밀리 마을에 온 듯한 느낌을 준다. &lt;br&gt; &lt;br&gt; 뉴트로 컨셉으로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 다양한 공연이 펼쳐진다. 특히 28일에는 ‘으라차차 댄스 이벤트’가 열려 사이판 왕복항공권 주유상품권 캐릭터 상품 등을 제공한다. &lt;br&gt; &lt;br&gt; 또한 코레일과 함께 새해 1월10일까지 동대구·울산 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치해 이용승객들의 눈길을 사로잡는다. 동대구역에서는 티웨이 왕복항공권 캐릭터상품 등을 제공하는 ‘구도일패밀리 트리 SNS 인증 이벤트’가 내년 1월 9일까지 진행된다. &lt;br&gt; &lt;br&gt; S-OIL 관계자는 “&lt;span class="quot0"&gt;S-OIL 희망충전소와 구도일패밀리 트리가 가족 연인 친구 등 많은 방문객들에게 즐거운 추억을 제공하고 새해 희망을 전하는 메신저가 되기를 희망한다&lt;/span&gt;”고 밝혔다. &lt;br&gt; &lt;br&gt; hmdlee@heraldcorp.com
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg" alt="S-OIL 희망충전소 운영 다양한 체험 이벤트 진행" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100701/2019/12/24/02100701.20191224120226001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500301/2019/12/25/01500301.20191225212451001.01.jpg</t>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100201/2020/02/02/01100201.20200202164547001.01.jpg</t>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/22/01500901.20200122223622002.01.jpg" alt="S-OIL 설맞이 건강떡국 나눔행사 실시" class="img-responsive"&gt;
-          &lt;/div&gt;
-        S-OIL 울산공장 임원들은 22일 울산시제2장애인체육관(관장 차현태)을 찾아 건강을 기원하고 따뜻한 정을 나누는 설맞이 떡국 나눔 봉사활동을 펼쳤다. &lt;br&gt;&lt;br&gt;이날 행사는 S-OIL 울산공장 임원들이 참석한 가운데 장애인 300여명에게 떡국을 나눠주고 생활용품 선물을 전달했다. 지난 2016년부터 꾸준히 이어져 온 S-OIL의 떡국 나눔 행사가 제2장애인체육관에서 설날이 되면 제일 기다리는 행사로 자리매김했다. &lt;br&gt;&lt;br&gt;S-OIL 이민호 부사장은 "&lt;span class="quot0"&gt;경자년 설날을 맞이해 재활을 위해 애쓰고 있는 분들에게 따뜻한 떡국 한 그릇을 대접할 수 있어 기쁜 마음으로 봉사활동에 참여했다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;어르신들이 맛있게 드시는 모습을 보니 보람을 느끼며 앞으로도 지속적으로 사회공헌활동을 펼쳐 지역사회와 공존하고 함께 발전하는 S-OIL이 되겠다&lt;/span&gt;"고 밝혔다. &lt;br&gt;&lt;br&gt;한편 S-OIL은 지난 2007년 S-OIL 사회봉사단을 발족하여 울산지역 내 소외 받는 이웃들을 위해 백미 전달 김장나누기뿐만 아니라 사회복지시설과 일대일로 연계해 다양한 봉사 활동을 활발히 펼치고 있다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg" alt="S-OIL 청계산 신년산행 ‥알 카타니 &amp;quot;성공 DNA 원팀&amp;quot; 강조" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/01/12/02100801.20200112105221001.01.jpg" alt="S-OIL 청계산 신년산행 ‥알 카타니 &amp;quot;성공 DNA 원팀&amp;quot; 강조" class="img-responsive"&gt;
-          &lt;/div&gt;
-        [아시아경제 박소연 기자] S-OIL은 11일 서울 청계산에서 임직원 신년산행 행사를 갖고 힘찬 새해 각오를 다졌다. &lt;br&gt; &lt;br&gt;후세인 알 카타니 S-OIL 최고경영자(CEO)는 임원과 부장급 이상 직원 올해 신입사원 등 200여 명과 함께 청계산 이수봉에 올라 새해 덕담을 나누고 경영목표 달성을 위한 결의를 다졌다. &lt;br&gt; &lt;br&gt;알 카타니 CEO는 "&lt;span class="quot0"&gt;우리가 맞닥뜨리고 있는 불확실성은 비전 2025를 달성하고 아시아·태평양 지역에서 가장 경쟁력 있고 존경받는 에너지 화학 기업이 되기 위해 새로운 ‘성공 DNA’를 요구하고 있다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;원팀(one team)이 돼 창의적인 사고로 기회를 최대한 활용하고 틀을 깨는 사고와 행동 협력으로 업무에 임하여 내재된 역량을 최대한 끌어내고 최선의 결과를 만들어내자&lt;/span&gt;"고 당부했다. &lt;br&gt; &lt;br&gt;S-OIL은 올해 ▲ IMO(국제해사기구)의 황 함량 규제 강화에 대응하기 위한 탈황설비 증설 등 시장변화에 대응하고 더 높은 성과를 내기 위해 최적화 지속 ▲ 원팀(one team)이 되어 석유화학사업 확장 2단계 투자 프로젝트를 성공적으로 추진 ▲ 4차 산업혁명시대에 선도적으로 대응하기 위해 확실한 디지털 전환 계획을 수립하여 추진 등 주요 목표 달성을 위해 전사적 노력을 쏟을 방침이다. &lt;br&gt; &lt;br&gt;박소연 기자 muse@asiae.co.kr
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg" alt="S-OIL 복지재단 울산보훈지청에 사랑의 쌀 전달" class="img-responsive"&gt;
-          &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/01500901/2020/01/09/01500901.20200109223756003.01.jpg" alt="S-OIL 복지재단 울산보훈지청에 사랑의 쌀 전달" class="img-responsive"&gt;
-          &lt;/div&gt;
-        S-OIL 복지재단은 9일 설을 앞두고 울산보훈지청에 20㎏ 쌀 150포를 전달했다. 울산보훈지청은 이날 지원받은 백미를 저소득 보훈가족 및 복권기금 후원 재가복지대상자에게 전달할 예정이다.
-      &lt;/div&gt;
-    &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div class="modal-body"&gt;
-      &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg" alt="S-OIL &amp;quot;코엑스·KTX역에서 희망을 `주유`하세요&amp;quot;" class="img-responsive"&gt;
-          &lt;/div&gt;
         서울 코엑스와 동대구·울산 KTX역에 연말연시를 맞아 희망 메시지를 전달하는 '희망 충전소'가 들어선다.&lt;br&gt;S-OIL(대표 후세인 알 카타니)은 연말연시 유동인구가 많은 곳에서 구도일 캐릭터를 활용해 희망 메시지를 전달하는 이벤트를 진행한다고 24일 밝혔다.&lt;br&gt;S-OIL은 코엑스 윈터페스티벌과 연계해 이달 말까지 '좋은 기름으로 으라차차' 희망충전소를 운영한다. &lt;br&gt;코엑스 동문 로비에 80평 규모로 꾸며진 희망충전소에는 주유소 형태의 공연 무대 주유기 모양의 포토존 구도일 대형 인형과 조형물 트리 등이 들어섰다.&lt;br&gt;뉴트로 콘셉트로 꾸며진 무대에서는 콘서트 토크쇼 연주 등 공연이 펼쳐진다. 오는 28일에는 '으라차차 댄스 이벤트'가 열린다. 경품은 사이판 왕복항공권 주유상품권 캐릭터 상품 등이다.&lt;br&gt;S-OIL은 코레일과 함께 내년 1월10일까지 동대구·울산 KTX역에서 희망메시지를 전하는 구도일패밀리 트리를 설치한다. 동대구역에서는 내년 1월9일까지 티웨이 왕복항공권 캐릭터상품 등을 제공하는 '구도일패밀리 트리 SNS 인증 이벤트'를 진행한다.&lt;br&gt;[디지털뉴스국 최기성 기자]
       &lt;/div&gt;
     &lt;/div&gt;</t>
@@ -3231,56 +3005,101 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg" alt="S-OIL 해양경찰 영웅 시상식 개최" class="img-responsive"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg" alt="S-OIL &amp;quot;코엑스·KTX역에서 희망을 `주유`하세요&amp;quot;" class="img-responsive"&gt;
           &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100101/2019/12/24/02100101.20191224101956002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
       &lt;div class="news-detail__content"&gt;
-          &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg" alt="S-OIL 해양경찰 영웅 시상식 개최" class="img-responsive"&gt;
-          &lt;/div&gt;
         23일 진행된 시상식에서 S-OIL 류열 사장(왼쪽 첫번째)과 조현배 해양경찰청장(왼쪽 두번째) 서상목 한국사회복지협의회장(오른쪽 첫번째) 등이 기념촬영을 하고 있다. S-OIL 제공 &lt;br&gt; &lt;br&gt; &lt;br&gt; S-OIL은 한국사회복지협의회와 함께 인천 송도 해양경찰청 대강당에서 '2019년 해양경찰 영웅 시상식'을 개최했다고 23일 밝혔다.&lt;br&gt; &lt;br&gt;&lt;br&gt; &lt;br&gt;이날 시상식에서는 우수 해양경찰관 6명이 상패와 상금 7000만원을 수여했다. 포항해양경찰서 이성희 경위(46)에게 상패와 상금 2000만원 부산해양경찰서 천상용 경위(46) 등 영웅 해양경찰 5명에게 상패와 상금 1000만원이 주어졌다.&lt;br&gt; &lt;br&gt;&lt;br&gt; &lt;br&gt;최고영웅 해양경찰으로 선정된 이 경위는 지난 4월 포항 신항방파제 인근 해상에서 표류 중인 레저보트 승선원 2명을 구조했다. 7월에는 영일대해수욕장 전망대 앞 해상에 항해 중이던 모터보트가 침수되는 상황에서 승선원 9명의 목숨을 구했다.&lt;br&gt; &lt;br&gt;&lt;br&gt; &lt;br&gt;&lt;br&gt;happyny777@fnnews.com 김은진 기자
       &lt;/div&gt;
     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+            &lt;img src="https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg" alt="S-OIL 해양경찰 영웅 시상식 개최" class="img-responsive"&gt;
+          &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/02100501/2019/12/24/02100501.20191224184942001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+            &lt;div class="news-detail__content"&gt;
+                현대자동차에 와이어링(전선 제품) 부품을 공급하는 유라코프레이션 중국 공장이 '신종 코로나바이러스 감염증'(신종코로나) 사망자 발생으로 가동이 중단되면서 이르면 4일 오후부터 현대차 울산공장 일부가 가동 중단에 들어갈 것으로 전망된다. &lt;br&gt;&lt;br&gt;현대차 노사는 3일 오후 울산공장 회의실에서 신종코로나 사태와 관련 2차 실무협의를 갖고 부품 공급 중단에 따른 휴업 여부에 대해 논의를 했으나 일부 제반사항에 대해 노사간 이견을 보이면서 결론을 내리는데 실패했다. &lt;br&gt;&lt;br&gt;노조 관계자는 "&lt;span class="quot0"&gt;노사가 휴업을 한다는 것에 대해서는 큰 틀에서 동의를 했다&lt;/span&gt;"면서 "&lt;span class="quot0"&gt;다만 휴업 일정, 기간, 사업부별 조건 등 세부적인 사항에 대해 이견이 있어 4일 오전 10시 운영위원회 간담회를 열어 최종 결정할 방침이다&lt;/span&gt;"고 밝혔다. &lt;br&gt;&lt;br&gt;현대차는 이미 기존 재고가 모두 소진되고 있는데다 해당 부품을 생산할 수 있는 다른 공급처 확보까지 늦어져 생산라인을 중단할 수밖에 없는 상황으로 전해졌다. 이르면 4일 오후 출근조(오후 3시30분)부터 부품 부족 상황을 맞은 일부 공장이 휴업할 가능성도 있다. 팰리세이드, 제네시스, 그랜저 등 인기 차종 생산공장이 우선 휴업할 가능성이 크다. &lt;br&gt;&lt;br&gt;현대차 노조는 앞서 이날 성명서를 내고 "와이어링을 생산하는 중국공장에서 사망자가 발생해 생산이 중단되면서 국내공장 생산까지 멈춰야 하는 초유의 사태가 발생했다"며 "사태 해결과 생산성 확보를 위해 적극 협조하겠다"고 밝혔다. &lt;br&gt;&lt;br&gt;이어 "이번 생산 타격은 완성차뿐만 아니라 부품 협력사를 포함한 모든 사업장에 적용돼 우리나라 경제에 악영향으로 작용할 것"이라며 "회사는 생산 재가동을 위한 장기적인 계획을 시급히 강구해야 한다"고 강조했다. &lt;br&gt;&lt;br&gt;노조는 그러면서 "이번 사태는 회사의 해외공장 확대와 해외생산 제일주의가 빚은 참극"이라며 "핵심부품 내부조달과 해외공장 유턴 전략을 통해 상시 위기 대응망을 구축해야 한다"고 주문했다. &lt;br&gt;&lt;br&gt;하언태 현대차 사장도 이날 담화문을 내고 "&lt;span class="quot1"&gt;중국산 부품 공급 차질로 인한 전사적 위기의식을 바탕으로 현 사태를 함께 이겨나가자&lt;/span&gt;"고 독려했다. 하 사장은 "&lt;span class="quot1"&gt;재고 수량에 차이가 있어 휴업 시기와 방식은 공장ㆍ라인별로 차이가 있을 수 있다&lt;/span&gt;"며 "&lt;span class="quot1"&gt;비상사태와 불확실성이 이어지면서 생산 운영계획을 당장 명확하게 밝히지 못하는 부분을 양해해 달라&lt;/span&gt;"고 밝혔다. 차형석기자 stevecha@ksilbo.co.kr
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg" alt="신종코로나 비상, 현대자동차 울산공장 이르면 4일부터 일부 휴업" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+            &lt;div class="news-detail__content"&gt;
+                현대차는 지난달 22일 사우디아라비아 킹 칼리드 국제공항에서 현지 최대 운수기업 중 하나인 '알 사프와'에 신형 쏘나타 1000대를 공항택시로 공급하는 계약을 체결했다고 3일 밝혔다. 현대차는 계약 당일 100대를 알 사프와에 인도했으며 나머지 900대는 연내 공급할 계획이다. &lt;br&gt;&lt;br&gt;사우디아라비아 정부는 교통 체계를 개편하면서 택시의 경우 총 운행기간 5년 이내 차량만 사용하도록 제한하고 최첨단 결제·통역·스크린 장착 의무화, 외장 색상 초록색 통일 등 조치를 했다. 현대차는 이번 계약이 사우디아라비아의 신규 택시 정책 발표 이후 완성차 업체로서는 처음 변경된 규정에 맞는 택시를 공급했다는 점에서 의미가 있다고 평가했다. &lt;br&gt;&lt;br&gt;현대차는 지난해 사우디아라비아에서 쏘나타, 코나, 싼타페 등 총 12만5625대의 차량을 판매해 시장점유율 23.4%로 탄탄한 입지를 다지고 있다. 특히 쏘나타는 지난해 현지 중형 세단 차급에서 시장점유율 25%를 차지했다. 이형중기자
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg" alt="신형 쏘나타, 사우디 공항 누빈다....현대자동차, 공항택시 1000대 공급 계약" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="modal-body"&gt;
+            &lt;div class="news-detail__content"&gt;
+                지난달 현대자동차 국내외 판매가 전년대비 3.6% 줄었다. 설 연휴 영향으로 국내 판매가 감소한 영향이 컸다. &lt;br&gt;&lt;br&gt;현대차는 1월 국내 4만7591대, 해외에서 25만6485대 등 전 세계 시장에서 총 30만4076대를 판매, 작년 같은 달보다 3.6% 줄었다고 발표했다. 지난해 같은기간과 비교해 국내판매는 21.3% 감소했고, 해외 판매는 0.6% 증가한 수치다. &lt;br&gt;&lt;br&gt;국내에서 세단은 1만8691대, 레저용차량(RV)은 1만3769대 팔렸다. 세단 중에 그랜저(하이브리드 모델 2467대 포함)가 9350대 팔리며 국내 판매를 이끌었으며, 쏘나타(하이브리드 모델 1012대 포함) 6423대, 아반떼 2638대 등이다. &lt;br&gt;&lt;br&gt;스포츠유틸리티차(SUV)는 팰리세이드 5173대, 싼타페 3204대, 코나 1835대 순이다. &lt;br&gt;&lt;br&gt;하이브리드차 판매가 4069대로 작년 동월대비 43.5% 뛰었다. &lt;br&gt;&lt;br&gt;제네시스는 3000대 팔렸다. 지난달 15일 출시된 제네시스 첫 SUV 모델 GV80은 근무일 기준 10일 만에 누적 계약이 2만대에 육박했다. 올해 목표는 2만4000대다. &lt;br&gt;&lt;br&gt;상용차는 그랜드 스타렉스와 포터를 합한 소형 상용차가 1만128대, 중대형 버스와 트럭을 합한 대형상용차는 2003대 판매됐다. &lt;br&gt;&lt;br&gt;해외시장에선 북미와 중남미, 아시아·중동 시장 등에서 판매가 호조를 보였다. &lt;br&gt;&lt;br&gt;현대차는 "&lt;span class="quot0"&gt;GV80와 팰리세이드 판매에 전사적인 역량을 집중하겠다&lt;/span&gt;"며 "&lt;span class="quot0"&gt;해외에선 권역별 책임 경영을 바탕으로 고객 지향적 의사결정을 내려서 실적을 회복할 계획&lt;/span&gt;"이라고 말했다. &lt;br&gt;&lt;br&gt;이형중기자 leehj@ksilbo.co.kr
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
                     &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215930001.01.jpg" alt="신종코로나 비상, 현대자동차 울산공장 이르면 4일부터 일부 휴업" class="img-responsive"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
                     &lt;/div&gt;
-                현대자동차에 와이어링(전선 제품) 부품을 공급하는 유라코프레이션 중국 공장이 '신종 코로나바이러스 감염증'(신종코로나) 사망자 발생으로 가동이 중단되면서 이르면 4일 오후부터 현대차 울산공장 일부가 가동 중단에 들어갈 것으로 전망된다. &lt;br&gt;&lt;br&gt;현대차 노사는 3일 오후 울산공장 회의실에서 신종코로나 사태와 관련 2차 실무협의를 갖고 부품 공급 중단에 따른 휴업 여부에 대해 논의를 했으나 일부 제반사항에 대해 노사간 이견을 보이면서 결론을 내리는데 실패했다. &lt;br&gt;&lt;br&gt;노조 관계자는 "&lt;span class="quot0"&gt;노사가 휴업을 한다는 것에 대해서는 큰 틀에서 동의를 했다&lt;/span&gt;"면서 "&lt;span class="quot0"&gt;다만 휴업 일정, 기간, 사업부별 조건 등 세부적인 사항에 대해 이견이 있어 4일 오전 10시 운영위원회 간담회를 열어 최종 결정할 방침이다&lt;/span&gt;"고 밝혔다. &lt;br&gt;&lt;br&gt;현대차는 이미 기존 재고가 모두 소진되고 있는데다 해당 부품을 생산할 수 있는 다른 공급처 확보까지 늦어져 생산라인을 중단할 수밖에 없는 상황으로 전해졌다. 이르면 4일 오후 출근조(오후 3시30분)부터 부품 부족 상황을 맞은 일부 공장이 휴업할 가능성도 있다. 팰리세이드, 제네시스, 그랜저 등 인기 차종 생산공장이 우선 휴업할 가능성이 크다. &lt;br&gt;&lt;br&gt;현대차 노조는 앞서 이날 성명서를 내고 "와이어링을 생산하는 중국공장에서 사망자가 발생해 생산이 중단되면서 국내공장 생산까지 멈춰야 하는 초유의 사태가 발생했다"며 "사태 해결과 생산성 확보를 위해 적극 협조하겠다"고 밝혔다. &lt;br&gt;&lt;br&gt;이어 "이번 생산 타격은 완성차뿐만 아니라 부품 협력사를 포함한 모든 사업장에 적용돼 우리나라 경제에 악영향으로 작용할 것"이라며 "회사는 생산 재가동을 위한 장기적인 계획을 시급히 강구해야 한다"고 강조했다. &lt;br&gt;&lt;br&gt;노조는 그러면서 "이번 사태는 회사의 해외공장 확대와 해외생산 제일주의가 빚은 참극"이라며 "핵심부품 내부조달과 해외공장 유턴 전략을 통해 상시 위기 대응망을 구축해야 한다"고 주문했다. &lt;br&gt;&lt;br&gt;하언태 현대차 사장도 이날 담화문을 내고 "&lt;span class="quot1"&gt;중국산 부품 공급 차질로 인한 전사적 위기의식을 바탕으로 현 사태를 함께 이겨나가자&lt;/span&gt;"고 독려했다. 하 사장은 "&lt;span class="quot1"&gt;재고 수량에 차이가 있어 휴업 시기와 방식은 공장ㆍ라인별로 차이가 있을 수 있다&lt;/span&gt;"며 "&lt;span class="quot1"&gt;비상사태와 불확실성이 이어지면서 생산 운영계획을 당장 명확하게 밝히지 못하는 부분을 양해해 달라&lt;/span&gt;"고 밝혔다. 차형석기자 stevecha@ksilbo.co.kr
+                [아시아경제 성기호 기자] 현대자동차가 중동 지역 최대 자동차 시장인 사우디아라비아에 신형 쏘나타(DN8)를 공항 택시로 공급한다. 이로써 현대차의 중동 시장내 입지가 한층 강화될 전망이다. &lt;br&gt; &lt;br&gt;현대차는 사우디아라비아 최대 운수기업 중 하나인 알 사프와사와 신형 쏘나타 1000대를 공항 택시로 공급하는 계약을 체결했다고 3일 밝혔다. &lt;br&gt; &lt;br&gt;현대차는 지난달 22일 킹 칼리드 국제공항에서 사우디아라비아 교통부 장관인 살레 빈 나세르 알자세르 등이 참석한 가운데 신형 쏘나타 100대를 알 사프와사에 인도했으며 연내 나머지 900대를 공급할 예정이다. &lt;br&gt; &lt;br&gt;이번 수주는 사우디아라비아 운행 택시에 대한 신규 정책이 발표된 이후 현대차가 완성차 업체 최초로 변경된 규정에 부합하는 택시를 공급했다는 점에서 더욱 의미가 있다. &lt;br&gt; &lt;br&gt;현대차는 지난해 사우디아라비아에서 쏘나타, 코나, 싼타페 등 총 12만 5625대의 차량을 판매해 시장점유율 23.4%를 기록하며 시장 내 굳건한 입지를 확보했다. &lt;br&gt; &lt;br&gt;이번에 공항 택시로 공급되는 신형 쏘나타는 지난해 12월 10일(현지시각) 제다에 열린 ‘제41회 사우디 국제 모터쇼(SIMS)’에서 사우디아라비아 자동차 기자협회가 선정한 '2020 세단 부문 최고의 차'로 꼽히며 우수한 상품성과 디자인 경쟁력을 인정받았다. &lt;br&gt; &lt;br&gt;현대차는 이번 수주 계약을 기점으로 중동 지역에서 판매를 확대하고 브랜드 인지도 향상을 적극적으로 꾀한다는 방침이다. &lt;br&gt; &lt;br&gt;현대차 관계자는 “&lt;span class="quot0"&gt;사우디아라비아에 신형 쏘나타를 대량 수주함으로써 사우디아라비아를 찾는 글로벌 고객들을 공항에서부터 만나고 현대자동차의 뛰어난 상품성을 알릴 수 있게 돼 기쁘다&lt;/span&gt;”라며 “&lt;span class="quot0"&gt;향후에도 사우디아라비아 교통 정책 변화에 선제적으로 대응해 중동 시장에서 더욱 신뢰받는 기업으로 거듭나겠다&lt;/span&gt;”라고 밝혔다. &lt;br&gt; &lt;br&gt;성기호 기자 kihoyeyo@asiae.co.kr
             &lt;/div&gt;
         &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg" alt="신형 쏘나타, 사우디 공항 누빈다....현대자동차, 공항택시 1000대 공급 계약" class="img-responsive"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg" alt="현대자동차, 사우디아라비아에 신형 쏘나타 공항 택시 1000대 공급" class="img-responsive"&gt;
                     &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="modal-body"&gt;
-            &lt;div class="news-detail__content"&gt;
-                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01500301/2020/02/03/01500301.20200203215914001.01.jpg" alt="신형 쏘나타, 사우디 공항 누빈다....현대자동차, 공항택시 1000대 공급 계약" class="img-responsive"&gt;
-                    &lt;/div&gt;
-                현대차는 지난달 22일 사우디아라비아 킹 칼리드 국제공항에서 현지 최대 운수기업 중 하나인 '알 사프와'에 신형 쏘나타 1000대를 공항택시로 공급하는 계약을 체결했다고 3일 밝혔다. 현대차는 계약 당일 100대를 알 사프와에 인도했으며 나머지 900대는 연내 공급할 계획이다. &lt;br&gt;&lt;br&gt;사우디아라비아 정부는 교통 체계를 개편하면서 택시의 경우 총 운행기간 5년 이내 차량만 사용하도록 제한하고 최첨단 결제·통역·스크린 장착 의무화, 외장 색상 초록색 통일 등 조치를 했다. 현대차는 이번 계약이 사우디아라비아의 신규 택시 정책 발표 이후 완성차 업체로서는 처음 변경된 규정에 맞는 택시를 공급했다는 점에서 의미가 있다고 평가했다. &lt;br&gt;&lt;br&gt;현대차는 지난해 사우디아라비아에서 쏘나타, 코나, 싼타페 등 총 12만5625대의 차량을 판매해 시장점유율 23.4%로 탄탄한 입지를 다지고 있다. 특히 쏘나타는 지난해 현지 중형 세단 차급에서 시장점유율 25%를 차지했다. 이형중기자
-            &lt;/div&gt;
-        &lt;/div&gt;</t>
+    <t>https://www.bigkinds.or.kr/resources/images/02100801/2020/02/03/02100801.20200203085236002.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
      &lt;h5 style="font-size: 16px !important;"&gt;IF, 소비자 대상 사업도 과세 기본틀 합의&lt;/h5&gt;             
-                &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg" alt="삼성전자·현대자동차·아모레퍼시픽도 2~3년 뒤 ‘구글세’ 낸다" class="img-responsive"&gt;
-                    &lt;/div&gt;    
                 올 7월 적용 기준 발표… 연내 최종 확정 &lt;br&gt;반도체·원재료 판매·금융·운송업은 제외 &lt;br&gt;“국내 기업 세금 총량 자체는 늘지 않아도 &lt;br&gt;정부서 걷을 세금 줄어들 가능성 커져”구글을 비롯한 글로벌 인터넷 기업들을 겨냥한 ‘디지털세’(일명 구글세)의 적용 범위가 결국 가전·자동차·화장품과 같은 소비자 대상 사업으로 확대된다. 2~3년 뒤 시행되면 반도체 부문을 제외한 삼성전자와 현대자동차, 아모레퍼시픽 같은 대기업들은 국내뿐 아니라 디지털 마케팅 등을 하는 해당 국가에도 세금을 내야 한다. 지금은 고정 사업장들만 법인세를 내고 있다. 우리 정부 세수가 줄어들 가능성이 커졌다.&lt;br&gt;2일 기획재정부에 따르면 경제협력개발기구(OECD)가 주도하는 ‘다국적기업 조세 회피 방지를 위한 137개국 간 다자간협의체’(IF)는 지난달 30일(현지시간) 프랑스에서 디지털세 적용 대상에 소비자 대상 사업을 포함하는 기본 원칙에 합의했다. OECD는 오는 7월 적용 기준과 과세 방법에 대한 윤곽을 밝히고 연말까지 최종 방안을 마련할 계획이다. 정부는 규범화 작업을 고려하면 실제 부과까지 2~3년이 걸릴 것으로 예상했다.&lt;br&gt;현재 법인세는 기업의 고정 사업장이 있는 국가에서만 부과할 수 있다. 이에 따라 구글과 같은 디지털 기업의 경우 국내에서 애플리케이션 판매 수수료를 챙기더라도 세금 한 푼 내지 않았다. 이에 IF는 시장 소재국에 마케팅을 통해 매출을 올리는 글로벌 기업들을 대상으로 과세권을 주는 데 합의했다. 온라인 플랫폼(구글, 페이스북, 아마존 등), 콘텐츠 스트리밍(넷플릭스, 유튜브) 등 디지털서비스사업이 우선 적용 대상이다. 디지털세 부과 대상은 글로벌 총매출액 등을 토대로 확정되는 만큼 해외 매출이 크지 않은 국내 포털사업자(네이버, 카카오)의 경우 포함되지 않는다.&lt;br&gt;하지만 미국의 입김으로 가전과 자동차, 휴대전화, 컴퓨터, 옷, 화장품 등 소비자 대상 사업이 들어가면서 글로벌 매출 비중이 높은 삼성전자와 LG전자의 가전·모바일 부문, 현대자동차, 아모레퍼시픽 등은 포함된다. 다만 중간재·부품 판매업, 금융업 등은 예외로 둬 삼성전자 영업이익의 절반을 떠받치는 반도체 부문은 빠졌다.&lt;br&gt;정부는 국내 기업들이 디지털세 부과 대상에 포함돼도 세금 총량 자체가 늘어나지는 않을 것으로 보고 있다. 기재부 관계자는 “&lt;span class="quot0"&gt;우리나라에 낼 세금의 일부를 다른 나라에 내는 것이어서 기업들의 세 부담이 늘어날 가능성은 적다&lt;/span&gt;”며 “&lt;span class="quot0"&gt;소비자 대상 기업은 디지털서비스 기업보다 차등화된 기준이 적용되도록 해 영향을 최소화하도록 하겠다&lt;/span&gt;”고 말했다. 이어 “국내 대기업의 세수 유출뿐 아니라 외국 기업을 통한 국내 세수도 유입된다”고 덧붙였다.&lt;br&gt;하지만 지난해 OECD 공청회에 참석했던 한성수 변호사는 “&lt;span class="quot1"&gt;자국만 손해 볼 수 없다는 미국 주장이 관철돼 미국과 유럽이 소비자 대상 기업에 대한 디지털세 부과를 합의한 상황에서 우리 정부가 힘의 논리를 극복하고 차등화된 기준을 어느 정도로 관철할 수 있을지는 의문&lt;/span&gt;”이라고 지적했다. 홍기용 인천대 경영학과 교수는 “&lt;span class="quot2"&gt;수출 의존도가 높은 한국은 해외 디지털 기업으로부터 받을 세수보다 국내 대기업이 해당 국가에 내야 할 세금이 더 많아 결국 세수가 줄어들 가능성이 크다&lt;/span&gt;”고 밝혔다.&lt;br&gt;세종 하종훈 기자 artg@seoul.co.kr
             &lt;/div&gt;
         &lt;/div&gt;</t>
@@ -3288,31 +3107,59 @@
   </si>
   <si>
     <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg" alt="현대자동차, 상상이 현실로… 2025년까지 44종 전동화 차량 운영" class="img-responsive"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg" alt="삼성전자·현대자동차·아모레퍼시픽도 2~3년 뒤 ‘구글세’ 낸다" class="img-responsive"&gt;
                     &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/02/03/01100611.20200203051148002.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg" alt="신재원 현대자동차 부사장 “기술혁신이 초래한 '파괴'… 언론도 마찬가지&amp;quot;" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100701/2020/02/02/01100701.20200202155523001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
      &lt;h5 style="font-size: 16px !important;"&gt;수소차·연료전지시스템 판매도 본격화…운전자 개입 없는 수준 자율차 기술 선도&lt;/h5&gt;             
-                    &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg" alt="현대자동차, 상상이 현실로… 2025년까지 44종 전동화 차량 운영" class="img-responsive"&gt;
-                    &lt;/div&gt;
                 현대자동차그룹이 미래차 시장을 향한 희망을 쏘아 올렸다. 전기차 모델 확대, 수소산업 생태계 확장, 자율주행차 상용화, 모빌리티 사업 확대 등이 핵심이다.&lt;br&gt;정의선 현대차그룹 수석부회장은 “&lt;span class="quot0"&gt;기술과 네트워크의 발달로 상상 속 미래가 현실이 되고 있고, 자동차 산업에서도 변화가 가속화되고 있다&lt;/span&gt;”면서 “&lt;span class="quot0"&gt;2025년까지 11개의 전기차 전용 모델을 포함해 총 44개의 전동화 차량을 운영할 계획&lt;/span&gt;”이라고 밝혔다.&lt;br&gt;구체적으로는 하이브리드 13종, 플러그인 하이브리드 6종, 전기차 23종, 수소전기차 2종 등이다. 특히 내년에는 전기차 전용 모델을 출시한다. 이어 새로운 전기차 골격 개발체계를 도입해 2024년에 출시하는 차종부터 적용해 나갈 계획이다. 올해에는 기아차 쏘렌토, 현대차 투싼과 싼타페 등 주력 스포츠유틸리티차(SUV) 라인업에서 하이브리드와 플러그인 하이브리드 모델을 새롭게 선보인다.&lt;br&gt;현대차그룹은 전기차뿐만 아니라 수소차 개발에도 박차를 가한다. 정 수석부회장은 “&lt;span class="quot1"&gt;올해부터 수소 차량(넥쏘)뿐만 아니라 연료전지시스템 판매를 본격화하고, 관련 인프라 구축 사업 협력을 통해 수소 산업 생태계 확장을 주도해 나가겠다&lt;/span&gt;”고 밝혔다. 현대차그룹은 지난해 미국 커민스와 수소연료전지시스템 공급 협약을 체결했다. 앞으로는 자동차·선박·철도·지게차 등 운송분야와 전력 생산·저장 등 발전 분야에 수소연료전지 시스템을 직접 판매할 계획이다. 이와 동시에 국내에 연 50만대 규모의 수소전기차 생산체제를 구축한다는 목표도 세웠다.&lt;br&gt;자율주행 분야에서는 운전자의 개입 없이 운행할 수 있는 레벨 4·5 수준의 기술을 선도해 나갈 방침이다. 2022년까지 자율주행 플랫폼을 개발하고, 2023년 시범 운행을 거쳐 2024년 하반기에 본격 양산을 추진한다는 세부적인 계획도 마련했다. 아울러 현대차는 새해 초 미국에서 열린 ‘국제전자제품박람회(CES) 2020’에서 하늘을 나는 차량을 전시하며 미래 모빌리티 사업의 비전을 제시했다.&lt;br&gt;이영준 기자 the@seoul.co.kr
             &lt;/div&gt;
         &lt;/div&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg" alt="현대자동차, 상상이 현실로… 2025년까지 44종 전동화 차량 운영" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01100611/2020/01/30/01100611.20200130051201001.01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;div class="modal-body"&gt;
             &lt;div class="news-detail__content"&gt;
-                 &lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
-                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg" alt="현대자동차, 선행 기술 테스트카 'RM19' 컨셉 업데이트" class="img-responsive"&gt;
-                    &lt;/div&gt;   
                 현대자동차의 2019년 모터스포츠 활동은 성공적이었다.&lt;br&gt;&lt;br&gt;먼저 최근 몇 년 동안 우승의 코 앞에서 무너졌던 WRC에서는 호화스러운 드라이버 라인업을 바탕으로 2019 WRC의 제조사 부분의 우승을 차지했다.&lt;br&gt;&lt;br&gt;여기에 세계 최고의 투어링 카 레이스 대회인 'WTCR'에서도 정상급 드라이버들을 앞세워 좋은 활약을 펼치며 드라이버 포인트 부분의 우승을 가시권에 두고 있다.&lt;br&gt;&lt;br&gt;이런 상황에서 현대자동차가 모터스포츠 및 자동차 주행 관련 기술을 선행 테스트 배드로 사용하는 '선행 기술 테스트카' RM(Racing Midship) 컨셉을 최신 사양으로 업데이트했다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;이번에 공개된 현대 RM19 컨셉은 미국 LA에서 열린 2019 LA 오토쇼에서 공개되었으며 전통적인 레이싱 타입의 미드십 차량을 추구하는 RM 컨셉의 트렌드에 맞춰 개발됐다.&lt;br&gt;&lt;br&gt;외형적인 부분에서는 올 시즌 처음 공개되어 북미 모터스포츠 무대 등에 선보였던 '현대 벨로스터 N TCR 레이스카'와의 유사성을 갖고 있다. 차체의 실루엣 및 바디킷, 그리고 데칼 등에서 이러한 모습을 살펴볼 수 있다.&lt;br&gt;&lt;br&gt;물론 현대 RM19 컨셉은 벨로스터 N TCR 레이스카처럼 WTCR의 대회 기술 규정에 제한되지 않는 차량인 만큼 거대한 리어 디퓨저가 장착되어 있으며 미드십 엔진 구조로 인해 쿼터 글라스에 추가적인 에어 인테이크가 장착되어 있는 걸 확인할 수 있다.&lt;br&gt;&lt;br&gt;테스트카로 제작된 만큼 RM 19 컨셉의 실내 공간은 간결한 모습이다.&lt;br&gt;&lt;br&gt;벨로스터 고유의 인테리어 구성에 레이스 타입의 스티어링 휠과 이를 위한 컨트롤 패널 등이 더해진 것을 볼 수 있다. 이외에도 레이스 사양의 버킷 시트가 장착되어 있다.&lt;br&gt;&lt;br&gt;현대 RM19 컨셉의 보닛 아래에는 현대의 TCR 레이스카들과 같은 2.0L 터보 GDI 엔진을 탑재하고 추가적인 튜닝을 통해 최고 390마력의 성능을 연출한다. 이를 통해 정지 상태에서 단 4초 내에 시속 96km(60Mph)까지 가속할 수 있다.&lt;br&gt;&lt;br&gt;강력한 성능과 함께 뉘르부르크링 노르트슐라이페의 주행을 통해 다듬어진 레이스 사양의 서스펜션 및 브레이크 시스템을 갖춰 더욱 빼어난 주행 성능을 자랑한다.&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;&lt;br&gt;알버트 비어만(Albert Biermann) 현대자동차 연구개발본부장은 RM 19 컨셉에 대해 "&lt;span class="quot0"&gt;RM 플랫폼은 다양한 기술 개발을 위한 테스트배드로 이번의 RM 19 컨셉은 향후 데뷔할 새로운 N 모델들을 위한 '노하우 축적'의 역할을 이행한다&lt;/span&gt;"라고 설명했다.&lt;br&gt;&lt;br&gt;한국일보 모클팀 - 김학수 기자
             &lt;/div&gt;
         &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="text-center news-detail__image mt-2 mb-2"&gt;
+                        &lt;img src="https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg" alt="현대자동차, 선행 기술 테스트카 'RM19' 컨셉 업데이트" class="img-responsive"&gt;
+                    &lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bigkinds.or.kr/resources/images/01101101/2020/01/29/01101101.20200129050202001.01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3719,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T61" sqref="T61"/>
+    <sheetView tabSelected="1" topLeftCell="Q60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3733,7 +3580,6 @@
     <col min="6" max="6" width="72.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="15" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="255.69921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="84.59765625" customWidth="1"/>
     <col min="21" max="21" width="101.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3851,16 +3697,16 @@
         <v>10</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>749</v>
+        <v>668</v>
       </c>
       <c r="U2" t="s">
         <v>666</v>
       </c>
       <c r="V2" t="s">
-        <v>748</v>
+        <v>669</v>
       </c>
       <c r="AF2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -3912,13 +3758,13 @@
         <v>19</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>750</v>
+        <v>671</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>667</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -3974,13 +3820,13 @@
         <v>29</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>752</v>
+        <v>676</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>751</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4036,13 +3882,13 @@
         <v>35</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>754</v>
+        <v>679</v>
       </c>
       <c r="U5" s="14" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>753</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4098,13 +3944,13 @@
         <v>38</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>756</v>
+        <v>673</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>755</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4156,13 +4002,13 @@
         <v>45</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>758</v>
+        <v>682</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>757</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4214,13 +4060,13 @@
         <v>63</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>759</v>
+        <v>685</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4276,13 +4122,13 @@
         <v>70</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>761</v>
+        <v>688</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>760</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4338,13 +4184,13 @@
         <v>76</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>762</v>
+        <v>691</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4400,13 +4246,13 @@
         <v>84</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>763</v>
+        <v>694</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4458,13 +4304,13 @@
         <v>94</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>764</v>
+        <v>696</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4516,13 +4362,13 @@
         <v>97</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>765</v>
+        <v>699</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4578,13 +4424,13 @@
         <v>106</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4636,13 +4482,13 @@
         <v>109</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>767</v>
+        <v>705</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="409.6" x14ac:dyDescent="0.4">
@@ -4698,13 +4544,13 @@
         <v>117</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>769</v>
+        <v>708</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>768</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4758,13 +4604,13 @@
         <v>122</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>771</v>
+        <v>711</v>
       </c>
       <c r="U17" s="14" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>770</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4818,13 +4664,13 @@
         <v>127</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>773</v>
+        <v>714</v>
       </c>
       <c r="U18" s="14" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>772</v>
+        <v>715</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4878,13 +4724,13 @@
         <v>135</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>775</v>
+        <v>717</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>774</v>
+        <v>718</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -4938,13 +4784,13 @@
         <v>141</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>777</v>
+        <v>720</v>
       </c>
       <c r="U20" s="14" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>776</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5000,13 +4846,13 @@
         <v>147</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>779</v>
+        <v>723</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>778</v>
+        <v>724</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5058,13 +4904,13 @@
         <v>153</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>780</v>
+        <v>727</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5176,13 +5022,13 @@
         <v>163</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>782</v>
+        <v>729</v>
       </c>
       <c r="U24" s="14" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5234,13 +5080,13 @@
         <v>168</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
       <c r="U25" s="14" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>783</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5292,13 +5138,13 @@
         <v>177</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>786</v>
+        <v>735</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>698</v>
+        <v>737</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>785</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5354,13 +5200,13 @@
         <v>186</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>699</v>
+        <v>740</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>787</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5472,13 +5318,13 @@
         <v>195</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>789</v>
+        <v>741</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5532,13 +5378,13 @@
         <v>202</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>790</v>
+        <v>744</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>703</v>
+        <v>746</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>702</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5594,13 +5440,13 @@
         <v>209</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>792</v>
+        <v>747</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>704</v>
+        <v>749</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>791</v>
+        <v>748</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5703,13 +5549,13 @@
         <v>220</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>793</v>
+        <v>750</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>706</v>
+        <v>752</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>705</v>
+        <v>751</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5762,13 +5608,13 @@
         <v>225</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>795</v>
+        <v>753</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5821,13 +5667,13 @@
         <v>228</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>797</v>
+        <v>756</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>708</v>
+        <v>758</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>796</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5877,13 +5723,13 @@
         <v>235</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>799</v>
+        <v>759</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>798</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -5986,13 +5832,13 @@
         <v>244</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>801</v>
+        <v>762</v>
       </c>
       <c r="U38" s="13" t="s">
-        <v>710</v>
+        <v>764</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>800</v>
+        <v>763</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6042,13 +5888,13 @@
         <v>249</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>803</v>
+        <v>765</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>711</v>
+        <v>767</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6101,13 +5947,13 @@
         <v>254</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>805</v>
+        <v>768</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>712</v>
+        <v>770</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>804</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6157,13 +6003,13 @@
         <v>257</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="U41" t="s">
-        <v>730</v>
+        <v>797</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>713</v>
+        <v>772</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6219,13 +6065,13 @@
         <v>264</v>
       </c>
       <c r="T42" s="3" t="s">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="U42" s="14" t="s">
-        <v>714</v>
+        <v>775</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>807</v>
+        <v>774</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6277,13 +6123,13 @@
         <v>270</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>809</v>
+        <v>776</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>716</v>
+        <v>778</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>715</v>
+        <v>777</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6339,13 +6185,13 @@
         <v>278</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>718</v>
+        <v>781</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>717</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6397,13 +6243,13 @@
         <v>285</v>
       </c>
       <c r="T45" s="3" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>719</v>
+        <v>784</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6455,13 +6301,13 @@
         <v>290</v>
       </c>
       <c r="T46" s="3" t="s">
-        <v>814</v>
+        <v>785</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>720</v>
+        <v>787</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6517,13 +6363,13 @@
         <v>294</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>721</v>
+        <v>788</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>723</v>
+        <v>790</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>722</v>
+        <v>789</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6579,13 +6425,13 @@
         <v>298</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>724</v>
+        <v>791</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>729</v>
+        <v>796</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>725</v>
+        <v>792</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6641,13 +6487,13 @@
         <v>301</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>726</v>
+        <v>793</v>
       </c>
       <c r="U49" s="14" t="s">
-        <v>728</v>
+        <v>795</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>727</v>
+        <v>794</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6703,13 +6549,13 @@
         <v>307</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>815</v>
+        <v>798</v>
       </c>
       <c r="U50" s="14" t="s">
-        <v>732</v>
+        <v>800</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>731</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6761,13 +6607,13 @@
         <v>311</v>
       </c>
       <c r="T51" s="3" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="U51" s="14" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6820,13 +6666,13 @@
         <v>654</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>735</v>
+        <v>806</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>734</v>
+        <v>805</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6879,13 +6725,13 @@
         <v>579</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6938,7 +6784,7 @@
         <v>655</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -6988,13 +6834,13 @@
         <v>656</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>740</v>
+        <v>813</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>739</v>
+        <v>812</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -7047,13 +6893,13 @@
         <v>657</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>742</v>
+        <v>816</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>741</v>
+        <v>815</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -7103,10 +6949,10 @@
         <v>662</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>744</v>
+        <v>818</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>743</v>
+        <v>817</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -7159,13 +7005,13 @@
         <v>587</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>745</v>
+        <v>821</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
@@ -7212,13 +7058,13 @@
         <v>659</v>
       </c>
       <c r="T59" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="U59" s="13" t="s">
         <v>824</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>747</v>
-      </c>
       <c r="V59" s="2" t="s">
-        <v>746</v>
+        <v>823</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="409.6" x14ac:dyDescent="0.4">
